--- a/Note.xlsx
+++ b/Note.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tree" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="86">
   <si>
     <t xml:space="preserve">QUESTION</t>
   </si>
@@ -68,7 +68,7 @@
     <t xml:space="preserve">TOPIC:inorder iterate
 STEP:
 1.in constructor, while cur, search left
-2.next method, will return pop one, then also store new smallest(starting from right) do while loop search left again
+2.next method, return pop one, then also store new smallest(starting from right) do while loop search left again
 3.hasnext method, if nothing to pop from stack, so no right anymore, then done all tree</t>
   </si>
   <si>
@@ -113,6 +113,18 @@
 STEP:return recursion right away for left and right, other case return root</t>
   </si>
   <si>
+    <t xml:space="preserve">BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">938. Range Sum of BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:calculate sum when node in range                                                                        STEP:create self.sum var. preorder traversal helper(return void) for if in range, run preorder twice          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BST,sum</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reassign</t>
   </si>
   <si>
@@ -134,23 +146,7 @@
     <t xml:space="preserve">215. Kth Largest Element in an Array</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Abyssinica SIL"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">TOPIC:kth largest/smallest use minHEAP/maxHEAP                  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Abyssinica SIL"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">heappush(minheap,val) heappop(minheap) return minheap[0]</t>
-    </r>
+    <t xml:space="preserve">TOPIC:kth largest/smallest use minHEAP/maxHEAP                  heappush(minheap,val) heappop(minheap) return minheap[0]</t>
   </si>
   <si>
     <t xml:space="preserve">minheap</t>
@@ -191,7 +187,26 @@
     <t xml:space="preserve">Two pointer:center expand</t>
   </si>
   <si>
+    <t xml:space="preserve">1446. Consecutive Characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:return maximum length for consecutive duplicate characters. STEP:set flag</t>
+  </si>
+  <si>
     <t xml:space="preserve">Subsequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Array of strings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">443. String Compression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:string+count pointer, modify result in-place, need INDEX+POINTER
+STEP:create helper (→str)for prev section, triggered when != flagChar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pointer</t>
   </si>
   <si>
     <t xml:space="preserve">1D</t>
@@ -213,6 +228,23 @@
 2.check sum-k if in map, if yes, count += map.val; all cases, map.val+=1</t>
   </si>
   <si>
+    <t xml:space="preserve">15. 3Sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:AVOID DUPLICATE RESULT(compare neighbor while loop),SUM UP meet target(use sort)
+STEP:first: use if stat check neighbor. binary search check rest of them, use while stat check neighbor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">169. Majority Element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:Boyer-Moore VotingT:O(n);S:O(1) works for majority element appears more than half of whole array
+STEP:it is same candidate,count++;else check count ==0, change candidate or count--</t>
+  </si>
+  <si>
     <t xml:space="preserve">334. Increasing Triplet Subsequence</t>
   </si>
   <si>
@@ -221,16 +253,71 @@
 1.set n1, n2 both max, if see cur &lt; n1, update cur; else if cur &lt; n2, update cur; else return true</t>
   </si>
   <si>
+    <t xml:space="preserve">Sort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75. Sort Colors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">set variable:zero(-1),two(len),one(0), while one&lt;two</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intervals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56. Merge Intervals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:Intervals
+STEP:how to merge many intervals: first add interval(array of object), so can update later</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interval,set flag</t>
+  </si>
+  <si>
     <t xml:space="preserve">2D</t>
   </si>
   <si>
     <t xml:space="preserve">build</t>
   </si>
   <si>
+    <t xml:space="preserve">2. Add Two Numbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:build merged two linkedlist's val                                     STEP:build:dummy=ListNode(-1) return dummy.next</t>
+  </si>
+  <si>
     <t xml:space="preserve">check</t>
   </si>
   <si>
     <t xml:space="preserve">operation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82. Remove Duplicates from Sorted List II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:delete all duplicates
+STEP:
+1.head maybe duplicates, so need BUILD new linkedlist;dummy
+2.prev hold whole linkedlist, each time create new cur for track duplicate fpr while duplicate loop
+3.if prev.next!=cur(duplicates exist), prev.next=cur.next; if prev.next==cur:no duplicate, update prev, prev=cur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">147. Insertion Sort List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:Insertsort(sorted part + unsorted part)
+STEP:
+1.create variable:dummy,prev(head),cur(head),if find smaller, then go back while to find spot to swap !HOW LINK:link back first</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If head may change, create dummy;</t>
   </si>
 </sst>
 </file>
@@ -240,11 +327,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -286,17 +374,6 @@
       <name val="Abyssinica SIL"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Abyssinica SIL"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -365,7 +442,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -438,18 +515,6 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -470,7 +535,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -551,20 +624,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ44"/>
+  <dimension ref="A1:AMJ50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C:C"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="39.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="94.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.1"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="21.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="21.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="5.42"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="9" style="1" width="11.52"/>
   </cols>
@@ -616,7 +689,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="s">
         <v>12</v>
       </c>
@@ -666,36 +739,50 @@
       <c r="B16" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10" t="s">
+      <c r="C16" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10" t="s">
+    <row r="17" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10" t="s">
+      <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="10"/>
-    </row>
-    <row r="37" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="s">
+      <c r="C17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="3"/>
-    </row>
-    <row r="44" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B44" s="3"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="10"/>
+    </row>
+    <row r="43" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" s="3"/>
+    </row>
+    <row r="50" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -716,12 +803,12 @@
   <dimension ref="A1:AMJ4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="1" sqref="C:C A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="17" width="31.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="17" width="31.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="17" width="58.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="17" width="26.39"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="17" width="11.52"/>
@@ -754,43 +841,43 @@
       </c>
       <c r="AMJ1" s="9"/>
     </row>
-    <row r="2" s="19" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="AMJ2" s="20"/>
+    <row r="2" s="4" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="AMJ2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>32</v>
+      <c r="A3" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>35</v>
+      <c r="A4" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -803,10 +890,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ19"/>
+  <dimension ref="A1:AMJ29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
+      <selection pane="topLeft" activeCell="E24" activeCellId="1" sqref="C:C E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -841,48 +928,72 @@
       </c>
       <c r="AMJ1" s="9"/>
     </row>
-    <row r="2" s="20" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+    <row r="2" s="9" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>44</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -895,18 +1006,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ26"/>
+  <dimension ref="A1:AMJ42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C:C"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="24" width="90.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="25" width="18.89"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="25" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="21" width="90.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="18.89"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="22" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -935,44 +1046,94 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
-        <v>51</v>
+    <row r="24" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -985,18 +1146,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ23"/>
+  <dimension ref="A1:AMJ38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C:C"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="63.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="22" width="30.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="21" width="63.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="20.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="22" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="22" width="18.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="22" width="18.2"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="22" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1024,24 +1188,59 @@
       <c r="AMJ1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="26" t="s">
-        <v>52</v>
+      <c r="A2" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="26" t="s">
-        <v>53</v>
+      <c r="A14" s="23" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="26" t="s">
-        <v>54</v>
+      <c r="A23" s="23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -13,6 +13,7 @@
     <sheet name="String" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Array" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="LinkedList" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Design" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="109">
   <si>
     <t xml:space="preserve">QUESTION</t>
   </si>
@@ -59,7 +60,7 @@
     <t xml:space="preserve">TOPIC:level order traversal. q. inner array reverse</t>
   </si>
   <si>
-    <t xml:space="preserve">BFS</t>
+    <t xml:space="preserve">[BFS]</t>
   </si>
   <si>
     <t xml:space="preserve">173. Binary Search Tree Iterator</t>
@@ -81,7 +82,7 @@
 3.reassign cur = stack.pop() 4.cur = cur.right</t>
   </si>
   <si>
-    <t xml:space="preserve">stack, pointer</t>
+    <t xml:space="preserve">[STACK]</t>
   </si>
   <si>
     <t xml:space="preserve">Search</t>
@@ -149,7 +150,7 @@
     <t xml:space="preserve">TOPIC:kth largest/smallest use minHEAP/maxHEAP                  heappush(minheap,val) heappop(minheap) return minheap[0]</t>
   </si>
   <si>
-    <t xml:space="preserve">minheap</t>
+    <t xml:space="preserve">[MINHEAP]</t>
   </si>
   <si>
     <t xml:space="preserve">347. Top K Frequent Elements</t>
@@ -159,7 +160,7 @@
 STEP:heappush(minheap, (dic[key], key))</t>
   </si>
   <si>
-    <t xml:space="preserve">minheap;Counter map</t>
+    <t xml:space="preserve">[MINHEAP][HASHMAP-counter]</t>
   </si>
   <si>
     <t xml:space="preserve">Substring</t>
@@ -171,7 +172,7 @@
     <t xml:space="preserve">TOPIC:repeated substring count</t>
   </si>
   <si>
-    <t xml:space="preserve">Hashtable</t>
+    <t xml:space="preserve">[HASHMAP]</t>
   </si>
   <si>
     <t xml:space="preserve">5. Longest Palindromic Substring
@@ -184,7 +185,7 @@
 2.use ispalindrome(i,i) and isplandrome(i,i+1)</t>
   </si>
   <si>
-    <t xml:space="preserve">Two pointer:center expand</t>
+    <t xml:space="preserve">[TWO POINTER]center expand</t>
   </si>
   <si>
     <t xml:space="preserve">1446. Consecutive Characters</t>
@@ -206,7 +207,26 @@
 STEP:create helper (→str)for prev section, triggered when != flagChar</t>
   </si>
   <si>
-    <t xml:space="preserve">Pointer</t>
+    <t xml:space="preserve">[POINTER]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49. Group Anagrams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:hashmap store{sortedStr: groupitems},iterate map
+STEP:ATT!sort method only for array NOT string!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[HASHMAP]sort method works for array NOT string. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pattern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20. Valid Parentheses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:two next comparing Think stack</t>
   </si>
   <si>
     <t xml:space="preserve">1D</t>
@@ -235,6 +255,21 @@
 STEP:first: use if stat check neighbor. binary search check rest of them, use while stat check neighbor.</t>
   </si>
   <si>
+    <t xml:space="preserve">[SORT][BINARY SEARCH][TWO POINTER]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53. Maximum Subarray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:prefix sum DP
+STEP:
+1.dp(size:len(nums)) store cur subarray max sum(start _ to i)
+2.res get max dp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[DP]Number has positive and negative, NOT use sliding window</t>
+  </si>
+  <si>
     <t xml:space="preserve">Count</t>
   </si>
   <si>
@@ -275,9 +310,54 @@
     <t xml:space="preserve">interval,set flag</t>
   </si>
   <si>
+    <t xml:space="preserve">Guess Pattern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119. Pascal's Triangle II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:use O(rowIndex) space, mean upate original number in array of size which is rowIndexNumber
+STEP:
+          0 1 2 3 
+        1 1 1 0 0
+        2 1 2 1 
+        3 1 3 3 1
+        4 1 4 6 4 1
+want limit space, two space need N^2
+intial res array size rowIndex+1 with 0
+Layer:from right to left, accumulate</t>
+  </si>
+  <si>
     <t xml:space="preserve">2D</t>
   </si>
   <si>
+    <t xml:space="preserve">Rotate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48. Rotate Image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:rotate clock wise outer layer to inner layer
+STEP:
+1.first loop(l &lt; r) :start four corner
+2.in loop, assgin top, bottom, while loop i &lt; r-f, i is diff, i+pos point to next pos in the same layer
+3.store topleft, anticlowise replace slot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l,r control, post +/-(r-l)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59. Spiral Matrix II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:matrix assign
+STEP:
+1,create default 2d array, assign val later 2.create variable,l,r,top,bottom, while four varibles 3.ATT!REASSIGN issue: think assign correctly in right slot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l,r,top,bottom control</t>
+  </si>
+  <si>
     <t xml:space="preserve">build</t>
   </si>
   <si>
@@ -285,6 +365,9 @@
   </si>
   <si>
     <t xml:space="preserve">TOPIC:build merged two linkedlist's val                                     STEP:build:dummy=ListNode(-1) return dummy.next</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[MATH]% /</t>
   </si>
   <si>
     <t xml:space="preserve">check</t>
@@ -318,6 +401,12 @@
   </si>
   <si>
     <t xml:space="preserve">If head may change, create dummy;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">706. Design HashMap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:create hashmap with size 1001, when meet hashkey(key%1000) create inner array store value list size 10001</t>
   </si>
 </sst>
 </file>
@@ -376,7 +465,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -386,7 +475,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00A933"/>
-        <bgColor rgb="FF008000"/>
+        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
     <fill>
@@ -407,6 +496,12 @@
         <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF127622"/>
+        <bgColor rgb="FF008080"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
@@ -442,7 +537,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -527,6 +622,10 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -544,6 +643,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -567,7 +674,7 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF127622"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
@@ -627,7 +734,7 @@
   <dimension ref="A1:AMJ50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C:C"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -803,7 +910,7 @@
   <dimension ref="A1:AMJ4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="1" sqref="C:C A13"/>
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -890,17 +997,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ29"/>
+  <dimension ref="A1:AMJ42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E24" activeCellId="1" sqref="C:C E24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C42" activeCellId="0" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="69.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="20.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="40.29"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="1" width="11.52"/>
   </cols>
   <sheetData>
@@ -988,6 +1095,33 @@
       </c>
       <c r="C29" s="2" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1006,18 +1140,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ42"/>
+  <dimension ref="A1:AMJ56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C:C"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="21" width="90.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="18.89"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="22" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="22" width="90.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="21.95"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="23" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1046,88 +1180,145 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>58</v>
+        <v>63</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="s">
-        <v>73</v>
+    <row r="27" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1148,19 +1339,19 @@
   </sheetPr>
   <dimension ref="A1:AMJ38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C:C"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="22" width="30.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="21" width="63.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="30.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="22" width="63.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="20.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="22" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="22" width="18.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="22" width="18.2"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="22" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="23" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="23" width="18.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="23" width="18.2"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="23" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1188,53 +1379,118 @@
       <c r="AMJ1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="23" t="s">
-        <v>74</v>
+      <c r="A2" s="24" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>76</v>
+      <c r="A3" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="23" t="s">
-        <v>77</v>
+      <c r="A14" s="24" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="23" t="s">
-        <v>78</v>
+      <c r="A23" s="24" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>80</v>
+      <c r="A24" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>101</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="23" t="s">
-        <v>82</v>
+      <c r="A37" s="24" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>84</v>
+        <v>104</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>105</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>85</v>
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AMJ2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="32.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="27" width="72.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="26.12"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="23" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AMJ1" s="9"/>
+    </row>
+    <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="115">
   <si>
     <t xml:space="preserve">QUESTION</t>
   </si>
@@ -227,6 +227,17 @@
   </si>
   <si>
     <t xml:space="preserve">TOPIC:two next comparing Think stack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65. Valid Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:Valid Number check all corner cases
+STEP:
+1.if has leading or trailing white space NOT affect valid number
+2.meet 'e':before e should numSeen. only one e
+3.meet '.':if eSeen True:False(beacause e+integer Power(not .)).only one dot
+4.meet "+" or "-":if not at index0 or [i-1]!=e: return false</t>
   </si>
   <si>
     <t xml:space="preserve">1D</t>
@@ -295,19 +306,6 @@
   </si>
   <si>
     <t xml:space="preserve">set variable:zero(-1),two(len),one(0), while one&lt;two</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intervals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56. Merge Intervals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOPIC:Intervals
-STEP:how to merge many intervals: first add interval(array of object), so can update later</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interval,set flag</t>
   </si>
   <si>
     <t xml:space="preserve">Guess Pattern</t>
@@ -356,6 +354,32 @@
   </si>
   <si>
     <t xml:space="preserve">l,r,top,bottom control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">240. Search a 2D Matrix II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:find target from matrix, row increasing, column increasing
+STEP:start from righttop, if smaller, go[][j-1]; if bigger, go [j+1][],set top=0,right=len-1;while top&lt;len&amp;right&gt;=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[BINARY SEARCH]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intervals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56. Merge Intervals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:Intervals
+STEP:SORT[0]. How to merge many intervals: first add prev=nest[0] in res, so can update later</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[SORT]interval,set flag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">435. Non-overlapping Intervals</t>
   </si>
   <si>
     <t xml:space="preserve">build</t>
@@ -997,10 +1021,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ42"/>
+  <dimension ref="A1:AMJ43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C42" activeCellId="0" sqref="C42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B51" activeCellId="0" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1122,6 +1146,14 @@
       </c>
       <c r="C42" s="2" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1140,16 +1172,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ56"/>
+  <dimension ref="A1:AMJ66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B65" activeCellId="0" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="22" width="90.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="22" width="94.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="21.95"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="23" width="11.52"/>
   </cols>
@@ -1180,20 +1212,20 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>44</v>
@@ -1201,37 +1233,37 @@
     </row>
     <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1241,84 +1273,100 @@
     </row>
     <row r="27" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="11" t="s">
         <v>80</v>
-      </c>
-      <c r="B38" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C55" s="19" t="s">
         <v>88</v>
-      </c>
-      <c r="B55" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="C55" s="19" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C56" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="B56" s="22" t="s">
+    </row>
+    <row r="57" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="C56" s="19" t="s">
+      <c r="B57" s="22" t="s">
         <v>93</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="12" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1380,55 +1428,55 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="24" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="25" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="24" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="24" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="26" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="24" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1487,10 +1535,10 @@
     </row>
     <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="28" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="117">
   <si>
     <t xml:space="preserve">QUESTION</t>
   </si>
@@ -380,6 +380,13 @@
   </si>
   <si>
     <t xml:space="preserve">435. Non-overlapping Intervals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:remove overlap interval at minimum step(GREEDY) same as 56
+STEP:sort [0], if cur[0] &lt; flag[1], count++, flag=min(flag[1], cur[1]), greedy get more possible nonoverlap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[SORT][GREEDY] interval, set flag</t>
   </si>
   <si>
     <t xml:space="preserve">build</t>
@@ -561,7 +568,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -656,6 +663,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1175,7 +1186,7 @@
   <dimension ref="A1:AMJ66"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B65" activeCellId="0" sqref="B65"/>
+      <selection pane="topLeft" activeCell="B72" activeCellId="0" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1364,9 +1375,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="12" t="s">
+    <row r="66" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="24" t="s">
         <v>99</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1427,56 +1444,56 @@
       <c r="AMJ1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="24" t="s">
-        <v>100</v>
+      <c r="A2" s="25" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="25" t="s">
-        <v>101</v>
+      <c r="A3" s="26" t="s">
+        <v>103</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="24" t="s">
-        <v>104</v>
+      <c r="A14" s="25" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="24" t="s">
-        <v>105</v>
+      <c r="A23" s="25" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="26" t="s">
-        <v>106</v>
+      <c r="A24" s="27" t="s">
+        <v>108</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="24" t="s">
-        <v>109</v>
+      <c r="A37" s="25" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1504,7 +1521,7 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="32.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="27" width="72.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="28" width="72.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="26.12"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="23" width="11.52"/>
   </cols>
@@ -1534,11 +1551,11 @@
       <c r="AMJ1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>114</v>
+      <c r="A2" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="141">
   <si>
     <t xml:space="preserve">QUESTION</t>
   </si>
@@ -126,6 +126,19 @@
     <t xml:space="preserve">BST,sum</t>
   </si>
   <si>
+    <t xml:space="preserve">310. Minimum Height Trees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:return list of Minimum height tree's root labels(TREE:undirected connected graph)
+STEP:
+1.create hashmap store{vetex: list of another vetexs share same edges}
+2.create indegree array which count many edges link to this vetex
+3.create q(BSF) store degree = 1, each time pop(find map list cut edge degree--), and add degree == 1, in the end, last to the end it is roos meet MHT refer:https://www.youtube.com/watch?v=pUtxTz134qM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[BFS][HASHMAP][LIST][QUEUE][GRAPH]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reassign</t>
   </si>
   <si>
@@ -188,6 +201,16 @@
     <t xml:space="preserve">[TWO POINTER]center expand</t>
   </si>
   <si>
+    <t xml:space="preserve">409. Longest Palindrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:Re-arrange string to become longest palindrome
+STEP:use set store odd, if see it remove it; if not seen, add it.odd only need one.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[SET](remove/add())</t>
+  </si>
+  <si>
     <t xml:space="preserve">1446. Consecutive Characters</t>
   </si>
   <si>
@@ -220,7 +243,13 @@
     <t xml:space="preserve">[HASHMAP]sort method works for array NOT string. </t>
   </si>
   <si>
-    <t xml:space="preserve">Pattern</t>
+    <t xml:space="preserve">68. Text Justification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">match</t>
   </si>
   <si>
     <t xml:space="preserve">20. Valid Parentheses</t>
@@ -240,6 +269,43 @@
 4.meet "+" or "-":if not at index0 or [i-1]!=e: return false</t>
   </si>
   <si>
+    <t xml:space="preserve">290. Word Pattern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC: match pattern 2 hashmap {ch:lastIndex} pattern, keep update lastIndex
+STEP:ATT!"aaa"=&gt;"aa aa aa" TRUE, so cant {ch:word}+Corner case two lengths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">482. License Key Formatting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:string partition, all partitions size=k,except first part can 1&lt;=k,only letter/digit/dash STEP:check modified s len %k==0,group evenly;otherwise, think first part first</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[STRING REGEX](s=s.replace(“-”,””).upper() [MATH]%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">operation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">415. Add Strings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STEP:inside check i&gt;=0, j&gt;=0, conditional statement;carry if else(update)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Str[::-1] string reverse directly(NOTneed array)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">763. Partition Labels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:same letter in one partition
+STEP:
+1.first loop create hashmap{char:farthestIndex}
+2.curLen for each partition, curEnd for farthest map[], check i and curEnd, see if need finish cur partition</t>
+  </si>
+  <si>
     <t xml:space="preserve">1D</t>
   </si>
   <si>
@@ -249,14 +315,15 @@
     <t xml:space="preserve">560. Subarray Sum Equals K</t>
   </si>
   <si>
-    <t xml:space="preserve">TOPIC: prefix sum
-1WAYbrute force STEP: TLE T:O(n^2)
+    <t xml:space="preserve">TOPIC: number of subarray sum =k
+1WAYbrute force STEP: TLE
 1.create sum array, one loop sum[i] = cur + sum[i-1]
 2.second loop which is nested loop, find inner array may has res
 !CANNOT USE SLIDING WINDOW because have positive and negative [....-6],k=100, if &gt; 100, but nextone is negative will cut down to 100
-2WAYhashmap STEP T:O(n)
-1.create map,add{0:1} case for sum-k exist
-2.check sum-k if in map, if yes, count += map.val; all cases, map.val+=1</t>
+2WAYhashmap STEP
+1.count total when iterate nums total+=n
+2.map default{0:1} if total-k already in map: res += map[total-k]
+3.all situation:map[total] += 1</t>
   </si>
   <si>
     <t xml:space="preserve">15. 3Sum</t>
@@ -281,6 +348,17 @@
     <t xml:space="preserve">[DP]Number has positive and negative, NOT use sliding window</t>
   </si>
   <si>
+    <t xml:space="preserve">238. Product of Array Except Self</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:prefix sum
+1WAY extra space STEP: 1create two list prefix,suffix,except itself
+2WAY S:O(1) two pointer 1.update res array value leftV=1 rightV=1 res[i], res[-1-i]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[TWO POINTER]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Count</t>
   </si>
   <si>
@@ -291,21 +369,24 @@
 STEP:it is same candidate,count++;else check count ==0, change candidate or count--</t>
   </si>
   <si>
+    <t xml:space="preserve">Sort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75. Sort Colors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">set variable:zero(-1),two(len),one(0), while one&lt;two</t>
+  </si>
+  <si>
     <t xml:space="preserve">334. Increasing Triplet Subsequence</t>
   </si>
   <si>
     <t xml:space="preserve">TOPIC:need three increasing subsequence i&lt;j&lt;k and nums[i]&lt;nums[j]&lt;nums[k]
-STEP:T:O(n) Number compare
-1.set n1, n2 both max, if see cur &lt; n1, update cur; else if cur &lt; n2, update cur; else return true</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75. Sort Colors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set variable:zero(-1),two(len),one(0), while one&lt;two</t>
+STEP: FOLLOWUP-T:O(n)
+Set n1, n2 both max, if see cur &lt;= n1(=because count n1, not for n2), update cur; else if cur &lt;= n2, update cur; else if cur &gt; n1,n2, return true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[SORT 3WAY COMPARE]</t>
   </si>
   <si>
     <t xml:space="preserve">Guess Pattern</t>
@@ -389,6 +470,14 @@
     <t xml:space="preserve">[SORT][GREEDY] interval, set flag</t>
   </si>
   <si>
+    <t xml:space="preserve">495. Teemo Attacking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOGIC:interval problem 
+STEP:1.Iterate over timeSeries list. At each step add to the total time the minimum between interval length and the poisoning time duration duration.
+2.return total+duration</t>
+  </si>
+  <si>
     <t xml:space="preserve">build</t>
   </si>
   <si>
@@ -402,9 +491,6 @@
   </si>
   <si>
     <t xml:space="preserve">check</t>
-  </si>
-  <si>
-    <t xml:space="preserve">operation</t>
   </si>
   <si>
     <t xml:space="preserve">82. Remove Duplicates from Sorted List II</t>
@@ -447,7 +533,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -491,6 +577,13 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
+      <name val="Abyssinica SIL"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
       <name val="Abyssinica SIL"/>
       <family val="0"/>
       <charset val="1"/>
@@ -568,7 +661,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -637,6 +730,10 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -657,16 +754,20 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -769,14 +870,14 @@
   <dimension ref="A1:AMJ50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="39.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="94.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="19.17"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="21.56"/>
@@ -791,7 +892,7 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="5" t="s">
@@ -813,12 +914,14 @@
         <v>7</v>
       </c>
       <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
@@ -827,7 +930,7 @@
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -846,7 +949,7 @@
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -862,7 +965,7 @@
       <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -881,7 +984,7 @@
       <c r="B16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -892,23 +995,34 @@
       <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -916,17 +1030,22 @@
     </row>
     <row r="43" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
     </row>
     <row r="50" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B18" r:id="rId1" display="TOPIC:return list of Minimum height tree's root labels(TREE:undirected connected graph)&#10;STEP:&#10;1.create hashmap store{vetex: list of another vetexs share same edges}&#10;2.create indegree array which count many edges link to this vetex&#10;3.create q(BSF) store degree = 1, each time pop(find map list cut edge degree--), and add degree == 1, in the end, last to the end it is roos meet MHT refer:https://www.youtube.com/watch?v=pUtxTz134qM"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -950,13 +1069,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="17" width="31.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="17" width="58.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="17" width="26.39"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="17" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="17" width="20.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="17" width="13.47"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="17" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="18" width="31.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="18" width="58.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="18" width="26.39"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="18" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="18" width="20.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="18" width="13.47"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="18" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -985,7 +1104,7 @@
     </row>
     <row r="2" s="4" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B2" s="3"/>
       <c r="F2" s="3"/>
@@ -995,25 +1114,25 @@
       <c r="AMJ2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>37</v>
+      <c r="A3" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>40</v>
+      <c r="A4" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1032,10 +1151,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ43"/>
+  <dimension ref="A1:AMJ57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B51" activeCellId="0" sqref="B51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B47" activeCellId="0" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1072,99 +1191,164 @@
     </row>
     <row r="2" s="9" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
+        <v>44</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="14" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>62</v>
+    <row r="46" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1183,18 +1367,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ66"/>
+  <dimension ref="A1:AMJ72"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B72" activeCellId="0" sqref="B72"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B49" activeCellId="0" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="22" width="94.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="21.95"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="23" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="25" width="94.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="20" width="21.95"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="26" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1223,168 +1407,196 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>44</v>
+        <v>84</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>69</v>
+        <v>86</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>72</v>
+        <v>89</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>75</v>
+        <v>96</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B46" s="22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B55" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="C55" s="19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B56" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="C56" s="19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="B57" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B56" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B64" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B65" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="C65" s="19" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="B66" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C66" s="19" t="s">
-        <v>101</v>
-      </c>
+      <c r="A65" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B65" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B66" s="25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1410,13 +1622,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="30.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="22" width="63.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="20.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="23" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="23" width="18.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="23" width="18.2"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="23" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="26" width="30.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="25" width="63.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="20" width="20.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="26" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="26" width="18.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="26" width="18.2"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="26" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1444,56 +1656,56 @@
       <c r="AMJ1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="25" t="s">
-        <v>102</v>
+      <c r="A2" s="27" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>105</v>
+      <c r="A3" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="25" t="s">
-        <v>106</v>
+      <c r="A14" s="27" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="25" t="s">
-        <v>107</v>
+      <c r="A23" s="27" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>110</v>
+      <c r="A24" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="25" t="s">
-        <v>111</v>
+      <c r="A37" s="27" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B38" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>114</v>
+        <v>136</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1520,10 +1732,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="32.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="28" width="72.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="26.12"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="23" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="26" width="32.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="30" width="72.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="26" width="26.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="26" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1551,11 +1763,11 @@
       <c r="AMJ1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>116</v>
+      <c r="A2" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Tree" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,6 +14,8 @@
     <sheet name="Array" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="LinkedList" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="Design" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Math" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="DP" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="146">
   <si>
     <t xml:space="preserve">QUESTION</t>
   </si>
@@ -246,7 +248,7 @@
     <t xml:space="preserve">68. Text Justification</t>
   </si>
   <si>
-    <t xml:space="preserve">?</t>
+    <t xml:space="preserve">HARD!!!</t>
   </si>
   <si>
     <t xml:space="preserve">match</t>
@@ -524,6 +526,26 @@
   </si>
   <si>
     <t xml:space="preserve">TOPIC:create hashmap with size 1001, when meet hashkey(key%1000) create inner array store value list size 10001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">231. Power of Two</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC: see n == 2^x, given n, see if n is power of two USE BIT
+STEP:
+1     2       4         8         16 　　....
+1    10    100    1000    10000　....
+see pattern: if n is power of two, mean most siginificant is 1(1bit only appear once), others are 0s
+1.create count variable, while n &gt; 0, shift right 1 pos when count += (n&amp;1). in the end return count ==1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[BIT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">276. Paint Fence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[DUAL WAY DP]</t>
   </si>
 </sst>
 </file>
@@ -589,7 +611,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -611,19 +633,25 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF800080"/>
-        <bgColor rgb="FF800080"/>
+        <bgColor rgb="FF660066"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF993300"/>
+        <bgColor rgb="FFBF0041"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF127622"/>
         <bgColor rgb="FF008080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBF0041"/>
+        <bgColor rgb="FF800080"/>
       </patternFill>
     </fill>
   </fills>
@@ -661,7 +689,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -751,6 +779,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -829,7 +861,7 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FFBF0041"/>
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
@@ -1153,8 +1185,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B47" activeCellId="0" sqref="B47"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1274,7 +1306,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="23" t="s">
         <v>64</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -1317,7 +1349,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="23" t="s">
+      <c r="A46" s="24" t="s">
         <v>73</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -1333,7 +1365,7 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="24" t="s">
+      <c r="A56" s="25" t="s">
         <v>77</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -1369,16 +1401,16 @@
   </sheetPr>
   <dimension ref="A1:AMJ72"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B49" activeCellId="0" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="25" width="94.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="26" width="94.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="20" width="21.95"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="26" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="27" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1419,7 +1451,7 @@
       <c r="A4" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="26" t="s">
         <v>85</v>
       </c>
       <c r="C4" s="20" t="s">
@@ -1430,7 +1462,7 @@
       <c r="A5" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="26" t="s">
         <v>87</v>
       </c>
       <c r="C5" s="20" t="s">
@@ -1441,7 +1473,7 @@
       <c r="A6" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="26" t="s">
         <v>90</v>
       </c>
       <c r="C6" s="20" t="s">
@@ -1452,7 +1484,7 @@
       <c r="A7" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="26" t="s">
         <v>93</v>
       </c>
       <c r="C7" s="20" t="s">
@@ -1468,7 +1500,7 @@
       <c r="A14" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="26" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1486,7 +1518,7 @@
       <c r="A31" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="26" t="s">
         <v>100</v>
       </c>
       <c r="C31" s="20" t="s">
@@ -1497,7 +1529,7 @@
       <c r="A32" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="26" t="s">
         <v>102</v>
       </c>
       <c r="C32" s="20" t="s">
@@ -1513,7 +1545,7 @@
       <c r="A45" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="26" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1531,7 +1563,7 @@
       <c r="A54" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="B54" s="25" t="s">
+      <c r="B54" s="26" t="s">
         <v>110</v>
       </c>
       <c r="C54" s="20" t="s">
@@ -1542,7 +1574,7 @@
       <c r="A55" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="B55" s="25" t="s">
+      <c r="B55" s="26" t="s">
         <v>113</v>
       </c>
       <c r="C55" s="20" t="s">
@@ -1553,7 +1585,7 @@
       <c r="A56" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="B56" s="25" t="s">
+      <c r="B56" s="26" t="s">
         <v>116</v>
       </c>
       <c r="C56" s="20" t="s">
@@ -1569,7 +1601,7 @@
       <c r="A64" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="B64" s="25" t="s">
+      <c r="B64" s="26" t="s">
         <v>120</v>
       </c>
       <c r="C64" s="20" t="s">
@@ -1577,10 +1609,10 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="23" t="s">
+      <c r="A65" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="B65" s="25" t="s">
+      <c r="B65" s="26" t="s">
         <v>123</v>
       </c>
       <c r="C65" s="20" t="s">
@@ -1591,7 +1623,7 @@
       <c r="A66" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="B66" s="25" t="s">
+      <c r="B66" s="26" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1622,13 +1654,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="26" width="30.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="25" width="63.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="27" width="30.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="26" width="63.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="20" width="20.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="26" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="26" width="18.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="26" width="18.2"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="26" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="27" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="27" width="18.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="27" width="18.2"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="27" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1656,15 +1688,15 @@
       <c r="AMJ1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>129</v>
       </c>
       <c r="C3" s="20" t="s">
@@ -1672,20 +1704,20 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="28" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="28" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="26" t="s">
         <v>133</v>
       </c>
       <c r="C24" s="20" t="s">
@@ -1693,7 +1725,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="27" t="s">
+      <c r="A37" s="28" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1701,7 +1733,7 @@
       <c r="A38" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="26" t="s">
         <v>137</v>
       </c>
       <c r="C38" s="20" t="s">
@@ -1727,15 +1759,15 @@
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="26" width="32.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="30" width="72.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="26" width="26.13"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="26" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="27" width="32.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="31" width="72.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="27" width="26.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="27" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1763,11 +1795,138 @@
       <c r="AMJ1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AMJ2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="71.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="1" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AMJ1" s="9"/>
+    </row>
+    <row r="2" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AMJ2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="27" width="20.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="27" width="45.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="27" width="20.7"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="27" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AMJ1" s="9"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -5,17 +5,18 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Tree" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sort" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="String" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Array" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="LinkedList" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Design" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Math" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="DP" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Graph" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sort" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="String" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Array" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="LinkedList" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Design" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Math" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="DP" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="168">
   <si>
     <t xml:space="preserve">QUESTION</t>
   </si>
@@ -128,32 +129,58 @@
     <t xml:space="preserve">BST,sum</t>
   </si>
   <si>
+    <t xml:space="preserve">Reassign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Build</t>
+  </si>
+  <si>
+    <t xml:space="preserve">226. Invert Binary Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:Swap left with right
+STEP:1.temperarily store lefter=root.right, righter=root.left, return root</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-ary Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BFS</t>
+  </si>
+  <si>
     <t xml:space="preserve">310. Minimum Height Trees</t>
   </si>
   <si>
-    <t xml:space="preserve">TOPIC:return list of Minimum height tree's root labels(TREE:undirected connected graph)
-STEP:
-1.create hashmap store{vetex: list of another vetexs share same edges}
-2.create indegree array which count many edges link to this vetex
-3.create q(BSF) store degree = 1, each time pop(find map list cut edge degree--), and add degree == 1, in the end, last to the end it is roos meet MHT refer:https://www.youtube.com/watch?v=pUtxTz134qM</t>
+    <t xml:space="preserve">HARD!!</t>
   </si>
   <si>
     <t xml:space="preserve">[BFS][HASHMAP][LIST][QUEUE][GRAPH]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reassign</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Build</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N-ary Tree</t>
+    <t xml:space="preserve">207. Course Schedule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:all actions have prerequisite, DIRECTED GRAPH make relations clean
+STEP:How to handle graph.1way:2D 2way:neighbor list
+1.[totake: preq], create hashmap store {preq:[list of totake]}
+2.create indegree array store number of preqre for course
+3.create queue, if indegree[i]==0, push course label, mean no preq
+4.if check indegree array, if some !=0, mean still preq didnt finish, so return False</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[BFS][HASHMAP][LIST][QUEUE][TOPOLOGICAL SORT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">210. Course Schedule II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAME AS 207</t>
   </si>
   <si>
     <t xml:space="preserve">Heap Sort</t>
@@ -251,7 +278,13 @@
     <t xml:space="preserve">HARD!!!</t>
   </si>
   <si>
-    <t xml:space="preserve">match</t>
+    <t xml:space="preserve">150. Evaluate Reverse Polish Notation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATT!handle 3/-123(math.ceil), 3/123(math.floor), isdigit() not work in negative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pattern Match</t>
   </si>
   <si>
     <t xml:space="preserve">20. Valid Parentheses</t>
@@ -287,7 +320,22 @@
     <t xml:space="preserve">[STRING REGEX](s=s.replace(“-”,””).upper() [MATH]%</t>
   </si>
   <si>
-    <t xml:space="preserve">operation</t>
+    <t xml:space="preserve">Sliding Window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">438. Find All Anagrams in a String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC: Two string, matching substring, window is fixed, USE SLIDING WINDOW
+STEP: template
+1.create hash/array store p's char:freq 2.create variable, left,count
+3.in cur string loop, update dic, see if need move left, check valid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[SLIDING WINDOW]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operation</t>
   </si>
   <si>
     <t xml:space="preserve">415. Add Strings</t>
@@ -359,6 +407,15 @@
   </si>
   <si>
     <t xml:space="preserve">[TWO POINTER]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152. Maximum Product Subarray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:maximum subarray similiar to maximum sum subarray
+STEP:ATT![-2,3,-4]-&gt;24,so not only think max, min, 
+1.create dp for maxdp, mindp. compare max(maxdp[i-1]*cur, mindp[i-1]*cur, cur), min as well
+2.res=max(res, maxdp)</t>
   </si>
   <si>
     <t xml:space="preserve">Count</t>
@@ -495,6 +552,9 @@
     <t xml:space="preserve">check</t>
   </si>
   <si>
+    <t xml:space="preserve">operation</t>
+  </si>
+  <si>
     <t xml:space="preserve">82. Remove Duplicates from Sorted List II</t>
   </si>
   <si>
@@ -508,6 +568,9 @@
     <t xml:space="preserve">Delete</t>
   </si>
   <si>
+    <t xml:space="preserve">143. Reorder List</t>
+  </si>
+  <si>
     <t xml:space="preserve">sort</t>
   </si>
   <si>
@@ -525,7 +588,19 @@
     <t xml:space="preserve">706. Design HashMap</t>
   </si>
   <si>
-    <t xml:space="preserve">TOPIC:create hashmap with size 1001, when meet hashkey(key%1000) create inner array store value list size 10001</t>
+    <t xml:space="preserve">TOPIC:create hashmap with size 1001, when meet hashkey(key%1000) create inner array store value list size 10001.self.hash[hashkey][key//1000] = value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">341. Flatten Nested List Iterator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:Flatter nested List Iterator(iterator use iterate way / recursion with stack helper)
+STEP:
+1.create stack handle whole nested list reversely, wanna pop first ele. stack(default nested list), but later ONLY store int.NOT list. 2.for next behavior: pop top
+3.for hasNext behavior:while stack loop, if find int, pop rightaway, otherwise it is list, store list reversely in stack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[CLASS](getList(), isInteger(), getInteger()) [STACK]</t>
   </si>
   <si>
     <t xml:space="preserve">231. Power of Two</t>
@@ -543,6 +618,9 @@
   </si>
   <si>
     <t xml:space="preserve">276. Paint Fence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STEP:same[k]=diff[k-1](at k same as k-1, mean k-1 must diff k-2) diff[k]=same[k-1]*(k-1)+diff[k-1]*(k-1)(think 3*2cases)</t>
   </si>
   <si>
     <t xml:space="preserve">[DUAL WAY DP]</t>
@@ -555,7 +633,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -605,7 +683,18 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF0000FF"/>
+      <name val="Abyssinica SIL"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF111111"/>
+      <name val="Abyssinica SIL"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
       <name val="Abyssinica SIL"/>
       <family val="0"/>
       <charset val="1"/>
@@ -689,7 +778,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -758,8 +847,36 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -770,14 +887,14 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -790,36 +907,24 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -883,7 +988,7 @@
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF00A933"/>
-      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF111111"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
@@ -899,10 +1004,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ50"/>
+  <dimension ref="A1:AMJ53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1031,53 +1136,1076 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>31</v>
-      </c>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0"/>
+      <c r="B18" s="0"/>
+      <c r="C18" s="0"/>
+      <c r="D18" s="0"/>
+      <c r="E18" s="0"/>
+      <c r="F18" s="0"/>
+      <c r="G18" s="0"/>
+      <c r="H18" s="0"/>
+      <c r="I18" s="0"/>
+      <c r="J18" s="0"/>
+      <c r="K18" s="0"/>
+      <c r="L18" s="0"/>
+      <c r="M18" s="0"/>
+      <c r="N18" s="0"/>
+      <c r="O18" s="0"/>
+      <c r="P18" s="0"/>
+      <c r="Q18" s="0"/>
+      <c r="R18" s="0"/>
+      <c r="S18" s="0"/>
+      <c r="T18" s="0"/>
+      <c r="U18" s="0"/>
+      <c r="V18" s="0"/>
+      <c r="W18" s="0"/>
+      <c r="X18" s="0"/>
+      <c r="Y18" s="0"/>
+      <c r="Z18" s="0"/>
+      <c r="AA18" s="0"/>
+      <c r="AB18" s="0"/>
+      <c r="AC18" s="0"/>
+      <c r="AD18" s="0"/>
+      <c r="AE18" s="0"/>
+      <c r="AF18" s="0"/>
+      <c r="AG18" s="0"/>
+      <c r="AH18" s="0"/>
+      <c r="AI18" s="0"/>
+      <c r="AJ18" s="0"/>
+      <c r="AK18" s="0"/>
+      <c r="AL18" s="0"/>
+      <c r="AM18" s="0"/>
+      <c r="AN18" s="0"/>
+      <c r="AO18" s="0"/>
+      <c r="AP18" s="0"/>
+      <c r="AQ18" s="0"/>
+      <c r="AR18" s="0"/>
+      <c r="AS18" s="0"/>
+      <c r="AT18" s="0"/>
+      <c r="AU18" s="0"/>
+      <c r="AV18" s="0"/>
+      <c r="AW18" s="0"/>
+      <c r="AX18" s="0"/>
+      <c r="AY18" s="0"/>
+      <c r="AZ18" s="0"/>
+      <c r="BA18" s="0"/>
+      <c r="BB18" s="0"/>
+      <c r="BC18" s="0"/>
+      <c r="BD18" s="0"/>
+      <c r="BE18" s="0"/>
+      <c r="BF18" s="0"/>
+      <c r="BG18" s="0"/>
+      <c r="BH18" s="0"/>
+      <c r="BI18" s="0"/>
+      <c r="BJ18" s="0"/>
+      <c r="BK18" s="0"/>
+      <c r="BL18" s="0"/>
+      <c r="BM18" s="0"/>
+      <c r="BN18" s="0"/>
+      <c r="BO18" s="0"/>
+      <c r="BP18" s="0"/>
+      <c r="BQ18" s="0"/>
+      <c r="BR18" s="0"/>
+      <c r="BS18" s="0"/>
+      <c r="BT18" s="0"/>
+      <c r="BU18" s="0"/>
+      <c r="BV18" s="0"/>
+      <c r="BW18" s="0"/>
+      <c r="BX18" s="0"/>
+      <c r="BY18" s="0"/>
+      <c r="BZ18" s="0"/>
+      <c r="CA18" s="0"/>
+      <c r="CB18" s="0"/>
+      <c r="CC18" s="0"/>
+      <c r="CD18" s="0"/>
+      <c r="CE18" s="0"/>
+      <c r="CF18" s="0"/>
+      <c r="CG18" s="0"/>
+      <c r="CH18" s="0"/>
+      <c r="CI18" s="0"/>
+      <c r="CJ18" s="0"/>
+      <c r="CK18" s="0"/>
+      <c r="CL18" s="0"/>
+      <c r="CM18" s="0"/>
+      <c r="CN18" s="0"/>
+      <c r="CO18" s="0"/>
+      <c r="CP18" s="0"/>
+      <c r="CQ18" s="0"/>
+      <c r="CR18" s="0"/>
+      <c r="CS18" s="0"/>
+      <c r="CT18" s="0"/>
+      <c r="CU18" s="0"/>
+      <c r="CV18" s="0"/>
+      <c r="CW18" s="0"/>
+      <c r="CX18" s="0"/>
+      <c r="CY18" s="0"/>
+      <c r="CZ18" s="0"/>
+      <c r="DA18" s="0"/>
+      <c r="DB18" s="0"/>
+      <c r="DC18" s="0"/>
+      <c r="DD18" s="0"/>
+      <c r="DE18" s="0"/>
+      <c r="DF18" s="0"/>
+      <c r="DG18" s="0"/>
+      <c r="DH18" s="0"/>
+      <c r="DI18" s="0"/>
+      <c r="DJ18" s="0"/>
+      <c r="DK18" s="0"/>
+      <c r="DL18" s="0"/>
+      <c r="DM18" s="0"/>
+      <c r="DN18" s="0"/>
+      <c r="DO18" s="0"/>
+      <c r="DP18" s="0"/>
+      <c r="DQ18" s="0"/>
+      <c r="DR18" s="0"/>
+      <c r="DS18" s="0"/>
+      <c r="DT18" s="0"/>
+      <c r="DU18" s="0"/>
+      <c r="DV18" s="0"/>
+      <c r="DW18" s="0"/>
+      <c r="DX18" s="0"/>
+      <c r="DY18" s="0"/>
+      <c r="DZ18" s="0"/>
+      <c r="EA18" s="0"/>
+      <c r="EB18" s="0"/>
+      <c r="EC18" s="0"/>
+      <c r="ED18" s="0"/>
+      <c r="EE18" s="0"/>
+      <c r="EF18" s="0"/>
+      <c r="EG18" s="0"/>
+      <c r="EH18" s="0"/>
+      <c r="EI18" s="0"/>
+      <c r="EJ18" s="0"/>
+      <c r="EK18" s="0"/>
+      <c r="EL18" s="0"/>
+      <c r="EM18" s="0"/>
+      <c r="EN18" s="0"/>
+      <c r="EO18" s="0"/>
+      <c r="EP18" s="0"/>
+      <c r="EQ18" s="0"/>
+      <c r="ER18" s="0"/>
+      <c r="ES18" s="0"/>
+      <c r="ET18" s="0"/>
+      <c r="EU18" s="0"/>
+      <c r="EV18" s="0"/>
+      <c r="EW18" s="0"/>
+      <c r="EX18" s="0"/>
+      <c r="EY18" s="0"/>
+      <c r="EZ18" s="0"/>
+      <c r="FA18" s="0"/>
+      <c r="FB18" s="0"/>
+      <c r="FC18" s="0"/>
+      <c r="FD18" s="0"/>
+      <c r="FE18" s="0"/>
+      <c r="FF18" s="0"/>
+      <c r="FG18" s="0"/>
+      <c r="FH18" s="0"/>
+      <c r="FI18" s="0"/>
+      <c r="FJ18" s="0"/>
+      <c r="FK18" s="0"/>
+      <c r="FL18" s="0"/>
+      <c r="FM18" s="0"/>
+      <c r="FN18" s="0"/>
+      <c r="FO18" s="0"/>
+      <c r="FP18" s="0"/>
+      <c r="FQ18" s="0"/>
+      <c r="FR18" s="0"/>
+      <c r="FS18" s="0"/>
+      <c r="FT18" s="0"/>
+      <c r="FU18" s="0"/>
+      <c r="FV18" s="0"/>
+      <c r="FW18" s="0"/>
+      <c r="FX18" s="0"/>
+      <c r="FY18" s="0"/>
+      <c r="FZ18" s="0"/>
+      <c r="GA18" s="0"/>
+      <c r="GB18" s="0"/>
+      <c r="GC18" s="0"/>
+      <c r="GD18" s="0"/>
+      <c r="GE18" s="0"/>
+      <c r="GF18" s="0"/>
+      <c r="GG18" s="0"/>
+      <c r="GH18" s="0"/>
+      <c r="GI18" s="0"/>
+      <c r="GJ18" s="0"/>
+      <c r="GK18" s="0"/>
+      <c r="GL18" s="0"/>
+      <c r="GM18" s="0"/>
+      <c r="GN18" s="0"/>
+      <c r="GO18" s="0"/>
+      <c r="GP18" s="0"/>
+      <c r="GQ18" s="0"/>
+      <c r="GR18" s="0"/>
+      <c r="GS18" s="0"/>
+      <c r="GT18" s="0"/>
+      <c r="GU18" s="0"/>
+      <c r="GV18" s="0"/>
+      <c r="GW18" s="0"/>
+      <c r="GX18" s="0"/>
+      <c r="GY18" s="0"/>
+      <c r="GZ18" s="0"/>
+      <c r="HA18" s="0"/>
+      <c r="HB18" s="0"/>
+      <c r="HC18" s="0"/>
+      <c r="HD18" s="0"/>
+      <c r="HE18" s="0"/>
+      <c r="HF18" s="0"/>
+      <c r="HG18" s="0"/>
+      <c r="HH18" s="0"/>
+      <c r="HI18" s="0"/>
+      <c r="HJ18" s="0"/>
+      <c r="HK18" s="0"/>
+      <c r="HL18" s="0"/>
+      <c r="HM18" s="0"/>
+      <c r="HN18" s="0"/>
+      <c r="HO18" s="0"/>
+      <c r="HP18" s="0"/>
+      <c r="HQ18" s="0"/>
+      <c r="HR18" s="0"/>
+      <c r="HS18" s="0"/>
+      <c r="HT18" s="0"/>
+      <c r="HU18" s="0"/>
+      <c r="HV18" s="0"/>
+      <c r="HW18" s="0"/>
+      <c r="HX18" s="0"/>
+      <c r="HY18" s="0"/>
+      <c r="HZ18" s="0"/>
+      <c r="IA18" s="0"/>
+      <c r="IB18" s="0"/>
+      <c r="IC18" s="0"/>
+      <c r="ID18" s="0"/>
+      <c r="IE18" s="0"/>
+      <c r="IF18" s="0"/>
+      <c r="IG18" s="0"/>
+      <c r="IH18" s="0"/>
+      <c r="II18" s="0"/>
+      <c r="IJ18" s="0"/>
+      <c r="IK18" s="0"/>
+      <c r="IL18" s="0"/>
+      <c r="IM18" s="0"/>
+      <c r="IN18" s="0"/>
+      <c r="IO18" s="0"/>
+      <c r="IP18" s="0"/>
+      <c r="IQ18" s="0"/>
+      <c r="IR18" s="0"/>
+      <c r="IS18" s="0"/>
+      <c r="IT18" s="0"/>
+      <c r="IU18" s="0"/>
+      <c r="IV18" s="0"/>
+      <c r="IW18" s="0"/>
+      <c r="IX18" s="0"/>
+      <c r="IY18" s="0"/>
+      <c r="IZ18" s="0"/>
+      <c r="JA18" s="0"/>
+      <c r="JB18" s="0"/>
+      <c r="JC18" s="0"/>
+      <c r="JD18" s="0"/>
+      <c r="JE18" s="0"/>
+      <c r="JF18" s="0"/>
+      <c r="JG18" s="0"/>
+      <c r="JH18" s="0"/>
+      <c r="JI18" s="0"/>
+      <c r="JJ18" s="0"/>
+      <c r="JK18" s="0"/>
+      <c r="JL18" s="0"/>
+      <c r="JM18" s="0"/>
+      <c r="JN18" s="0"/>
+      <c r="JO18" s="0"/>
+      <c r="JP18" s="0"/>
+      <c r="JQ18" s="0"/>
+      <c r="JR18" s="0"/>
+      <c r="JS18" s="0"/>
+      <c r="JT18" s="0"/>
+      <c r="JU18" s="0"/>
+      <c r="JV18" s="0"/>
+      <c r="JW18" s="0"/>
+      <c r="JX18" s="0"/>
+      <c r="JY18" s="0"/>
+      <c r="JZ18" s="0"/>
+      <c r="KA18" s="0"/>
+      <c r="KB18" s="0"/>
+      <c r="KC18" s="0"/>
+      <c r="KD18" s="0"/>
+      <c r="KE18" s="0"/>
+      <c r="KF18" s="0"/>
+      <c r="KG18" s="0"/>
+      <c r="KH18" s="0"/>
+      <c r="KI18" s="0"/>
+      <c r="KJ18" s="0"/>
+      <c r="KK18" s="0"/>
+      <c r="KL18" s="0"/>
+      <c r="KM18" s="0"/>
+      <c r="KN18" s="0"/>
+      <c r="KO18" s="0"/>
+      <c r="KP18" s="0"/>
+      <c r="KQ18" s="0"/>
+      <c r="KR18" s="0"/>
+      <c r="KS18" s="0"/>
+      <c r="KT18" s="0"/>
+      <c r="KU18" s="0"/>
+      <c r="KV18" s="0"/>
+      <c r="KW18" s="0"/>
+      <c r="KX18" s="0"/>
+      <c r="KY18" s="0"/>
+      <c r="KZ18" s="0"/>
+      <c r="LA18" s="0"/>
+      <c r="LB18" s="0"/>
+      <c r="LC18" s="0"/>
+      <c r="LD18" s="0"/>
+      <c r="LE18" s="0"/>
+      <c r="LF18" s="0"/>
+      <c r="LG18" s="0"/>
+      <c r="LH18" s="0"/>
+      <c r="LI18" s="0"/>
+      <c r="LJ18" s="0"/>
+      <c r="LK18" s="0"/>
+      <c r="LL18" s="0"/>
+      <c r="LM18" s="0"/>
+      <c r="LN18" s="0"/>
+      <c r="LO18" s="0"/>
+      <c r="LP18" s="0"/>
+      <c r="LQ18" s="0"/>
+      <c r="LR18" s="0"/>
+      <c r="LS18" s="0"/>
+      <c r="LT18" s="0"/>
+      <c r="LU18" s="0"/>
+      <c r="LV18" s="0"/>
+      <c r="LW18" s="0"/>
+      <c r="LX18" s="0"/>
+      <c r="LY18" s="0"/>
+      <c r="LZ18" s="0"/>
+      <c r="MA18" s="0"/>
+      <c r="MB18" s="0"/>
+      <c r="MC18" s="0"/>
+      <c r="MD18" s="0"/>
+      <c r="ME18" s="0"/>
+      <c r="MF18" s="0"/>
+      <c r="MG18" s="0"/>
+      <c r="MH18" s="0"/>
+      <c r="MI18" s="0"/>
+      <c r="MJ18" s="0"/>
+      <c r="MK18" s="0"/>
+      <c r="ML18" s="0"/>
+      <c r="MM18" s="0"/>
+      <c r="MN18" s="0"/>
+      <c r="MO18" s="0"/>
+      <c r="MP18" s="0"/>
+      <c r="MQ18" s="0"/>
+      <c r="MR18" s="0"/>
+      <c r="MS18" s="0"/>
+      <c r="MT18" s="0"/>
+      <c r="MU18" s="0"/>
+      <c r="MV18" s="0"/>
+      <c r="MW18" s="0"/>
+      <c r="MX18" s="0"/>
+      <c r="MY18" s="0"/>
+      <c r="MZ18" s="0"/>
+      <c r="NA18" s="0"/>
+      <c r="NB18" s="0"/>
+      <c r="NC18" s="0"/>
+      <c r="ND18" s="0"/>
+      <c r="NE18" s="0"/>
+      <c r="NF18" s="0"/>
+      <c r="NG18" s="0"/>
+      <c r="NH18" s="0"/>
+      <c r="NI18" s="0"/>
+      <c r="NJ18" s="0"/>
+      <c r="NK18" s="0"/>
+      <c r="NL18" s="0"/>
+      <c r="NM18" s="0"/>
+      <c r="NN18" s="0"/>
+      <c r="NO18" s="0"/>
+      <c r="NP18" s="0"/>
+      <c r="NQ18" s="0"/>
+      <c r="NR18" s="0"/>
+      <c r="NS18" s="0"/>
+      <c r="NT18" s="0"/>
+      <c r="NU18" s="0"/>
+      <c r="NV18" s="0"/>
+      <c r="NW18" s="0"/>
+      <c r="NX18" s="0"/>
+      <c r="NY18" s="0"/>
+      <c r="NZ18" s="0"/>
+      <c r="OA18" s="0"/>
+      <c r="OB18" s="0"/>
+      <c r="OC18" s="0"/>
+      <c r="OD18" s="0"/>
+      <c r="OE18" s="0"/>
+      <c r="OF18" s="0"/>
+      <c r="OG18" s="0"/>
+      <c r="OH18" s="0"/>
+      <c r="OI18" s="0"/>
+      <c r="OJ18" s="0"/>
+      <c r="OK18" s="0"/>
+      <c r="OL18" s="0"/>
+      <c r="OM18" s="0"/>
+      <c r="ON18" s="0"/>
+      <c r="OO18" s="0"/>
+      <c r="OP18" s="0"/>
+      <c r="OQ18" s="0"/>
+      <c r="OR18" s="0"/>
+      <c r="OS18" s="0"/>
+      <c r="OT18" s="0"/>
+      <c r="OU18" s="0"/>
+      <c r="OV18" s="0"/>
+      <c r="OW18" s="0"/>
+      <c r="OX18" s="0"/>
+      <c r="OY18" s="0"/>
+      <c r="OZ18" s="0"/>
+      <c r="PA18" s="0"/>
+      <c r="PB18" s="0"/>
+      <c r="PC18" s="0"/>
+      <c r="PD18" s="0"/>
+      <c r="PE18" s="0"/>
+      <c r="PF18" s="0"/>
+      <c r="PG18" s="0"/>
+      <c r="PH18" s="0"/>
+      <c r="PI18" s="0"/>
+      <c r="PJ18" s="0"/>
+      <c r="PK18" s="0"/>
+      <c r="PL18" s="0"/>
+      <c r="PM18" s="0"/>
+      <c r="PN18" s="0"/>
+      <c r="PO18" s="0"/>
+      <c r="PP18" s="0"/>
+      <c r="PQ18" s="0"/>
+      <c r="PR18" s="0"/>
+      <c r="PS18" s="0"/>
+      <c r="PT18" s="0"/>
+      <c r="PU18" s="0"/>
+      <c r="PV18" s="0"/>
+      <c r="PW18" s="0"/>
+      <c r="PX18" s="0"/>
+      <c r="PY18" s="0"/>
+      <c r="PZ18" s="0"/>
+      <c r="QA18" s="0"/>
+      <c r="QB18" s="0"/>
+      <c r="QC18" s="0"/>
+      <c r="QD18" s="0"/>
+      <c r="QE18" s="0"/>
+      <c r="QF18" s="0"/>
+      <c r="QG18" s="0"/>
+      <c r="QH18" s="0"/>
+      <c r="QI18" s="0"/>
+      <c r="QJ18" s="0"/>
+      <c r="QK18" s="0"/>
+      <c r="QL18" s="0"/>
+      <c r="QM18" s="0"/>
+      <c r="QN18" s="0"/>
+      <c r="QO18" s="0"/>
+      <c r="QP18" s="0"/>
+      <c r="QQ18" s="0"/>
+      <c r="QR18" s="0"/>
+      <c r="QS18" s="0"/>
+      <c r="QT18" s="0"/>
+      <c r="QU18" s="0"/>
+      <c r="QV18" s="0"/>
+      <c r="QW18" s="0"/>
+      <c r="QX18" s="0"/>
+      <c r="QY18" s="0"/>
+      <c r="QZ18" s="0"/>
+      <c r="RA18" s="0"/>
+      <c r="RB18" s="0"/>
+      <c r="RC18" s="0"/>
+      <c r="RD18" s="0"/>
+      <c r="RE18" s="0"/>
+      <c r="RF18" s="0"/>
+      <c r="RG18" s="0"/>
+      <c r="RH18" s="0"/>
+      <c r="RI18" s="0"/>
+      <c r="RJ18" s="0"/>
+      <c r="RK18" s="0"/>
+      <c r="RL18" s="0"/>
+      <c r="RM18" s="0"/>
+      <c r="RN18" s="0"/>
+      <c r="RO18" s="0"/>
+      <c r="RP18" s="0"/>
+      <c r="RQ18" s="0"/>
+      <c r="RR18" s="0"/>
+      <c r="RS18" s="0"/>
+      <c r="RT18" s="0"/>
+      <c r="RU18" s="0"/>
+      <c r="RV18" s="0"/>
+      <c r="RW18" s="0"/>
+      <c r="RX18" s="0"/>
+      <c r="RY18" s="0"/>
+      <c r="RZ18" s="0"/>
+      <c r="SA18" s="0"/>
+      <c r="SB18" s="0"/>
+      <c r="SC18" s="0"/>
+      <c r="SD18" s="0"/>
+      <c r="SE18" s="0"/>
+      <c r="SF18" s="0"/>
+      <c r="SG18" s="0"/>
+      <c r="SH18" s="0"/>
+      <c r="SI18" s="0"/>
+      <c r="SJ18" s="0"/>
+      <c r="SK18" s="0"/>
+      <c r="SL18" s="0"/>
+      <c r="SM18" s="0"/>
+      <c r="SN18" s="0"/>
+      <c r="SO18" s="0"/>
+      <c r="SP18" s="0"/>
+      <c r="SQ18" s="0"/>
+      <c r="SR18" s="0"/>
+      <c r="SS18" s="0"/>
+      <c r="ST18" s="0"/>
+      <c r="SU18" s="0"/>
+      <c r="SV18" s="0"/>
+      <c r="SW18" s="0"/>
+      <c r="SX18" s="0"/>
+      <c r="SY18" s="0"/>
+      <c r="SZ18" s="0"/>
+      <c r="TA18" s="0"/>
+      <c r="TB18" s="0"/>
+      <c r="TC18" s="0"/>
+      <c r="TD18" s="0"/>
+      <c r="TE18" s="0"/>
+      <c r="TF18" s="0"/>
+      <c r="TG18" s="0"/>
+      <c r="TH18" s="0"/>
+      <c r="TI18" s="0"/>
+      <c r="TJ18" s="0"/>
+      <c r="TK18" s="0"/>
+      <c r="TL18" s="0"/>
+      <c r="TM18" s="0"/>
+      <c r="TN18" s="0"/>
+      <c r="TO18" s="0"/>
+      <c r="TP18" s="0"/>
+      <c r="TQ18" s="0"/>
+      <c r="TR18" s="0"/>
+      <c r="TS18" s="0"/>
+      <c r="TT18" s="0"/>
+      <c r="TU18" s="0"/>
+      <c r="TV18" s="0"/>
+      <c r="TW18" s="0"/>
+      <c r="TX18" s="0"/>
+      <c r="TY18" s="0"/>
+      <c r="TZ18" s="0"/>
+      <c r="UA18" s="0"/>
+      <c r="UB18" s="0"/>
+      <c r="UC18" s="0"/>
+      <c r="UD18" s="0"/>
+      <c r="UE18" s="0"/>
+      <c r="UF18" s="0"/>
+      <c r="UG18" s="0"/>
+      <c r="UH18" s="0"/>
+      <c r="UI18" s="0"/>
+      <c r="UJ18" s="0"/>
+      <c r="UK18" s="0"/>
+      <c r="UL18" s="0"/>
+      <c r="UM18" s="0"/>
+      <c r="UN18" s="0"/>
+      <c r="UO18" s="0"/>
+      <c r="UP18" s="0"/>
+      <c r="UQ18" s="0"/>
+      <c r="UR18" s="0"/>
+      <c r="US18" s="0"/>
+      <c r="UT18" s="0"/>
+      <c r="UU18" s="0"/>
+      <c r="UV18" s="0"/>
+      <c r="UW18" s="0"/>
+      <c r="UX18" s="0"/>
+      <c r="UY18" s="0"/>
+      <c r="UZ18" s="0"/>
+      <c r="VA18" s="0"/>
+      <c r="VB18" s="0"/>
+      <c r="VC18" s="0"/>
+      <c r="VD18" s="0"/>
+      <c r="VE18" s="0"/>
+      <c r="VF18" s="0"/>
+      <c r="VG18" s="0"/>
+      <c r="VH18" s="0"/>
+      <c r="VI18" s="0"/>
+      <c r="VJ18" s="0"/>
+      <c r="VK18" s="0"/>
+      <c r="VL18" s="0"/>
+      <c r="VM18" s="0"/>
+      <c r="VN18" s="0"/>
+      <c r="VO18" s="0"/>
+      <c r="VP18" s="0"/>
+      <c r="VQ18" s="0"/>
+      <c r="VR18" s="0"/>
+      <c r="VS18" s="0"/>
+      <c r="VT18" s="0"/>
+      <c r="VU18" s="0"/>
+      <c r="VV18" s="0"/>
+      <c r="VW18" s="0"/>
+      <c r="VX18" s="0"/>
+      <c r="VY18" s="0"/>
+      <c r="VZ18" s="0"/>
+      <c r="WA18" s="0"/>
+      <c r="WB18" s="0"/>
+      <c r="WC18" s="0"/>
+      <c r="WD18" s="0"/>
+      <c r="WE18" s="0"/>
+      <c r="WF18" s="0"/>
+      <c r="WG18" s="0"/>
+      <c r="WH18" s="0"/>
+      <c r="WI18" s="0"/>
+      <c r="WJ18" s="0"/>
+      <c r="WK18" s="0"/>
+      <c r="WL18" s="0"/>
+      <c r="WM18" s="0"/>
+      <c r="WN18" s="0"/>
+      <c r="WO18" s="0"/>
+      <c r="WP18" s="0"/>
+      <c r="WQ18" s="0"/>
+      <c r="WR18" s="0"/>
+      <c r="WS18" s="0"/>
+      <c r="WT18" s="0"/>
+      <c r="WU18" s="0"/>
+      <c r="WV18" s="0"/>
+      <c r="WW18" s="0"/>
+      <c r="WX18" s="0"/>
+      <c r="WY18" s="0"/>
+      <c r="WZ18" s="0"/>
+      <c r="XA18" s="0"/>
+      <c r="XB18" s="0"/>
+      <c r="XC18" s="0"/>
+      <c r="XD18" s="0"/>
+      <c r="XE18" s="0"/>
+      <c r="XF18" s="0"/>
+      <c r="XG18" s="0"/>
+      <c r="XH18" s="0"/>
+      <c r="XI18" s="0"/>
+      <c r="XJ18" s="0"/>
+      <c r="XK18" s="0"/>
+      <c r="XL18" s="0"/>
+      <c r="XM18" s="0"/>
+      <c r="XN18" s="0"/>
+      <c r="XO18" s="0"/>
+      <c r="XP18" s="0"/>
+      <c r="XQ18" s="0"/>
+      <c r="XR18" s="0"/>
+      <c r="XS18" s="0"/>
+      <c r="XT18" s="0"/>
+      <c r="XU18" s="0"/>
+      <c r="XV18" s="0"/>
+      <c r="XW18" s="0"/>
+      <c r="XX18" s="0"/>
+      <c r="XY18" s="0"/>
+      <c r="XZ18" s="0"/>
+      <c r="YA18" s="0"/>
+      <c r="YB18" s="0"/>
+      <c r="YC18" s="0"/>
+      <c r="YD18" s="0"/>
+      <c r="YE18" s="0"/>
+      <c r="YF18" s="0"/>
+      <c r="YG18" s="0"/>
+      <c r="YH18" s="0"/>
+      <c r="YI18" s="0"/>
+      <c r="YJ18" s="0"/>
+      <c r="YK18" s="0"/>
+      <c r="YL18" s="0"/>
+      <c r="YM18" s="0"/>
+      <c r="YN18" s="0"/>
+      <c r="YO18" s="0"/>
+      <c r="YP18" s="0"/>
+      <c r="YQ18" s="0"/>
+      <c r="YR18" s="0"/>
+      <c r="YS18" s="0"/>
+      <c r="YT18" s="0"/>
+      <c r="YU18" s="0"/>
+      <c r="YV18" s="0"/>
+      <c r="YW18" s="0"/>
+      <c r="YX18" s="0"/>
+      <c r="YY18" s="0"/>
+      <c r="YZ18" s="0"/>
+      <c r="ZA18" s="0"/>
+      <c r="ZB18" s="0"/>
+      <c r="ZC18" s="0"/>
+      <c r="ZD18" s="0"/>
+      <c r="ZE18" s="0"/>
+      <c r="ZF18" s="0"/>
+      <c r="ZG18" s="0"/>
+      <c r="ZH18" s="0"/>
+      <c r="ZI18" s="0"/>
+      <c r="ZJ18" s="0"/>
+      <c r="ZK18" s="0"/>
+      <c r="ZL18" s="0"/>
+      <c r="ZM18" s="0"/>
+      <c r="ZN18" s="0"/>
+      <c r="ZO18" s="0"/>
+      <c r="ZP18" s="0"/>
+      <c r="ZQ18" s="0"/>
+      <c r="ZR18" s="0"/>
+      <c r="ZS18" s="0"/>
+      <c r="ZT18" s="0"/>
+      <c r="ZU18" s="0"/>
+      <c r="ZV18" s="0"/>
+      <c r="ZW18" s="0"/>
+      <c r="ZX18" s="0"/>
+      <c r="ZY18" s="0"/>
+      <c r="ZZ18" s="0"/>
+      <c r="AAA18" s="0"/>
+      <c r="AAB18" s="0"/>
+      <c r="AAC18" s="0"/>
+      <c r="AAD18" s="0"/>
+      <c r="AAE18" s="0"/>
+      <c r="AAF18" s="0"/>
+      <c r="AAG18" s="0"/>
+      <c r="AAH18" s="0"/>
+      <c r="AAI18" s="0"/>
+      <c r="AAJ18" s="0"/>
+      <c r="AAK18" s="0"/>
+      <c r="AAL18" s="0"/>
+      <c r="AAM18" s="0"/>
+      <c r="AAN18" s="0"/>
+      <c r="AAO18" s="0"/>
+      <c r="AAP18" s="0"/>
+      <c r="AAQ18" s="0"/>
+      <c r="AAR18" s="0"/>
+      <c r="AAS18" s="0"/>
+      <c r="AAT18" s="0"/>
+      <c r="AAU18" s="0"/>
+      <c r="AAV18" s="0"/>
+      <c r="AAW18" s="0"/>
+      <c r="AAX18" s="0"/>
+      <c r="AAY18" s="0"/>
+      <c r="AAZ18" s="0"/>
+      <c r="ABA18" s="0"/>
+      <c r="ABB18" s="0"/>
+      <c r="ABC18" s="0"/>
+      <c r="ABD18" s="0"/>
+      <c r="ABE18" s="0"/>
+      <c r="ABF18" s="0"/>
+      <c r="ABG18" s="0"/>
+      <c r="ABH18" s="0"/>
+      <c r="ABI18" s="0"/>
+      <c r="ABJ18" s="0"/>
+      <c r="ABK18" s="0"/>
+      <c r="ABL18" s="0"/>
+      <c r="ABM18" s="0"/>
+      <c r="ABN18" s="0"/>
+      <c r="ABO18" s="0"/>
+      <c r="ABP18" s="0"/>
+      <c r="ABQ18" s="0"/>
+      <c r="ABR18" s="0"/>
+      <c r="ABS18" s="0"/>
+      <c r="ABT18" s="0"/>
+      <c r="ABU18" s="0"/>
+      <c r="ABV18" s="0"/>
+      <c r="ABW18" s="0"/>
+      <c r="ABX18" s="0"/>
+      <c r="ABY18" s="0"/>
+      <c r="ABZ18" s="0"/>
+      <c r="ACA18" s="0"/>
+      <c r="ACB18" s="0"/>
+      <c r="ACC18" s="0"/>
+      <c r="ACD18" s="0"/>
+      <c r="ACE18" s="0"/>
+      <c r="ACF18" s="0"/>
+      <c r="ACG18" s="0"/>
+      <c r="ACH18" s="0"/>
+      <c r="ACI18" s="0"/>
+      <c r="ACJ18" s="0"/>
+      <c r="ACK18" s="0"/>
+      <c r="ACL18" s="0"/>
+      <c r="ACM18" s="0"/>
+      <c r="ACN18" s="0"/>
+      <c r="ACO18" s="0"/>
+      <c r="ACP18" s="0"/>
+      <c r="ACQ18" s="0"/>
+      <c r="ACR18" s="0"/>
+      <c r="ACS18" s="0"/>
+      <c r="ACT18" s="0"/>
+      <c r="ACU18" s="0"/>
+      <c r="ACV18" s="0"/>
+      <c r="ACW18" s="0"/>
+      <c r="ACX18" s="0"/>
+      <c r="ACY18" s="0"/>
+      <c r="ACZ18" s="0"/>
+      <c r="ADA18" s="0"/>
+      <c r="ADB18" s="0"/>
+      <c r="ADC18" s="0"/>
+      <c r="ADD18" s="0"/>
+      <c r="ADE18" s="0"/>
+      <c r="ADF18" s="0"/>
+      <c r="ADG18" s="0"/>
+      <c r="ADH18" s="0"/>
+      <c r="ADI18" s="0"/>
+      <c r="ADJ18" s="0"/>
+      <c r="ADK18" s="0"/>
+      <c r="ADL18" s="0"/>
+      <c r="ADM18" s="0"/>
+      <c r="ADN18" s="0"/>
+      <c r="ADO18" s="0"/>
+      <c r="ADP18" s="0"/>
+      <c r="ADQ18" s="0"/>
+      <c r="ADR18" s="0"/>
+      <c r="ADS18" s="0"/>
+      <c r="ADT18" s="0"/>
+      <c r="ADU18" s="0"/>
+      <c r="ADV18" s="0"/>
+      <c r="ADW18" s="0"/>
+      <c r="ADX18" s="0"/>
+      <c r="ADY18" s="0"/>
+      <c r="ADZ18" s="0"/>
+      <c r="AEA18" s="0"/>
+      <c r="AEB18" s="0"/>
+      <c r="AEC18" s="0"/>
+      <c r="AED18" s="0"/>
+      <c r="AEE18" s="0"/>
+      <c r="AEF18" s="0"/>
+      <c r="AEG18" s="0"/>
+      <c r="AEH18" s="0"/>
+      <c r="AEI18" s="0"/>
+      <c r="AEJ18" s="0"/>
+      <c r="AEK18" s="0"/>
+      <c r="AEL18" s="0"/>
+      <c r="AEM18" s="0"/>
+      <c r="AEN18" s="0"/>
+      <c r="AEO18" s="0"/>
+      <c r="AEP18" s="0"/>
+      <c r="AEQ18" s="0"/>
+      <c r="AER18" s="0"/>
+      <c r="AES18" s="0"/>
+      <c r="AET18" s="0"/>
+      <c r="AEU18" s="0"/>
+      <c r="AEV18" s="0"/>
+      <c r="AEW18" s="0"/>
+      <c r="AEX18" s="0"/>
+      <c r="AEY18" s="0"/>
+      <c r="AEZ18" s="0"/>
+      <c r="AFA18" s="0"/>
+      <c r="AFB18" s="0"/>
+      <c r="AFC18" s="0"/>
+      <c r="AFD18" s="0"/>
+      <c r="AFE18" s="0"/>
+      <c r="AFF18" s="0"/>
+      <c r="AFG18" s="0"/>
+      <c r="AFH18" s="0"/>
+      <c r="AFI18" s="0"/>
+      <c r="AFJ18" s="0"/>
+      <c r="AFK18" s="0"/>
+      <c r="AFL18" s="0"/>
+      <c r="AFM18" s="0"/>
+      <c r="AFN18" s="0"/>
+      <c r="AFO18" s="0"/>
+      <c r="AFP18" s="0"/>
+      <c r="AFQ18" s="0"/>
+      <c r="AFR18" s="0"/>
+      <c r="AFS18" s="0"/>
+      <c r="AFT18" s="0"/>
+      <c r="AFU18" s="0"/>
+      <c r="AFV18" s="0"/>
+      <c r="AFW18" s="0"/>
+      <c r="AFX18" s="0"/>
+      <c r="AFY18" s="0"/>
+      <c r="AFZ18" s="0"/>
+      <c r="AGA18" s="0"/>
+      <c r="AGB18" s="0"/>
+      <c r="AGC18" s="0"/>
+      <c r="AGD18" s="0"/>
+      <c r="AGE18" s="0"/>
+      <c r="AGF18" s="0"/>
+      <c r="AGG18" s="0"/>
+      <c r="AGH18" s="0"/>
+      <c r="AGI18" s="0"/>
+      <c r="AGJ18" s="0"/>
+      <c r="AGK18" s="0"/>
+      <c r="AGL18" s="0"/>
+      <c r="AGM18" s="0"/>
+      <c r="AGN18" s="0"/>
+      <c r="AGO18" s="0"/>
+      <c r="AGP18" s="0"/>
+      <c r="AGQ18" s="0"/>
+      <c r="AGR18" s="0"/>
+      <c r="AGS18" s="0"/>
+      <c r="AGT18" s="0"/>
+      <c r="AGU18" s="0"/>
+      <c r="AGV18" s="0"/>
+      <c r="AGW18" s="0"/>
+      <c r="AGX18" s="0"/>
+      <c r="AGY18" s="0"/>
+      <c r="AGZ18" s="0"/>
+      <c r="AHA18" s="0"/>
+      <c r="AHB18" s="0"/>
+      <c r="AHC18" s="0"/>
+      <c r="AHD18" s="0"/>
+      <c r="AHE18" s="0"/>
+      <c r="AHF18" s="0"/>
+      <c r="AHG18" s="0"/>
+      <c r="AHH18" s="0"/>
+      <c r="AHI18" s="0"/>
+      <c r="AHJ18" s="0"/>
+      <c r="AHK18" s="0"/>
+      <c r="AHL18" s="0"/>
+      <c r="AHM18" s="0"/>
+      <c r="AHN18" s="0"/>
+      <c r="AHO18" s="0"/>
+      <c r="AHP18" s="0"/>
+      <c r="AHQ18" s="0"/>
+      <c r="AHR18" s="0"/>
+      <c r="AHS18" s="0"/>
+      <c r="AHT18" s="0"/>
+      <c r="AHU18" s="0"/>
+      <c r="AHV18" s="0"/>
+      <c r="AHW18" s="0"/>
+      <c r="AHX18" s="0"/>
+      <c r="AHY18" s="0"/>
+      <c r="AHZ18" s="0"/>
+      <c r="AIA18" s="0"/>
+      <c r="AIB18" s="0"/>
+      <c r="AIC18" s="0"/>
+      <c r="AID18" s="0"/>
+      <c r="AIE18" s="0"/>
+      <c r="AIF18" s="0"/>
+      <c r="AIG18" s="0"/>
+      <c r="AIH18" s="0"/>
+      <c r="AII18" s="0"/>
+      <c r="AIJ18" s="0"/>
+      <c r="AIK18" s="0"/>
+      <c r="AIL18" s="0"/>
+      <c r="AIM18" s="0"/>
+      <c r="AIN18" s="0"/>
+      <c r="AIO18" s="0"/>
+      <c r="AIP18" s="0"/>
+      <c r="AIQ18" s="0"/>
+      <c r="AIR18" s="0"/>
+      <c r="AIS18" s="0"/>
+      <c r="AIT18" s="0"/>
+      <c r="AIU18" s="0"/>
+      <c r="AIV18" s="0"/>
+      <c r="AIW18" s="0"/>
+      <c r="AIX18" s="0"/>
+      <c r="AIY18" s="0"/>
+      <c r="AIZ18" s="0"/>
+      <c r="AJA18" s="0"/>
+      <c r="AJB18" s="0"/>
+      <c r="AJC18" s="0"/>
+      <c r="AJD18" s="0"/>
+      <c r="AJE18" s="0"/>
+      <c r="AJF18" s="0"/>
+      <c r="AJG18" s="0"/>
+      <c r="AJH18" s="0"/>
+      <c r="AJI18" s="0"/>
+      <c r="AJJ18" s="0"/>
+      <c r="AJK18" s="0"/>
+      <c r="AJL18" s="0"/>
+      <c r="AJM18" s="0"/>
+      <c r="AJN18" s="0"/>
+      <c r="AJO18" s="0"/>
+      <c r="AJP18" s="0"/>
+      <c r="AJQ18" s="0"/>
+      <c r="AJR18" s="0"/>
+      <c r="AJS18" s="0"/>
+      <c r="AJT18" s="0"/>
+      <c r="AJU18" s="0"/>
+      <c r="AJV18" s="0"/>
+      <c r="AJW18" s="0"/>
+      <c r="AJX18" s="0"/>
+      <c r="AJY18" s="0"/>
+      <c r="AJZ18" s="0"/>
+      <c r="AKA18" s="0"/>
+      <c r="AKB18" s="0"/>
+      <c r="AKC18" s="0"/>
+      <c r="AKD18" s="0"/>
+      <c r="AKE18" s="0"/>
+      <c r="AKF18" s="0"/>
+      <c r="AKG18" s="0"/>
+      <c r="AKH18" s="0"/>
+      <c r="AKI18" s="0"/>
+      <c r="AKJ18" s="0"/>
+      <c r="AKK18" s="0"/>
+      <c r="AKL18" s="0"/>
+      <c r="AKM18" s="0"/>
+      <c r="AKN18" s="0"/>
+      <c r="AKO18" s="0"/>
+      <c r="AKP18" s="0"/>
+      <c r="AKQ18" s="0"/>
+      <c r="AKR18" s="0"/>
+      <c r="AKS18" s="0"/>
+      <c r="AKT18" s="0"/>
+      <c r="AKU18" s="0"/>
+      <c r="AKV18" s="0"/>
+      <c r="AKW18" s="0"/>
+      <c r="AKX18" s="0"/>
+      <c r="AKY18" s="0"/>
+      <c r="AKZ18" s="0"/>
+      <c r="ALA18" s="0"/>
+      <c r="ALB18" s="0"/>
+      <c r="ALC18" s="0"/>
+      <c r="ALD18" s="0"/>
+      <c r="ALE18" s="0"/>
+      <c r="ALF18" s="0"/>
+      <c r="ALG18" s="0"/>
+      <c r="ALH18" s="0"/>
+      <c r="ALI18" s="0"/>
+      <c r="ALJ18" s="0"/>
+      <c r="ALK18" s="0"/>
+      <c r="ALL18" s="0"/>
+      <c r="ALM18" s="0"/>
+      <c r="ALN18" s="0"/>
+      <c r="ALO18" s="0"/>
+      <c r="ALP18" s="0"/>
+      <c r="ALQ18" s="0"/>
+      <c r="ALR18" s="0"/>
+      <c r="ALS18" s="0"/>
+      <c r="ALT18" s="0"/>
+      <c r="ALU18" s="0"/>
+      <c r="ALV18" s="0"/>
+      <c r="ALW18" s="0"/>
+      <c r="ALX18" s="0"/>
+      <c r="ALY18" s="0"/>
+      <c r="ALZ18" s="0"/>
+      <c r="AMA18" s="0"/>
+      <c r="AMB18" s="0"/>
+      <c r="AMC18" s="0"/>
+      <c r="AMD18" s="0"/>
+      <c r="AME18" s="0"/>
+      <c r="AMF18" s="0"/>
+      <c r="AMG18" s="0"/>
+      <c r="AMH18" s="0"/>
+      <c r="AMI18" s="0"/>
+      <c r="AMJ18" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="s">
-        <v>32</v>
-      </c>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10" t="s">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="10"/>
+    </row>
+    <row r="46" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="10"/>
-    </row>
-    <row r="43" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="s">
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+    </row>
+    <row r="53" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-    </row>
-    <row r="50" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B18" r:id="rId1" display="TOPIC:return list of Minimum height tree's root labels(TREE:undirected connected graph)&#10;STEP:&#10;1.create hashmap store{vetex: list of another vetexs share same edges}&#10;2.create indegree array which count many edges link to this vetex&#10;3.create q(BSF) store degree = 1, each time pop(find map list cut edge degree--), and add degree == 1, in the end, last to the end it is roos meet MHT refer:https://www.youtube.com/watch?v=pUtxTz134qM"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1093,21 +2221,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ4"/>
+  <dimension ref="A1:AMJ5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="18" width="31.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="18" width="58.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="18" width="26.39"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="18" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="18" width="20.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="18" width="13.47"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="18" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="18" width="33.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="18" width="73.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="18.47"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="18" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1117,7 +2242,7 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="5" t="s">
@@ -1134,37 +2259,39 @@
       </c>
       <c r="AMJ1" s="9"/>
     </row>
-    <row r="2" s="4" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="true" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="AMJ2" s="9"/>
-    </row>
-    <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19" t="s">
+      <c r="B3" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="C3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="18" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="12" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19" t="s">
+      <c r="B4" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="C4" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="18" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="24" t="s">
         <v>43</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1183,18 +2310,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ57"/>
+  <dimension ref="A1:AMJ4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="69.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="40.29"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="25" width="31.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="25" width="58.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="25" width="26.39"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="25" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="25" width="20.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="25" width="13.47"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="25" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1204,7 +2334,7 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="5" t="s">
@@ -1221,166 +2351,37 @@
       </c>
       <c r="AMJ1" s="9"/>
     </row>
-    <row r="2" s="9" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" s="4" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="AMJ2" s="9"/>
+    </row>
+    <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="19" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="s">
+      <c r="C3" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="19" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="s">
+      <c r="C4" s="25" t="s">
         <v>51</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1399,18 +2400,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ72"/>
+  <dimension ref="A1:AMJ80"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B49" activeCellId="0" sqref="B49"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="26" width="94.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="20" width="21.95"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="27" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="69.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="40.29"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1437,198 +2438,220 @@
       </c>
       <c r="AMJ1" s="9"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+    <row r="2" s="9" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="C45" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="31" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
+      <c r="B46" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="C46" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
+    </row>
+    <row r="47" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="33"/>
+      <c r="C47" s="33"/>
+    </row>
+    <row r="48" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="33"/>
+      <c r="C48" s="33"/>
+    </row>
+    <row r="49" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+    </row>
+    <row r="50" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="33"/>
+      <c r="C50" s="33"/>
+    </row>
+    <row r="51" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="33"/>
+      <c r="C51" s="33"/>
+    </row>
+    <row r="52" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="33"/>
+      <c r="C52" s="33"/>
+    </row>
+    <row r="53" s="32" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B53" s="33"/>
+      <c r="C53" s="33"/>
+    </row>
+    <row r="54" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="B54" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="s">
+      <c r="C54" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="26" t="s">
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="20" t="s">
+    </row>
+    <row r="79" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="35" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
+      <c r="B79" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="C79" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="20" t="s">
+    </row>
+    <row r="80" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="11" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
+      <c r="B80" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B45" s="26" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="B54" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="B55" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="C55" s="20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="B56" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="C56" s="20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B64" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="C64" s="20" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B65" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="C65" s="20" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B66" s="26" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1646,21 +2669,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ38"/>
+  <dimension ref="A1:AMJ76"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="27" width="30.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="26" width="63.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="20" width="20.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="27" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="27" width="18.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="27" width="18.2"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="27" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="22" width="94.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="21.95"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="18" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1688,57 +2708,205 @@
       <c r="AMJ1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C58" s="19" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="29" t="s">
+    <row r="59" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B59" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C59" s="19" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="28" t="s">
+    <row r="60" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="29" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="28" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="30" t="s">
+      <c r="B60" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="C60" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="C24" s="20" t="s">
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="28" t="s">
+    <row r="68" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="11" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="s">
+      <c r="B68" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="C68" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="C38" s="20" t="s">
+    </row>
+    <row r="69" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="31" t="s">
         <v>138</v>
       </c>
+      <c r="B69" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1756,18 +2924,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ2"/>
+  <dimension ref="A1:AMJ38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="27" width="32.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="31" width="72.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="27" width="26.13"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="27" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="22" width="63.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="20.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="18" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="18" width="18.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="18" width="18.2"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="18" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1794,12 +2965,62 @@
       </c>
       <c r="AMJ1" s="9"/>
     </row>
-    <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>140</v>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -1814,6 +3035,79 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AMJ3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="86.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="26.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="1" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AMJ1" s="9"/>
+    </row>
+    <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1858,13 +3152,13 @@
     </row>
     <row r="2" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -1878,23 +3172,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="27" width="20.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="27" width="45.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="27" width="20.7"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="27" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="25" width="20.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="63.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="25" width="20.7"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="25" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1921,12 +3215,15 @@
       </c>
       <c r="AMJ1" s="9"/>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>145</v>
+    <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tree" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,6 +17,7 @@
     <sheet name="Design" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="Math" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="DP" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="BinarySearch" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="198">
   <si>
     <t xml:space="preserve">QUESTION</t>
   </si>
@@ -183,6 +184,18 @@
     <t xml:space="preserve">SAME AS 207</t>
   </si>
   <si>
+    <t xml:space="preserve">785. Is Graph Bipartite?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC: A Bipartite Graph is a graph whose vertices can be divided into two independent sets, for every edge (u, v), either u belongs to U and v to V, or u belongs to V and v to U. We can also say that there is no edge that connects vertices of same set.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Bipartite]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DFS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Heap Sort</t>
   </si>
   <si>
@@ -203,6 +216,16 @@
   </si>
   <si>
     <t xml:space="preserve">[MINHEAP][HASHMAP-counter]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1046. Last Stone Weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:find biggest two numbers -&gt; heap
+STEP:1.create maxheap store stones array 2.handle negative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[MAXHEAP]</t>
   </si>
   <si>
     <t xml:space="preserve">Substring</t>
@@ -284,7 +307,7 @@
     <t xml:space="preserve">ATT!handle 3/-123(math.ceil), 3/123(math.floor), isdigit() not work in negative</t>
   </si>
   <si>
-    <t xml:space="preserve">Pattern Match</t>
+    <t xml:space="preserve">Match</t>
   </si>
   <si>
     <t xml:space="preserve">20. Valid Parentheses</t>
@@ -320,6 +343,25 @@
     <t xml:space="preserve">[STRING REGEX](s=s.replace(“-”,””).upper() [MATH]%</t>
   </si>
   <si>
+    <t xml:space="preserve">520. Detect Capital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:Handle if else cases
+STEP:if all capital, all small, firstbig other small; otherwise return False. need var:countBig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">551. Student Attendance Record I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:rule match: 'A'appear less than 2, 'L' cannot consecutive 3+ if else in the meantime handle result return false?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">796. Rotate String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check if goalstr in s+s</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sliding Window</t>
   </si>
   <si>
@@ -354,6 +396,19 @@
 STEP:
 1.first loop create hashmap{char:farthestIndex}
 2.curLen for each partition, curEnd for farthest map[], check i and curEnd, see if need finish cur partition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">224. Basic Calculator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOGIC:STACK only have +/-/()/space
+ATT:DONT use for i in range() inside have while i+1 loop, i won't update to outerloop
+STEP:
+1.create res store add/subtrate all number, sign(1,-1), stack2.when meet (, store prev res and sign into stack, then reset res and sign3.when meet ), pop twice, think simulation:3-(11-2) 4.see sign, update sign 5.see digit, add into res</t>
+  </si>
+  <si>
+    <t xml:space="preserve">227. Basic Calculator II
+</t>
   </si>
   <si>
     <t xml:space="preserve">1D</t>
@@ -506,6 +561,17 @@
     <t xml:space="preserve">[BINARY SEARCH]</t>
   </si>
   <si>
+    <t xml:space="preserve">73. Set Matrix Zeroes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOGIC: if ele is 0(only original 0, NOT COUNT 0 is set, set its whole row and column to 0's
+STEP:iterate 2d, find 0,get[i][j], for i, for j
+ATT! How to avoid reference to same object. 1D array: arr.copy() 2D array:copy.deepcopy(matrix)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">copy of array</t>
+  </si>
+  <si>
     <t xml:space="preserve">Intervals</t>
   </si>
   <si>
@@ -571,6 +637,16 @@
     <t xml:space="preserve">143. Reorder List</t>
   </si>
   <si>
+    <t xml:space="preserve">TOPIC:L0 → Ln → L1 → Ln - 1 → L2 → Ln - 2 → …
+STEP:MIDDLE, REVERSE, MERGE
+1.keep head, step only half
+2.find mid, seperate first part(include mid), second part;second part has longer length.
+3.reverse second part, then let second merge into first</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle;Reverse;Merge</t>
+  </si>
+  <si>
     <t xml:space="preserve">sort</t>
   </si>
   <si>
@@ -606,24 +682,105 @@
     <t xml:space="preserve">231. Power of Two</t>
   </si>
   <si>
-    <t xml:space="preserve">TOPIC: see n == 2^x, given n, see if n is power of two USE BIT
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Abyssinica SIL"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">TOPIC: see n == 2^x, given n, see if n is power of two USE BIT
 STEP:
-1     2       4         8         16 　　....
-1    10    100    1000    10000　....
+1     2       4         8         16 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">　　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Abyssinica SIL"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">....
+1    10    100    1000    10000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Abyssinica SIL"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">....
 see pattern: if n is power of two, mean most siginificant is 1(1bit only appear once), others are 0s
 1.create count variable, while n &gt; 0, shift right 1 pos when count += (n&amp;1). in the end return count ==1</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">[BIT]</t>
   </si>
   <si>
+    <t xml:space="preserve">507. Perfect Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:MATH find all positive divisor and sum up
+Perfect number count all divisor, except itself, [1,2,....sqrt(n)], ATT if input=1, return false.Find i is divisor, check num/i if itself(skip), also divisor.                         STEP: while index&lt;= sqrt(num) and index*index&lt;=num (index start 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Divisor]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">326. Power of Three</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:Power of Three 
+STEP:
+1WAY loop:while n% 3==0:n/=3 return n==1
+2WAY 3^i=n, log3 n = i, logb n / logb 3 = i, if i % 1==0 yes
+(math.log10(n) / math.log10(3)) == floor(math.log10(n) / math.log10(3))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">389. Find the Difference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^=</t>
+  </si>
+  <si>
     <t xml:space="preserve">276. Paint Fence</t>
   </si>
   <si>
     <t xml:space="preserve">STEP:same[k]=diff[k-1](at k same as k-1, mean k-1 must diff k-2) diff[k]=same[k-1]*(k-1)+diff[k-1]*(k-1)(think 3*2cases)</t>
   </si>
   <si>
-    <t xml:space="preserve">[DUAL WAY DP]</t>
+    <t xml:space="preserve">[DUAL WAY bottom-topDP]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">875. Koko Eating Bananas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:Binary Search
+STEP:
+1.each hour only can eat one piles, so len(piles) &lt;= h, maximum k is max(pile), will finish within len(piles),k=[1...max(pile)]
+2.brute force, iterate piles with k=[1...max(pile)] max(pile)times, TIME O(max(pile)times * len(pile))
+3.optimize binary search for k range TIME O(log(max(pile))time * len(pile))
+4.low, high, in while, traverse p get totol hour, if hour &gt; h, go to left</t>
   </si>
 </sst>
 </file>
@@ -683,11 +840,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Abyssinica SIL"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF111111"/>
       <name val="Abyssinica SIL"/>
       <family val="0"/>
@@ -697,6 +849,12 @@
       <sz val="13"/>
       <name val="Abyssinica SIL"/>
       <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Noto Sans CJK SC"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -847,10 +1005,6 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -863,16 +1017,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -887,11 +1037,15 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -907,24 +1061,28 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2176,7 +2334,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="11" t="s">
         <v>31</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -2209,6 +2367,68 @@
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AMJ2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="83.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="36.95"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="1" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="AMJ1" s="9"/>
+    </row>
+    <row r="2" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2221,18 +2441,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ5"/>
+  <dimension ref="A1:AMJ19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="18" width="33.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="18" width="73.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="18.47"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="18" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="17" width="33.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="17" width="73.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="18" width="22.51"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="17" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2260,15 +2480,15 @@
       <c r="AMJ1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="true" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="1" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -2279,20 +2499,1063 @@
       <c r="A4" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="18" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>44</v>
       </c>
+    </row>
+    <row r="6" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0"/>
+      <c r="B19" s="0"/>
+      <c r="C19" s="0"/>
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
+      <c r="F19" s="0"/>
+      <c r="G19" s="0"/>
+      <c r="H19" s="0"/>
+      <c r="I19" s="0"/>
+      <c r="J19" s="0"/>
+      <c r="K19" s="0"/>
+      <c r="L19" s="0"/>
+      <c r="M19" s="0"/>
+      <c r="N19" s="0"/>
+      <c r="O19" s="0"/>
+      <c r="P19" s="0"/>
+      <c r="Q19" s="0"/>
+      <c r="R19" s="0"/>
+      <c r="S19" s="0"/>
+      <c r="T19" s="0"/>
+      <c r="U19" s="0"/>
+      <c r="V19" s="0"/>
+      <c r="W19" s="0"/>
+      <c r="X19" s="0"/>
+      <c r="Y19" s="0"/>
+      <c r="Z19" s="0"/>
+      <c r="AA19" s="0"/>
+      <c r="AB19" s="0"/>
+      <c r="AC19" s="0"/>
+      <c r="AD19" s="0"/>
+      <c r="AE19" s="0"/>
+      <c r="AF19" s="0"/>
+      <c r="AG19" s="0"/>
+      <c r="AH19" s="0"/>
+      <c r="AI19" s="0"/>
+      <c r="AJ19" s="0"/>
+      <c r="AK19" s="0"/>
+      <c r="AL19" s="0"/>
+      <c r="AM19" s="0"/>
+      <c r="AN19" s="0"/>
+      <c r="AO19" s="0"/>
+      <c r="AP19" s="0"/>
+      <c r="AQ19" s="0"/>
+      <c r="AR19" s="0"/>
+      <c r="AS19" s="0"/>
+      <c r="AT19" s="0"/>
+      <c r="AU19" s="0"/>
+      <c r="AV19" s="0"/>
+      <c r="AW19" s="0"/>
+      <c r="AX19" s="0"/>
+      <c r="AY19" s="0"/>
+      <c r="AZ19" s="0"/>
+      <c r="BA19" s="0"/>
+      <c r="BB19" s="0"/>
+      <c r="BC19" s="0"/>
+      <c r="BD19" s="0"/>
+      <c r="BE19" s="0"/>
+      <c r="BF19" s="0"/>
+      <c r="BG19" s="0"/>
+      <c r="BH19" s="0"/>
+      <c r="BI19" s="0"/>
+      <c r="BJ19" s="0"/>
+      <c r="BK19" s="0"/>
+      <c r="BL19" s="0"/>
+      <c r="BM19" s="0"/>
+      <c r="BN19" s="0"/>
+      <c r="BO19" s="0"/>
+      <c r="BP19" s="0"/>
+      <c r="BQ19" s="0"/>
+      <c r="BR19" s="0"/>
+      <c r="BS19" s="0"/>
+      <c r="BT19" s="0"/>
+      <c r="BU19" s="0"/>
+      <c r="BV19" s="0"/>
+      <c r="BW19" s="0"/>
+      <c r="BX19" s="0"/>
+      <c r="BY19" s="0"/>
+      <c r="BZ19" s="0"/>
+      <c r="CA19" s="0"/>
+      <c r="CB19" s="0"/>
+      <c r="CC19" s="0"/>
+      <c r="CD19" s="0"/>
+      <c r="CE19" s="0"/>
+      <c r="CF19" s="0"/>
+      <c r="CG19" s="0"/>
+      <c r="CH19" s="0"/>
+      <c r="CI19" s="0"/>
+      <c r="CJ19" s="0"/>
+      <c r="CK19" s="0"/>
+      <c r="CL19" s="0"/>
+      <c r="CM19" s="0"/>
+      <c r="CN19" s="0"/>
+      <c r="CO19" s="0"/>
+      <c r="CP19" s="0"/>
+      <c r="CQ19" s="0"/>
+      <c r="CR19" s="0"/>
+      <c r="CS19" s="0"/>
+      <c r="CT19" s="0"/>
+      <c r="CU19" s="0"/>
+      <c r="CV19" s="0"/>
+      <c r="CW19" s="0"/>
+      <c r="CX19" s="0"/>
+      <c r="CY19" s="0"/>
+      <c r="CZ19" s="0"/>
+      <c r="DA19" s="0"/>
+      <c r="DB19" s="0"/>
+      <c r="DC19" s="0"/>
+      <c r="DD19" s="0"/>
+      <c r="DE19" s="0"/>
+      <c r="DF19" s="0"/>
+      <c r="DG19" s="0"/>
+      <c r="DH19" s="0"/>
+      <c r="DI19" s="0"/>
+      <c r="DJ19" s="0"/>
+      <c r="DK19" s="0"/>
+      <c r="DL19" s="0"/>
+      <c r="DM19" s="0"/>
+      <c r="DN19" s="0"/>
+      <c r="DO19" s="0"/>
+      <c r="DP19" s="0"/>
+      <c r="DQ19" s="0"/>
+      <c r="DR19" s="0"/>
+      <c r="DS19" s="0"/>
+      <c r="DT19" s="0"/>
+      <c r="DU19" s="0"/>
+      <c r="DV19" s="0"/>
+      <c r="DW19" s="0"/>
+      <c r="DX19" s="0"/>
+      <c r="DY19" s="0"/>
+      <c r="DZ19" s="0"/>
+      <c r="EA19" s="0"/>
+      <c r="EB19" s="0"/>
+      <c r="EC19" s="0"/>
+      <c r="ED19" s="0"/>
+      <c r="EE19" s="0"/>
+      <c r="EF19" s="0"/>
+      <c r="EG19" s="0"/>
+      <c r="EH19" s="0"/>
+      <c r="EI19" s="0"/>
+      <c r="EJ19" s="0"/>
+      <c r="EK19" s="0"/>
+      <c r="EL19" s="0"/>
+      <c r="EM19" s="0"/>
+      <c r="EN19" s="0"/>
+      <c r="EO19" s="0"/>
+      <c r="EP19" s="0"/>
+      <c r="EQ19" s="0"/>
+      <c r="ER19" s="0"/>
+      <c r="ES19" s="0"/>
+      <c r="ET19" s="0"/>
+      <c r="EU19" s="0"/>
+      <c r="EV19" s="0"/>
+      <c r="EW19" s="0"/>
+      <c r="EX19" s="0"/>
+      <c r="EY19" s="0"/>
+      <c r="EZ19" s="0"/>
+      <c r="FA19" s="0"/>
+      <c r="FB19" s="0"/>
+      <c r="FC19" s="0"/>
+      <c r="FD19" s="0"/>
+      <c r="FE19" s="0"/>
+      <c r="FF19" s="0"/>
+      <c r="FG19" s="0"/>
+      <c r="FH19" s="0"/>
+      <c r="FI19" s="0"/>
+      <c r="FJ19" s="0"/>
+      <c r="FK19" s="0"/>
+      <c r="FL19" s="0"/>
+      <c r="FM19" s="0"/>
+      <c r="FN19" s="0"/>
+      <c r="FO19" s="0"/>
+      <c r="FP19" s="0"/>
+      <c r="FQ19" s="0"/>
+      <c r="FR19" s="0"/>
+      <c r="FS19" s="0"/>
+      <c r="FT19" s="0"/>
+      <c r="FU19" s="0"/>
+      <c r="FV19" s="0"/>
+      <c r="FW19" s="0"/>
+      <c r="FX19" s="0"/>
+      <c r="FY19" s="0"/>
+      <c r="FZ19" s="0"/>
+      <c r="GA19" s="0"/>
+      <c r="GB19" s="0"/>
+      <c r="GC19" s="0"/>
+      <c r="GD19" s="0"/>
+      <c r="GE19" s="0"/>
+      <c r="GF19" s="0"/>
+      <c r="GG19" s="0"/>
+      <c r="GH19" s="0"/>
+      <c r="GI19" s="0"/>
+      <c r="GJ19" s="0"/>
+      <c r="GK19" s="0"/>
+      <c r="GL19" s="0"/>
+      <c r="GM19" s="0"/>
+      <c r="GN19" s="0"/>
+      <c r="GO19" s="0"/>
+      <c r="GP19" s="0"/>
+      <c r="GQ19" s="0"/>
+      <c r="GR19" s="0"/>
+      <c r="GS19" s="0"/>
+      <c r="GT19" s="0"/>
+      <c r="GU19" s="0"/>
+      <c r="GV19" s="0"/>
+      <c r="GW19" s="0"/>
+      <c r="GX19" s="0"/>
+      <c r="GY19" s="0"/>
+      <c r="GZ19" s="0"/>
+      <c r="HA19" s="0"/>
+      <c r="HB19" s="0"/>
+      <c r="HC19" s="0"/>
+      <c r="HD19" s="0"/>
+      <c r="HE19" s="0"/>
+      <c r="HF19" s="0"/>
+      <c r="HG19" s="0"/>
+      <c r="HH19" s="0"/>
+      <c r="HI19" s="0"/>
+      <c r="HJ19" s="0"/>
+      <c r="HK19" s="0"/>
+      <c r="HL19" s="0"/>
+      <c r="HM19" s="0"/>
+      <c r="HN19" s="0"/>
+      <c r="HO19" s="0"/>
+      <c r="HP19" s="0"/>
+      <c r="HQ19" s="0"/>
+      <c r="HR19" s="0"/>
+      <c r="HS19" s="0"/>
+      <c r="HT19" s="0"/>
+      <c r="HU19" s="0"/>
+      <c r="HV19" s="0"/>
+      <c r="HW19" s="0"/>
+      <c r="HX19" s="0"/>
+      <c r="HY19" s="0"/>
+      <c r="HZ19" s="0"/>
+      <c r="IA19" s="0"/>
+      <c r="IB19" s="0"/>
+      <c r="IC19" s="0"/>
+      <c r="ID19" s="0"/>
+      <c r="IE19" s="0"/>
+      <c r="IF19" s="0"/>
+      <c r="IG19" s="0"/>
+      <c r="IH19" s="0"/>
+      <c r="II19" s="0"/>
+      <c r="IJ19" s="0"/>
+      <c r="IK19" s="0"/>
+      <c r="IL19" s="0"/>
+      <c r="IM19" s="0"/>
+      <c r="IN19" s="0"/>
+      <c r="IO19" s="0"/>
+      <c r="IP19" s="0"/>
+      <c r="IQ19" s="0"/>
+      <c r="IR19" s="0"/>
+      <c r="IS19" s="0"/>
+      <c r="IT19" s="0"/>
+      <c r="IU19" s="0"/>
+      <c r="IV19" s="0"/>
+      <c r="IW19" s="0"/>
+      <c r="IX19" s="0"/>
+      <c r="IY19" s="0"/>
+      <c r="IZ19" s="0"/>
+      <c r="JA19" s="0"/>
+      <c r="JB19" s="0"/>
+      <c r="JC19" s="0"/>
+      <c r="JD19" s="0"/>
+      <c r="JE19" s="0"/>
+      <c r="JF19" s="0"/>
+      <c r="JG19" s="0"/>
+      <c r="JH19" s="0"/>
+      <c r="JI19" s="0"/>
+      <c r="JJ19" s="0"/>
+      <c r="JK19" s="0"/>
+      <c r="JL19" s="0"/>
+      <c r="JM19" s="0"/>
+      <c r="JN19" s="0"/>
+      <c r="JO19" s="0"/>
+      <c r="JP19" s="0"/>
+      <c r="JQ19" s="0"/>
+      <c r="JR19" s="0"/>
+      <c r="JS19" s="0"/>
+      <c r="JT19" s="0"/>
+      <c r="JU19" s="0"/>
+      <c r="JV19" s="0"/>
+      <c r="JW19" s="0"/>
+      <c r="JX19" s="0"/>
+      <c r="JY19" s="0"/>
+      <c r="JZ19" s="0"/>
+      <c r="KA19" s="0"/>
+      <c r="KB19" s="0"/>
+      <c r="KC19" s="0"/>
+      <c r="KD19" s="0"/>
+      <c r="KE19" s="0"/>
+      <c r="KF19" s="0"/>
+      <c r="KG19" s="0"/>
+      <c r="KH19" s="0"/>
+      <c r="KI19" s="0"/>
+      <c r="KJ19" s="0"/>
+      <c r="KK19" s="0"/>
+      <c r="KL19" s="0"/>
+      <c r="KM19" s="0"/>
+      <c r="KN19" s="0"/>
+      <c r="KO19" s="0"/>
+      <c r="KP19" s="0"/>
+      <c r="KQ19" s="0"/>
+      <c r="KR19" s="0"/>
+      <c r="KS19" s="0"/>
+      <c r="KT19" s="0"/>
+      <c r="KU19" s="0"/>
+      <c r="KV19" s="0"/>
+      <c r="KW19" s="0"/>
+      <c r="KX19" s="0"/>
+      <c r="KY19" s="0"/>
+      <c r="KZ19" s="0"/>
+      <c r="LA19" s="0"/>
+      <c r="LB19" s="0"/>
+      <c r="LC19" s="0"/>
+      <c r="LD19" s="0"/>
+      <c r="LE19" s="0"/>
+      <c r="LF19" s="0"/>
+      <c r="LG19" s="0"/>
+      <c r="LH19" s="0"/>
+      <c r="LI19" s="0"/>
+      <c r="LJ19" s="0"/>
+      <c r="LK19" s="0"/>
+      <c r="LL19" s="0"/>
+      <c r="LM19" s="0"/>
+      <c r="LN19" s="0"/>
+      <c r="LO19" s="0"/>
+      <c r="LP19" s="0"/>
+      <c r="LQ19" s="0"/>
+      <c r="LR19" s="0"/>
+      <c r="LS19" s="0"/>
+      <c r="LT19" s="0"/>
+      <c r="LU19" s="0"/>
+      <c r="LV19" s="0"/>
+      <c r="LW19" s="0"/>
+      <c r="LX19" s="0"/>
+      <c r="LY19" s="0"/>
+      <c r="LZ19" s="0"/>
+      <c r="MA19" s="0"/>
+      <c r="MB19" s="0"/>
+      <c r="MC19" s="0"/>
+      <c r="MD19" s="0"/>
+      <c r="ME19" s="0"/>
+      <c r="MF19" s="0"/>
+      <c r="MG19" s="0"/>
+      <c r="MH19" s="0"/>
+      <c r="MI19" s="0"/>
+      <c r="MJ19" s="0"/>
+      <c r="MK19" s="0"/>
+      <c r="ML19" s="0"/>
+      <c r="MM19" s="0"/>
+      <c r="MN19" s="0"/>
+      <c r="MO19" s="0"/>
+      <c r="MP19" s="0"/>
+      <c r="MQ19" s="0"/>
+      <c r="MR19" s="0"/>
+      <c r="MS19" s="0"/>
+      <c r="MT19" s="0"/>
+      <c r="MU19" s="0"/>
+      <c r="MV19" s="0"/>
+      <c r="MW19" s="0"/>
+      <c r="MX19" s="0"/>
+      <c r="MY19" s="0"/>
+      <c r="MZ19" s="0"/>
+      <c r="NA19" s="0"/>
+      <c r="NB19" s="0"/>
+      <c r="NC19" s="0"/>
+      <c r="ND19" s="0"/>
+      <c r="NE19" s="0"/>
+      <c r="NF19" s="0"/>
+      <c r="NG19" s="0"/>
+      <c r="NH19" s="0"/>
+      <c r="NI19" s="0"/>
+      <c r="NJ19" s="0"/>
+      <c r="NK19" s="0"/>
+      <c r="NL19" s="0"/>
+      <c r="NM19" s="0"/>
+      <c r="NN19" s="0"/>
+      <c r="NO19" s="0"/>
+      <c r="NP19" s="0"/>
+      <c r="NQ19" s="0"/>
+      <c r="NR19" s="0"/>
+      <c r="NS19" s="0"/>
+      <c r="NT19" s="0"/>
+      <c r="NU19" s="0"/>
+      <c r="NV19" s="0"/>
+      <c r="NW19" s="0"/>
+      <c r="NX19" s="0"/>
+      <c r="NY19" s="0"/>
+      <c r="NZ19" s="0"/>
+      <c r="OA19" s="0"/>
+      <c r="OB19" s="0"/>
+      <c r="OC19" s="0"/>
+      <c r="OD19" s="0"/>
+      <c r="OE19" s="0"/>
+      <c r="OF19" s="0"/>
+      <c r="OG19" s="0"/>
+      <c r="OH19" s="0"/>
+      <c r="OI19" s="0"/>
+      <c r="OJ19" s="0"/>
+      <c r="OK19" s="0"/>
+      <c r="OL19" s="0"/>
+      <c r="OM19" s="0"/>
+      <c r="ON19" s="0"/>
+      <c r="OO19" s="0"/>
+      <c r="OP19" s="0"/>
+      <c r="OQ19" s="0"/>
+      <c r="OR19" s="0"/>
+      <c r="OS19" s="0"/>
+      <c r="OT19" s="0"/>
+      <c r="OU19" s="0"/>
+      <c r="OV19" s="0"/>
+      <c r="OW19" s="0"/>
+      <c r="OX19" s="0"/>
+      <c r="OY19" s="0"/>
+      <c r="OZ19" s="0"/>
+      <c r="PA19" s="0"/>
+      <c r="PB19" s="0"/>
+      <c r="PC19" s="0"/>
+      <c r="PD19" s="0"/>
+      <c r="PE19" s="0"/>
+      <c r="PF19" s="0"/>
+      <c r="PG19" s="0"/>
+      <c r="PH19" s="0"/>
+      <c r="PI19" s="0"/>
+      <c r="PJ19" s="0"/>
+      <c r="PK19" s="0"/>
+      <c r="PL19" s="0"/>
+      <c r="PM19" s="0"/>
+      <c r="PN19" s="0"/>
+      <c r="PO19" s="0"/>
+      <c r="PP19" s="0"/>
+      <c r="PQ19" s="0"/>
+      <c r="PR19" s="0"/>
+      <c r="PS19" s="0"/>
+      <c r="PT19" s="0"/>
+      <c r="PU19" s="0"/>
+      <c r="PV19" s="0"/>
+      <c r="PW19" s="0"/>
+      <c r="PX19" s="0"/>
+      <c r="PY19" s="0"/>
+      <c r="PZ19" s="0"/>
+      <c r="QA19" s="0"/>
+      <c r="QB19" s="0"/>
+      <c r="QC19" s="0"/>
+      <c r="QD19" s="0"/>
+      <c r="QE19" s="0"/>
+      <c r="QF19" s="0"/>
+      <c r="QG19" s="0"/>
+      <c r="QH19" s="0"/>
+      <c r="QI19" s="0"/>
+      <c r="QJ19" s="0"/>
+      <c r="QK19" s="0"/>
+      <c r="QL19" s="0"/>
+      <c r="QM19" s="0"/>
+      <c r="QN19" s="0"/>
+      <c r="QO19" s="0"/>
+      <c r="QP19" s="0"/>
+      <c r="QQ19" s="0"/>
+      <c r="QR19" s="0"/>
+      <c r="QS19" s="0"/>
+      <c r="QT19" s="0"/>
+      <c r="QU19" s="0"/>
+      <c r="QV19" s="0"/>
+      <c r="QW19" s="0"/>
+      <c r="QX19" s="0"/>
+      <c r="QY19" s="0"/>
+      <c r="QZ19" s="0"/>
+      <c r="RA19" s="0"/>
+      <c r="RB19" s="0"/>
+      <c r="RC19" s="0"/>
+      <c r="RD19" s="0"/>
+      <c r="RE19" s="0"/>
+      <c r="RF19" s="0"/>
+      <c r="RG19" s="0"/>
+      <c r="RH19" s="0"/>
+      <c r="RI19" s="0"/>
+      <c r="RJ19" s="0"/>
+      <c r="RK19" s="0"/>
+      <c r="RL19" s="0"/>
+      <c r="RM19" s="0"/>
+      <c r="RN19" s="0"/>
+      <c r="RO19" s="0"/>
+      <c r="RP19" s="0"/>
+      <c r="RQ19" s="0"/>
+      <c r="RR19" s="0"/>
+      <c r="RS19" s="0"/>
+      <c r="RT19" s="0"/>
+      <c r="RU19" s="0"/>
+      <c r="RV19" s="0"/>
+      <c r="RW19" s="0"/>
+      <c r="RX19" s="0"/>
+      <c r="RY19" s="0"/>
+      <c r="RZ19" s="0"/>
+      <c r="SA19" s="0"/>
+      <c r="SB19" s="0"/>
+      <c r="SC19" s="0"/>
+      <c r="SD19" s="0"/>
+      <c r="SE19" s="0"/>
+      <c r="SF19" s="0"/>
+      <c r="SG19" s="0"/>
+      <c r="SH19" s="0"/>
+      <c r="SI19" s="0"/>
+      <c r="SJ19" s="0"/>
+      <c r="SK19" s="0"/>
+      <c r="SL19" s="0"/>
+      <c r="SM19" s="0"/>
+      <c r="SN19" s="0"/>
+      <c r="SO19" s="0"/>
+      <c r="SP19" s="0"/>
+      <c r="SQ19" s="0"/>
+      <c r="SR19" s="0"/>
+      <c r="SS19" s="0"/>
+      <c r="ST19" s="0"/>
+      <c r="SU19" s="0"/>
+      <c r="SV19" s="0"/>
+      <c r="SW19" s="0"/>
+      <c r="SX19" s="0"/>
+      <c r="SY19" s="0"/>
+      <c r="SZ19" s="0"/>
+      <c r="TA19" s="0"/>
+      <c r="TB19" s="0"/>
+      <c r="TC19" s="0"/>
+      <c r="TD19" s="0"/>
+      <c r="TE19" s="0"/>
+      <c r="TF19" s="0"/>
+      <c r="TG19" s="0"/>
+      <c r="TH19" s="0"/>
+      <c r="TI19" s="0"/>
+      <c r="TJ19" s="0"/>
+      <c r="TK19" s="0"/>
+      <c r="TL19" s="0"/>
+      <c r="TM19" s="0"/>
+      <c r="TN19" s="0"/>
+      <c r="TO19" s="0"/>
+      <c r="TP19" s="0"/>
+      <c r="TQ19" s="0"/>
+      <c r="TR19" s="0"/>
+      <c r="TS19" s="0"/>
+      <c r="TT19" s="0"/>
+      <c r="TU19" s="0"/>
+      <c r="TV19" s="0"/>
+      <c r="TW19" s="0"/>
+      <c r="TX19" s="0"/>
+      <c r="TY19" s="0"/>
+      <c r="TZ19" s="0"/>
+      <c r="UA19" s="0"/>
+      <c r="UB19" s="0"/>
+      <c r="UC19" s="0"/>
+      <c r="UD19" s="0"/>
+      <c r="UE19" s="0"/>
+      <c r="UF19" s="0"/>
+      <c r="UG19" s="0"/>
+      <c r="UH19" s="0"/>
+      <c r="UI19" s="0"/>
+      <c r="UJ19" s="0"/>
+      <c r="UK19" s="0"/>
+      <c r="UL19" s="0"/>
+      <c r="UM19" s="0"/>
+      <c r="UN19" s="0"/>
+      <c r="UO19" s="0"/>
+      <c r="UP19" s="0"/>
+      <c r="UQ19" s="0"/>
+      <c r="UR19" s="0"/>
+      <c r="US19" s="0"/>
+      <c r="UT19" s="0"/>
+      <c r="UU19" s="0"/>
+      <c r="UV19" s="0"/>
+      <c r="UW19" s="0"/>
+      <c r="UX19" s="0"/>
+      <c r="UY19" s="0"/>
+      <c r="UZ19" s="0"/>
+      <c r="VA19" s="0"/>
+      <c r="VB19" s="0"/>
+      <c r="VC19" s="0"/>
+      <c r="VD19" s="0"/>
+      <c r="VE19" s="0"/>
+      <c r="VF19" s="0"/>
+      <c r="VG19" s="0"/>
+      <c r="VH19" s="0"/>
+      <c r="VI19" s="0"/>
+      <c r="VJ19" s="0"/>
+      <c r="VK19" s="0"/>
+      <c r="VL19" s="0"/>
+      <c r="VM19" s="0"/>
+      <c r="VN19" s="0"/>
+      <c r="VO19" s="0"/>
+      <c r="VP19" s="0"/>
+      <c r="VQ19" s="0"/>
+      <c r="VR19" s="0"/>
+      <c r="VS19" s="0"/>
+      <c r="VT19" s="0"/>
+      <c r="VU19" s="0"/>
+      <c r="VV19" s="0"/>
+      <c r="VW19" s="0"/>
+      <c r="VX19" s="0"/>
+      <c r="VY19" s="0"/>
+      <c r="VZ19" s="0"/>
+      <c r="WA19" s="0"/>
+      <c r="WB19" s="0"/>
+      <c r="WC19" s="0"/>
+      <c r="WD19" s="0"/>
+      <c r="WE19" s="0"/>
+      <c r="WF19" s="0"/>
+      <c r="WG19" s="0"/>
+      <c r="WH19" s="0"/>
+      <c r="WI19" s="0"/>
+      <c r="WJ19" s="0"/>
+      <c r="WK19" s="0"/>
+      <c r="WL19" s="0"/>
+      <c r="WM19" s="0"/>
+      <c r="WN19" s="0"/>
+      <c r="WO19" s="0"/>
+      <c r="WP19" s="0"/>
+      <c r="WQ19" s="0"/>
+      <c r="WR19" s="0"/>
+      <c r="WS19" s="0"/>
+      <c r="WT19" s="0"/>
+      <c r="WU19" s="0"/>
+      <c r="WV19" s="0"/>
+      <c r="WW19" s="0"/>
+      <c r="WX19" s="0"/>
+      <c r="WY19" s="0"/>
+      <c r="WZ19" s="0"/>
+      <c r="XA19" s="0"/>
+      <c r="XB19" s="0"/>
+      <c r="XC19" s="0"/>
+      <c r="XD19" s="0"/>
+      <c r="XE19" s="0"/>
+      <c r="XF19" s="0"/>
+      <c r="XG19" s="0"/>
+      <c r="XH19" s="0"/>
+      <c r="XI19" s="0"/>
+      <c r="XJ19" s="0"/>
+      <c r="XK19" s="0"/>
+      <c r="XL19" s="0"/>
+      <c r="XM19" s="0"/>
+      <c r="XN19" s="0"/>
+      <c r="XO19" s="0"/>
+      <c r="XP19" s="0"/>
+      <c r="XQ19" s="0"/>
+      <c r="XR19" s="0"/>
+      <c r="XS19" s="0"/>
+      <c r="XT19" s="0"/>
+      <c r="XU19" s="0"/>
+      <c r="XV19" s="0"/>
+      <c r="XW19" s="0"/>
+      <c r="XX19" s="0"/>
+      <c r="XY19" s="0"/>
+      <c r="XZ19" s="0"/>
+      <c r="YA19" s="0"/>
+      <c r="YB19" s="0"/>
+      <c r="YC19" s="0"/>
+      <c r="YD19" s="0"/>
+      <c r="YE19" s="0"/>
+      <c r="YF19" s="0"/>
+      <c r="YG19" s="0"/>
+      <c r="YH19" s="0"/>
+      <c r="YI19" s="0"/>
+      <c r="YJ19" s="0"/>
+      <c r="YK19" s="0"/>
+      <c r="YL19" s="0"/>
+      <c r="YM19" s="0"/>
+      <c r="YN19" s="0"/>
+      <c r="YO19" s="0"/>
+      <c r="YP19" s="0"/>
+      <c r="YQ19" s="0"/>
+      <c r="YR19" s="0"/>
+      <c r="YS19" s="0"/>
+      <c r="YT19" s="0"/>
+      <c r="YU19" s="0"/>
+      <c r="YV19" s="0"/>
+      <c r="YW19" s="0"/>
+      <c r="YX19" s="0"/>
+      <c r="YY19" s="0"/>
+      <c r="YZ19" s="0"/>
+      <c r="ZA19" s="0"/>
+      <c r="ZB19" s="0"/>
+      <c r="ZC19" s="0"/>
+      <c r="ZD19" s="0"/>
+      <c r="ZE19" s="0"/>
+      <c r="ZF19" s="0"/>
+      <c r="ZG19" s="0"/>
+      <c r="ZH19" s="0"/>
+      <c r="ZI19" s="0"/>
+      <c r="ZJ19" s="0"/>
+      <c r="ZK19" s="0"/>
+      <c r="ZL19" s="0"/>
+      <c r="ZM19" s="0"/>
+      <c r="ZN19" s="0"/>
+      <c r="ZO19" s="0"/>
+      <c r="ZP19" s="0"/>
+      <c r="ZQ19" s="0"/>
+      <c r="ZR19" s="0"/>
+      <c r="ZS19" s="0"/>
+      <c r="ZT19" s="0"/>
+      <c r="ZU19" s="0"/>
+      <c r="ZV19" s="0"/>
+      <c r="ZW19" s="0"/>
+      <c r="ZX19" s="0"/>
+      <c r="ZY19" s="0"/>
+      <c r="ZZ19" s="0"/>
+      <c r="AAA19" s="0"/>
+      <c r="AAB19" s="0"/>
+      <c r="AAC19" s="0"/>
+      <c r="AAD19" s="0"/>
+      <c r="AAE19" s="0"/>
+      <c r="AAF19" s="0"/>
+      <c r="AAG19" s="0"/>
+      <c r="AAH19" s="0"/>
+      <c r="AAI19" s="0"/>
+      <c r="AAJ19" s="0"/>
+      <c r="AAK19" s="0"/>
+      <c r="AAL19" s="0"/>
+      <c r="AAM19" s="0"/>
+      <c r="AAN19" s="0"/>
+      <c r="AAO19" s="0"/>
+      <c r="AAP19" s="0"/>
+      <c r="AAQ19" s="0"/>
+      <c r="AAR19" s="0"/>
+      <c r="AAS19" s="0"/>
+      <c r="AAT19" s="0"/>
+      <c r="AAU19" s="0"/>
+      <c r="AAV19" s="0"/>
+      <c r="AAW19" s="0"/>
+      <c r="AAX19" s="0"/>
+      <c r="AAY19" s="0"/>
+      <c r="AAZ19" s="0"/>
+      <c r="ABA19" s="0"/>
+      <c r="ABB19" s="0"/>
+      <c r="ABC19" s="0"/>
+      <c r="ABD19" s="0"/>
+      <c r="ABE19" s="0"/>
+      <c r="ABF19" s="0"/>
+      <c r="ABG19" s="0"/>
+      <c r="ABH19" s="0"/>
+      <c r="ABI19" s="0"/>
+      <c r="ABJ19" s="0"/>
+      <c r="ABK19" s="0"/>
+      <c r="ABL19" s="0"/>
+      <c r="ABM19" s="0"/>
+      <c r="ABN19" s="0"/>
+      <c r="ABO19" s="0"/>
+      <c r="ABP19" s="0"/>
+      <c r="ABQ19" s="0"/>
+      <c r="ABR19" s="0"/>
+      <c r="ABS19" s="0"/>
+      <c r="ABT19" s="0"/>
+      <c r="ABU19" s="0"/>
+      <c r="ABV19" s="0"/>
+      <c r="ABW19" s="0"/>
+      <c r="ABX19" s="0"/>
+      <c r="ABY19" s="0"/>
+      <c r="ABZ19" s="0"/>
+      <c r="ACA19" s="0"/>
+      <c r="ACB19" s="0"/>
+      <c r="ACC19" s="0"/>
+      <c r="ACD19" s="0"/>
+      <c r="ACE19" s="0"/>
+      <c r="ACF19" s="0"/>
+      <c r="ACG19" s="0"/>
+      <c r="ACH19" s="0"/>
+      <c r="ACI19" s="0"/>
+      <c r="ACJ19" s="0"/>
+      <c r="ACK19" s="0"/>
+      <c r="ACL19" s="0"/>
+      <c r="ACM19" s="0"/>
+      <c r="ACN19" s="0"/>
+      <c r="ACO19" s="0"/>
+      <c r="ACP19" s="0"/>
+      <c r="ACQ19" s="0"/>
+      <c r="ACR19" s="0"/>
+      <c r="ACS19" s="0"/>
+      <c r="ACT19" s="0"/>
+      <c r="ACU19" s="0"/>
+      <c r="ACV19" s="0"/>
+      <c r="ACW19" s="0"/>
+      <c r="ACX19" s="0"/>
+      <c r="ACY19" s="0"/>
+      <c r="ACZ19" s="0"/>
+      <c r="ADA19" s="0"/>
+      <c r="ADB19" s="0"/>
+      <c r="ADC19" s="0"/>
+      <c r="ADD19" s="0"/>
+      <c r="ADE19" s="0"/>
+      <c r="ADF19" s="0"/>
+      <c r="ADG19" s="0"/>
+      <c r="ADH19" s="0"/>
+      <c r="ADI19" s="0"/>
+      <c r="ADJ19" s="0"/>
+      <c r="ADK19" s="0"/>
+      <c r="ADL19" s="0"/>
+      <c r="ADM19" s="0"/>
+      <c r="ADN19" s="0"/>
+      <c r="ADO19" s="0"/>
+      <c r="ADP19" s="0"/>
+      <c r="ADQ19" s="0"/>
+      <c r="ADR19" s="0"/>
+      <c r="ADS19" s="0"/>
+      <c r="ADT19" s="0"/>
+      <c r="ADU19" s="0"/>
+      <c r="ADV19" s="0"/>
+      <c r="ADW19" s="0"/>
+      <c r="ADX19" s="0"/>
+      <c r="ADY19" s="0"/>
+      <c r="ADZ19" s="0"/>
+      <c r="AEA19" s="0"/>
+      <c r="AEB19" s="0"/>
+      <c r="AEC19" s="0"/>
+      <c r="AED19" s="0"/>
+      <c r="AEE19" s="0"/>
+      <c r="AEF19" s="0"/>
+      <c r="AEG19" s="0"/>
+      <c r="AEH19" s="0"/>
+      <c r="AEI19" s="0"/>
+      <c r="AEJ19" s="0"/>
+      <c r="AEK19" s="0"/>
+      <c r="AEL19" s="0"/>
+      <c r="AEM19" s="0"/>
+      <c r="AEN19" s="0"/>
+      <c r="AEO19" s="0"/>
+      <c r="AEP19" s="0"/>
+      <c r="AEQ19" s="0"/>
+      <c r="AER19" s="0"/>
+      <c r="AES19" s="0"/>
+      <c r="AET19" s="0"/>
+      <c r="AEU19" s="0"/>
+      <c r="AEV19" s="0"/>
+      <c r="AEW19" s="0"/>
+      <c r="AEX19" s="0"/>
+      <c r="AEY19" s="0"/>
+      <c r="AEZ19" s="0"/>
+      <c r="AFA19" s="0"/>
+      <c r="AFB19" s="0"/>
+      <c r="AFC19" s="0"/>
+      <c r="AFD19" s="0"/>
+      <c r="AFE19" s="0"/>
+      <c r="AFF19" s="0"/>
+      <c r="AFG19" s="0"/>
+      <c r="AFH19" s="0"/>
+      <c r="AFI19" s="0"/>
+      <c r="AFJ19" s="0"/>
+      <c r="AFK19" s="0"/>
+      <c r="AFL19" s="0"/>
+      <c r="AFM19" s="0"/>
+      <c r="AFN19" s="0"/>
+      <c r="AFO19" s="0"/>
+      <c r="AFP19" s="0"/>
+      <c r="AFQ19" s="0"/>
+      <c r="AFR19" s="0"/>
+      <c r="AFS19" s="0"/>
+      <c r="AFT19" s="0"/>
+      <c r="AFU19" s="0"/>
+      <c r="AFV19" s="0"/>
+      <c r="AFW19" s="0"/>
+      <c r="AFX19" s="0"/>
+      <c r="AFY19" s="0"/>
+      <c r="AFZ19" s="0"/>
+      <c r="AGA19" s="0"/>
+      <c r="AGB19" s="0"/>
+      <c r="AGC19" s="0"/>
+      <c r="AGD19" s="0"/>
+      <c r="AGE19" s="0"/>
+      <c r="AGF19" s="0"/>
+      <c r="AGG19" s="0"/>
+      <c r="AGH19" s="0"/>
+      <c r="AGI19" s="0"/>
+      <c r="AGJ19" s="0"/>
+      <c r="AGK19" s="0"/>
+      <c r="AGL19" s="0"/>
+      <c r="AGM19" s="0"/>
+      <c r="AGN19" s="0"/>
+      <c r="AGO19" s="0"/>
+      <c r="AGP19" s="0"/>
+      <c r="AGQ19" s="0"/>
+      <c r="AGR19" s="0"/>
+      <c r="AGS19" s="0"/>
+      <c r="AGT19" s="0"/>
+      <c r="AGU19" s="0"/>
+      <c r="AGV19" s="0"/>
+      <c r="AGW19" s="0"/>
+      <c r="AGX19" s="0"/>
+      <c r="AGY19" s="0"/>
+      <c r="AGZ19" s="0"/>
+      <c r="AHA19" s="0"/>
+      <c r="AHB19" s="0"/>
+      <c r="AHC19" s="0"/>
+      <c r="AHD19" s="0"/>
+      <c r="AHE19" s="0"/>
+      <c r="AHF19" s="0"/>
+      <c r="AHG19" s="0"/>
+      <c r="AHH19" s="0"/>
+      <c r="AHI19" s="0"/>
+      <c r="AHJ19" s="0"/>
+      <c r="AHK19" s="0"/>
+      <c r="AHL19" s="0"/>
+      <c r="AHM19" s="0"/>
+      <c r="AHN19" s="0"/>
+      <c r="AHO19" s="0"/>
+      <c r="AHP19" s="0"/>
+      <c r="AHQ19" s="0"/>
+      <c r="AHR19" s="0"/>
+      <c r="AHS19" s="0"/>
+      <c r="AHT19" s="0"/>
+      <c r="AHU19" s="0"/>
+      <c r="AHV19" s="0"/>
+      <c r="AHW19" s="0"/>
+      <c r="AHX19" s="0"/>
+      <c r="AHY19" s="0"/>
+      <c r="AHZ19" s="0"/>
+      <c r="AIA19" s="0"/>
+      <c r="AIB19" s="0"/>
+      <c r="AIC19" s="0"/>
+      <c r="AID19" s="0"/>
+      <c r="AIE19" s="0"/>
+      <c r="AIF19" s="0"/>
+      <c r="AIG19" s="0"/>
+      <c r="AIH19" s="0"/>
+      <c r="AII19" s="0"/>
+      <c r="AIJ19" s="0"/>
+      <c r="AIK19" s="0"/>
+      <c r="AIL19" s="0"/>
+      <c r="AIM19" s="0"/>
+      <c r="AIN19" s="0"/>
+      <c r="AIO19" s="0"/>
+      <c r="AIP19" s="0"/>
+      <c r="AIQ19" s="0"/>
+      <c r="AIR19" s="0"/>
+      <c r="AIS19" s="0"/>
+      <c r="AIT19" s="0"/>
+      <c r="AIU19" s="0"/>
+      <c r="AIV19" s="0"/>
+      <c r="AIW19" s="0"/>
+      <c r="AIX19" s="0"/>
+      <c r="AIY19" s="0"/>
+      <c r="AIZ19" s="0"/>
+      <c r="AJA19" s="0"/>
+      <c r="AJB19" s="0"/>
+      <c r="AJC19" s="0"/>
+      <c r="AJD19" s="0"/>
+      <c r="AJE19" s="0"/>
+      <c r="AJF19" s="0"/>
+      <c r="AJG19" s="0"/>
+      <c r="AJH19" s="0"/>
+      <c r="AJI19" s="0"/>
+      <c r="AJJ19" s="0"/>
+      <c r="AJK19" s="0"/>
+      <c r="AJL19" s="0"/>
+      <c r="AJM19" s="0"/>
+      <c r="AJN19" s="0"/>
+      <c r="AJO19" s="0"/>
+      <c r="AJP19" s="0"/>
+      <c r="AJQ19" s="0"/>
+      <c r="AJR19" s="0"/>
+      <c r="AJS19" s="0"/>
+      <c r="AJT19" s="0"/>
+      <c r="AJU19" s="0"/>
+      <c r="AJV19" s="0"/>
+      <c r="AJW19" s="0"/>
+      <c r="AJX19" s="0"/>
+      <c r="AJY19" s="0"/>
+      <c r="AJZ19" s="0"/>
+      <c r="AKA19" s="0"/>
+      <c r="AKB19" s="0"/>
+      <c r="AKC19" s="0"/>
+      <c r="AKD19" s="0"/>
+      <c r="AKE19" s="0"/>
+      <c r="AKF19" s="0"/>
+      <c r="AKG19" s="0"/>
+      <c r="AKH19" s="0"/>
+      <c r="AKI19" s="0"/>
+      <c r="AKJ19" s="0"/>
+      <c r="AKK19" s="0"/>
+      <c r="AKL19" s="0"/>
+      <c r="AKM19" s="0"/>
+      <c r="AKN19" s="0"/>
+      <c r="AKO19" s="0"/>
+      <c r="AKP19" s="0"/>
+      <c r="AKQ19" s="0"/>
+      <c r="AKR19" s="0"/>
+      <c r="AKS19" s="0"/>
+      <c r="AKT19" s="0"/>
+      <c r="AKU19" s="0"/>
+      <c r="AKV19" s="0"/>
+      <c r="AKW19" s="0"/>
+      <c r="AKX19" s="0"/>
+      <c r="AKY19" s="0"/>
+      <c r="AKZ19" s="0"/>
+      <c r="ALA19" s="0"/>
+      <c r="ALB19" s="0"/>
+      <c r="ALC19" s="0"/>
+      <c r="ALD19" s="0"/>
+      <c r="ALE19" s="0"/>
+      <c r="ALF19" s="0"/>
+      <c r="ALG19" s="0"/>
+      <c r="ALH19" s="0"/>
+      <c r="ALI19" s="0"/>
+      <c r="ALJ19" s="0"/>
+      <c r="ALK19" s="0"/>
+      <c r="ALL19" s="0"/>
+      <c r="ALM19" s="0"/>
+      <c r="ALN19" s="0"/>
+      <c r="ALO19" s="0"/>
+      <c r="ALP19" s="0"/>
+      <c r="ALQ19" s="0"/>
+      <c r="ALR19" s="0"/>
+      <c r="ALS19" s="0"/>
+      <c r="ALT19" s="0"/>
+      <c r="ALU19" s="0"/>
+      <c r="ALV19" s="0"/>
+      <c r="ALW19" s="0"/>
+      <c r="ALX19" s="0"/>
+      <c r="ALY19" s="0"/>
+      <c r="ALZ19" s="0"/>
+      <c r="AMA19" s="0"/>
+      <c r="AMB19" s="0"/>
+      <c r="AMC19" s="0"/>
+      <c r="AMD19" s="0"/>
+      <c r="AME19" s="0"/>
+      <c r="AMF19" s="0"/>
+      <c r="AMG19" s="0"/>
+      <c r="AMH19" s="0"/>
+      <c r="AMI19" s="0"/>
+      <c r="AMJ19" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2310,21 +3573,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ4"/>
+  <dimension ref="A1:AMJ5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="25" width="31.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="25" width="58.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="25" width="26.39"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="25" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="25" width="20.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="25" width="13.47"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="25" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="31.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="23" width="58.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="26.39"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="23" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="23" width="20.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="23" width="13.47"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="23" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2353,7 +3616,7 @@
     </row>
     <row r="2" s="4" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B2" s="3"/>
       <c r="F2" s="3"/>
@@ -2363,25 +3626,36 @@
       <c r="AMJ2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>48</v>
+      <c r="A3" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>51</v>
+      <c r="A4" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2400,16 +3674,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ80"/>
+  <dimension ref="A1:AMJ92"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B49" activeCellId="0" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="69.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="77.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="40.29"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="1" width="11.52"/>
   </cols>
@@ -2440,102 +3714,102 @@
     </row>
     <row r="2" s="9" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
+        <v>59</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
     </row>
     <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="14" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="14" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="28" t="s">
-        <v>66</v>
+      <c r="A30" s="27" t="s">
+        <v>73</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="29" t="s">
-        <v>69</v>
+      <c r="A31" s="28" t="s">
+        <v>76</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="30" t="s">
-        <v>72</v>
+      <c r="A32" s="29" t="s">
+        <v>79</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="13" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>16</v>
@@ -2543,15 +3817,15 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="29" t="s">
-        <v>77</v>
+      <c r="A43" s="28" t="s">
+        <v>84</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>16</v>
@@ -2559,98 +3833,112 @@
     </row>
     <row r="44" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="12" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="13" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="31" t="s">
-        <v>83</v>
+      <c r="A46" s="30" t="s">
+        <v>90</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="47" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="33"/>
-      <c r="C47" s="33"/>
-    </row>
-    <row r="48" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="33"/>
-      <c r="C48" s="33"/>
-    </row>
-    <row r="49" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="33"/>
-      <c r="C49" s="33"/>
-    </row>
-    <row r="50" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="33"/>
-      <c r="C50" s="33"/>
-    </row>
-    <row r="51" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="33"/>
-      <c r="C51" s="33"/>
-    </row>
-    <row r="52" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="33"/>
-      <c r="C52" s="33"/>
-    </row>
-    <row r="53" s="32" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="B53" s="33"/>
-      <c r="C53" s="33"/>
-    </row>
-    <row r="54" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="B79" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C79" s="2" t="s">
+    </row>
+    <row r="47" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="11" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="80" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="11" t="s">
+      <c r="B47" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B80" s="2" t="s">
+    </row>
+    <row r="48" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="11" t="s">
         <v>95</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2669,18 +3957,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ76"/>
+  <dimension ref="A1:AMJ85"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C66" activeCellId="0" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="22" width="94.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="21.95"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="18" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="21" width="94.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="18" width="21.95"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="17" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2709,204 +3997,220 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>55</v>
+        <v>114</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>102</v>
+        <v>116</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>105</v>
+        <v>119</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>108</v>
+        <v>122</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>110</v>
+        <v>125</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>113</v>
+        <v>128</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="10" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>108</v>
+        <v>131</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="B36" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>119</v>
+        <v>133</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="10" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="B49" s="22" t="s">
-        <v>122</v>
+        <v>137</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="10" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B58" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C58" s="19" t="s">
-        <v>127</v>
+        <v>141</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B59" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>130</v>
+        <v>144</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="B60" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="C60" s="19" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B68" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="C68" s="19" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="B69" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="C69" s="19" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="B70" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0"/>
+      <c r="A60" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B77" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="B78" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="C78" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B79" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2926,19 +4230,19 @@
   </sheetPr>
   <dimension ref="A1:AMJ38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="22" width="63.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="20.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="18" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="18" width="18.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="18" width="18.2"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="18" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="21" width="73.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="18" width="20.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="17" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="17" width="18.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="17" width="18.2"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="17" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2967,60 +4271,66 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>146</v>
+        <v>163</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>152</v>
+        <v>168</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="B38" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>156</v>
+        <v>175</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -3079,21 +4389,21 @@
     </row>
     <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="12" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3112,17 +4422,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ2"/>
+  <dimension ref="A1:AMJ5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="71.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.66"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="1" width="11.52"/>
   </cols>
   <sheetData>
@@ -3152,13 +4462,40 @@
     </row>
     <row r="2" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>164</v>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -3180,15 +4517,15 @@
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="25" width="20.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="63.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="25" width="20.7"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="25" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="20.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="63.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="18" width="20.7"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="23" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3216,14 +4553,14 @@
       <c r="AMJ1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="36" t="s">
-        <v>165</v>
+      <c r="A2" s="32" t="s">
+        <v>193</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>167</v>
+        <v>194</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Tree" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="230">
   <si>
     <t xml:space="preserve">QUESTION</t>
   </si>
@@ -196,6 +196,9 @@
     <t xml:space="preserve">DFS</t>
   </si>
   <si>
+    <t xml:space="preserve">CODE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Heap Sort</t>
   </si>
   <si>
@@ -226,6 +229,23 @@
   </si>
   <si>
     <t xml:space="preserve">[MAXHEAP]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">973. K Closest Points to Origin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:k smallest distance, return the pairs
+STEP:
+1.sort distance, but return pair, so reassign points(distance, point) array
+2.heapify reassigned points array(minheap,increasing order) return first k pairs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[HEPIFY]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">points = [(point[1]*point[1] + point[0] *point[0], point) for point in points]
+heapq.heapify(points)
+Return [heapq.heappop(points)[1] for _ in range(k)]</t>
   </si>
   <si>
     <t xml:space="preserve">Substring</t>
@@ -402,7 +422,7 @@
   </si>
   <si>
     <t xml:space="preserve">LOGIC:STACK only have +/-/()/space
-ATT:DONT use for i in range() inside have while i+1 loop, i won't update to outerloop
+ATT:DONT use for i in range() inside have while i+1 loop, i won't update to outerloop;use while i&lt;len, inside has while i+1&lt;len for temp=temp*10+cur
 STEP:
 1.create res store add/subtrate all number, sign(1,-1), stack2.when meet (, store prev res and sign into stack, then reset res and sign3.when meet ), pop twice, think simulation:3-(11-2) 4.see sign, update sign 5.see digit, add into res</t>
   </si>
@@ -411,6 +431,9 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Similiar</t>
+  </si>
+  <si>
     <t xml:space="preserve">1D</t>
   </si>
   <si>
@@ -420,8 +443,34 @@
     <t xml:space="preserve">560. Subarray Sum Equals K</t>
   </si>
   <si>
-    <t xml:space="preserve">TOPIC: number of subarray sum =k
-1WAYbrute force STEP: TLE
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Abyssinica SIL"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">TOPIC: number of subarray sum =k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Abyssinica SIL"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(have positive&amp;negative)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Abyssinica SIL"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1WAYbrute force STEP: TLE
 1.create sum array, one loop sum[i] = cur + sum[i-1]
 2.second loop which is nested loop, find inner array may has res
 !CANNOT USE SLIDING WINDOW because have positive and negative [....-6],k=100, if &gt; 100, but nextone is negative will cut down to 100
@@ -429,6 +478,7 @@
 1.count total when iterate nums total+=n
 2.map default{0:1} if total-k already in map: res += map[total-k]
 3.all situation:map[total] += 1</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">15. 3Sum</t>
@@ -467,10 +517,82 @@
     <t xml:space="preserve">152. Maximum Product Subarray</t>
   </si>
   <si>
-    <t xml:space="preserve">TOPIC:maximum subarray similiar to maximum sum subarray
-STEP:ATT![-2,3,-4]-&gt;24,so not only think max, min, 
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Abyssinica SIL"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">TOPIC:maximum subarray similiar to maximum sum subarray</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Abyssinica SIL"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(have positive,negative)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Abyssinica SIL"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">STEP:ATT![-2,3,-4]-&gt;24,so not only think max, min, 
 1.create dp for maxdp, mindp. compare max(maxdp[i-1]*cur, mindp[i-1]*cur, cur), min as well
 2.res=max(res, maxdp)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">628. Maximum Product of Three Numbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:has positive&amp;negative. sort()=&gt;max(nums[0]*nums[1]*nums[-1], nums[-1]*nums[-2]*nums[-3])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[SORT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">888. Fair Candy Swap</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Abyssinica SIL"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">TOPIC:exchange val for two arrays, make sum same
+STEP:1.diff=sumA-sumB(diff may positive/negative)
+2.create set store A, find (</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Abyssinica SIL"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">diff//2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Abyssinica SIL"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+numB) if in setA(offset B when B larger),return[diff//2+numB, numB]</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Count</t>
@@ -481,6 +603,36 @@
   <si>
     <t xml:space="preserve">TOPIC:Boyer-Moore VotingT:O(n);S:O(1) works for majority element appears more than half of whole array
 STEP:it is same candidate,count++;else check count ==0, change candidate or count--</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006. Count Number of Pairs With Absolute Difference K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1WAY:brute force O(n^2) 2WAY hash res += dic[n-k] + dic[n+k]  #|n1-n2|=k=&gt;n1-n2=k, n1=n2+k or n1-n2=-k, n1=n2-k return res </t>
+  </si>
+  <si>
+    <t xml:space="preserve">645. Set Mismatch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:sorted array[1..n], find duplicate, return[repetition, miss]
+1WAY:hashmap
+2WAY:revert +-&gt;-, or -&gt;+ use index get previous is duplicate or not
+if nums[abs(n)-1] &lt; 0: find duplicate, get res[0]=abs(n).second pass, find miss, if nums[i] &gt; 0, get res[1]=i+1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[RELATION ABOUT INDEX&amp;ELE]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">287. Find the Duplicate Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:find only one duplicate which appears two or more times, S:O(1) FOLLOWUP?
+STEP:No extra space, think Binary Search, think relation about index and ele
+1.left=1,right=len(nums)
+2.mid as index(also ele), check loop all nums array, count &lt;=mid, if yes, mean duplicate on the right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[RELATION ABOUT INDEX&amp;ELE][BINARY SEARCH]</t>
   </si>
   <si>
     <t xml:space="preserve">Sort</t>
@@ -501,6 +653,13 @@
   </si>
   <si>
     <t xml:space="preserve">[SORT 3WAY COMPARE]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">922. Sort Array By Parity II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:sort array, odd and even take up half and half(len is 2X). index is even, then num[index] is even; same as odd
+STEP:two pointer1.i=0, j=1, two pointer tracking even/odd index, if at even/odd index not even/odd swap; otherwise i+=2 or j+=2</t>
   </si>
   <si>
     <t xml:space="preserve">Guess Pattern</t>
@@ -570,6 +729,29 @@
   </si>
   <si>
     <t xml:space="preserve">copy of array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">867. Transpose Matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:flip over main diagonal
+STEP: 
+1.create res array size is opposite to original 2.iterate original array, res[j][i] = original[i][j]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traverse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">766. Toeplitz Matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:traverse matrix diagnosely from bottom left to top-right
+    1 2 3 4
+    5 1 2 3
+    9 5 1 2
+STEP:start point track:9-&gt;5-&gt;1-&gt;2-&gt;3-&gt;4 first column meet [0,0] go first row
+1.outerloop handle start point, rowIndex go up(-), if meet rowIndex=0, columnIndex go right (+)
+2.innerloop iterate diagnose all val, need another two pointer(wont use in outerloop anymore)</t>
   </si>
   <si>
     <t xml:space="preserve">Intervals</t>
@@ -763,6 +945,20 @@
     <t xml:space="preserve">^=</t>
   </si>
   <si>
+    <t xml:space="preserve">476. Number Complement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:bit 0&gt;1 1-&gt;0, think swift 0 and 1, think mask
+STEP:create copy for while loop control&gt;0 or not, num=mask^num update num, copy shift right,mask shift left                                                                # copy mask  num1 num2
+        # 101  001 ^ 101  100 get rid of same at least significant bit
+        # 010  010 ^ 100  110
+        # 001  100 ^ 110  010
+        # 000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[BIT][MASK]</t>
+  </si>
+  <si>
     <t xml:space="preserve">276. Paint Fence</t>
   </si>
   <si>
@@ -770,6 +966,19 @@
   </si>
   <si>
     <t xml:space="preserve">[DUAL WAY bottom-topDP]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1025. Divisor Game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:game A,B choose x from (0,n) and n % x == 0, if yes, n=n-x, next person's turn; otherwise, no valid move, return false
+STEP:many options, pick one of them make A successfully, so BOTTOM-TOP DP
+1.for dp, if False, A lose; if True, A win. dp size n+1, because need to two loops, outer loop need count n
+2.two loops,outer loop i starting 2, len(dp) for tracking n, innter loop j starting 1, i for tracking pick
+3.if i%j!=0 continue; else:if dp[i-j]=false, dp[i]=true break</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[bottom-top dp]</t>
   </si>
   <si>
     <t xml:space="preserve">875. Koko Eating Bananas</t>
@@ -790,7 +999,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -853,12 +1062,27 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Abyssinica SIL"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Abyssinica SIL"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -886,7 +1110,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFBF0041"/>
+        <bgColor rgb="FFC9211E"/>
       </patternFill>
     </fill>
     <fill>
@@ -898,7 +1122,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBF0041"/>
-        <bgColor rgb="FF800080"/>
+        <bgColor rgb="FFC9211E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9211E"/>
+        <bgColor rgb="FFBF0041"/>
       </patternFill>
     </fill>
   </fills>
@@ -936,7 +1166,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1041,6 +1271,10 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1065,7 +1299,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1148,7 +1382,7 @@
       <rgbColor rgb="FF00A933"/>
       <rgbColor rgb="FF111111"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFC9211E"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -2403,26 +2637,26 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="37" t="s">
         <v>6</v>
       </c>
       <c r="AMJ1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>196</v>
+        <v>228</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>197</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -2444,7 +2678,7 @@
   <dimension ref="A1:AMJ19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2515,7 +2749,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="12" t="s">
         <v>45</v>
       </c>
       <c r="B6" s="18" t="s">
@@ -3573,18 +3807,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ5"/>
+  <dimension ref="A1:AMJ6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="31.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="23" width="58.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="23" width="64.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="26.39"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="23" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="54.04"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="23" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="23" width="20.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="23" width="13.47"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="23" width="11.52"/>
@@ -3600,6 +3835,9 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
@@ -3616,7 +3854,7 @@
     </row>
     <row r="2" s="4" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B2" s="3"/>
       <c r="F2" s="3"/>
@@ -3627,35 +3865,49 @@
     </row>
     <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -3676,8 +3928,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ92"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B49" activeCellId="0" sqref="B49"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B92" activeCellId="0" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3714,102 +3966,102 @@
     </row>
     <row r="2" s="9" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
+        <v>64</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="14" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="14" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="27" t="s">
-        <v>73</v>
+      <c r="A30" s="28" t="s">
+        <v>78</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="28" t="s">
-        <v>76</v>
+      <c r="A31" s="29" t="s">
+        <v>81</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="29" t="s">
-        <v>79</v>
+      <c r="A32" s="30" t="s">
+        <v>84</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="13" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>16</v>
@@ -3817,15 +4069,15 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="28" t="s">
-        <v>84</v>
+      <c r="A43" s="29" t="s">
+        <v>89</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>16</v>
@@ -3833,112 +4085,115 @@
     </row>
     <row r="44" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="12" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="13" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="30" t="s">
-        <v>90</v>
+      <c r="A46" s="31" t="s">
+        <v>95</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="11" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="11" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="11" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="12" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="31" t="s">
-        <v>104</v>
+      <c r="A89" s="32" t="s">
+        <v>109</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="11" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="77.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="13" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="2" t="s">
-        <v>111</v>
+      <c r="A92" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -3957,18 +4212,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ85"/>
+  <dimension ref="A1:AMJ102"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C66" activeCellId="0" sqref="C66"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B51" activeCellId="0" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="34.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="21" width="94.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="18" width="21.95"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="17" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="17" width="45.3"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="17" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3981,6 +4237,9 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
@@ -3997,220 +4256,301 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="13" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="C45" s="18" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="B36" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="B49" s="21" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="B58" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="C58" s="18" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="12" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="C59" s="18" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="B60" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="C60" s="18" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B68" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="C68" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B69" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C69" s="18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="B70" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="B66" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="C66" s="18" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="11" t="s">
-        <v>154</v>
+    <row r="76" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B76" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="C76" s="18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="13" t="s">
+        <v>174</v>
       </c>
       <c r="B77" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="C77" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="B78" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="C78" s="18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="B79" s="21" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B82" s="21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0"/>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B94" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C94" s="18" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="B95" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="C95" s="18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="B96" s="21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4230,8 +4570,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4271,66 +4611,66 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="13" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="15" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -4389,21 +4729,21 @@
     </row>
     <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="12" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -4422,10 +4762,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ5"/>
+  <dimension ref="A1:AMJ6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4462,40 +4802,51 @@
     </row>
     <row r="2" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="28" t="s">
-        <v>191</v>
+      <c r="A5" s="29" t="s">
+        <v>217</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>192</v>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -4514,15 +4865,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ2"/>
+  <dimension ref="A1:AMJ3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="20.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="30.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="63.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="18" width="20.7"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="23" width="11.52"/>
@@ -4553,14 +4904,25 @@
       <c r="AMJ1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="32" t="s">
-        <v>193</v>
+      <c r="A2" s="26" t="s">
+        <v>222</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>195</v>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Tree" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,6 +18,8 @@
     <sheet name="Math" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="DP" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="BinarySearch" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Greedy" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Hashtable" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="250">
   <si>
     <t xml:space="preserve">QUESTION</t>
   </si>
@@ -89,6 +91,16 @@
     <t xml:space="preserve">[STACK]</t>
   </si>
   <si>
+    <t xml:space="preserve">116. Populating Next Right Pointers in Each Node</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:perfect tree(every node has two children, except leaves), add extra nextright pointer
+STEP:level by level think BFS(queue)
+DONT USE bfs template, cross tree and next point must to most parent brother's left right
+1.let both children link:top.left.next=top.right #
+2.let children link to children cousin: top.right.next = top.next.left</t>
+  </si>
+  <si>
     <t xml:space="preserve">Search</t>
   </si>
   <si>
@@ -128,6 +140,9 @@
   </si>
   <si>
     <t xml:space="preserve">BST,sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1026. Maximum Difference Between Node and Ancestor</t>
   </si>
   <si>
     <t xml:space="preserve">Reassign</t>
@@ -595,6 +610,14 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">1588. Sum of All Odd Length Subarrays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:sum of permulate prefix sum at odd length subarray
+STEP:1.create prefix sumarray, traverse fill out
+2.construct subarray, outerloop,control start of subarray;inner loop, expand valid subarray</t>
+  </si>
+  <si>
     <t xml:space="preserve">Count</t>
   </si>
   <si>
@@ -859,6 +882,15 @@
   </si>
   <si>
     <t xml:space="preserve">[CLASS](getList(), isInteger(), getInteger()) [STACK]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1656. Design an Ordered Stream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:insert not in order, but reading pt is in order
+when insert() called, return longest ls starting from curpt
+1.constructor:self.arr with n size; self.curpt
+2.insert():insert first. create res arr. for loop starting from curpt, if see self.arr[curpt]=="" break,otherwise search next one, update curpt</t>
   </si>
   <si>
     <t xml:space="preserve">231. Power of Two</t>
@@ -959,6 +991,233 @@
     <t xml:space="preserve">[BIT][MASK]</t>
   </si>
   <si>
+    <t xml:space="preserve">1015. Smallest Integer Divisible by K</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Abyssinica SIL"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">TOPIC:find smallest n which only contains digit 1, can be divisible by k,count len of n
+STEP:MATH:pighole algorithm/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">抽屉原理
+ 原理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Abyssinica SIL"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">： 把多于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Abyssinica SIL"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">个的物体放到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Abyssinica SIL"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">个抽屉里，则至少有一个抽屉里的东西不少于两件。
+原理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Abyssinica SIL"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">：把多于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Abyssinica SIL"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">mn(m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">乘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Abyssinica SIL"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">n)+1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Abyssinica SIL"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">不为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Abyssinica SIL"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">）个的物体放到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Abyssinica SIL"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">个抽屉里，则至少有一个抽屉里有不少于（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Abyssinica SIL"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">m+1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">）的物体。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Abyssinica SIL"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1.remain must [0,k-1], so loop created, more k will stop
+2.remain=remain*10+1,see if %k, yes return;otherwise, remain%=k
+3.reversely THINK 111/3=3 % 2, 21 % 0</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">[MATH divide/mold/multiple]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1688. Count of Matches in Tournament</t>
+  </si>
+  <si>
+    <t xml:space="preserve">while n != 1: since when odd, has (n-1)//2 in match</t>
+  </si>
+  <si>
     <t xml:space="preserve">276. Paint Fence</t>
   </si>
   <si>
@@ -990,6 +1249,45 @@
 2.brute force, iterate piles with k=[1...max(pile)] max(pile)times, TIME O(max(pile)times * len(pile))
 3.optimize binary search for k range TIME O(log(max(pile))time * len(pile))
 4.low, high, in while, traverse p get totol hour, if hour &gt; h, go to left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">621. Task Scheduler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOGIC:Greedy+hashmap most freq need do task earlier
+STEP:
+    A:3 B:3 C:1 n=2
+    A--A--A
+    ABCAB-AB
+    leftslot=(3-1)*2=4[-1miss last]
+    if A continue, ifB 4-(3-1)=2[miss last]
+1.create hashmap, find mostChar,mostfreq
+2.create leftslot=(mostfreq-1)*2
+3.iterate map, if see k=mostchar,doing task; if seev=mostfreq,leftslot -= (v-1) else leftslot -=v
+if leftslot &lt;= 0 nothingleft return len(task)
+Else: still leftslot return len(task)+leftslot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">767. Reorganize String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:similiar to TASK SCHEDULER.but this now display res
+STEP:1.create hashmap{char:freq}, also create maxheap, sort base on mostfreq. if counter more than half, trim 
+2.while len(q) &gt;= 2: each time pop most freq 2 pair; if v -1 &gt; 0: push again
+3.res.append(last one)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[MAXHEAP](!!!negative handle) [HASHMAP]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2103. Rings and Rods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:the number of rods that have three colors or rings(may same color appear many times)
+STEP:1.create 2D array(3*10),0-9 for columns, 0-2 for rows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2D array]</t>
   </si>
 </sst>
 </file>
@@ -1235,6 +1533,10 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1249,10 +1551,6 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1398,8 +1696,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1482,1081 +1780,68 @@
         <v>16</v>
       </c>
     </row>
+    <row r="7" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0"/>
-      <c r="B18" s="0"/>
-      <c r="C18" s="0"/>
-      <c r="D18" s="0"/>
-      <c r="E18" s="0"/>
-      <c r="F18" s="0"/>
-      <c r="G18" s="0"/>
-      <c r="H18" s="0"/>
-      <c r="I18" s="0"/>
-      <c r="J18" s="0"/>
-      <c r="K18" s="0"/>
-      <c r="L18" s="0"/>
-      <c r="M18" s="0"/>
-      <c r="N18" s="0"/>
-      <c r="O18" s="0"/>
-      <c r="P18" s="0"/>
-      <c r="Q18" s="0"/>
-      <c r="R18" s="0"/>
-      <c r="S18" s="0"/>
-      <c r="T18" s="0"/>
-      <c r="U18" s="0"/>
-      <c r="V18" s="0"/>
-      <c r="W18" s="0"/>
-      <c r="X18" s="0"/>
-      <c r="Y18" s="0"/>
-      <c r="Z18" s="0"/>
-      <c r="AA18" s="0"/>
-      <c r="AB18" s="0"/>
-      <c r="AC18" s="0"/>
-      <c r="AD18" s="0"/>
-      <c r="AE18" s="0"/>
-      <c r="AF18" s="0"/>
-      <c r="AG18" s="0"/>
-      <c r="AH18" s="0"/>
-      <c r="AI18" s="0"/>
-      <c r="AJ18" s="0"/>
-      <c r="AK18" s="0"/>
-      <c r="AL18" s="0"/>
-      <c r="AM18" s="0"/>
-      <c r="AN18" s="0"/>
-      <c r="AO18" s="0"/>
-      <c r="AP18" s="0"/>
-      <c r="AQ18" s="0"/>
-      <c r="AR18" s="0"/>
-      <c r="AS18" s="0"/>
-      <c r="AT18" s="0"/>
-      <c r="AU18" s="0"/>
-      <c r="AV18" s="0"/>
-      <c r="AW18" s="0"/>
-      <c r="AX18" s="0"/>
-      <c r="AY18" s="0"/>
-      <c r="AZ18" s="0"/>
-      <c r="BA18" s="0"/>
-      <c r="BB18" s="0"/>
-      <c r="BC18" s="0"/>
-      <c r="BD18" s="0"/>
-      <c r="BE18" s="0"/>
-      <c r="BF18" s="0"/>
-      <c r="BG18" s="0"/>
-      <c r="BH18" s="0"/>
-      <c r="BI18" s="0"/>
-      <c r="BJ18" s="0"/>
-      <c r="BK18" s="0"/>
-      <c r="BL18" s="0"/>
-      <c r="BM18" s="0"/>
-      <c r="BN18" s="0"/>
-      <c r="BO18" s="0"/>
-      <c r="BP18" s="0"/>
-      <c r="BQ18" s="0"/>
-      <c r="BR18" s="0"/>
-      <c r="BS18" s="0"/>
-      <c r="BT18" s="0"/>
-      <c r="BU18" s="0"/>
-      <c r="BV18" s="0"/>
-      <c r="BW18" s="0"/>
-      <c r="BX18" s="0"/>
-      <c r="BY18" s="0"/>
-      <c r="BZ18" s="0"/>
-      <c r="CA18" s="0"/>
-      <c r="CB18" s="0"/>
-      <c r="CC18" s="0"/>
-      <c r="CD18" s="0"/>
-      <c r="CE18" s="0"/>
-      <c r="CF18" s="0"/>
-      <c r="CG18" s="0"/>
-      <c r="CH18" s="0"/>
-      <c r="CI18" s="0"/>
-      <c r="CJ18" s="0"/>
-      <c r="CK18" s="0"/>
-      <c r="CL18" s="0"/>
-      <c r="CM18" s="0"/>
-      <c r="CN18" s="0"/>
-      <c r="CO18" s="0"/>
-      <c r="CP18" s="0"/>
-      <c r="CQ18" s="0"/>
-      <c r="CR18" s="0"/>
-      <c r="CS18" s="0"/>
-      <c r="CT18" s="0"/>
-      <c r="CU18" s="0"/>
-      <c r="CV18" s="0"/>
-      <c r="CW18" s="0"/>
-      <c r="CX18" s="0"/>
-      <c r="CY18" s="0"/>
-      <c r="CZ18" s="0"/>
-      <c r="DA18" s="0"/>
-      <c r="DB18" s="0"/>
-      <c r="DC18" s="0"/>
-      <c r="DD18" s="0"/>
-      <c r="DE18" s="0"/>
-      <c r="DF18" s="0"/>
-      <c r="DG18" s="0"/>
-      <c r="DH18" s="0"/>
-      <c r="DI18" s="0"/>
-      <c r="DJ18" s="0"/>
-      <c r="DK18" s="0"/>
-      <c r="DL18" s="0"/>
-      <c r="DM18" s="0"/>
-      <c r="DN18" s="0"/>
-      <c r="DO18" s="0"/>
-      <c r="DP18" s="0"/>
-      <c r="DQ18" s="0"/>
-      <c r="DR18" s="0"/>
-      <c r="DS18" s="0"/>
-      <c r="DT18" s="0"/>
-      <c r="DU18" s="0"/>
-      <c r="DV18" s="0"/>
-      <c r="DW18" s="0"/>
-      <c r="DX18" s="0"/>
-      <c r="DY18" s="0"/>
-      <c r="DZ18" s="0"/>
-      <c r="EA18" s="0"/>
-      <c r="EB18" s="0"/>
-      <c r="EC18" s="0"/>
-      <c r="ED18" s="0"/>
-      <c r="EE18" s="0"/>
-      <c r="EF18" s="0"/>
-      <c r="EG18" s="0"/>
-      <c r="EH18" s="0"/>
-      <c r="EI18" s="0"/>
-      <c r="EJ18" s="0"/>
-      <c r="EK18" s="0"/>
-      <c r="EL18" s="0"/>
-      <c r="EM18" s="0"/>
-      <c r="EN18" s="0"/>
-      <c r="EO18" s="0"/>
-      <c r="EP18" s="0"/>
-      <c r="EQ18" s="0"/>
-      <c r="ER18" s="0"/>
-      <c r="ES18" s="0"/>
-      <c r="ET18" s="0"/>
-      <c r="EU18" s="0"/>
-      <c r="EV18" s="0"/>
-      <c r="EW18" s="0"/>
-      <c r="EX18" s="0"/>
-      <c r="EY18" s="0"/>
-      <c r="EZ18" s="0"/>
-      <c r="FA18" s="0"/>
-      <c r="FB18" s="0"/>
-      <c r="FC18" s="0"/>
-      <c r="FD18" s="0"/>
-      <c r="FE18" s="0"/>
-      <c r="FF18" s="0"/>
-      <c r="FG18" s="0"/>
-      <c r="FH18" s="0"/>
-      <c r="FI18" s="0"/>
-      <c r="FJ18" s="0"/>
-      <c r="FK18" s="0"/>
-      <c r="FL18" s="0"/>
-      <c r="FM18" s="0"/>
-      <c r="FN18" s="0"/>
-      <c r="FO18" s="0"/>
-      <c r="FP18" s="0"/>
-      <c r="FQ18" s="0"/>
-      <c r="FR18" s="0"/>
-      <c r="FS18" s="0"/>
-      <c r="FT18" s="0"/>
-      <c r="FU18" s="0"/>
-      <c r="FV18" s="0"/>
-      <c r="FW18" s="0"/>
-      <c r="FX18" s="0"/>
-      <c r="FY18" s="0"/>
-      <c r="FZ18" s="0"/>
-      <c r="GA18" s="0"/>
-      <c r="GB18" s="0"/>
-      <c r="GC18" s="0"/>
-      <c r="GD18" s="0"/>
-      <c r="GE18" s="0"/>
-      <c r="GF18" s="0"/>
-      <c r="GG18" s="0"/>
-      <c r="GH18" s="0"/>
-      <c r="GI18" s="0"/>
-      <c r="GJ18" s="0"/>
-      <c r="GK18" s="0"/>
-      <c r="GL18" s="0"/>
-      <c r="GM18" s="0"/>
-      <c r="GN18" s="0"/>
-      <c r="GO18" s="0"/>
-      <c r="GP18" s="0"/>
-      <c r="GQ18" s="0"/>
-      <c r="GR18" s="0"/>
-      <c r="GS18" s="0"/>
-      <c r="GT18" s="0"/>
-      <c r="GU18" s="0"/>
-      <c r="GV18" s="0"/>
-      <c r="GW18" s="0"/>
-      <c r="GX18" s="0"/>
-      <c r="GY18" s="0"/>
-      <c r="GZ18" s="0"/>
-      <c r="HA18" s="0"/>
-      <c r="HB18" s="0"/>
-      <c r="HC18" s="0"/>
-      <c r="HD18" s="0"/>
-      <c r="HE18" s="0"/>
-      <c r="HF18" s="0"/>
-      <c r="HG18" s="0"/>
-      <c r="HH18" s="0"/>
-      <c r="HI18" s="0"/>
-      <c r="HJ18" s="0"/>
-      <c r="HK18" s="0"/>
-      <c r="HL18" s="0"/>
-      <c r="HM18" s="0"/>
-      <c r="HN18" s="0"/>
-      <c r="HO18" s="0"/>
-      <c r="HP18" s="0"/>
-      <c r="HQ18" s="0"/>
-      <c r="HR18" s="0"/>
-      <c r="HS18" s="0"/>
-      <c r="HT18" s="0"/>
-      <c r="HU18" s="0"/>
-      <c r="HV18" s="0"/>
-      <c r="HW18" s="0"/>
-      <c r="HX18" s="0"/>
-      <c r="HY18" s="0"/>
-      <c r="HZ18" s="0"/>
-      <c r="IA18" s="0"/>
-      <c r="IB18" s="0"/>
-      <c r="IC18" s="0"/>
-      <c r="ID18" s="0"/>
-      <c r="IE18" s="0"/>
-      <c r="IF18" s="0"/>
-      <c r="IG18" s="0"/>
-      <c r="IH18" s="0"/>
-      <c r="II18" s="0"/>
-      <c r="IJ18" s="0"/>
-      <c r="IK18" s="0"/>
-      <c r="IL18" s="0"/>
-      <c r="IM18" s="0"/>
-      <c r="IN18" s="0"/>
-      <c r="IO18" s="0"/>
-      <c r="IP18" s="0"/>
-      <c r="IQ18" s="0"/>
-      <c r="IR18" s="0"/>
-      <c r="IS18" s="0"/>
-      <c r="IT18" s="0"/>
-      <c r="IU18" s="0"/>
-      <c r="IV18" s="0"/>
-      <c r="IW18" s="0"/>
-      <c r="IX18" s="0"/>
-      <c r="IY18" s="0"/>
-      <c r="IZ18" s="0"/>
-      <c r="JA18" s="0"/>
-      <c r="JB18" s="0"/>
-      <c r="JC18" s="0"/>
-      <c r="JD18" s="0"/>
-      <c r="JE18" s="0"/>
-      <c r="JF18" s="0"/>
-      <c r="JG18" s="0"/>
-      <c r="JH18" s="0"/>
-      <c r="JI18" s="0"/>
-      <c r="JJ18" s="0"/>
-      <c r="JK18" s="0"/>
-      <c r="JL18" s="0"/>
-      <c r="JM18" s="0"/>
-      <c r="JN18" s="0"/>
-      <c r="JO18" s="0"/>
-      <c r="JP18" s="0"/>
-      <c r="JQ18" s="0"/>
-      <c r="JR18" s="0"/>
-      <c r="JS18" s="0"/>
-      <c r="JT18" s="0"/>
-      <c r="JU18" s="0"/>
-      <c r="JV18" s="0"/>
-      <c r="JW18" s="0"/>
-      <c r="JX18" s="0"/>
-      <c r="JY18" s="0"/>
-      <c r="JZ18" s="0"/>
-      <c r="KA18" s="0"/>
-      <c r="KB18" s="0"/>
-      <c r="KC18" s="0"/>
-      <c r="KD18" s="0"/>
-      <c r="KE18" s="0"/>
-      <c r="KF18" s="0"/>
-      <c r="KG18" s="0"/>
-      <c r="KH18" s="0"/>
-      <c r="KI18" s="0"/>
-      <c r="KJ18" s="0"/>
-      <c r="KK18" s="0"/>
-      <c r="KL18" s="0"/>
-      <c r="KM18" s="0"/>
-      <c r="KN18" s="0"/>
-      <c r="KO18" s="0"/>
-      <c r="KP18" s="0"/>
-      <c r="KQ18" s="0"/>
-      <c r="KR18" s="0"/>
-      <c r="KS18" s="0"/>
-      <c r="KT18" s="0"/>
-      <c r="KU18" s="0"/>
-      <c r="KV18" s="0"/>
-      <c r="KW18" s="0"/>
-      <c r="KX18" s="0"/>
-      <c r="KY18" s="0"/>
-      <c r="KZ18" s="0"/>
-      <c r="LA18" s="0"/>
-      <c r="LB18" s="0"/>
-      <c r="LC18" s="0"/>
-      <c r="LD18" s="0"/>
-      <c r="LE18" s="0"/>
-      <c r="LF18" s="0"/>
-      <c r="LG18" s="0"/>
-      <c r="LH18" s="0"/>
-      <c r="LI18" s="0"/>
-      <c r="LJ18" s="0"/>
-      <c r="LK18" s="0"/>
-      <c r="LL18" s="0"/>
-      <c r="LM18" s="0"/>
-      <c r="LN18" s="0"/>
-      <c r="LO18" s="0"/>
-      <c r="LP18" s="0"/>
-      <c r="LQ18" s="0"/>
-      <c r="LR18" s="0"/>
-      <c r="LS18" s="0"/>
-      <c r="LT18" s="0"/>
-      <c r="LU18" s="0"/>
-      <c r="LV18" s="0"/>
-      <c r="LW18" s="0"/>
-      <c r="LX18" s="0"/>
-      <c r="LY18" s="0"/>
-      <c r="LZ18" s="0"/>
-      <c r="MA18" s="0"/>
-      <c r="MB18" s="0"/>
-      <c r="MC18" s="0"/>
-      <c r="MD18" s="0"/>
-      <c r="ME18" s="0"/>
-      <c r="MF18" s="0"/>
-      <c r="MG18" s="0"/>
-      <c r="MH18" s="0"/>
-      <c r="MI18" s="0"/>
-      <c r="MJ18" s="0"/>
-      <c r="MK18" s="0"/>
-      <c r="ML18" s="0"/>
-      <c r="MM18" s="0"/>
-      <c r="MN18" s="0"/>
-      <c r="MO18" s="0"/>
-      <c r="MP18" s="0"/>
-      <c r="MQ18" s="0"/>
-      <c r="MR18" s="0"/>
-      <c r="MS18" s="0"/>
-      <c r="MT18" s="0"/>
-      <c r="MU18" s="0"/>
-      <c r="MV18" s="0"/>
-      <c r="MW18" s="0"/>
-      <c r="MX18" s="0"/>
-      <c r="MY18" s="0"/>
-      <c r="MZ18" s="0"/>
-      <c r="NA18" s="0"/>
-      <c r="NB18" s="0"/>
-      <c r="NC18" s="0"/>
-      <c r="ND18" s="0"/>
-      <c r="NE18" s="0"/>
-      <c r="NF18" s="0"/>
-      <c r="NG18" s="0"/>
-      <c r="NH18" s="0"/>
-      <c r="NI18" s="0"/>
-      <c r="NJ18" s="0"/>
-      <c r="NK18" s="0"/>
-      <c r="NL18" s="0"/>
-      <c r="NM18" s="0"/>
-      <c r="NN18" s="0"/>
-      <c r="NO18" s="0"/>
-      <c r="NP18" s="0"/>
-      <c r="NQ18" s="0"/>
-      <c r="NR18" s="0"/>
-      <c r="NS18" s="0"/>
-      <c r="NT18" s="0"/>
-      <c r="NU18" s="0"/>
-      <c r="NV18" s="0"/>
-      <c r="NW18" s="0"/>
-      <c r="NX18" s="0"/>
-      <c r="NY18" s="0"/>
-      <c r="NZ18" s="0"/>
-      <c r="OA18" s="0"/>
-      <c r="OB18" s="0"/>
-      <c r="OC18" s="0"/>
-      <c r="OD18" s="0"/>
-      <c r="OE18" s="0"/>
-      <c r="OF18" s="0"/>
-      <c r="OG18" s="0"/>
-      <c r="OH18" s="0"/>
-      <c r="OI18" s="0"/>
-      <c r="OJ18" s="0"/>
-      <c r="OK18" s="0"/>
-      <c r="OL18" s="0"/>
-      <c r="OM18" s="0"/>
-      <c r="ON18" s="0"/>
-      <c r="OO18" s="0"/>
-      <c r="OP18" s="0"/>
-      <c r="OQ18" s="0"/>
-      <c r="OR18" s="0"/>
-      <c r="OS18" s="0"/>
-      <c r="OT18" s="0"/>
-      <c r="OU18" s="0"/>
-      <c r="OV18" s="0"/>
-      <c r="OW18" s="0"/>
-      <c r="OX18" s="0"/>
-      <c r="OY18" s="0"/>
-      <c r="OZ18" s="0"/>
-      <c r="PA18" s="0"/>
-      <c r="PB18" s="0"/>
-      <c r="PC18" s="0"/>
-      <c r="PD18" s="0"/>
-      <c r="PE18" s="0"/>
-      <c r="PF18" s="0"/>
-      <c r="PG18" s="0"/>
-      <c r="PH18" s="0"/>
-      <c r="PI18" s="0"/>
-      <c r="PJ18" s="0"/>
-      <c r="PK18" s="0"/>
-      <c r="PL18" s="0"/>
-      <c r="PM18" s="0"/>
-      <c r="PN18" s="0"/>
-      <c r="PO18" s="0"/>
-      <c r="PP18" s="0"/>
-      <c r="PQ18" s="0"/>
-      <c r="PR18" s="0"/>
-      <c r="PS18" s="0"/>
-      <c r="PT18" s="0"/>
-      <c r="PU18" s="0"/>
-      <c r="PV18" s="0"/>
-      <c r="PW18" s="0"/>
-      <c r="PX18" s="0"/>
-      <c r="PY18" s="0"/>
-      <c r="PZ18" s="0"/>
-      <c r="QA18" s="0"/>
-      <c r="QB18" s="0"/>
-      <c r="QC18" s="0"/>
-      <c r="QD18" s="0"/>
-      <c r="QE18" s="0"/>
-      <c r="QF18" s="0"/>
-      <c r="QG18" s="0"/>
-      <c r="QH18" s="0"/>
-      <c r="QI18" s="0"/>
-      <c r="QJ18" s="0"/>
-      <c r="QK18" s="0"/>
-      <c r="QL18" s="0"/>
-      <c r="QM18" s="0"/>
-      <c r="QN18" s="0"/>
-      <c r="QO18" s="0"/>
-      <c r="QP18" s="0"/>
-      <c r="QQ18" s="0"/>
-      <c r="QR18" s="0"/>
-      <c r="QS18" s="0"/>
-      <c r="QT18" s="0"/>
-      <c r="QU18" s="0"/>
-      <c r="QV18" s="0"/>
-      <c r="QW18" s="0"/>
-      <c r="QX18" s="0"/>
-      <c r="QY18" s="0"/>
-      <c r="QZ18" s="0"/>
-      <c r="RA18" s="0"/>
-      <c r="RB18" s="0"/>
-      <c r="RC18" s="0"/>
-      <c r="RD18" s="0"/>
-      <c r="RE18" s="0"/>
-      <c r="RF18" s="0"/>
-      <c r="RG18" s="0"/>
-      <c r="RH18" s="0"/>
-      <c r="RI18" s="0"/>
-      <c r="RJ18" s="0"/>
-      <c r="RK18" s="0"/>
-      <c r="RL18" s="0"/>
-      <c r="RM18" s="0"/>
-      <c r="RN18" s="0"/>
-      <c r="RO18" s="0"/>
-      <c r="RP18" s="0"/>
-      <c r="RQ18" s="0"/>
-      <c r="RR18" s="0"/>
-      <c r="RS18" s="0"/>
-      <c r="RT18" s="0"/>
-      <c r="RU18" s="0"/>
-      <c r="RV18" s="0"/>
-      <c r="RW18" s="0"/>
-      <c r="RX18" s="0"/>
-      <c r="RY18" s="0"/>
-      <c r="RZ18" s="0"/>
-      <c r="SA18" s="0"/>
-      <c r="SB18" s="0"/>
-      <c r="SC18" s="0"/>
-      <c r="SD18" s="0"/>
-      <c r="SE18" s="0"/>
-      <c r="SF18" s="0"/>
-      <c r="SG18" s="0"/>
-      <c r="SH18" s="0"/>
-      <c r="SI18" s="0"/>
-      <c r="SJ18" s="0"/>
-      <c r="SK18" s="0"/>
-      <c r="SL18" s="0"/>
-      <c r="SM18" s="0"/>
-      <c r="SN18" s="0"/>
-      <c r="SO18" s="0"/>
-      <c r="SP18" s="0"/>
-      <c r="SQ18" s="0"/>
-      <c r="SR18" s="0"/>
-      <c r="SS18" s="0"/>
-      <c r="ST18" s="0"/>
-      <c r="SU18" s="0"/>
-      <c r="SV18" s="0"/>
-      <c r="SW18" s="0"/>
-      <c r="SX18" s="0"/>
-      <c r="SY18" s="0"/>
-      <c r="SZ18" s="0"/>
-      <c r="TA18" s="0"/>
-      <c r="TB18" s="0"/>
-      <c r="TC18" s="0"/>
-      <c r="TD18" s="0"/>
-      <c r="TE18" s="0"/>
-      <c r="TF18" s="0"/>
-      <c r="TG18" s="0"/>
-      <c r="TH18" s="0"/>
-      <c r="TI18" s="0"/>
-      <c r="TJ18" s="0"/>
-      <c r="TK18" s="0"/>
-      <c r="TL18" s="0"/>
-      <c r="TM18" s="0"/>
-      <c r="TN18" s="0"/>
-      <c r="TO18" s="0"/>
-      <c r="TP18" s="0"/>
-      <c r="TQ18" s="0"/>
-      <c r="TR18" s="0"/>
-      <c r="TS18" s="0"/>
-      <c r="TT18" s="0"/>
-      <c r="TU18" s="0"/>
-      <c r="TV18" s="0"/>
-      <c r="TW18" s="0"/>
-      <c r="TX18" s="0"/>
-      <c r="TY18" s="0"/>
-      <c r="TZ18" s="0"/>
-      <c r="UA18" s="0"/>
-      <c r="UB18" s="0"/>
-      <c r="UC18" s="0"/>
-      <c r="UD18" s="0"/>
-      <c r="UE18" s="0"/>
-      <c r="UF18" s="0"/>
-      <c r="UG18" s="0"/>
-      <c r="UH18" s="0"/>
-      <c r="UI18" s="0"/>
-      <c r="UJ18" s="0"/>
-      <c r="UK18" s="0"/>
-      <c r="UL18" s="0"/>
-      <c r="UM18" s="0"/>
-      <c r="UN18" s="0"/>
-      <c r="UO18" s="0"/>
-      <c r="UP18" s="0"/>
-      <c r="UQ18" s="0"/>
-      <c r="UR18" s="0"/>
-      <c r="US18" s="0"/>
-      <c r="UT18" s="0"/>
-      <c r="UU18" s="0"/>
-      <c r="UV18" s="0"/>
-      <c r="UW18" s="0"/>
-      <c r="UX18" s="0"/>
-      <c r="UY18" s="0"/>
-      <c r="UZ18" s="0"/>
-      <c r="VA18" s="0"/>
-      <c r="VB18" s="0"/>
-      <c r="VC18" s="0"/>
-      <c r="VD18" s="0"/>
-      <c r="VE18" s="0"/>
-      <c r="VF18" s="0"/>
-      <c r="VG18" s="0"/>
-      <c r="VH18" s="0"/>
-      <c r="VI18" s="0"/>
-      <c r="VJ18" s="0"/>
-      <c r="VK18" s="0"/>
-      <c r="VL18" s="0"/>
-      <c r="VM18" s="0"/>
-      <c r="VN18" s="0"/>
-      <c r="VO18" s="0"/>
-      <c r="VP18" s="0"/>
-      <c r="VQ18" s="0"/>
-      <c r="VR18" s="0"/>
-      <c r="VS18" s="0"/>
-      <c r="VT18" s="0"/>
-      <c r="VU18" s="0"/>
-      <c r="VV18" s="0"/>
-      <c r="VW18" s="0"/>
-      <c r="VX18" s="0"/>
-      <c r="VY18" s="0"/>
-      <c r="VZ18" s="0"/>
-      <c r="WA18" s="0"/>
-      <c r="WB18" s="0"/>
-      <c r="WC18" s="0"/>
-      <c r="WD18" s="0"/>
-      <c r="WE18" s="0"/>
-      <c r="WF18" s="0"/>
-      <c r="WG18" s="0"/>
-      <c r="WH18" s="0"/>
-      <c r="WI18" s="0"/>
-      <c r="WJ18" s="0"/>
-      <c r="WK18" s="0"/>
-      <c r="WL18" s="0"/>
-      <c r="WM18" s="0"/>
-      <c r="WN18" s="0"/>
-      <c r="WO18" s="0"/>
-      <c r="WP18" s="0"/>
-      <c r="WQ18" s="0"/>
-      <c r="WR18" s="0"/>
-      <c r="WS18" s="0"/>
-      <c r="WT18" s="0"/>
-      <c r="WU18" s="0"/>
-      <c r="WV18" s="0"/>
-      <c r="WW18" s="0"/>
-      <c r="WX18" s="0"/>
-      <c r="WY18" s="0"/>
-      <c r="WZ18" s="0"/>
-      <c r="XA18" s="0"/>
-      <c r="XB18" s="0"/>
-      <c r="XC18" s="0"/>
-      <c r="XD18" s="0"/>
-      <c r="XE18" s="0"/>
-      <c r="XF18" s="0"/>
-      <c r="XG18" s="0"/>
-      <c r="XH18" s="0"/>
-      <c r="XI18" s="0"/>
-      <c r="XJ18" s="0"/>
-      <c r="XK18" s="0"/>
-      <c r="XL18" s="0"/>
-      <c r="XM18" s="0"/>
-      <c r="XN18" s="0"/>
-      <c r="XO18" s="0"/>
-      <c r="XP18" s="0"/>
-      <c r="XQ18" s="0"/>
-      <c r="XR18" s="0"/>
-      <c r="XS18" s="0"/>
-      <c r="XT18" s="0"/>
-      <c r="XU18" s="0"/>
-      <c r="XV18" s="0"/>
-      <c r="XW18" s="0"/>
-      <c r="XX18" s="0"/>
-      <c r="XY18" s="0"/>
-      <c r="XZ18" s="0"/>
-      <c r="YA18" s="0"/>
-      <c r="YB18" s="0"/>
-      <c r="YC18" s="0"/>
-      <c r="YD18" s="0"/>
-      <c r="YE18" s="0"/>
-      <c r="YF18" s="0"/>
-      <c r="YG18" s="0"/>
-      <c r="YH18" s="0"/>
-      <c r="YI18" s="0"/>
-      <c r="YJ18" s="0"/>
-      <c r="YK18" s="0"/>
-      <c r="YL18" s="0"/>
-      <c r="YM18" s="0"/>
-      <c r="YN18" s="0"/>
-      <c r="YO18" s="0"/>
-      <c r="YP18" s="0"/>
-      <c r="YQ18" s="0"/>
-      <c r="YR18" s="0"/>
-      <c r="YS18" s="0"/>
-      <c r="YT18" s="0"/>
-      <c r="YU18" s="0"/>
-      <c r="YV18" s="0"/>
-      <c r="YW18" s="0"/>
-      <c r="YX18" s="0"/>
-      <c r="YY18" s="0"/>
-      <c r="YZ18" s="0"/>
-      <c r="ZA18" s="0"/>
-      <c r="ZB18" s="0"/>
-      <c r="ZC18" s="0"/>
-      <c r="ZD18" s="0"/>
-      <c r="ZE18" s="0"/>
-      <c r="ZF18" s="0"/>
-      <c r="ZG18" s="0"/>
-      <c r="ZH18" s="0"/>
-      <c r="ZI18" s="0"/>
-      <c r="ZJ18" s="0"/>
-      <c r="ZK18" s="0"/>
-      <c r="ZL18" s="0"/>
-      <c r="ZM18" s="0"/>
-      <c r="ZN18" s="0"/>
-      <c r="ZO18" s="0"/>
-      <c r="ZP18" s="0"/>
-      <c r="ZQ18" s="0"/>
-      <c r="ZR18" s="0"/>
-      <c r="ZS18" s="0"/>
-      <c r="ZT18" s="0"/>
-      <c r="ZU18" s="0"/>
-      <c r="ZV18" s="0"/>
-      <c r="ZW18" s="0"/>
-      <c r="ZX18" s="0"/>
-      <c r="ZY18" s="0"/>
-      <c r="ZZ18" s="0"/>
-      <c r="AAA18" s="0"/>
-      <c r="AAB18" s="0"/>
-      <c r="AAC18" s="0"/>
-      <c r="AAD18" s="0"/>
-      <c r="AAE18" s="0"/>
-      <c r="AAF18" s="0"/>
-      <c r="AAG18" s="0"/>
-      <c r="AAH18" s="0"/>
-      <c r="AAI18" s="0"/>
-      <c r="AAJ18" s="0"/>
-      <c r="AAK18" s="0"/>
-      <c r="AAL18" s="0"/>
-      <c r="AAM18" s="0"/>
-      <c r="AAN18" s="0"/>
-      <c r="AAO18" s="0"/>
-      <c r="AAP18" s="0"/>
-      <c r="AAQ18" s="0"/>
-      <c r="AAR18" s="0"/>
-      <c r="AAS18" s="0"/>
-      <c r="AAT18" s="0"/>
-      <c r="AAU18" s="0"/>
-      <c r="AAV18" s="0"/>
-      <c r="AAW18" s="0"/>
-      <c r="AAX18" s="0"/>
-      <c r="AAY18" s="0"/>
-      <c r="AAZ18" s="0"/>
-      <c r="ABA18" s="0"/>
-      <c r="ABB18" s="0"/>
-      <c r="ABC18" s="0"/>
-      <c r="ABD18" s="0"/>
-      <c r="ABE18" s="0"/>
-      <c r="ABF18" s="0"/>
-      <c r="ABG18" s="0"/>
-      <c r="ABH18" s="0"/>
-      <c r="ABI18" s="0"/>
-      <c r="ABJ18" s="0"/>
-      <c r="ABK18" s="0"/>
-      <c r="ABL18" s="0"/>
-      <c r="ABM18" s="0"/>
-      <c r="ABN18" s="0"/>
-      <c r="ABO18" s="0"/>
-      <c r="ABP18" s="0"/>
-      <c r="ABQ18" s="0"/>
-      <c r="ABR18" s="0"/>
-      <c r="ABS18" s="0"/>
-      <c r="ABT18" s="0"/>
-      <c r="ABU18" s="0"/>
-      <c r="ABV18" s="0"/>
-      <c r="ABW18" s="0"/>
-      <c r="ABX18" s="0"/>
-      <c r="ABY18" s="0"/>
-      <c r="ABZ18" s="0"/>
-      <c r="ACA18" s="0"/>
-      <c r="ACB18" s="0"/>
-      <c r="ACC18" s="0"/>
-      <c r="ACD18" s="0"/>
-      <c r="ACE18" s="0"/>
-      <c r="ACF18" s="0"/>
-      <c r="ACG18" s="0"/>
-      <c r="ACH18" s="0"/>
-      <c r="ACI18" s="0"/>
-      <c r="ACJ18" s="0"/>
-      <c r="ACK18" s="0"/>
-      <c r="ACL18" s="0"/>
-      <c r="ACM18" s="0"/>
-      <c r="ACN18" s="0"/>
-      <c r="ACO18" s="0"/>
-      <c r="ACP18" s="0"/>
-      <c r="ACQ18" s="0"/>
-      <c r="ACR18" s="0"/>
-      <c r="ACS18" s="0"/>
-      <c r="ACT18" s="0"/>
-      <c r="ACU18" s="0"/>
-      <c r="ACV18" s="0"/>
-      <c r="ACW18" s="0"/>
-      <c r="ACX18" s="0"/>
-      <c r="ACY18" s="0"/>
-      <c r="ACZ18" s="0"/>
-      <c r="ADA18" s="0"/>
-      <c r="ADB18" s="0"/>
-      <c r="ADC18" s="0"/>
-      <c r="ADD18" s="0"/>
-      <c r="ADE18" s="0"/>
-      <c r="ADF18" s="0"/>
-      <c r="ADG18" s="0"/>
-      <c r="ADH18" s="0"/>
-      <c r="ADI18" s="0"/>
-      <c r="ADJ18" s="0"/>
-      <c r="ADK18" s="0"/>
-      <c r="ADL18" s="0"/>
-      <c r="ADM18" s="0"/>
-      <c r="ADN18" s="0"/>
-      <c r="ADO18" s="0"/>
-      <c r="ADP18" s="0"/>
-      <c r="ADQ18" s="0"/>
-      <c r="ADR18" s="0"/>
-      <c r="ADS18" s="0"/>
-      <c r="ADT18" s="0"/>
-      <c r="ADU18" s="0"/>
-      <c r="ADV18" s="0"/>
-      <c r="ADW18" s="0"/>
-      <c r="ADX18" s="0"/>
-      <c r="ADY18" s="0"/>
-      <c r="ADZ18" s="0"/>
-      <c r="AEA18" s="0"/>
-      <c r="AEB18" s="0"/>
-      <c r="AEC18" s="0"/>
-      <c r="AED18" s="0"/>
-      <c r="AEE18" s="0"/>
-      <c r="AEF18" s="0"/>
-      <c r="AEG18" s="0"/>
-      <c r="AEH18" s="0"/>
-      <c r="AEI18" s="0"/>
-      <c r="AEJ18" s="0"/>
-      <c r="AEK18" s="0"/>
-      <c r="AEL18" s="0"/>
-      <c r="AEM18" s="0"/>
-      <c r="AEN18" s="0"/>
-      <c r="AEO18" s="0"/>
-      <c r="AEP18" s="0"/>
-      <c r="AEQ18" s="0"/>
-      <c r="AER18" s="0"/>
-      <c r="AES18" s="0"/>
-      <c r="AET18" s="0"/>
-      <c r="AEU18" s="0"/>
-      <c r="AEV18" s="0"/>
-      <c r="AEW18" s="0"/>
-      <c r="AEX18" s="0"/>
-      <c r="AEY18" s="0"/>
-      <c r="AEZ18" s="0"/>
-      <c r="AFA18" s="0"/>
-      <c r="AFB18" s="0"/>
-      <c r="AFC18" s="0"/>
-      <c r="AFD18" s="0"/>
-      <c r="AFE18" s="0"/>
-      <c r="AFF18" s="0"/>
-      <c r="AFG18" s="0"/>
-      <c r="AFH18" s="0"/>
-      <c r="AFI18" s="0"/>
-      <c r="AFJ18" s="0"/>
-      <c r="AFK18" s="0"/>
-      <c r="AFL18" s="0"/>
-      <c r="AFM18" s="0"/>
-      <c r="AFN18" s="0"/>
-      <c r="AFO18" s="0"/>
-      <c r="AFP18" s="0"/>
-      <c r="AFQ18" s="0"/>
-      <c r="AFR18" s="0"/>
-      <c r="AFS18" s="0"/>
-      <c r="AFT18" s="0"/>
-      <c r="AFU18" s="0"/>
-      <c r="AFV18" s="0"/>
-      <c r="AFW18" s="0"/>
-      <c r="AFX18" s="0"/>
-      <c r="AFY18" s="0"/>
-      <c r="AFZ18" s="0"/>
-      <c r="AGA18" s="0"/>
-      <c r="AGB18" s="0"/>
-      <c r="AGC18" s="0"/>
-      <c r="AGD18" s="0"/>
-      <c r="AGE18" s="0"/>
-      <c r="AGF18" s="0"/>
-      <c r="AGG18" s="0"/>
-      <c r="AGH18" s="0"/>
-      <c r="AGI18" s="0"/>
-      <c r="AGJ18" s="0"/>
-      <c r="AGK18" s="0"/>
-      <c r="AGL18" s="0"/>
-      <c r="AGM18" s="0"/>
-      <c r="AGN18" s="0"/>
-      <c r="AGO18" s="0"/>
-      <c r="AGP18" s="0"/>
-      <c r="AGQ18" s="0"/>
-      <c r="AGR18" s="0"/>
-      <c r="AGS18" s="0"/>
-      <c r="AGT18" s="0"/>
-      <c r="AGU18" s="0"/>
-      <c r="AGV18" s="0"/>
-      <c r="AGW18" s="0"/>
-      <c r="AGX18" s="0"/>
-      <c r="AGY18" s="0"/>
-      <c r="AGZ18" s="0"/>
-      <c r="AHA18" s="0"/>
-      <c r="AHB18" s="0"/>
-      <c r="AHC18" s="0"/>
-      <c r="AHD18" s="0"/>
-      <c r="AHE18" s="0"/>
-      <c r="AHF18" s="0"/>
-      <c r="AHG18" s="0"/>
-      <c r="AHH18" s="0"/>
-      <c r="AHI18" s="0"/>
-      <c r="AHJ18" s="0"/>
-      <c r="AHK18" s="0"/>
-      <c r="AHL18" s="0"/>
-      <c r="AHM18" s="0"/>
-      <c r="AHN18" s="0"/>
-      <c r="AHO18" s="0"/>
-      <c r="AHP18" s="0"/>
-      <c r="AHQ18" s="0"/>
-      <c r="AHR18" s="0"/>
-      <c r="AHS18" s="0"/>
-      <c r="AHT18" s="0"/>
-      <c r="AHU18" s="0"/>
-      <c r="AHV18" s="0"/>
-      <c r="AHW18" s="0"/>
-      <c r="AHX18" s="0"/>
-      <c r="AHY18" s="0"/>
-      <c r="AHZ18" s="0"/>
-      <c r="AIA18" s="0"/>
-      <c r="AIB18" s="0"/>
-      <c r="AIC18" s="0"/>
-      <c r="AID18" s="0"/>
-      <c r="AIE18" s="0"/>
-      <c r="AIF18" s="0"/>
-      <c r="AIG18" s="0"/>
-      <c r="AIH18" s="0"/>
-      <c r="AII18" s="0"/>
-      <c r="AIJ18" s="0"/>
-      <c r="AIK18" s="0"/>
-      <c r="AIL18" s="0"/>
-      <c r="AIM18" s="0"/>
-      <c r="AIN18" s="0"/>
-      <c r="AIO18" s="0"/>
-      <c r="AIP18" s="0"/>
-      <c r="AIQ18" s="0"/>
-      <c r="AIR18" s="0"/>
-      <c r="AIS18" s="0"/>
-      <c r="AIT18" s="0"/>
-      <c r="AIU18" s="0"/>
-      <c r="AIV18" s="0"/>
-      <c r="AIW18" s="0"/>
-      <c r="AIX18" s="0"/>
-      <c r="AIY18" s="0"/>
-      <c r="AIZ18" s="0"/>
-      <c r="AJA18" s="0"/>
-      <c r="AJB18" s="0"/>
-      <c r="AJC18" s="0"/>
-      <c r="AJD18" s="0"/>
-      <c r="AJE18" s="0"/>
-      <c r="AJF18" s="0"/>
-      <c r="AJG18" s="0"/>
-      <c r="AJH18" s="0"/>
-      <c r="AJI18" s="0"/>
-      <c r="AJJ18" s="0"/>
-      <c r="AJK18" s="0"/>
-      <c r="AJL18" s="0"/>
-      <c r="AJM18" s="0"/>
-      <c r="AJN18" s="0"/>
-      <c r="AJO18" s="0"/>
-      <c r="AJP18" s="0"/>
-      <c r="AJQ18" s="0"/>
-      <c r="AJR18" s="0"/>
-      <c r="AJS18" s="0"/>
-      <c r="AJT18" s="0"/>
-      <c r="AJU18" s="0"/>
-      <c r="AJV18" s="0"/>
-      <c r="AJW18" s="0"/>
-      <c r="AJX18" s="0"/>
-      <c r="AJY18" s="0"/>
-      <c r="AJZ18" s="0"/>
-      <c r="AKA18" s="0"/>
-      <c r="AKB18" s="0"/>
-      <c r="AKC18" s="0"/>
-      <c r="AKD18" s="0"/>
-      <c r="AKE18" s="0"/>
-      <c r="AKF18" s="0"/>
-      <c r="AKG18" s="0"/>
-      <c r="AKH18" s="0"/>
-      <c r="AKI18" s="0"/>
-      <c r="AKJ18" s="0"/>
-      <c r="AKK18" s="0"/>
-      <c r="AKL18" s="0"/>
-      <c r="AKM18" s="0"/>
-      <c r="AKN18" s="0"/>
-      <c r="AKO18" s="0"/>
-      <c r="AKP18" s="0"/>
-      <c r="AKQ18" s="0"/>
-      <c r="AKR18" s="0"/>
-      <c r="AKS18" s="0"/>
-      <c r="AKT18" s="0"/>
-      <c r="AKU18" s="0"/>
-      <c r="AKV18" s="0"/>
-      <c r="AKW18" s="0"/>
-      <c r="AKX18" s="0"/>
-      <c r="AKY18" s="0"/>
-      <c r="AKZ18" s="0"/>
-      <c r="ALA18" s="0"/>
-      <c r="ALB18" s="0"/>
-      <c r="ALC18" s="0"/>
-      <c r="ALD18" s="0"/>
-      <c r="ALE18" s="0"/>
-      <c r="ALF18" s="0"/>
-      <c r="ALG18" s="0"/>
-      <c r="ALH18" s="0"/>
-      <c r="ALI18" s="0"/>
-      <c r="ALJ18" s="0"/>
-      <c r="ALK18" s="0"/>
-      <c r="ALL18" s="0"/>
-      <c r="ALM18" s="0"/>
-      <c r="ALN18" s="0"/>
-      <c r="ALO18" s="0"/>
-      <c r="ALP18" s="0"/>
-      <c r="ALQ18" s="0"/>
-      <c r="ALR18" s="0"/>
-      <c r="ALS18" s="0"/>
-      <c r="ALT18" s="0"/>
-      <c r="ALU18" s="0"/>
-      <c r="ALV18" s="0"/>
-      <c r="ALW18" s="0"/>
-      <c r="ALX18" s="0"/>
-      <c r="ALY18" s="0"/>
-      <c r="ALZ18" s="0"/>
-      <c r="AMA18" s="0"/>
-      <c r="AMB18" s="0"/>
-      <c r="AMC18" s="0"/>
-      <c r="AMD18" s="0"/>
-      <c r="AME18" s="0"/>
-      <c r="AMF18" s="0"/>
-      <c r="AMG18" s="0"/>
-      <c r="AMH18" s="0"/>
-      <c r="AMI18" s="0"/>
-      <c r="AMJ18" s="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" s="18" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="17" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2564,20 +1849,20 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2585,14 +1870,14 @@
     </row>
     <row r="46" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
     </row>
     <row r="53" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -2616,7 +1901,7 @@
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2653,10 +1938,159 @@
     </row>
     <row r="2" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>229</v>
+        <v>241</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AMJ3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="23.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="78.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="22.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="47.65"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="2" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="3" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AMJ1" s="27"/>
+    </row>
+    <row r="2" customFormat="false" ht="153.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AMJ2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="22.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="23" width="62.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="25.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="45.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="23" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="3" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AMJ1" s="27"/>
+    </row>
+    <row r="2" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -2683,10 +2117,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="17" width="33.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="17" width="73.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="18" width="22.51"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="17" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="18" width="33.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="18" width="73.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="22.51"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="18" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2714,54 +2148,54 @@
       <c r="AMJ1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="19" t="s">
-        <v>36</v>
+      <c r="A2" s="20" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="19" t="s">
-        <v>48</v>
+      <c r="A18" s="20" t="s">
+        <v>51</v>
       </c>
       <c r="B18" s="0"/>
     </row>
@@ -3836,7 +3270,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -3854,7 +3288,7 @@
     </row>
     <row r="2" s="4" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B2" s="3"/>
       <c r="F2" s="3"/>
@@ -3865,49 +3299,49 @@
     </row>
     <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>55</v>
+        <v>57</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>58</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>61</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>64</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -3928,7 +3362,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ92"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B92" activeCellId="0" sqref="B92"/>
     </sheetView>
   </sheetViews>
@@ -3966,7 +3400,7 @@
     </row>
     <row r="2" s="9" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
@@ -3977,91 +3411,91 @@
     </row>
     <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="14" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="28" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="29" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="30" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="13" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>16</v>
@@ -4069,15 +3503,15 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="29" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>16</v>
@@ -4085,104 +3519,104 @@
     </row>
     <row r="44" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="12" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="13" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="31" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="11" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="11" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="12" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="32" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="11" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="77.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="13" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>16</v>
@@ -4190,10 +3624,10 @@
     </row>
     <row r="92" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="16" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -4214,17 +3648,17 @@
   </sheetPr>
   <dimension ref="A1:AMJ102"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B51" activeCellId="0" sqref="B51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="34.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="21" width="94.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="18" width="21.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="17" width="45.3"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="17" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="17" width="94.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="21.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="18" width="45.3"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="18" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4238,7 +3672,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -4256,259 +3690,267 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>67</v>
+        <v>123</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>132</v>
+        <v>134</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>137</v>
+        <v>139</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>140</v>
+        <v>144</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="14" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>145</v>
+        <v>148</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>148</v>
+        <v>151</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="10" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="C45" s="18" t="s">
-        <v>130</v>
+        <v>155</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="B46" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="C46" s="18" t="s">
-        <v>154</v>
+        <v>157</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="B47" s="21" t="s">
-        <v>156</v>
+        <v>160</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="10" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="B59" s="21" t="s">
-        <v>159</v>
+        <v>163</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="10" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="B68" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="C68" s="18" t="s">
-        <v>164</v>
+        <v>167</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="B69" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="C69" s="18" t="s">
-        <v>167</v>
+        <v>170</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="B70" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="C70" s="18" t="s">
-        <v>170</v>
+        <v>173</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C70" s="19" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="B76" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="C76" s="18" t="s">
-        <v>173</v>
+        <v>176</v>
+      </c>
+      <c r="B76" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C76" s="19" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="B77" s="21" t="s">
-        <v>175</v>
+        <v>179</v>
+      </c>
+      <c r="B77" s="17" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="10" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="B82" s="21" t="s">
-        <v>178</v>
+        <v>182</v>
+      </c>
+      <c r="B82" s="17" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4516,37 +3958,37 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="4" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="B94" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="C94" s="18" t="s">
-        <v>182</v>
+        <v>185</v>
+      </c>
+      <c r="B94" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="C94" s="19" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="B95" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="C95" s="18" t="s">
-        <v>185</v>
+        <v>188</v>
+      </c>
+      <c r="B95" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C95" s="19" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="B96" s="21" t="s">
-        <v>187</v>
+        <v>191</v>
+      </c>
+      <c r="B96" s="17" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4570,19 +4012,19 @@
   </sheetPr>
   <dimension ref="A1:AMJ38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="21" width="73.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="18" width="20.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="17" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="17" width="18.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="17" width="18.2"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="17" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="17" width="73.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="20.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="18" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="18" width="18.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="18" width="18.2"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="18" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4611,66 +4053,66 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>191</v>
+        <v>194</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>196</v>
+        <v>199</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>199</v>
+        <v>202</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>203</v>
+        <v>206</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -4689,10 +4131,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ3"/>
+  <dimension ref="A1:AMJ4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4729,21 +4171,29 @@
     </row>
     <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="12" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>208</v>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -4762,10 +4212,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ6"/>
+  <dimension ref="A1:AMJ8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4802,51 +4252,70 @@
     </row>
     <row r="2" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="29" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>221</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="121.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -4867,15 +4336,15 @@
   </sheetPr>
   <dimension ref="A1:AMJ3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="30.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="30.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="63.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="18" width="20.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="20.7"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="23" width="11.52"/>
   </cols>
   <sheetData>
@@ -4905,24 +4374,24 @@
     </row>
     <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="26" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>224</v>
+        <v>235</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="33" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>227</v>
+        <v>238</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Tree" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="261">
   <si>
     <t xml:space="preserve">QUESTION</t>
   </si>
@@ -143,6 +143,15 @@
   </si>
   <si>
     <t xml:space="preserve">1026. Maximum Difference Between Node and Ancestor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:cur as ancestor, find his child node has with max diff to him
+STEP:
+1.pretraversal, traverse parent first, so later two parts recursion will call back to root
+2.(find max diff for parent)res=max/min(res,abs(m-root.val)) 3.update max,min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preorder,abs,diff</t>
   </si>
   <si>
     <t xml:space="preserve">Reassign</t>
@@ -304,6 +313,16 @@
     <t xml:space="preserve">TOPIC:return maximum length for consecutive duplicate characters. STEP:set flag</t>
   </si>
   <si>
+    <t xml:space="preserve">696. Count Binary Substrings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:count the number of substring has same number 0 and 1, and group consecutively. mean all 0 done then all 1; or another way around
+STEP:1.001 01 +1; 0011 +1; 110 +1; 1100 + 1 2.first consider i =0, zero++ or one++. compare i-1, if same , ++; otherwise reset 1. if opposite&gt;= own, res++</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[COUNT]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Subsequence</t>
   </si>
   <si>
@@ -447,6 +466,17 @@
   </si>
   <si>
     <t xml:space="preserve">Similiar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">821. Shortest Distance to a Character</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC: return array the distance of index to c's char which closest to this index
+1WAY STEP:start from c pos, spread out left and right.
+1.see c, count right side(first time); count left side, compare min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[MIN] BETTER WAY?</t>
   </si>
   <si>
     <t xml:space="preserve">1D</t>
@@ -616,6 +646,16 @@
     <t xml:space="preserve">TOPIC:sum of permulate prefix sum at odd length subarray
 STEP:1.create prefix sumarray, traverse fill out
 2.construct subarray, outerloop,control start of subarray;inner loop, expand valid subarray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">724. Find Pivot Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STEP:totalsum, subtotal=total-cur, if subtotal%2!=0continue;else //2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1010. Pairs of Songs With Total Durations Divisible by 60
+</t>
   </si>
   <si>
     <t xml:space="preserve">Count</t>
@@ -1464,7 +1504,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1533,16 +1573,20 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1696,8 +1740,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1834,14 +1878,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" s="18" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" s="18" customFormat="true" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="17" t="s">
         <v>31</v>
       </c>
+      <c r="B18" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1849,20 +1899,20 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1870,14 +1920,14 @@
     </row>
     <row r="46" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
     </row>
     <row r="53" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -1922,26 +1972,26 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="38" t="s">
         <v>6</v>
       </c>
       <c r="AMJ1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -1986,7 +2036,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -2000,28 +2050,28 @@
       <c r="I1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AMJ1" s="27"/>
+      <c r="AMJ1" s="28"/>
     </row>
     <row r="2" customFormat="false" ht="153.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="15" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -2048,11 +2098,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="22.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="23" width="62.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="25.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="45.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="23" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="24" width="22.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="24" width="62.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="24" width="25.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="24" width="45.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="24" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2066,7 +2116,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -2080,17 +2130,17 @@
       <c r="I1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AMJ1" s="27"/>
+      <c r="AMJ1" s="28"/>
     </row>
     <row r="2" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="25" t="s">
-        <v>247</v>
+      <c r="A2" s="26" t="s">
+        <v>258</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>249</v>
+        <v>259</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -2117,10 +2167,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="18" width="33.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="18" width="73.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="20" width="33.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="20" width="73.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="22.51"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="18" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="20" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2148,54 +2198,54 @@
       <c r="AMJ1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="20" t="s">
-        <v>39</v>
+      <c r="A2" s="21" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>46</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>47</v>
+      <c r="A5" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="20" t="s">
-        <v>51</v>
+      <c r="A18" s="21" t="s">
+        <v>53</v>
       </c>
       <c r="B18" s="0"/>
     </row>
@@ -3249,14 +3299,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="31.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="23" width="64.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="26.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="54.04"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="23" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="23" width="20.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="23" width="13.47"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="23" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="24" width="31.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="24" width="64.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="24" width="26.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="24" width="54.04"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="24" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="24" width="20.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="24" width="13.47"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="24" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3270,7 +3320,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -3288,7 +3338,7 @@
     </row>
     <row r="2" s="4" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B2" s="3"/>
       <c r="F2" s="3"/>
@@ -3298,50 +3348,50 @@
       <c r="AMJ2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="24" t="s">
-        <v>54</v>
+      <c r="A3" s="25" t="s">
+        <v>56</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="24" t="s">
-        <v>57</v>
+      <c r="A4" s="25" t="s">
+        <v>59</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="25" t="s">
-        <v>60</v>
+      <c r="A5" s="26" t="s">
+        <v>62</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="26" t="s">
-        <v>63</v>
+      <c r="A6" s="27" t="s">
+        <v>65</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>67</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3360,10 +3410,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ92"/>
+  <dimension ref="A1:AMJ93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B92" activeCellId="0" sqref="B92"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C93" activeCellId="0" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3400,102 +3450,113 @@
     </row>
     <row r="2" s="9" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
+        <v>69</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
     </row>
     <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="14" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="28" t="s">
-        <v>81</v>
+      <c r="A30" s="29" t="s">
+        <v>86</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="29" t="s">
-        <v>84</v>
+      <c r="A31" s="30" t="s">
+        <v>89</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="30" t="s">
-        <v>87</v>
+      <c r="A32" s="31" t="s">
+        <v>92</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="13" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>16</v>
@@ -3503,15 +3564,15 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="29" t="s">
-        <v>92</v>
+      <c r="A43" s="30" t="s">
+        <v>97</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>16</v>
@@ -3519,104 +3580,104 @@
     </row>
     <row r="44" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="12" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="13" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="31" t="s">
-        <v>98</v>
+      <c r="A46" s="32" t="s">
+        <v>103</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="11" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="11" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="11" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="12" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="32" t="s">
-        <v>112</v>
+      <c r="A89" s="33" t="s">
+        <v>117</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="11" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="77.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="13" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>16</v>
@@ -3624,10 +3685,21 @@
     </row>
     <row r="92" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="16" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -3648,17 +3720,17 @@
   </sheetPr>
   <dimension ref="A1:AMJ102"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="34.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="17" width="94.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="18" width="94.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="21.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="18" width="45.3"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="18" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="20" width="45.3"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="20" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3672,7 +3744,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -3690,267 +3762,280 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>124</v>
+        <v>131</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>132</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>126</v>
+        <v>133</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>134</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>129</v>
+        <v>136</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>137</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>132</v>
+        <v>139</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>140</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>135</v>
+        <v>142</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>137</v>
+      <c r="A9" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>145</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>140</v>
+        <v>147</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>142</v>
+        <v>149</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>145</v>
+        <v>155</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="14" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>149</v>
+        <v>159</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>160</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>152</v>
+        <v>162</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>163</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="10" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="10" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>156</v>
+        <v>166</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>167</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>158</v>
+        <v>168</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>169</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>161</v>
+        <v>171</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="10" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="B59" s="17" t="s">
-        <v>164</v>
+        <v>174</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="10" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="B68" s="17" t="s">
-        <v>168</v>
+        <v>178</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>179</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="B69" s="17" t="s">
-        <v>171</v>
+        <v>181</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>182</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="B70" s="17" t="s">
-        <v>174</v>
+      <c r="A70" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>185</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="B76" s="17" t="s">
-        <v>177</v>
+        <v>187</v>
+      </c>
+      <c r="B76" s="18" t="s">
+        <v>188</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="B77" s="17" t="s">
-        <v>180</v>
+        <v>190</v>
+      </c>
+      <c r="B77" s="18" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="10" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="B82" s="17" t="s">
-        <v>183</v>
+        <v>193</v>
+      </c>
+      <c r="B82" s="18" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3958,37 +4043,37 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="4" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="B94" s="17" t="s">
-        <v>186</v>
+        <v>196</v>
+      </c>
+      <c r="B94" s="18" t="s">
+        <v>197</v>
       </c>
       <c r="C94" s="19" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="B95" s="17" t="s">
-        <v>189</v>
+      <c r="A95" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="B95" s="18" t="s">
+        <v>200</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="B96" s="17" t="s">
-        <v>192</v>
+        <v>202</v>
+      </c>
+      <c r="B96" s="18" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4019,12 +4104,12 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="17" width="73.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="18" width="73.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="20.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="18" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="18" width="18.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="18" width="18.2"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="18" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="20" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="20" width="18.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="20" width="18.2"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="20" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4053,66 +4138,66 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>195</v>
+        <v>205</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>206</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>200</v>
+        <v>210</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>211</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>203</v>
+        <v>213</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>214</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>207</v>
+        <v>217</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>218</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -4171,29 +4256,29 @@
     </row>
     <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="12" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -4252,70 +4337,70 @@
     </row>
     <row r="2" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="29" t="s">
-        <v>224</v>
+      <c r="A5" s="30" t="s">
+        <v>235</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="121.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -4342,10 +4427,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="30.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="24" width="30.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="63.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="20.7"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="23" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="24" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4373,25 +4458,25 @@
       <c r="AMJ1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="26" t="s">
-        <v>234</v>
+      <c r="A2" s="27" t="s">
+        <v>245</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="33" t="s">
-        <v>237</v>
+      <c r="A3" s="34" t="s">
+        <v>248</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Tree" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,6 +20,7 @@
     <sheet name="BinarySearch" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="Greedy" sheetId="11" state="visible" r:id="rId12"/>
     <sheet name="Hashtable" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="BackTracking" sheetId="13" state="visible" r:id="rId14"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="275">
   <si>
     <t xml:space="preserve">QUESTION</t>
   </si>
@@ -368,6 +369,15 @@
   </si>
   <si>
     <t xml:space="preserve">TOPIC:two next comparing Think stack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1021. Remove Outermost Parentheses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:related to valid paretheses - stack
+STEP: dont add outer into res
+1.see (, count++, if count &gt; 1(inner) add to res
+2.see ), count--, if count &gt; 0(inner) add to res</t>
   </si>
   <si>
     <t xml:space="preserve">65. Valid Number</t>
@@ -658,6 +668,23 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">TOPIC:return number of pair sum up can be divisible by 60(similiar two sum)
+STEP:[30,20,150,100,40] =&gt;%60 [30,20,30,40,40], after mode 0&lt;= &lt;60
+[30,30,30]=&gt;res:3 OR[90,90,90]
+1.create countmap {x%60, freq}
+2.special reminders:0, 30, can make pair by themself, freq*(freq-1) / 2(divide by 2 mean only count -&gt; )
+3.for loop half(0,30) check other reminders:count[15] * count[45]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[COMBINATION STATISTIC](math statistic: combination find same one except myself:n*(n-1)/2 times; combination find two different sum up to oneVar:a*b times)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1732. Find the Highest Altitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1WAY:extra array 2WAY use max=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Count</t>
   </si>
   <si>
@@ -802,6 +829,12 @@
 1.create res array size is opposite to original 2.iterate original array, res[j][i] = original[i][j]</t>
   </si>
   <si>
+    <t xml:space="preserve">1252. Cells with Odd Values in a Matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">traverse indices[i,j], increment all cells in that row i,and all cells in that column j;then traverse all matrix,find odd</t>
+  </si>
+  <si>
     <t xml:space="preserve">Traverse</t>
   </si>
   <si>
@@ -815,6 +848,15 @@
 STEP:start point track:9-&gt;5-&gt;1-&gt;2-&gt;3-&gt;4 first column meet [0,0] go first row
 1.outerloop handle start point, rowIndex go up(-), if meet rowIndex=0, columnIndex go right (+)
 2.innerloop iterate diagnose all val, need another two pointer(wont use in outerloop anymore)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1266. Minimum Time Visiting All Points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total += max(abs(points[i][0]-points[i-1][0]), abs(points[i][1] – points[i-1][1]))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Geometry]</t>
   </si>
   <si>
     <t xml:space="preserve">Intervals</t>
@@ -1329,6 +1371,21 @@
   <si>
     <t xml:space="preserve">[2D array]</t>
   </si>
+  <si>
+    <t xml:space="preserve">131. Palindrome Partitioning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:Show palindrome substring result, use Backtracking, if need single val use DP
+STEP:backtracking template:
+1.In main method, create helper method dfs(index, temp, res)
+2.In dfs method, 
+terminate case(index=len(s)).
+recursion case(prune first check isPalindrome False continue, for i ..., get substr[index...i], add, dfs(i+1), pop)
+3.helper method isPalindrome(substr,start,end)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ordered combination</t>
+  </si>
 </sst>
 </file>
 
@@ -1420,7 +1477,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1430,7 +1487,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00A933"/>
-        <bgColor rgb="FF008080"/>
+        <bgColor rgb="FF158466"/>
       </patternFill>
     </fill>
     <fill>
@@ -1454,13 +1511,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF127622"/>
-        <bgColor rgb="FF008080"/>
+        <bgColor rgb="FF158466"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBF0041"/>
         <bgColor rgb="FFC9211E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF158466"/>
+        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
     <fill>
@@ -1504,7 +1567,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1642,6 +1705,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1685,7 +1756,7 @@
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF158466"/>
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
@@ -1972,26 +2043,26 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="40" t="s">
         <v>6</v>
       </c>
       <c r="AMJ1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -2054,10 +2125,10 @@
     </row>
     <row r="2" customFormat="false" ht="153.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>72</v>
@@ -2065,13 +2136,13 @@
     </row>
     <row r="3" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="15" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -2134,13 +2205,78 @@
     </row>
     <row r="2" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="26" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>260</v>
+        <v>271</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AMJ2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="74.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.51"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AMJ1" s="9"/>
+    </row>
+    <row r="2" s="1" customFormat="true" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -2162,7 +2298,7 @@
   <dimension ref="A1:AMJ19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3410,10 +3546,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ93"/>
+  <dimension ref="A1:AMJ94"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C93" activeCellId="0" sqref="C93"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3511,6 +3647,1032 @@
         <v>83</v>
       </c>
     </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0"/>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
+      <c r="M8" s="0"/>
+      <c r="N8" s="0"/>
+      <c r="O8" s="0"/>
+      <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
+      <c r="R8" s="0"/>
+      <c r="S8" s="0"/>
+      <c r="T8" s="0"/>
+      <c r="U8" s="0"/>
+      <c r="V8" s="0"/>
+      <c r="W8" s="0"/>
+      <c r="X8" s="0"/>
+      <c r="Y8" s="0"/>
+      <c r="Z8" s="0"/>
+      <c r="AA8" s="0"/>
+      <c r="AB8" s="0"/>
+      <c r="AC8" s="0"/>
+      <c r="AD8" s="0"/>
+      <c r="AE8" s="0"/>
+      <c r="AF8" s="0"/>
+      <c r="AG8" s="0"/>
+      <c r="AH8" s="0"/>
+      <c r="AI8" s="0"/>
+      <c r="AJ8" s="0"/>
+      <c r="AK8" s="0"/>
+      <c r="AL8" s="0"/>
+      <c r="AM8" s="0"/>
+      <c r="AN8" s="0"/>
+      <c r="AO8" s="0"/>
+      <c r="AP8" s="0"/>
+      <c r="AQ8" s="0"/>
+      <c r="AR8" s="0"/>
+      <c r="AS8" s="0"/>
+      <c r="AT8" s="0"/>
+      <c r="AU8" s="0"/>
+      <c r="AV8" s="0"/>
+      <c r="AW8" s="0"/>
+      <c r="AX8" s="0"/>
+      <c r="AY8" s="0"/>
+      <c r="AZ8" s="0"/>
+      <c r="BA8" s="0"/>
+      <c r="BB8" s="0"/>
+      <c r="BC8" s="0"/>
+      <c r="BD8" s="0"/>
+      <c r="BE8" s="0"/>
+      <c r="BF8" s="0"/>
+      <c r="BG8" s="0"/>
+      <c r="BH8" s="0"/>
+      <c r="BI8" s="0"/>
+      <c r="BJ8" s="0"/>
+      <c r="BK8" s="0"/>
+      <c r="BL8" s="0"/>
+      <c r="BM8" s="0"/>
+      <c r="BN8" s="0"/>
+      <c r="BO8" s="0"/>
+      <c r="BP8" s="0"/>
+      <c r="BQ8" s="0"/>
+      <c r="BR8" s="0"/>
+      <c r="BS8" s="0"/>
+      <c r="BT8" s="0"/>
+      <c r="BU8" s="0"/>
+      <c r="BV8" s="0"/>
+      <c r="BW8" s="0"/>
+      <c r="BX8" s="0"/>
+      <c r="BY8" s="0"/>
+      <c r="BZ8" s="0"/>
+      <c r="CA8" s="0"/>
+      <c r="CB8" s="0"/>
+      <c r="CC8" s="0"/>
+      <c r="CD8" s="0"/>
+      <c r="CE8" s="0"/>
+      <c r="CF8" s="0"/>
+      <c r="CG8" s="0"/>
+      <c r="CH8" s="0"/>
+      <c r="CI8" s="0"/>
+      <c r="CJ8" s="0"/>
+      <c r="CK8" s="0"/>
+      <c r="CL8" s="0"/>
+      <c r="CM8" s="0"/>
+      <c r="CN8" s="0"/>
+      <c r="CO8" s="0"/>
+      <c r="CP8" s="0"/>
+      <c r="CQ8" s="0"/>
+      <c r="CR8" s="0"/>
+      <c r="CS8" s="0"/>
+      <c r="CT8" s="0"/>
+      <c r="CU8" s="0"/>
+      <c r="CV8" s="0"/>
+      <c r="CW8" s="0"/>
+      <c r="CX8" s="0"/>
+      <c r="CY8" s="0"/>
+      <c r="CZ8" s="0"/>
+      <c r="DA8" s="0"/>
+      <c r="DB8" s="0"/>
+      <c r="DC8" s="0"/>
+      <c r="DD8" s="0"/>
+      <c r="DE8" s="0"/>
+      <c r="DF8" s="0"/>
+      <c r="DG8" s="0"/>
+      <c r="DH8" s="0"/>
+      <c r="DI8" s="0"/>
+      <c r="DJ8" s="0"/>
+      <c r="DK8" s="0"/>
+      <c r="DL8" s="0"/>
+      <c r="DM8" s="0"/>
+      <c r="DN8" s="0"/>
+      <c r="DO8" s="0"/>
+      <c r="DP8" s="0"/>
+      <c r="DQ8" s="0"/>
+      <c r="DR8" s="0"/>
+      <c r="DS8" s="0"/>
+      <c r="DT8" s="0"/>
+      <c r="DU8" s="0"/>
+      <c r="DV8" s="0"/>
+      <c r="DW8" s="0"/>
+      <c r="DX8" s="0"/>
+      <c r="DY8" s="0"/>
+      <c r="DZ8" s="0"/>
+      <c r="EA8" s="0"/>
+      <c r="EB8" s="0"/>
+      <c r="EC8" s="0"/>
+      <c r="ED8" s="0"/>
+      <c r="EE8" s="0"/>
+      <c r="EF8" s="0"/>
+      <c r="EG8" s="0"/>
+      <c r="EH8" s="0"/>
+      <c r="EI8" s="0"/>
+      <c r="EJ8" s="0"/>
+      <c r="EK8" s="0"/>
+      <c r="EL8" s="0"/>
+      <c r="EM8" s="0"/>
+      <c r="EN8" s="0"/>
+      <c r="EO8" s="0"/>
+      <c r="EP8" s="0"/>
+      <c r="EQ8" s="0"/>
+      <c r="ER8" s="0"/>
+      <c r="ES8" s="0"/>
+      <c r="ET8" s="0"/>
+      <c r="EU8" s="0"/>
+      <c r="EV8" s="0"/>
+      <c r="EW8" s="0"/>
+      <c r="EX8" s="0"/>
+      <c r="EY8" s="0"/>
+      <c r="EZ8" s="0"/>
+      <c r="FA8" s="0"/>
+      <c r="FB8" s="0"/>
+      <c r="FC8" s="0"/>
+      <c r="FD8" s="0"/>
+      <c r="FE8" s="0"/>
+      <c r="FF8" s="0"/>
+      <c r="FG8" s="0"/>
+      <c r="FH8" s="0"/>
+      <c r="FI8" s="0"/>
+      <c r="FJ8" s="0"/>
+      <c r="FK8" s="0"/>
+      <c r="FL8" s="0"/>
+      <c r="FM8" s="0"/>
+      <c r="FN8" s="0"/>
+      <c r="FO8" s="0"/>
+      <c r="FP8" s="0"/>
+      <c r="FQ8" s="0"/>
+      <c r="FR8" s="0"/>
+      <c r="FS8" s="0"/>
+      <c r="FT8" s="0"/>
+      <c r="FU8" s="0"/>
+      <c r="FV8" s="0"/>
+      <c r="FW8" s="0"/>
+      <c r="FX8" s="0"/>
+      <c r="FY8" s="0"/>
+      <c r="FZ8" s="0"/>
+      <c r="GA8" s="0"/>
+      <c r="GB8" s="0"/>
+      <c r="GC8" s="0"/>
+      <c r="GD8" s="0"/>
+      <c r="GE8" s="0"/>
+      <c r="GF8" s="0"/>
+      <c r="GG8" s="0"/>
+      <c r="GH8" s="0"/>
+      <c r="GI8" s="0"/>
+      <c r="GJ8" s="0"/>
+      <c r="GK8" s="0"/>
+      <c r="GL8" s="0"/>
+      <c r="GM8" s="0"/>
+      <c r="GN8" s="0"/>
+      <c r="GO8" s="0"/>
+      <c r="GP8" s="0"/>
+      <c r="GQ8" s="0"/>
+      <c r="GR8" s="0"/>
+      <c r="GS8" s="0"/>
+      <c r="GT8" s="0"/>
+      <c r="GU8" s="0"/>
+      <c r="GV8" s="0"/>
+      <c r="GW8" s="0"/>
+      <c r="GX8" s="0"/>
+      <c r="GY8" s="0"/>
+      <c r="GZ8" s="0"/>
+      <c r="HA8" s="0"/>
+      <c r="HB8" s="0"/>
+      <c r="HC8" s="0"/>
+      <c r="HD8" s="0"/>
+      <c r="HE8" s="0"/>
+      <c r="HF8" s="0"/>
+      <c r="HG8" s="0"/>
+      <c r="HH8" s="0"/>
+      <c r="HI8" s="0"/>
+      <c r="HJ8" s="0"/>
+      <c r="HK8" s="0"/>
+      <c r="HL8" s="0"/>
+      <c r="HM8" s="0"/>
+      <c r="HN8" s="0"/>
+      <c r="HO8" s="0"/>
+      <c r="HP8" s="0"/>
+      <c r="HQ8" s="0"/>
+      <c r="HR8" s="0"/>
+      <c r="HS8" s="0"/>
+      <c r="HT8" s="0"/>
+      <c r="HU8" s="0"/>
+      <c r="HV8" s="0"/>
+      <c r="HW8" s="0"/>
+      <c r="HX8" s="0"/>
+      <c r="HY8" s="0"/>
+      <c r="HZ8" s="0"/>
+      <c r="IA8" s="0"/>
+      <c r="IB8" s="0"/>
+      <c r="IC8" s="0"/>
+      <c r="ID8" s="0"/>
+      <c r="IE8" s="0"/>
+      <c r="IF8" s="0"/>
+      <c r="IG8" s="0"/>
+      <c r="IH8" s="0"/>
+      <c r="II8" s="0"/>
+      <c r="IJ8" s="0"/>
+      <c r="IK8" s="0"/>
+      <c r="IL8" s="0"/>
+      <c r="IM8" s="0"/>
+      <c r="IN8" s="0"/>
+      <c r="IO8" s="0"/>
+      <c r="IP8" s="0"/>
+      <c r="IQ8" s="0"/>
+      <c r="IR8" s="0"/>
+      <c r="IS8" s="0"/>
+      <c r="IT8" s="0"/>
+      <c r="IU8" s="0"/>
+      <c r="IV8" s="0"/>
+      <c r="IW8" s="0"/>
+      <c r="IX8" s="0"/>
+      <c r="IY8" s="0"/>
+      <c r="IZ8" s="0"/>
+      <c r="JA8" s="0"/>
+      <c r="JB8" s="0"/>
+      <c r="JC8" s="0"/>
+      <c r="JD8" s="0"/>
+      <c r="JE8" s="0"/>
+      <c r="JF8" s="0"/>
+      <c r="JG8" s="0"/>
+      <c r="JH8" s="0"/>
+      <c r="JI8" s="0"/>
+      <c r="JJ8" s="0"/>
+      <c r="JK8" s="0"/>
+      <c r="JL8" s="0"/>
+      <c r="JM8" s="0"/>
+      <c r="JN8" s="0"/>
+      <c r="JO8" s="0"/>
+      <c r="JP8" s="0"/>
+      <c r="JQ8" s="0"/>
+      <c r="JR8" s="0"/>
+      <c r="JS8" s="0"/>
+      <c r="JT8" s="0"/>
+      <c r="JU8" s="0"/>
+      <c r="JV8" s="0"/>
+      <c r="JW8" s="0"/>
+      <c r="JX8" s="0"/>
+      <c r="JY8" s="0"/>
+      <c r="JZ8" s="0"/>
+      <c r="KA8" s="0"/>
+      <c r="KB8" s="0"/>
+      <c r="KC8" s="0"/>
+      <c r="KD8" s="0"/>
+      <c r="KE8" s="0"/>
+      <c r="KF8" s="0"/>
+      <c r="KG8" s="0"/>
+      <c r="KH8" s="0"/>
+      <c r="KI8" s="0"/>
+      <c r="KJ8" s="0"/>
+      <c r="KK8" s="0"/>
+      <c r="KL8" s="0"/>
+      <c r="KM8" s="0"/>
+      <c r="KN8" s="0"/>
+      <c r="KO8" s="0"/>
+      <c r="KP8" s="0"/>
+      <c r="KQ8" s="0"/>
+      <c r="KR8" s="0"/>
+      <c r="KS8" s="0"/>
+      <c r="KT8" s="0"/>
+      <c r="KU8" s="0"/>
+      <c r="KV8" s="0"/>
+      <c r="KW8" s="0"/>
+      <c r="KX8" s="0"/>
+      <c r="KY8" s="0"/>
+      <c r="KZ8" s="0"/>
+      <c r="LA8" s="0"/>
+      <c r="LB8" s="0"/>
+      <c r="LC8" s="0"/>
+      <c r="LD8" s="0"/>
+      <c r="LE8" s="0"/>
+      <c r="LF8" s="0"/>
+      <c r="LG8" s="0"/>
+      <c r="LH8" s="0"/>
+      <c r="LI8" s="0"/>
+      <c r="LJ8" s="0"/>
+      <c r="LK8" s="0"/>
+      <c r="LL8" s="0"/>
+      <c r="LM8" s="0"/>
+      <c r="LN8" s="0"/>
+      <c r="LO8" s="0"/>
+      <c r="LP8" s="0"/>
+      <c r="LQ8" s="0"/>
+      <c r="LR8" s="0"/>
+      <c r="LS8" s="0"/>
+      <c r="LT8" s="0"/>
+      <c r="LU8" s="0"/>
+      <c r="LV8" s="0"/>
+      <c r="LW8" s="0"/>
+      <c r="LX8" s="0"/>
+      <c r="LY8" s="0"/>
+      <c r="LZ8" s="0"/>
+      <c r="MA8" s="0"/>
+      <c r="MB8" s="0"/>
+      <c r="MC8" s="0"/>
+      <c r="MD8" s="0"/>
+      <c r="ME8" s="0"/>
+      <c r="MF8" s="0"/>
+      <c r="MG8" s="0"/>
+      <c r="MH8" s="0"/>
+      <c r="MI8" s="0"/>
+      <c r="MJ8" s="0"/>
+      <c r="MK8" s="0"/>
+      <c r="ML8" s="0"/>
+      <c r="MM8" s="0"/>
+      <c r="MN8" s="0"/>
+      <c r="MO8" s="0"/>
+      <c r="MP8" s="0"/>
+      <c r="MQ8" s="0"/>
+      <c r="MR8" s="0"/>
+      <c r="MS8" s="0"/>
+      <c r="MT8" s="0"/>
+      <c r="MU8" s="0"/>
+      <c r="MV8" s="0"/>
+      <c r="MW8" s="0"/>
+      <c r="MX8" s="0"/>
+      <c r="MY8" s="0"/>
+      <c r="MZ8" s="0"/>
+      <c r="NA8" s="0"/>
+      <c r="NB8" s="0"/>
+      <c r="NC8" s="0"/>
+      <c r="ND8" s="0"/>
+      <c r="NE8" s="0"/>
+      <c r="NF8" s="0"/>
+      <c r="NG8" s="0"/>
+      <c r="NH8" s="0"/>
+      <c r="NI8" s="0"/>
+      <c r="NJ8" s="0"/>
+      <c r="NK8" s="0"/>
+      <c r="NL8" s="0"/>
+      <c r="NM8" s="0"/>
+      <c r="NN8" s="0"/>
+      <c r="NO8" s="0"/>
+      <c r="NP8" s="0"/>
+      <c r="NQ8" s="0"/>
+      <c r="NR8" s="0"/>
+      <c r="NS8" s="0"/>
+      <c r="NT8" s="0"/>
+      <c r="NU8" s="0"/>
+      <c r="NV8" s="0"/>
+      <c r="NW8" s="0"/>
+      <c r="NX8" s="0"/>
+      <c r="NY8" s="0"/>
+      <c r="NZ8" s="0"/>
+      <c r="OA8" s="0"/>
+      <c r="OB8" s="0"/>
+      <c r="OC8" s="0"/>
+      <c r="OD8" s="0"/>
+      <c r="OE8" s="0"/>
+      <c r="OF8" s="0"/>
+      <c r="OG8" s="0"/>
+      <c r="OH8" s="0"/>
+      <c r="OI8" s="0"/>
+      <c r="OJ8" s="0"/>
+      <c r="OK8" s="0"/>
+      <c r="OL8" s="0"/>
+      <c r="OM8" s="0"/>
+      <c r="ON8" s="0"/>
+      <c r="OO8" s="0"/>
+      <c r="OP8" s="0"/>
+      <c r="OQ8" s="0"/>
+      <c r="OR8" s="0"/>
+      <c r="OS8" s="0"/>
+      <c r="OT8" s="0"/>
+      <c r="OU8" s="0"/>
+      <c r="OV8" s="0"/>
+      <c r="OW8" s="0"/>
+      <c r="OX8" s="0"/>
+      <c r="OY8" s="0"/>
+      <c r="OZ8" s="0"/>
+      <c r="PA8" s="0"/>
+      <c r="PB8" s="0"/>
+      <c r="PC8" s="0"/>
+      <c r="PD8" s="0"/>
+      <c r="PE8" s="0"/>
+      <c r="PF8" s="0"/>
+      <c r="PG8" s="0"/>
+      <c r="PH8" s="0"/>
+      <c r="PI8" s="0"/>
+      <c r="PJ8" s="0"/>
+      <c r="PK8" s="0"/>
+      <c r="PL8" s="0"/>
+      <c r="PM8" s="0"/>
+      <c r="PN8" s="0"/>
+      <c r="PO8" s="0"/>
+      <c r="PP8" s="0"/>
+      <c r="PQ8" s="0"/>
+      <c r="PR8" s="0"/>
+      <c r="PS8" s="0"/>
+      <c r="PT8" s="0"/>
+      <c r="PU8" s="0"/>
+      <c r="PV8" s="0"/>
+      <c r="PW8" s="0"/>
+      <c r="PX8" s="0"/>
+      <c r="PY8" s="0"/>
+      <c r="PZ8" s="0"/>
+      <c r="QA8" s="0"/>
+      <c r="QB8" s="0"/>
+      <c r="QC8" s="0"/>
+      <c r="QD8" s="0"/>
+      <c r="QE8" s="0"/>
+      <c r="QF8" s="0"/>
+      <c r="QG8" s="0"/>
+      <c r="QH8" s="0"/>
+      <c r="QI8" s="0"/>
+      <c r="QJ8" s="0"/>
+      <c r="QK8" s="0"/>
+      <c r="QL8" s="0"/>
+      <c r="QM8" s="0"/>
+      <c r="QN8" s="0"/>
+      <c r="QO8" s="0"/>
+      <c r="QP8" s="0"/>
+      <c r="QQ8" s="0"/>
+      <c r="QR8" s="0"/>
+      <c r="QS8" s="0"/>
+      <c r="QT8" s="0"/>
+      <c r="QU8" s="0"/>
+      <c r="QV8" s="0"/>
+      <c r="QW8" s="0"/>
+      <c r="QX8" s="0"/>
+      <c r="QY8" s="0"/>
+      <c r="QZ8" s="0"/>
+      <c r="RA8" s="0"/>
+      <c r="RB8" s="0"/>
+      <c r="RC8" s="0"/>
+      <c r="RD8" s="0"/>
+      <c r="RE8" s="0"/>
+      <c r="RF8" s="0"/>
+      <c r="RG8" s="0"/>
+      <c r="RH8" s="0"/>
+      <c r="RI8" s="0"/>
+      <c r="RJ8" s="0"/>
+      <c r="RK8" s="0"/>
+      <c r="RL8" s="0"/>
+      <c r="RM8" s="0"/>
+      <c r="RN8" s="0"/>
+      <c r="RO8" s="0"/>
+      <c r="RP8" s="0"/>
+      <c r="RQ8" s="0"/>
+      <c r="RR8" s="0"/>
+      <c r="RS8" s="0"/>
+      <c r="RT8" s="0"/>
+      <c r="RU8" s="0"/>
+      <c r="RV8" s="0"/>
+      <c r="RW8" s="0"/>
+      <c r="RX8" s="0"/>
+      <c r="RY8" s="0"/>
+      <c r="RZ8" s="0"/>
+      <c r="SA8" s="0"/>
+      <c r="SB8" s="0"/>
+      <c r="SC8" s="0"/>
+      <c r="SD8" s="0"/>
+      <c r="SE8" s="0"/>
+      <c r="SF8" s="0"/>
+      <c r="SG8" s="0"/>
+      <c r="SH8" s="0"/>
+      <c r="SI8" s="0"/>
+      <c r="SJ8" s="0"/>
+      <c r="SK8" s="0"/>
+      <c r="SL8" s="0"/>
+      <c r="SM8" s="0"/>
+      <c r="SN8" s="0"/>
+      <c r="SO8" s="0"/>
+      <c r="SP8" s="0"/>
+      <c r="SQ8" s="0"/>
+      <c r="SR8" s="0"/>
+      <c r="SS8" s="0"/>
+      <c r="ST8" s="0"/>
+      <c r="SU8" s="0"/>
+      <c r="SV8" s="0"/>
+      <c r="SW8" s="0"/>
+      <c r="SX8" s="0"/>
+      <c r="SY8" s="0"/>
+      <c r="SZ8" s="0"/>
+      <c r="TA8" s="0"/>
+      <c r="TB8" s="0"/>
+      <c r="TC8" s="0"/>
+      <c r="TD8" s="0"/>
+      <c r="TE8" s="0"/>
+      <c r="TF8" s="0"/>
+      <c r="TG8" s="0"/>
+      <c r="TH8" s="0"/>
+      <c r="TI8" s="0"/>
+      <c r="TJ8" s="0"/>
+      <c r="TK8" s="0"/>
+      <c r="TL8" s="0"/>
+      <c r="TM8" s="0"/>
+      <c r="TN8" s="0"/>
+      <c r="TO8" s="0"/>
+      <c r="TP8" s="0"/>
+      <c r="TQ8" s="0"/>
+      <c r="TR8" s="0"/>
+      <c r="TS8" s="0"/>
+      <c r="TT8" s="0"/>
+      <c r="TU8" s="0"/>
+      <c r="TV8" s="0"/>
+      <c r="TW8" s="0"/>
+      <c r="TX8" s="0"/>
+      <c r="TY8" s="0"/>
+      <c r="TZ8" s="0"/>
+      <c r="UA8" s="0"/>
+      <c r="UB8" s="0"/>
+      <c r="UC8" s="0"/>
+      <c r="UD8" s="0"/>
+      <c r="UE8" s="0"/>
+      <c r="UF8" s="0"/>
+      <c r="UG8" s="0"/>
+      <c r="UH8" s="0"/>
+      <c r="UI8" s="0"/>
+      <c r="UJ8" s="0"/>
+      <c r="UK8" s="0"/>
+      <c r="UL8" s="0"/>
+      <c r="UM8" s="0"/>
+      <c r="UN8" s="0"/>
+      <c r="UO8" s="0"/>
+      <c r="UP8" s="0"/>
+      <c r="UQ8" s="0"/>
+      <c r="UR8" s="0"/>
+      <c r="US8" s="0"/>
+      <c r="UT8" s="0"/>
+      <c r="UU8" s="0"/>
+      <c r="UV8" s="0"/>
+      <c r="UW8" s="0"/>
+      <c r="UX8" s="0"/>
+      <c r="UY8" s="0"/>
+      <c r="UZ8" s="0"/>
+      <c r="VA8" s="0"/>
+      <c r="VB8" s="0"/>
+      <c r="VC8" s="0"/>
+      <c r="VD8" s="0"/>
+      <c r="VE8" s="0"/>
+      <c r="VF8" s="0"/>
+      <c r="VG8" s="0"/>
+      <c r="VH8" s="0"/>
+      <c r="VI8" s="0"/>
+      <c r="VJ8" s="0"/>
+      <c r="VK8" s="0"/>
+      <c r="VL8" s="0"/>
+      <c r="VM8" s="0"/>
+      <c r="VN8" s="0"/>
+      <c r="VO8" s="0"/>
+      <c r="VP8" s="0"/>
+      <c r="VQ8" s="0"/>
+      <c r="VR8" s="0"/>
+      <c r="VS8" s="0"/>
+      <c r="VT8" s="0"/>
+      <c r="VU8" s="0"/>
+      <c r="VV8" s="0"/>
+      <c r="VW8" s="0"/>
+      <c r="VX8" s="0"/>
+      <c r="VY8" s="0"/>
+      <c r="VZ8" s="0"/>
+      <c r="WA8" s="0"/>
+      <c r="WB8" s="0"/>
+      <c r="WC8" s="0"/>
+      <c r="WD8" s="0"/>
+      <c r="WE8" s="0"/>
+      <c r="WF8" s="0"/>
+      <c r="WG8" s="0"/>
+      <c r="WH8" s="0"/>
+      <c r="WI8" s="0"/>
+      <c r="WJ8" s="0"/>
+      <c r="WK8" s="0"/>
+      <c r="WL8" s="0"/>
+      <c r="WM8" s="0"/>
+      <c r="WN8" s="0"/>
+      <c r="WO8" s="0"/>
+      <c r="WP8" s="0"/>
+      <c r="WQ8" s="0"/>
+      <c r="WR8" s="0"/>
+      <c r="WS8" s="0"/>
+      <c r="WT8" s="0"/>
+      <c r="WU8" s="0"/>
+      <c r="WV8" s="0"/>
+      <c r="WW8" s="0"/>
+      <c r="WX8" s="0"/>
+      <c r="WY8" s="0"/>
+      <c r="WZ8" s="0"/>
+      <c r="XA8" s="0"/>
+      <c r="XB8" s="0"/>
+      <c r="XC8" s="0"/>
+      <c r="XD8" s="0"/>
+      <c r="XE8" s="0"/>
+      <c r="XF8" s="0"/>
+      <c r="XG8" s="0"/>
+      <c r="XH8" s="0"/>
+      <c r="XI8" s="0"/>
+      <c r="XJ8" s="0"/>
+      <c r="XK8" s="0"/>
+      <c r="XL8" s="0"/>
+      <c r="XM8" s="0"/>
+      <c r="XN8" s="0"/>
+      <c r="XO8" s="0"/>
+      <c r="XP8" s="0"/>
+      <c r="XQ8" s="0"/>
+      <c r="XR8" s="0"/>
+      <c r="XS8" s="0"/>
+      <c r="XT8" s="0"/>
+      <c r="XU8" s="0"/>
+      <c r="XV8" s="0"/>
+      <c r="XW8" s="0"/>
+      <c r="XX8" s="0"/>
+      <c r="XY8" s="0"/>
+      <c r="XZ8" s="0"/>
+      <c r="YA8" s="0"/>
+      <c r="YB8" s="0"/>
+      <c r="YC8" s="0"/>
+      <c r="YD8" s="0"/>
+      <c r="YE8" s="0"/>
+      <c r="YF8" s="0"/>
+      <c r="YG8" s="0"/>
+      <c r="YH8" s="0"/>
+      <c r="YI8" s="0"/>
+      <c r="YJ8" s="0"/>
+      <c r="YK8" s="0"/>
+      <c r="YL8" s="0"/>
+      <c r="YM8" s="0"/>
+      <c r="YN8" s="0"/>
+      <c r="YO8" s="0"/>
+      <c r="YP8" s="0"/>
+      <c r="YQ8" s="0"/>
+      <c r="YR8" s="0"/>
+      <c r="YS8" s="0"/>
+      <c r="YT8" s="0"/>
+      <c r="YU8" s="0"/>
+      <c r="YV8" s="0"/>
+      <c r="YW8" s="0"/>
+      <c r="YX8" s="0"/>
+      <c r="YY8" s="0"/>
+      <c r="YZ8" s="0"/>
+      <c r="ZA8" s="0"/>
+      <c r="ZB8" s="0"/>
+      <c r="ZC8" s="0"/>
+      <c r="ZD8" s="0"/>
+      <c r="ZE8" s="0"/>
+      <c r="ZF8" s="0"/>
+      <c r="ZG8" s="0"/>
+      <c r="ZH8" s="0"/>
+      <c r="ZI8" s="0"/>
+      <c r="ZJ8" s="0"/>
+      <c r="ZK8" s="0"/>
+      <c r="ZL8" s="0"/>
+      <c r="ZM8" s="0"/>
+      <c r="ZN8" s="0"/>
+      <c r="ZO8" s="0"/>
+      <c r="ZP8" s="0"/>
+      <c r="ZQ8" s="0"/>
+      <c r="ZR8" s="0"/>
+      <c r="ZS8" s="0"/>
+      <c r="ZT8" s="0"/>
+      <c r="ZU8" s="0"/>
+      <c r="ZV8" s="0"/>
+      <c r="ZW8" s="0"/>
+      <c r="ZX8" s="0"/>
+      <c r="ZY8" s="0"/>
+      <c r="ZZ8" s="0"/>
+      <c r="AAA8" s="0"/>
+      <c r="AAB8" s="0"/>
+      <c r="AAC8" s="0"/>
+      <c r="AAD8" s="0"/>
+      <c r="AAE8" s="0"/>
+      <c r="AAF8" s="0"/>
+      <c r="AAG8" s="0"/>
+      <c r="AAH8" s="0"/>
+      <c r="AAI8" s="0"/>
+      <c r="AAJ8" s="0"/>
+      <c r="AAK8" s="0"/>
+      <c r="AAL8" s="0"/>
+      <c r="AAM8" s="0"/>
+      <c r="AAN8" s="0"/>
+      <c r="AAO8" s="0"/>
+      <c r="AAP8" s="0"/>
+      <c r="AAQ8" s="0"/>
+      <c r="AAR8" s="0"/>
+      <c r="AAS8" s="0"/>
+      <c r="AAT8" s="0"/>
+      <c r="AAU8" s="0"/>
+      <c r="AAV8" s="0"/>
+      <c r="AAW8" s="0"/>
+      <c r="AAX8" s="0"/>
+      <c r="AAY8" s="0"/>
+      <c r="AAZ8" s="0"/>
+      <c r="ABA8" s="0"/>
+      <c r="ABB8" s="0"/>
+      <c r="ABC8" s="0"/>
+      <c r="ABD8" s="0"/>
+      <c r="ABE8" s="0"/>
+      <c r="ABF8" s="0"/>
+      <c r="ABG8" s="0"/>
+      <c r="ABH8" s="0"/>
+      <c r="ABI8" s="0"/>
+      <c r="ABJ8" s="0"/>
+      <c r="ABK8" s="0"/>
+      <c r="ABL8" s="0"/>
+      <c r="ABM8" s="0"/>
+      <c r="ABN8" s="0"/>
+      <c r="ABO8" s="0"/>
+      <c r="ABP8" s="0"/>
+      <c r="ABQ8" s="0"/>
+      <c r="ABR8" s="0"/>
+      <c r="ABS8" s="0"/>
+      <c r="ABT8" s="0"/>
+      <c r="ABU8" s="0"/>
+      <c r="ABV8" s="0"/>
+      <c r="ABW8" s="0"/>
+      <c r="ABX8" s="0"/>
+      <c r="ABY8" s="0"/>
+      <c r="ABZ8" s="0"/>
+      <c r="ACA8" s="0"/>
+      <c r="ACB8" s="0"/>
+      <c r="ACC8" s="0"/>
+      <c r="ACD8" s="0"/>
+      <c r="ACE8" s="0"/>
+      <c r="ACF8" s="0"/>
+      <c r="ACG8" s="0"/>
+      <c r="ACH8" s="0"/>
+      <c r="ACI8" s="0"/>
+      <c r="ACJ8" s="0"/>
+      <c r="ACK8" s="0"/>
+      <c r="ACL8" s="0"/>
+      <c r="ACM8" s="0"/>
+      <c r="ACN8" s="0"/>
+      <c r="ACO8" s="0"/>
+      <c r="ACP8" s="0"/>
+      <c r="ACQ8" s="0"/>
+      <c r="ACR8" s="0"/>
+      <c r="ACS8" s="0"/>
+      <c r="ACT8" s="0"/>
+      <c r="ACU8" s="0"/>
+      <c r="ACV8" s="0"/>
+      <c r="ACW8" s="0"/>
+      <c r="ACX8" s="0"/>
+      <c r="ACY8" s="0"/>
+      <c r="ACZ8" s="0"/>
+      <c r="ADA8" s="0"/>
+      <c r="ADB8" s="0"/>
+      <c r="ADC8" s="0"/>
+      <c r="ADD8" s="0"/>
+      <c r="ADE8" s="0"/>
+      <c r="ADF8" s="0"/>
+      <c r="ADG8" s="0"/>
+      <c r="ADH8" s="0"/>
+      <c r="ADI8" s="0"/>
+      <c r="ADJ8" s="0"/>
+      <c r="ADK8" s="0"/>
+      <c r="ADL8" s="0"/>
+      <c r="ADM8" s="0"/>
+      <c r="ADN8" s="0"/>
+      <c r="ADO8" s="0"/>
+      <c r="ADP8" s="0"/>
+      <c r="ADQ8" s="0"/>
+      <c r="ADR8" s="0"/>
+      <c r="ADS8" s="0"/>
+      <c r="ADT8" s="0"/>
+      <c r="ADU8" s="0"/>
+      <c r="ADV8" s="0"/>
+      <c r="ADW8" s="0"/>
+      <c r="ADX8" s="0"/>
+      <c r="ADY8" s="0"/>
+      <c r="ADZ8" s="0"/>
+      <c r="AEA8" s="0"/>
+      <c r="AEB8" s="0"/>
+      <c r="AEC8" s="0"/>
+      <c r="AED8" s="0"/>
+      <c r="AEE8" s="0"/>
+      <c r="AEF8" s="0"/>
+      <c r="AEG8" s="0"/>
+      <c r="AEH8" s="0"/>
+      <c r="AEI8" s="0"/>
+      <c r="AEJ8" s="0"/>
+      <c r="AEK8" s="0"/>
+      <c r="AEL8" s="0"/>
+      <c r="AEM8" s="0"/>
+      <c r="AEN8" s="0"/>
+      <c r="AEO8" s="0"/>
+      <c r="AEP8" s="0"/>
+      <c r="AEQ8" s="0"/>
+      <c r="AER8" s="0"/>
+      <c r="AES8" s="0"/>
+      <c r="AET8" s="0"/>
+      <c r="AEU8" s="0"/>
+      <c r="AEV8" s="0"/>
+      <c r="AEW8" s="0"/>
+      <c r="AEX8" s="0"/>
+      <c r="AEY8" s="0"/>
+      <c r="AEZ8" s="0"/>
+      <c r="AFA8" s="0"/>
+      <c r="AFB8" s="0"/>
+      <c r="AFC8" s="0"/>
+      <c r="AFD8" s="0"/>
+      <c r="AFE8" s="0"/>
+      <c r="AFF8" s="0"/>
+      <c r="AFG8" s="0"/>
+      <c r="AFH8" s="0"/>
+      <c r="AFI8" s="0"/>
+      <c r="AFJ8" s="0"/>
+      <c r="AFK8" s="0"/>
+      <c r="AFL8" s="0"/>
+      <c r="AFM8" s="0"/>
+      <c r="AFN8" s="0"/>
+      <c r="AFO8" s="0"/>
+      <c r="AFP8" s="0"/>
+      <c r="AFQ8" s="0"/>
+      <c r="AFR8" s="0"/>
+      <c r="AFS8" s="0"/>
+      <c r="AFT8" s="0"/>
+      <c r="AFU8" s="0"/>
+      <c r="AFV8" s="0"/>
+      <c r="AFW8" s="0"/>
+      <c r="AFX8" s="0"/>
+      <c r="AFY8" s="0"/>
+      <c r="AFZ8" s="0"/>
+      <c r="AGA8" s="0"/>
+      <c r="AGB8" s="0"/>
+      <c r="AGC8" s="0"/>
+      <c r="AGD8" s="0"/>
+      <c r="AGE8" s="0"/>
+      <c r="AGF8" s="0"/>
+      <c r="AGG8" s="0"/>
+      <c r="AGH8" s="0"/>
+      <c r="AGI8" s="0"/>
+      <c r="AGJ8" s="0"/>
+      <c r="AGK8" s="0"/>
+      <c r="AGL8" s="0"/>
+      <c r="AGM8" s="0"/>
+      <c r="AGN8" s="0"/>
+      <c r="AGO8" s="0"/>
+      <c r="AGP8" s="0"/>
+      <c r="AGQ8" s="0"/>
+      <c r="AGR8" s="0"/>
+      <c r="AGS8" s="0"/>
+      <c r="AGT8" s="0"/>
+      <c r="AGU8" s="0"/>
+      <c r="AGV8" s="0"/>
+      <c r="AGW8" s="0"/>
+      <c r="AGX8" s="0"/>
+      <c r="AGY8" s="0"/>
+      <c r="AGZ8" s="0"/>
+      <c r="AHA8" s="0"/>
+      <c r="AHB8" s="0"/>
+      <c r="AHC8" s="0"/>
+      <c r="AHD8" s="0"/>
+      <c r="AHE8" s="0"/>
+      <c r="AHF8" s="0"/>
+      <c r="AHG8" s="0"/>
+      <c r="AHH8" s="0"/>
+      <c r="AHI8" s="0"/>
+      <c r="AHJ8" s="0"/>
+      <c r="AHK8" s="0"/>
+      <c r="AHL8" s="0"/>
+      <c r="AHM8" s="0"/>
+      <c r="AHN8" s="0"/>
+      <c r="AHO8" s="0"/>
+      <c r="AHP8" s="0"/>
+      <c r="AHQ8" s="0"/>
+      <c r="AHR8" s="0"/>
+      <c r="AHS8" s="0"/>
+      <c r="AHT8" s="0"/>
+      <c r="AHU8" s="0"/>
+      <c r="AHV8" s="0"/>
+      <c r="AHW8" s="0"/>
+      <c r="AHX8" s="0"/>
+      <c r="AHY8" s="0"/>
+      <c r="AHZ8" s="0"/>
+      <c r="AIA8" s="0"/>
+      <c r="AIB8" s="0"/>
+      <c r="AIC8" s="0"/>
+      <c r="AID8" s="0"/>
+      <c r="AIE8" s="0"/>
+      <c r="AIF8" s="0"/>
+      <c r="AIG8" s="0"/>
+      <c r="AIH8" s="0"/>
+      <c r="AII8" s="0"/>
+      <c r="AIJ8" s="0"/>
+      <c r="AIK8" s="0"/>
+      <c r="AIL8" s="0"/>
+      <c r="AIM8" s="0"/>
+      <c r="AIN8" s="0"/>
+      <c r="AIO8" s="0"/>
+      <c r="AIP8" s="0"/>
+      <c r="AIQ8" s="0"/>
+      <c r="AIR8" s="0"/>
+      <c r="AIS8" s="0"/>
+      <c r="AIT8" s="0"/>
+      <c r="AIU8" s="0"/>
+      <c r="AIV8" s="0"/>
+      <c r="AIW8" s="0"/>
+      <c r="AIX8" s="0"/>
+      <c r="AIY8" s="0"/>
+      <c r="AIZ8" s="0"/>
+      <c r="AJA8" s="0"/>
+      <c r="AJB8" s="0"/>
+      <c r="AJC8" s="0"/>
+      <c r="AJD8" s="0"/>
+      <c r="AJE8" s="0"/>
+      <c r="AJF8" s="0"/>
+      <c r="AJG8" s="0"/>
+      <c r="AJH8" s="0"/>
+      <c r="AJI8" s="0"/>
+      <c r="AJJ8" s="0"/>
+      <c r="AJK8" s="0"/>
+      <c r="AJL8" s="0"/>
+      <c r="AJM8" s="0"/>
+      <c r="AJN8" s="0"/>
+      <c r="AJO8" s="0"/>
+      <c r="AJP8" s="0"/>
+      <c r="AJQ8" s="0"/>
+      <c r="AJR8" s="0"/>
+      <c r="AJS8" s="0"/>
+      <c r="AJT8" s="0"/>
+      <c r="AJU8" s="0"/>
+      <c r="AJV8" s="0"/>
+      <c r="AJW8" s="0"/>
+      <c r="AJX8" s="0"/>
+      <c r="AJY8" s="0"/>
+      <c r="AJZ8" s="0"/>
+      <c r="AKA8" s="0"/>
+      <c r="AKB8" s="0"/>
+      <c r="AKC8" s="0"/>
+      <c r="AKD8" s="0"/>
+      <c r="AKE8" s="0"/>
+      <c r="AKF8" s="0"/>
+      <c r="AKG8" s="0"/>
+      <c r="AKH8" s="0"/>
+      <c r="AKI8" s="0"/>
+      <c r="AKJ8" s="0"/>
+      <c r="AKK8" s="0"/>
+      <c r="AKL8" s="0"/>
+      <c r="AKM8" s="0"/>
+      <c r="AKN8" s="0"/>
+      <c r="AKO8" s="0"/>
+      <c r="AKP8" s="0"/>
+      <c r="AKQ8" s="0"/>
+      <c r="AKR8" s="0"/>
+      <c r="AKS8" s="0"/>
+      <c r="AKT8" s="0"/>
+      <c r="AKU8" s="0"/>
+      <c r="AKV8" s="0"/>
+      <c r="AKW8" s="0"/>
+      <c r="AKX8" s="0"/>
+      <c r="AKY8" s="0"/>
+      <c r="AKZ8" s="0"/>
+      <c r="ALA8" s="0"/>
+      <c r="ALB8" s="0"/>
+      <c r="ALC8" s="0"/>
+      <c r="ALD8" s="0"/>
+      <c r="ALE8" s="0"/>
+      <c r="ALF8" s="0"/>
+      <c r="ALG8" s="0"/>
+      <c r="ALH8" s="0"/>
+      <c r="ALI8" s="0"/>
+      <c r="ALJ8" s="0"/>
+      <c r="ALK8" s="0"/>
+      <c r="ALL8" s="0"/>
+      <c r="ALM8" s="0"/>
+      <c r="ALN8" s="0"/>
+      <c r="ALO8" s="0"/>
+      <c r="ALP8" s="0"/>
+      <c r="ALQ8" s="0"/>
+      <c r="ALR8" s="0"/>
+      <c r="ALS8" s="0"/>
+      <c r="ALT8" s="0"/>
+      <c r="ALU8" s="0"/>
+      <c r="ALV8" s="0"/>
+      <c r="ALW8" s="0"/>
+      <c r="ALX8" s="0"/>
+      <c r="ALY8" s="0"/>
+      <c r="ALZ8" s="0"/>
+      <c r="AMA8" s="0"/>
+      <c r="AMB8" s="0"/>
+      <c r="AMC8" s="0"/>
+      <c r="AMD8" s="0"/>
+      <c r="AME8" s="0"/>
+      <c r="AMF8" s="0"/>
+      <c r="AMG8" s="0"/>
+      <c r="AMH8" s="0"/>
+      <c r="AMI8" s="0"/>
+      <c r="AMJ8" s="0"/>
+    </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
         <v>84</v>
@@ -3578,45 +4740,48 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="12" t="s">
+    <row r="44" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="15" t="s">
         <v>99</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="13" t="s">
+      <c r="C44" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="12" t="s">
         <v>101</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="32" t="s">
+    </row>
+    <row r="46" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="13" t="s">
         <v>103</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C46" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="32" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="11" t="s">
+      <c r="B47" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="11" t="s">
         <v>108</v>
       </c>
@@ -3624,7 +4789,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="11" t="s">
         <v>110</v>
       </c>
@@ -3632,74 +4797,82 @@
         <v>111</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4" t="s">
+    <row r="50" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="11" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="12" t="s">
+      <c r="B50" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B64" s="2" t="s">
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C64" s="2" t="s">
+    </row>
+    <row r="65" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="12" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="4" t="s">
+      <c r="B65" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="89" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="33" t="s">
+      <c r="C65" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B89" s="2" t="s">
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C89" s="2" t="s">
+    </row>
+    <row r="90" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="33" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="90" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="11" t="s">
+      <c r="B90" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="C90" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="77.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="13" t="s">
+    <row r="91" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="11" t="s">
         <v>122</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="16" t="s">
+    </row>
+    <row r="92" customFormat="false" ht="77.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="13" t="s">
         <v>124</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="93" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="14" t="s">
+      <c r="C92" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="16" t="s">
         <v>126</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C93" s="2" t="s">
+    </row>
+    <row r="94" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="14" t="s">
         <v>128</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3718,17 +4891,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ102"/>
+  <dimension ref="A1:AMJ105"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B76" activeCellId="0" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="34.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="18" width="94.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="21.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="31.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="20" width="45.3"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="20" width="11.52"/>
   </cols>
@@ -3762,20 +4935,20 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>72</v>
@@ -3783,126 +4956,140 @@
     </row>
     <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="13" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="30" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="s">
-        <v>151</v>
+      <c r="A12" s="11" t="s">
+        <v>153</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="76.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="14" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="12" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="12" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3912,93 +5099,93 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="10" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="14" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="13" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="10" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="12" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="10" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="12" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="12" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="30" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4008,76 +5195,92 @@
     </row>
     <row r="76" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="11" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="13" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="10" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B82" s="18" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0"/>
-    </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="B94" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="C94" s="19" t="s">
+    </row>
+    <row r="78" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="34" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="95" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="32" t="s">
+      <c r="B78" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="B95" s="18" t="s">
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="C95" s="19" t="s">
+    </row>
+    <row r="85" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="12" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="96" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="12" t="s">
+      <c r="B85" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="B96" s="18" t="s">
+    </row>
+    <row r="86" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="35" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0"/>
+      <c r="B86" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="C86" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="B97" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="C97" s="19" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="B98" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="C98" s="19" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="B99" s="18" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4138,66 +5341,66 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="13" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="15" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -4256,29 +5459,29 @@
     </row>
     <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="12" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -4337,70 +5540,70 @@
     </row>
     <row r="2" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="30" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="121.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -4459,24 +5662,24 @@
     </row>
     <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="27" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="34" t="s">
-        <v>248</v>
+      <c r="A3" s="36" t="s">
+        <v>259</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Tree" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="284">
   <si>
     <t xml:space="preserve">QUESTION</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t xml:space="preserve">N-ary Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CODE</t>
   </si>
   <si>
     <t xml:space="preserve">BFS</t>
@@ -212,16 +215,46 @@
     <t xml:space="preserve">785. Is Graph Bipartite?</t>
   </si>
   <si>
-    <t xml:space="preserve">TOPIC: A Bipartite Graph is a graph whose vertices can be divided into two independent sets, for every edge (u, v), either u belongs to U and v to V, or u belongs to V and v to U. We can also say that there is no edge that connects vertices of same set.</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Abyssinica SIL"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">TOPIC: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">二分图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Abyssinica SIL"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">如果可以用两种颜色对图中的节点进行着色，并且保证相邻的节点颜色不同，那么这个图就是二分图。</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">[Bipartite]</t>
   </si>
   <si>
     <t xml:space="preserve">DFS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CODE</t>
   </si>
   <si>
     <t xml:space="preserve">Heap Sort</t>
@@ -322,6 +355,14 @@
   </si>
   <si>
     <t xml:space="preserve">[COUNT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">697. Degree of an Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:find shortest length of subarray cover elements has highest frequency, if same highest freq, choose one of them which let res shortest.
+STEP:from left find first index of high-freq char and keep find next one is last index of high-freq
+1.create left, right count map since may has many same high-freq char;left right {char:index} 2.maxi=max(countMap.values())</t>
   </si>
   <si>
     <t xml:space="preserve">Subsequence</t>
@@ -890,6 +931,23 @@
 2.return total+duration</t>
   </si>
   <si>
+    <t xml:space="preserve">1094. Car Pooling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:Interval sort. But now curpass will keep change, so store curpass+from/curpass-to in res array
+STEP:1.create res, traverse trips, store [from,n] and [to,-n]
+2.sort res, sort res[1] first handle pick/drop amount, let small amount finish as early as possible. then sort res[0] see time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2D SORT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2Darray.sort(key=lambda x:x[1])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CODE </t>
+  </si>
+  <si>
     <t xml:space="preserve">build</t>
   </si>
   <si>
@@ -946,6 +1004,12 @@
   </si>
   <si>
     <t xml:space="preserve">If head may change, create dummy;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">382. Linked List Random Node</t>
   </si>
   <si>
     <t xml:space="preserve">706. Design HashMap</t>
@@ -1394,7 +1458,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1448,6 +1512,11 @@
       <name val="Abyssinica SIL"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Noto Sans CJK SC"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="13"/>
@@ -1510,14 +1579,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF127622"/>
-        <bgColor rgb="FF158466"/>
+        <fgColor rgb="FFBF0041"/>
+        <bgColor rgb="FFC9211E"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBF0041"/>
-        <bgColor rgb="FFC9211E"/>
+        <fgColor rgb="FF127622"/>
+        <bgColor rgb="FF158466"/>
       </patternFill>
     </fill>
     <fill>
@@ -1664,6 +1733,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1684,11 +1757,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2059,10 +2128,10 @@
     </row>
     <row r="2" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -2107,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -2121,14 +2190,14 @@
       <c r="I1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AMJ1" s="28"/>
+      <c r="AMJ1" s="29"/>
     </row>
     <row r="2" customFormat="false" ht="153.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>72</v>
@@ -2136,13 +2205,13 @@
     </row>
     <row r="3" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="15" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -2164,16 +2233,16 @@
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="24" width="22.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="24" width="62.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="24" width="25.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="24" width="45.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="24" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="25" width="22.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="25" width="62.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="25" width="25.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="25" width="45.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="25" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2187,7 +2256,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -2201,17 +2270,17 @@
       <c r="I1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AMJ1" s="28"/>
+      <c r="AMJ1" s="29"/>
     </row>
     <row r="2" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="26" t="s">
-        <v>269</v>
+      <c r="A2" s="27" t="s">
+        <v>278</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>271</v>
+        <v>279</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -2232,16 +2301,16 @@
   </sheetPr>
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="74.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2270,13 +2339,13 @@
     </row>
     <row r="2" s="1" customFormat="true" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -2298,7 +2367,7 @@
   <dimension ref="A1:AMJ19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2306,7 +2375,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="20" width="33.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="20" width="73.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="22.51"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="20" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="20" width="46.68"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="20" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2319,6 +2389,9 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
@@ -2335,53 +2408,53 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
         <v>50</v>
       </c>
+    </row>
+    <row r="6" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="24" t="s">
+        <v>51</v>
+      </c>
       <c r="B6" s="19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B18" s="0"/>
     </row>
@@ -3430,19 +3503,19 @@
   <dimension ref="A1:AMJ6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="24" width="31.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="24" width="64.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="24" width="26.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="24" width="54.04"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="24" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="24" width="20.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="24" width="13.47"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="24" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="25" width="31.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="25" width="64.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="25" width="26.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="25" width="54.04"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="25" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="25" width="20.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="25" width="13.47"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="25" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3456,7 +3529,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -3484,46 +3557,46 @@
       <c r="AMJ2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>56</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="25" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="26" t="s">
         <v>59</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="25" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="27" t="s">
         <v>62</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="25" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="28" t="s">
         <v>65</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="25" t="s">
         <v>67</v>
       </c>
       <c r="D6" s="19" t="s">
@@ -3549,15 +3622,16 @@
   <dimension ref="A1:AMJ94"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="77.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="40.29"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="82.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="19.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="51.27"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3570,6 +3644,9 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
@@ -3588,12 +3665,12 @@
       <c r="A2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
     </row>
     <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
@@ -3647,1078 +3724,63 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0"/>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0"/>
-      <c r="M8" s="0"/>
-      <c r="N8" s="0"/>
-      <c r="O8" s="0"/>
-      <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
-      <c r="T8" s="0"/>
-      <c r="U8" s="0"/>
-      <c r="V8" s="0"/>
-      <c r="W8" s="0"/>
-      <c r="X8" s="0"/>
-      <c r="Y8" s="0"/>
-      <c r="Z8" s="0"/>
-      <c r="AA8" s="0"/>
-      <c r="AB8" s="0"/>
-      <c r="AC8" s="0"/>
-      <c r="AD8" s="0"/>
-      <c r="AE8" s="0"/>
-      <c r="AF8" s="0"/>
-      <c r="AG8" s="0"/>
-      <c r="AH8" s="0"/>
-      <c r="AI8" s="0"/>
-      <c r="AJ8" s="0"/>
-      <c r="AK8" s="0"/>
-      <c r="AL8" s="0"/>
-      <c r="AM8" s="0"/>
-      <c r="AN8" s="0"/>
-      <c r="AO8" s="0"/>
-      <c r="AP8" s="0"/>
-      <c r="AQ8" s="0"/>
-      <c r="AR8" s="0"/>
-      <c r="AS8" s="0"/>
-      <c r="AT8" s="0"/>
-      <c r="AU8" s="0"/>
-      <c r="AV8" s="0"/>
-      <c r="AW8" s="0"/>
-      <c r="AX8" s="0"/>
-      <c r="AY8" s="0"/>
-      <c r="AZ8" s="0"/>
-      <c r="BA8" s="0"/>
-      <c r="BB8" s="0"/>
-      <c r="BC8" s="0"/>
-      <c r="BD8" s="0"/>
-      <c r="BE8" s="0"/>
-      <c r="BF8" s="0"/>
-      <c r="BG8" s="0"/>
-      <c r="BH8" s="0"/>
-      <c r="BI8" s="0"/>
-      <c r="BJ8" s="0"/>
-      <c r="BK8" s="0"/>
-      <c r="BL8" s="0"/>
-      <c r="BM8" s="0"/>
-      <c r="BN8" s="0"/>
-      <c r="BO8" s="0"/>
-      <c r="BP8" s="0"/>
-      <c r="BQ8" s="0"/>
-      <c r="BR8" s="0"/>
-      <c r="BS8" s="0"/>
-      <c r="BT8" s="0"/>
-      <c r="BU8" s="0"/>
-      <c r="BV8" s="0"/>
-      <c r="BW8" s="0"/>
-      <c r="BX8" s="0"/>
-      <c r="BY8" s="0"/>
-      <c r="BZ8" s="0"/>
-      <c r="CA8" s="0"/>
-      <c r="CB8" s="0"/>
-      <c r="CC8" s="0"/>
-      <c r="CD8" s="0"/>
-      <c r="CE8" s="0"/>
-      <c r="CF8" s="0"/>
-      <c r="CG8" s="0"/>
-      <c r="CH8" s="0"/>
-      <c r="CI8" s="0"/>
-      <c r="CJ8" s="0"/>
-      <c r="CK8" s="0"/>
-      <c r="CL8" s="0"/>
-      <c r="CM8" s="0"/>
-      <c r="CN8" s="0"/>
-      <c r="CO8" s="0"/>
-      <c r="CP8" s="0"/>
-      <c r="CQ8" s="0"/>
-      <c r="CR8" s="0"/>
-      <c r="CS8" s="0"/>
-      <c r="CT8" s="0"/>
-      <c r="CU8" s="0"/>
-      <c r="CV8" s="0"/>
-      <c r="CW8" s="0"/>
-      <c r="CX8" s="0"/>
-      <c r="CY8" s="0"/>
-      <c r="CZ8" s="0"/>
-      <c r="DA8" s="0"/>
-      <c r="DB8" s="0"/>
-      <c r="DC8" s="0"/>
-      <c r="DD8" s="0"/>
-      <c r="DE8" s="0"/>
-      <c r="DF8" s="0"/>
-      <c r="DG8" s="0"/>
-      <c r="DH8" s="0"/>
-      <c r="DI8" s="0"/>
-      <c r="DJ8" s="0"/>
-      <c r="DK8" s="0"/>
-      <c r="DL8" s="0"/>
-      <c r="DM8" s="0"/>
-      <c r="DN8" s="0"/>
-      <c r="DO8" s="0"/>
-      <c r="DP8" s="0"/>
-      <c r="DQ8" s="0"/>
-      <c r="DR8" s="0"/>
-      <c r="DS8" s="0"/>
-      <c r="DT8" s="0"/>
-      <c r="DU8" s="0"/>
-      <c r="DV8" s="0"/>
-      <c r="DW8" s="0"/>
-      <c r="DX8" s="0"/>
-      <c r="DY8" s="0"/>
-      <c r="DZ8" s="0"/>
-      <c r="EA8" s="0"/>
-      <c r="EB8" s="0"/>
-      <c r="EC8" s="0"/>
-      <c r="ED8" s="0"/>
-      <c r="EE8" s="0"/>
-      <c r="EF8" s="0"/>
-      <c r="EG8" s="0"/>
-      <c r="EH8" s="0"/>
-      <c r="EI8" s="0"/>
-      <c r="EJ8" s="0"/>
-      <c r="EK8" s="0"/>
-      <c r="EL8" s="0"/>
-      <c r="EM8" s="0"/>
-      <c r="EN8" s="0"/>
-      <c r="EO8" s="0"/>
-      <c r="EP8" s="0"/>
-      <c r="EQ8" s="0"/>
-      <c r="ER8" s="0"/>
-      <c r="ES8" s="0"/>
-      <c r="ET8" s="0"/>
-      <c r="EU8" s="0"/>
-      <c r="EV8" s="0"/>
-      <c r="EW8" s="0"/>
-      <c r="EX8" s="0"/>
-      <c r="EY8" s="0"/>
-      <c r="EZ8" s="0"/>
-      <c r="FA8" s="0"/>
-      <c r="FB8" s="0"/>
-      <c r="FC8" s="0"/>
-      <c r="FD8" s="0"/>
-      <c r="FE8" s="0"/>
-      <c r="FF8" s="0"/>
-      <c r="FG8" s="0"/>
-      <c r="FH8" s="0"/>
-      <c r="FI8" s="0"/>
-      <c r="FJ8" s="0"/>
-      <c r="FK8" s="0"/>
-      <c r="FL8" s="0"/>
-      <c r="FM8" s="0"/>
-      <c r="FN8" s="0"/>
-      <c r="FO8" s="0"/>
-      <c r="FP8" s="0"/>
-      <c r="FQ8" s="0"/>
-      <c r="FR8" s="0"/>
-      <c r="FS8" s="0"/>
-      <c r="FT8" s="0"/>
-      <c r="FU8" s="0"/>
-      <c r="FV8" s="0"/>
-      <c r="FW8" s="0"/>
-      <c r="FX8" s="0"/>
-      <c r="FY8" s="0"/>
-      <c r="FZ8" s="0"/>
-      <c r="GA8" s="0"/>
-      <c r="GB8" s="0"/>
-      <c r="GC8" s="0"/>
-      <c r="GD8" s="0"/>
-      <c r="GE8" s="0"/>
-      <c r="GF8" s="0"/>
-      <c r="GG8" s="0"/>
-      <c r="GH8" s="0"/>
-      <c r="GI8" s="0"/>
-      <c r="GJ8" s="0"/>
-      <c r="GK8" s="0"/>
-      <c r="GL8" s="0"/>
-      <c r="GM8" s="0"/>
-      <c r="GN8" s="0"/>
-      <c r="GO8" s="0"/>
-      <c r="GP8" s="0"/>
-      <c r="GQ8" s="0"/>
-      <c r="GR8" s="0"/>
-      <c r="GS8" s="0"/>
-      <c r="GT8" s="0"/>
-      <c r="GU8" s="0"/>
-      <c r="GV8" s="0"/>
-      <c r="GW8" s="0"/>
-      <c r="GX8" s="0"/>
-      <c r="GY8" s="0"/>
-      <c r="GZ8" s="0"/>
-      <c r="HA8" s="0"/>
-      <c r="HB8" s="0"/>
-      <c r="HC8" s="0"/>
-      <c r="HD8" s="0"/>
-      <c r="HE8" s="0"/>
-      <c r="HF8" s="0"/>
-      <c r="HG8" s="0"/>
-      <c r="HH8" s="0"/>
-      <c r="HI8" s="0"/>
-      <c r="HJ8" s="0"/>
-      <c r="HK8" s="0"/>
-      <c r="HL8" s="0"/>
-      <c r="HM8" s="0"/>
-      <c r="HN8" s="0"/>
-      <c r="HO8" s="0"/>
-      <c r="HP8" s="0"/>
-      <c r="HQ8" s="0"/>
-      <c r="HR8" s="0"/>
-      <c r="HS8" s="0"/>
-      <c r="HT8" s="0"/>
-      <c r="HU8" s="0"/>
-      <c r="HV8" s="0"/>
-      <c r="HW8" s="0"/>
-      <c r="HX8" s="0"/>
-      <c r="HY8" s="0"/>
-      <c r="HZ8" s="0"/>
-      <c r="IA8" s="0"/>
-      <c r="IB8" s="0"/>
-      <c r="IC8" s="0"/>
-      <c r="ID8" s="0"/>
-      <c r="IE8" s="0"/>
-      <c r="IF8" s="0"/>
-      <c r="IG8" s="0"/>
-      <c r="IH8" s="0"/>
-      <c r="II8" s="0"/>
-      <c r="IJ8" s="0"/>
-      <c r="IK8" s="0"/>
-      <c r="IL8" s="0"/>
-      <c r="IM8" s="0"/>
-      <c r="IN8" s="0"/>
-      <c r="IO8" s="0"/>
-      <c r="IP8" s="0"/>
-      <c r="IQ8" s="0"/>
-      <c r="IR8" s="0"/>
-      <c r="IS8" s="0"/>
-      <c r="IT8" s="0"/>
-      <c r="IU8" s="0"/>
-      <c r="IV8" s="0"/>
-      <c r="IW8" s="0"/>
-      <c r="IX8" s="0"/>
-      <c r="IY8" s="0"/>
-      <c r="IZ8" s="0"/>
-      <c r="JA8" s="0"/>
-      <c r="JB8" s="0"/>
-      <c r="JC8" s="0"/>
-      <c r="JD8" s="0"/>
-      <c r="JE8" s="0"/>
-      <c r="JF8" s="0"/>
-      <c r="JG8" s="0"/>
-      <c r="JH8" s="0"/>
-      <c r="JI8" s="0"/>
-      <c r="JJ8" s="0"/>
-      <c r="JK8" s="0"/>
-      <c r="JL8" s="0"/>
-      <c r="JM8" s="0"/>
-      <c r="JN8" s="0"/>
-      <c r="JO8" s="0"/>
-      <c r="JP8" s="0"/>
-      <c r="JQ8" s="0"/>
-      <c r="JR8" s="0"/>
-      <c r="JS8" s="0"/>
-      <c r="JT8" s="0"/>
-      <c r="JU8" s="0"/>
-      <c r="JV8" s="0"/>
-      <c r="JW8" s="0"/>
-      <c r="JX8" s="0"/>
-      <c r="JY8" s="0"/>
-      <c r="JZ8" s="0"/>
-      <c r="KA8" s="0"/>
-      <c r="KB8" s="0"/>
-      <c r="KC8" s="0"/>
-      <c r="KD8" s="0"/>
-      <c r="KE8" s="0"/>
-      <c r="KF8" s="0"/>
-      <c r="KG8" s="0"/>
-      <c r="KH8" s="0"/>
-      <c r="KI8" s="0"/>
-      <c r="KJ8" s="0"/>
-      <c r="KK8" s="0"/>
-      <c r="KL8" s="0"/>
-      <c r="KM8" s="0"/>
-      <c r="KN8" s="0"/>
-      <c r="KO8" s="0"/>
-      <c r="KP8" s="0"/>
-      <c r="KQ8" s="0"/>
-      <c r="KR8" s="0"/>
-      <c r="KS8" s="0"/>
-      <c r="KT8" s="0"/>
-      <c r="KU8" s="0"/>
-      <c r="KV8" s="0"/>
-      <c r="KW8" s="0"/>
-      <c r="KX8" s="0"/>
-      <c r="KY8" s="0"/>
-      <c r="KZ8" s="0"/>
-      <c r="LA8" s="0"/>
-      <c r="LB8" s="0"/>
-      <c r="LC8" s="0"/>
-      <c r="LD8" s="0"/>
-      <c r="LE8" s="0"/>
-      <c r="LF8" s="0"/>
-      <c r="LG8" s="0"/>
-      <c r="LH8" s="0"/>
-      <c r="LI8" s="0"/>
-      <c r="LJ8" s="0"/>
-      <c r="LK8" s="0"/>
-      <c r="LL8" s="0"/>
-      <c r="LM8" s="0"/>
-      <c r="LN8" s="0"/>
-      <c r="LO8" s="0"/>
-      <c r="LP8" s="0"/>
-      <c r="LQ8" s="0"/>
-      <c r="LR8" s="0"/>
-      <c r="LS8" s="0"/>
-      <c r="LT8" s="0"/>
-      <c r="LU8" s="0"/>
-      <c r="LV8" s="0"/>
-      <c r="LW8" s="0"/>
-      <c r="LX8" s="0"/>
-      <c r="LY8" s="0"/>
-      <c r="LZ8" s="0"/>
-      <c r="MA8" s="0"/>
-      <c r="MB8" s="0"/>
-      <c r="MC8" s="0"/>
-      <c r="MD8" s="0"/>
-      <c r="ME8" s="0"/>
-      <c r="MF8" s="0"/>
-      <c r="MG8" s="0"/>
-      <c r="MH8" s="0"/>
-      <c r="MI8" s="0"/>
-      <c r="MJ8" s="0"/>
-      <c r="MK8" s="0"/>
-      <c r="ML8" s="0"/>
-      <c r="MM8" s="0"/>
-      <c r="MN8" s="0"/>
-      <c r="MO8" s="0"/>
-      <c r="MP8" s="0"/>
-      <c r="MQ8" s="0"/>
-      <c r="MR8" s="0"/>
-      <c r="MS8" s="0"/>
-      <c r="MT8" s="0"/>
-      <c r="MU8" s="0"/>
-      <c r="MV8" s="0"/>
-      <c r="MW8" s="0"/>
-      <c r="MX8" s="0"/>
-      <c r="MY8" s="0"/>
-      <c r="MZ8" s="0"/>
-      <c r="NA8" s="0"/>
-      <c r="NB8" s="0"/>
-      <c r="NC8" s="0"/>
-      <c r="ND8" s="0"/>
-      <c r="NE8" s="0"/>
-      <c r="NF8" s="0"/>
-      <c r="NG8" s="0"/>
-      <c r="NH8" s="0"/>
-      <c r="NI8" s="0"/>
-      <c r="NJ8" s="0"/>
-      <c r="NK8" s="0"/>
-      <c r="NL8" s="0"/>
-      <c r="NM8" s="0"/>
-      <c r="NN8" s="0"/>
-      <c r="NO8" s="0"/>
-      <c r="NP8" s="0"/>
-      <c r="NQ8" s="0"/>
-      <c r="NR8" s="0"/>
-      <c r="NS8" s="0"/>
-      <c r="NT8" s="0"/>
-      <c r="NU8" s="0"/>
-      <c r="NV8" s="0"/>
-      <c r="NW8" s="0"/>
-      <c r="NX8" s="0"/>
-      <c r="NY8" s="0"/>
-      <c r="NZ8" s="0"/>
-      <c r="OA8" s="0"/>
-      <c r="OB8" s="0"/>
-      <c r="OC8" s="0"/>
-      <c r="OD8" s="0"/>
-      <c r="OE8" s="0"/>
-      <c r="OF8" s="0"/>
-      <c r="OG8" s="0"/>
-      <c r="OH8" s="0"/>
-      <c r="OI8" s="0"/>
-      <c r="OJ8" s="0"/>
-      <c r="OK8" s="0"/>
-      <c r="OL8" s="0"/>
-      <c r="OM8" s="0"/>
-      <c r="ON8" s="0"/>
-      <c r="OO8" s="0"/>
-      <c r="OP8" s="0"/>
-      <c r="OQ8" s="0"/>
-      <c r="OR8" s="0"/>
-      <c r="OS8" s="0"/>
-      <c r="OT8" s="0"/>
-      <c r="OU8" s="0"/>
-      <c r="OV8" s="0"/>
-      <c r="OW8" s="0"/>
-      <c r="OX8" s="0"/>
-      <c r="OY8" s="0"/>
-      <c r="OZ8" s="0"/>
-      <c r="PA8" s="0"/>
-      <c r="PB8" s="0"/>
-      <c r="PC8" s="0"/>
-      <c r="PD8" s="0"/>
-      <c r="PE8" s="0"/>
-      <c r="PF8" s="0"/>
-      <c r="PG8" s="0"/>
-      <c r="PH8" s="0"/>
-      <c r="PI8" s="0"/>
-      <c r="PJ8" s="0"/>
-      <c r="PK8" s="0"/>
-      <c r="PL8" s="0"/>
-      <c r="PM8" s="0"/>
-      <c r="PN8" s="0"/>
-      <c r="PO8" s="0"/>
-      <c r="PP8" s="0"/>
-      <c r="PQ8" s="0"/>
-      <c r="PR8" s="0"/>
-      <c r="PS8" s="0"/>
-      <c r="PT8" s="0"/>
-      <c r="PU8" s="0"/>
-      <c r="PV8" s="0"/>
-      <c r="PW8" s="0"/>
-      <c r="PX8" s="0"/>
-      <c r="PY8" s="0"/>
-      <c r="PZ8" s="0"/>
-      <c r="QA8" s="0"/>
-      <c r="QB8" s="0"/>
-      <c r="QC8" s="0"/>
-      <c r="QD8" s="0"/>
-      <c r="QE8" s="0"/>
-      <c r="QF8" s="0"/>
-      <c r="QG8" s="0"/>
-      <c r="QH8" s="0"/>
-      <c r="QI8" s="0"/>
-      <c r="QJ8" s="0"/>
-      <c r="QK8" s="0"/>
-      <c r="QL8" s="0"/>
-      <c r="QM8" s="0"/>
-      <c r="QN8" s="0"/>
-      <c r="QO8" s="0"/>
-      <c r="QP8" s="0"/>
-      <c r="QQ8" s="0"/>
-      <c r="QR8" s="0"/>
-      <c r="QS8" s="0"/>
-      <c r="QT8" s="0"/>
-      <c r="QU8" s="0"/>
-      <c r="QV8" s="0"/>
-      <c r="QW8" s="0"/>
-      <c r="QX8" s="0"/>
-      <c r="QY8" s="0"/>
-      <c r="QZ8" s="0"/>
-      <c r="RA8" s="0"/>
-      <c r="RB8" s="0"/>
-      <c r="RC8" s="0"/>
-      <c r="RD8" s="0"/>
-      <c r="RE8" s="0"/>
-      <c r="RF8" s="0"/>
-      <c r="RG8" s="0"/>
-      <c r="RH8" s="0"/>
-      <c r="RI8" s="0"/>
-      <c r="RJ8" s="0"/>
-      <c r="RK8" s="0"/>
-      <c r="RL8" s="0"/>
-      <c r="RM8" s="0"/>
-      <c r="RN8" s="0"/>
-      <c r="RO8" s="0"/>
-      <c r="RP8" s="0"/>
-      <c r="RQ8" s="0"/>
-      <c r="RR8" s="0"/>
-      <c r="RS8" s="0"/>
-      <c r="RT8" s="0"/>
-      <c r="RU8" s="0"/>
-      <c r="RV8" s="0"/>
-      <c r="RW8" s="0"/>
-      <c r="RX8" s="0"/>
-      <c r="RY8" s="0"/>
-      <c r="RZ8" s="0"/>
-      <c r="SA8" s="0"/>
-      <c r="SB8" s="0"/>
-      <c r="SC8" s="0"/>
-      <c r="SD8" s="0"/>
-      <c r="SE8" s="0"/>
-      <c r="SF8" s="0"/>
-      <c r="SG8" s="0"/>
-      <c r="SH8" s="0"/>
-      <c r="SI8" s="0"/>
-      <c r="SJ8" s="0"/>
-      <c r="SK8" s="0"/>
-      <c r="SL8" s="0"/>
-      <c r="SM8" s="0"/>
-      <c r="SN8" s="0"/>
-      <c r="SO8" s="0"/>
-      <c r="SP8" s="0"/>
-      <c r="SQ8" s="0"/>
-      <c r="SR8" s="0"/>
-      <c r="SS8" s="0"/>
-      <c r="ST8" s="0"/>
-      <c r="SU8" s="0"/>
-      <c r="SV8" s="0"/>
-      <c r="SW8" s="0"/>
-      <c r="SX8" s="0"/>
-      <c r="SY8" s="0"/>
-      <c r="SZ8" s="0"/>
-      <c r="TA8" s="0"/>
-      <c r="TB8" s="0"/>
-      <c r="TC8" s="0"/>
-      <c r="TD8" s="0"/>
-      <c r="TE8" s="0"/>
-      <c r="TF8" s="0"/>
-      <c r="TG8" s="0"/>
-      <c r="TH8" s="0"/>
-      <c r="TI8" s="0"/>
-      <c r="TJ8" s="0"/>
-      <c r="TK8" s="0"/>
-      <c r="TL8" s="0"/>
-      <c r="TM8" s="0"/>
-      <c r="TN8" s="0"/>
-      <c r="TO8" s="0"/>
-      <c r="TP8" s="0"/>
-      <c r="TQ8" s="0"/>
-      <c r="TR8" s="0"/>
-      <c r="TS8" s="0"/>
-      <c r="TT8" s="0"/>
-      <c r="TU8" s="0"/>
-      <c r="TV8" s="0"/>
-      <c r="TW8" s="0"/>
-      <c r="TX8" s="0"/>
-      <c r="TY8" s="0"/>
-      <c r="TZ8" s="0"/>
-      <c r="UA8" s="0"/>
-      <c r="UB8" s="0"/>
-      <c r="UC8" s="0"/>
-      <c r="UD8" s="0"/>
-      <c r="UE8" s="0"/>
-      <c r="UF8" s="0"/>
-      <c r="UG8" s="0"/>
-      <c r="UH8" s="0"/>
-      <c r="UI8" s="0"/>
-      <c r="UJ8" s="0"/>
-      <c r="UK8" s="0"/>
-      <c r="UL8" s="0"/>
-      <c r="UM8" s="0"/>
-      <c r="UN8" s="0"/>
-      <c r="UO8" s="0"/>
-      <c r="UP8" s="0"/>
-      <c r="UQ8" s="0"/>
-      <c r="UR8" s="0"/>
-      <c r="US8" s="0"/>
-      <c r="UT8" s="0"/>
-      <c r="UU8" s="0"/>
-      <c r="UV8" s="0"/>
-      <c r="UW8" s="0"/>
-      <c r="UX8" s="0"/>
-      <c r="UY8" s="0"/>
-      <c r="UZ8" s="0"/>
-      <c r="VA8" s="0"/>
-      <c r="VB8" s="0"/>
-      <c r="VC8" s="0"/>
-      <c r="VD8" s="0"/>
-      <c r="VE8" s="0"/>
-      <c r="VF8" s="0"/>
-      <c r="VG8" s="0"/>
-      <c r="VH8" s="0"/>
-      <c r="VI8" s="0"/>
-      <c r="VJ8" s="0"/>
-      <c r="VK8" s="0"/>
-      <c r="VL8" s="0"/>
-      <c r="VM8" s="0"/>
-      <c r="VN8" s="0"/>
-      <c r="VO8" s="0"/>
-      <c r="VP8" s="0"/>
-      <c r="VQ8" s="0"/>
-      <c r="VR8" s="0"/>
-      <c r="VS8" s="0"/>
-      <c r="VT8" s="0"/>
-      <c r="VU8" s="0"/>
-      <c r="VV8" s="0"/>
-      <c r="VW8" s="0"/>
-      <c r="VX8" s="0"/>
-      <c r="VY8" s="0"/>
-      <c r="VZ8" s="0"/>
-      <c r="WA8" s="0"/>
-      <c r="WB8" s="0"/>
-      <c r="WC8" s="0"/>
-      <c r="WD8" s="0"/>
-      <c r="WE8" s="0"/>
-      <c r="WF8" s="0"/>
-      <c r="WG8" s="0"/>
-      <c r="WH8" s="0"/>
-      <c r="WI8" s="0"/>
-      <c r="WJ8" s="0"/>
-      <c r="WK8" s="0"/>
-      <c r="WL8" s="0"/>
-      <c r="WM8" s="0"/>
-      <c r="WN8" s="0"/>
-      <c r="WO8" s="0"/>
-      <c r="WP8" s="0"/>
-      <c r="WQ8" s="0"/>
-      <c r="WR8" s="0"/>
-      <c r="WS8" s="0"/>
-      <c r="WT8" s="0"/>
-      <c r="WU8" s="0"/>
-      <c r="WV8" s="0"/>
-      <c r="WW8" s="0"/>
-      <c r="WX8" s="0"/>
-      <c r="WY8" s="0"/>
-      <c r="WZ8" s="0"/>
-      <c r="XA8" s="0"/>
-      <c r="XB8" s="0"/>
-      <c r="XC8" s="0"/>
-      <c r="XD8" s="0"/>
-      <c r="XE8" s="0"/>
-      <c r="XF8" s="0"/>
-      <c r="XG8" s="0"/>
-      <c r="XH8" s="0"/>
-      <c r="XI8" s="0"/>
-      <c r="XJ8" s="0"/>
-      <c r="XK8" s="0"/>
-      <c r="XL8" s="0"/>
-      <c r="XM8" s="0"/>
-      <c r="XN8" s="0"/>
-      <c r="XO8" s="0"/>
-      <c r="XP8" s="0"/>
-      <c r="XQ8" s="0"/>
-      <c r="XR8" s="0"/>
-      <c r="XS8" s="0"/>
-      <c r="XT8" s="0"/>
-      <c r="XU8" s="0"/>
-      <c r="XV8" s="0"/>
-      <c r="XW8" s="0"/>
-      <c r="XX8" s="0"/>
-      <c r="XY8" s="0"/>
-      <c r="XZ8" s="0"/>
-      <c r="YA8" s="0"/>
-      <c r="YB8" s="0"/>
-      <c r="YC8" s="0"/>
-      <c r="YD8" s="0"/>
-      <c r="YE8" s="0"/>
-      <c r="YF8" s="0"/>
-      <c r="YG8" s="0"/>
-      <c r="YH8" s="0"/>
-      <c r="YI8" s="0"/>
-      <c r="YJ8" s="0"/>
-      <c r="YK8" s="0"/>
-      <c r="YL8" s="0"/>
-      <c r="YM8" s="0"/>
-      <c r="YN8" s="0"/>
-      <c r="YO8" s="0"/>
-      <c r="YP8" s="0"/>
-      <c r="YQ8" s="0"/>
-      <c r="YR8" s="0"/>
-      <c r="YS8" s="0"/>
-      <c r="YT8" s="0"/>
-      <c r="YU8" s="0"/>
-      <c r="YV8" s="0"/>
-      <c r="YW8" s="0"/>
-      <c r="YX8" s="0"/>
-      <c r="YY8" s="0"/>
-      <c r="YZ8" s="0"/>
-      <c r="ZA8" s="0"/>
-      <c r="ZB8" s="0"/>
-      <c r="ZC8" s="0"/>
-      <c r="ZD8" s="0"/>
-      <c r="ZE8" s="0"/>
-      <c r="ZF8" s="0"/>
-      <c r="ZG8" s="0"/>
-      <c r="ZH8" s="0"/>
-      <c r="ZI8" s="0"/>
-      <c r="ZJ8" s="0"/>
-      <c r="ZK8" s="0"/>
-      <c r="ZL8" s="0"/>
-      <c r="ZM8" s="0"/>
-      <c r="ZN8" s="0"/>
-      <c r="ZO8" s="0"/>
-      <c r="ZP8" s="0"/>
-      <c r="ZQ8" s="0"/>
-      <c r="ZR8" s="0"/>
-      <c r="ZS8" s="0"/>
-      <c r="ZT8" s="0"/>
-      <c r="ZU8" s="0"/>
-      <c r="ZV8" s="0"/>
-      <c r="ZW8" s="0"/>
-      <c r="ZX8" s="0"/>
-      <c r="ZY8" s="0"/>
-      <c r="ZZ8" s="0"/>
-      <c r="AAA8" s="0"/>
-      <c r="AAB8" s="0"/>
-      <c r="AAC8" s="0"/>
-      <c r="AAD8" s="0"/>
-      <c r="AAE8" s="0"/>
-      <c r="AAF8" s="0"/>
-      <c r="AAG8" s="0"/>
-      <c r="AAH8" s="0"/>
-      <c r="AAI8" s="0"/>
-      <c r="AAJ8" s="0"/>
-      <c r="AAK8" s="0"/>
-      <c r="AAL8" s="0"/>
-      <c r="AAM8" s="0"/>
-      <c r="AAN8" s="0"/>
-      <c r="AAO8" s="0"/>
-      <c r="AAP8" s="0"/>
-      <c r="AAQ8" s="0"/>
-      <c r="AAR8" s="0"/>
-      <c r="AAS8" s="0"/>
-      <c r="AAT8" s="0"/>
-      <c r="AAU8" s="0"/>
-      <c r="AAV8" s="0"/>
-      <c r="AAW8" s="0"/>
-      <c r="AAX8" s="0"/>
-      <c r="AAY8" s="0"/>
-      <c r="AAZ8" s="0"/>
-      <c r="ABA8" s="0"/>
-      <c r="ABB8" s="0"/>
-      <c r="ABC8" s="0"/>
-      <c r="ABD8" s="0"/>
-      <c r="ABE8" s="0"/>
-      <c r="ABF8" s="0"/>
-      <c r="ABG8" s="0"/>
-      <c r="ABH8" s="0"/>
-      <c r="ABI8" s="0"/>
-      <c r="ABJ8" s="0"/>
-      <c r="ABK8" s="0"/>
-      <c r="ABL8" s="0"/>
-      <c r="ABM8" s="0"/>
-      <c r="ABN8" s="0"/>
-      <c r="ABO8" s="0"/>
-      <c r="ABP8" s="0"/>
-      <c r="ABQ8" s="0"/>
-      <c r="ABR8" s="0"/>
-      <c r="ABS8" s="0"/>
-      <c r="ABT8" s="0"/>
-      <c r="ABU8" s="0"/>
-      <c r="ABV8" s="0"/>
-      <c r="ABW8" s="0"/>
-      <c r="ABX8" s="0"/>
-      <c r="ABY8" s="0"/>
-      <c r="ABZ8" s="0"/>
-      <c r="ACA8" s="0"/>
-      <c r="ACB8" s="0"/>
-      <c r="ACC8" s="0"/>
-      <c r="ACD8" s="0"/>
-      <c r="ACE8" s="0"/>
-      <c r="ACF8" s="0"/>
-      <c r="ACG8" s="0"/>
-      <c r="ACH8" s="0"/>
-      <c r="ACI8" s="0"/>
-      <c r="ACJ8" s="0"/>
-      <c r="ACK8" s="0"/>
-      <c r="ACL8" s="0"/>
-      <c r="ACM8" s="0"/>
-      <c r="ACN8" s="0"/>
-      <c r="ACO8" s="0"/>
-      <c r="ACP8" s="0"/>
-      <c r="ACQ8" s="0"/>
-      <c r="ACR8" s="0"/>
-      <c r="ACS8" s="0"/>
-      <c r="ACT8" s="0"/>
-      <c r="ACU8" s="0"/>
-      <c r="ACV8" s="0"/>
-      <c r="ACW8" s="0"/>
-      <c r="ACX8" s="0"/>
-      <c r="ACY8" s="0"/>
-      <c r="ACZ8" s="0"/>
-      <c r="ADA8" s="0"/>
-      <c r="ADB8" s="0"/>
-      <c r="ADC8" s="0"/>
-      <c r="ADD8" s="0"/>
-      <c r="ADE8" s="0"/>
-      <c r="ADF8" s="0"/>
-      <c r="ADG8" s="0"/>
-      <c r="ADH8" s="0"/>
-      <c r="ADI8" s="0"/>
-      <c r="ADJ8" s="0"/>
-      <c r="ADK8" s="0"/>
-      <c r="ADL8" s="0"/>
-      <c r="ADM8" s="0"/>
-      <c r="ADN8" s="0"/>
-      <c r="ADO8" s="0"/>
-      <c r="ADP8" s="0"/>
-      <c r="ADQ8" s="0"/>
-      <c r="ADR8" s="0"/>
-      <c r="ADS8" s="0"/>
-      <c r="ADT8" s="0"/>
-      <c r="ADU8" s="0"/>
-      <c r="ADV8" s="0"/>
-      <c r="ADW8" s="0"/>
-      <c r="ADX8" s="0"/>
-      <c r="ADY8" s="0"/>
-      <c r="ADZ8" s="0"/>
-      <c r="AEA8" s="0"/>
-      <c r="AEB8" s="0"/>
-      <c r="AEC8" s="0"/>
-      <c r="AED8" s="0"/>
-      <c r="AEE8" s="0"/>
-      <c r="AEF8" s="0"/>
-      <c r="AEG8" s="0"/>
-      <c r="AEH8" s="0"/>
-      <c r="AEI8" s="0"/>
-      <c r="AEJ8" s="0"/>
-      <c r="AEK8" s="0"/>
-      <c r="AEL8" s="0"/>
-      <c r="AEM8" s="0"/>
-      <c r="AEN8" s="0"/>
-      <c r="AEO8" s="0"/>
-      <c r="AEP8" s="0"/>
-      <c r="AEQ8" s="0"/>
-      <c r="AER8" s="0"/>
-      <c r="AES8" s="0"/>
-      <c r="AET8" s="0"/>
-      <c r="AEU8" s="0"/>
-      <c r="AEV8" s="0"/>
-      <c r="AEW8" s="0"/>
-      <c r="AEX8" s="0"/>
-      <c r="AEY8" s="0"/>
-      <c r="AEZ8" s="0"/>
-      <c r="AFA8" s="0"/>
-      <c r="AFB8" s="0"/>
-      <c r="AFC8" s="0"/>
-      <c r="AFD8" s="0"/>
-      <c r="AFE8" s="0"/>
-      <c r="AFF8" s="0"/>
-      <c r="AFG8" s="0"/>
-      <c r="AFH8" s="0"/>
-      <c r="AFI8" s="0"/>
-      <c r="AFJ8" s="0"/>
-      <c r="AFK8" s="0"/>
-      <c r="AFL8" s="0"/>
-      <c r="AFM8" s="0"/>
-      <c r="AFN8" s="0"/>
-      <c r="AFO8" s="0"/>
-      <c r="AFP8" s="0"/>
-      <c r="AFQ8" s="0"/>
-      <c r="AFR8" s="0"/>
-      <c r="AFS8" s="0"/>
-      <c r="AFT8" s="0"/>
-      <c r="AFU8" s="0"/>
-      <c r="AFV8" s="0"/>
-      <c r="AFW8" s="0"/>
-      <c r="AFX8" s="0"/>
-      <c r="AFY8" s="0"/>
-      <c r="AFZ8" s="0"/>
-      <c r="AGA8" s="0"/>
-      <c r="AGB8" s="0"/>
-      <c r="AGC8" s="0"/>
-      <c r="AGD8" s="0"/>
-      <c r="AGE8" s="0"/>
-      <c r="AGF8" s="0"/>
-      <c r="AGG8" s="0"/>
-      <c r="AGH8" s="0"/>
-      <c r="AGI8" s="0"/>
-      <c r="AGJ8" s="0"/>
-      <c r="AGK8" s="0"/>
-      <c r="AGL8" s="0"/>
-      <c r="AGM8" s="0"/>
-      <c r="AGN8" s="0"/>
-      <c r="AGO8" s="0"/>
-      <c r="AGP8" s="0"/>
-      <c r="AGQ8" s="0"/>
-      <c r="AGR8" s="0"/>
-      <c r="AGS8" s="0"/>
-      <c r="AGT8" s="0"/>
-      <c r="AGU8" s="0"/>
-      <c r="AGV8" s="0"/>
-      <c r="AGW8" s="0"/>
-      <c r="AGX8" s="0"/>
-      <c r="AGY8" s="0"/>
-      <c r="AGZ8" s="0"/>
-      <c r="AHA8" s="0"/>
-      <c r="AHB8" s="0"/>
-      <c r="AHC8" s="0"/>
-      <c r="AHD8" s="0"/>
-      <c r="AHE8" s="0"/>
-      <c r="AHF8" s="0"/>
-      <c r="AHG8" s="0"/>
-      <c r="AHH8" s="0"/>
-      <c r="AHI8" s="0"/>
-      <c r="AHJ8" s="0"/>
-      <c r="AHK8" s="0"/>
-      <c r="AHL8" s="0"/>
-      <c r="AHM8" s="0"/>
-      <c r="AHN8" s="0"/>
-      <c r="AHO8" s="0"/>
-      <c r="AHP8" s="0"/>
-      <c r="AHQ8" s="0"/>
-      <c r="AHR8" s="0"/>
-      <c r="AHS8" s="0"/>
-      <c r="AHT8" s="0"/>
-      <c r="AHU8" s="0"/>
-      <c r="AHV8" s="0"/>
-      <c r="AHW8" s="0"/>
-      <c r="AHX8" s="0"/>
-      <c r="AHY8" s="0"/>
-      <c r="AHZ8" s="0"/>
-      <c r="AIA8" s="0"/>
-      <c r="AIB8" s="0"/>
-      <c r="AIC8" s="0"/>
-      <c r="AID8" s="0"/>
-      <c r="AIE8" s="0"/>
-      <c r="AIF8" s="0"/>
-      <c r="AIG8" s="0"/>
-      <c r="AIH8" s="0"/>
-      <c r="AII8" s="0"/>
-      <c r="AIJ8" s="0"/>
-      <c r="AIK8" s="0"/>
-      <c r="AIL8" s="0"/>
-      <c r="AIM8" s="0"/>
-      <c r="AIN8" s="0"/>
-      <c r="AIO8" s="0"/>
-      <c r="AIP8" s="0"/>
-      <c r="AIQ8" s="0"/>
-      <c r="AIR8" s="0"/>
-      <c r="AIS8" s="0"/>
-      <c r="AIT8" s="0"/>
-      <c r="AIU8" s="0"/>
-      <c r="AIV8" s="0"/>
-      <c r="AIW8" s="0"/>
-      <c r="AIX8" s="0"/>
-      <c r="AIY8" s="0"/>
-      <c r="AIZ8" s="0"/>
-      <c r="AJA8" s="0"/>
-      <c r="AJB8" s="0"/>
-      <c r="AJC8" s="0"/>
-      <c r="AJD8" s="0"/>
-      <c r="AJE8" s="0"/>
-      <c r="AJF8" s="0"/>
-      <c r="AJG8" s="0"/>
-      <c r="AJH8" s="0"/>
-      <c r="AJI8" s="0"/>
-      <c r="AJJ8" s="0"/>
-      <c r="AJK8" s="0"/>
-      <c r="AJL8" s="0"/>
-      <c r="AJM8" s="0"/>
-      <c r="AJN8" s="0"/>
-      <c r="AJO8" s="0"/>
-      <c r="AJP8" s="0"/>
-      <c r="AJQ8" s="0"/>
-      <c r="AJR8" s="0"/>
-      <c r="AJS8" s="0"/>
-      <c r="AJT8" s="0"/>
-      <c r="AJU8" s="0"/>
-      <c r="AJV8" s="0"/>
-      <c r="AJW8" s="0"/>
-      <c r="AJX8" s="0"/>
-      <c r="AJY8" s="0"/>
-      <c r="AJZ8" s="0"/>
-      <c r="AKA8" s="0"/>
-      <c r="AKB8" s="0"/>
-      <c r="AKC8" s="0"/>
-      <c r="AKD8" s="0"/>
-      <c r="AKE8" s="0"/>
-      <c r="AKF8" s="0"/>
-      <c r="AKG8" s="0"/>
-      <c r="AKH8" s="0"/>
-      <c r="AKI8" s="0"/>
-      <c r="AKJ8" s="0"/>
-      <c r="AKK8" s="0"/>
-      <c r="AKL8" s="0"/>
-      <c r="AKM8" s="0"/>
-      <c r="AKN8" s="0"/>
-      <c r="AKO8" s="0"/>
-      <c r="AKP8" s="0"/>
-      <c r="AKQ8" s="0"/>
-      <c r="AKR8" s="0"/>
-      <c r="AKS8" s="0"/>
-      <c r="AKT8" s="0"/>
-      <c r="AKU8" s="0"/>
-      <c r="AKV8" s="0"/>
-      <c r="AKW8" s="0"/>
-      <c r="AKX8" s="0"/>
-      <c r="AKY8" s="0"/>
-      <c r="AKZ8" s="0"/>
-      <c r="ALA8" s="0"/>
-      <c r="ALB8" s="0"/>
-      <c r="ALC8" s="0"/>
-      <c r="ALD8" s="0"/>
-      <c r="ALE8" s="0"/>
-      <c r="ALF8" s="0"/>
-      <c r="ALG8" s="0"/>
-      <c r="ALH8" s="0"/>
-      <c r="ALI8" s="0"/>
-      <c r="ALJ8" s="0"/>
-      <c r="ALK8" s="0"/>
-      <c r="ALL8" s="0"/>
-      <c r="ALM8" s="0"/>
-      <c r="ALN8" s="0"/>
-      <c r="ALO8" s="0"/>
-      <c r="ALP8" s="0"/>
-      <c r="ALQ8" s="0"/>
-      <c r="ALR8" s="0"/>
-      <c r="ALS8" s="0"/>
-      <c r="ALT8" s="0"/>
-      <c r="ALU8" s="0"/>
-      <c r="ALV8" s="0"/>
-      <c r="ALW8" s="0"/>
-      <c r="ALX8" s="0"/>
-      <c r="ALY8" s="0"/>
-      <c r="ALZ8" s="0"/>
-      <c r="AMA8" s="0"/>
-      <c r="AMB8" s="0"/>
-      <c r="AMC8" s="0"/>
-      <c r="AMD8" s="0"/>
-      <c r="AME8" s="0"/>
-      <c r="AMF8" s="0"/>
-      <c r="AMG8" s="0"/>
-      <c r="AMH8" s="0"/>
-      <c r="AMI8" s="0"/>
-      <c r="AMJ8" s="0"/>
+    <row r="8" s="20" customFormat="true" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="29" t="s">
-        <v>86</v>
+      <c r="A30" s="30" t="s">
+        <v>88</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="30" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="31" t="s">
+        <v>91</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="31" t="s">
-        <v>92</v>
+      <c r="A32" s="24" t="s">
+        <v>94</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="13" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>16</v>
@@ -4726,15 +3788,15 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="30" t="s">
-        <v>97</v>
+      <c r="A43" s="31" t="s">
+        <v>99</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>16</v>
@@ -4742,10 +3804,10 @@
     </row>
     <row r="44" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>16</v>
@@ -4753,18 +3815,18 @@
     </row>
     <row r="45" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="13" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>72</v>
@@ -4772,85 +3834,85 @@
     </row>
     <row r="47" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="32" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="12" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="33" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="77.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="13" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>16</v>
@@ -4858,21 +3920,21 @@
     </row>
     <row r="93" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="16" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -4893,8 +3955,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ105"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B76" activeCellId="0" sqref="B76"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B104" activeCellId="0" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4902,7 +3964,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="34.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="18" width="94.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="31.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="20" width="45.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="45.3"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="20" width="11.52"/>
   </cols>
   <sheetData>
@@ -4916,8 +3978,8 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>54</v>
+      <c r="D1" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -4935,20 +3997,20 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>72</v>
@@ -4956,236 +4018,236 @@
     </row>
     <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="13" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="30" t="s">
-        <v>146</v>
+      <c r="A9" s="31" t="s">
+        <v>148</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="12" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="76.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="15" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="14" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="12" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="12" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="10" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="14" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="13" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="12" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="10" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="12" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="12" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="30" t="s">
-        <v>190</v>
+      <c r="A70" s="31" t="s">
+        <v>192</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5195,88 +4257,102 @@
     </row>
     <row r="76" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="11" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="13" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="34" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="10" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="12" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="35" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="11" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B97" s="18" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="32" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B98" s="18" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="12" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B99" s="18" t="s">
-        <v>214</v>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="B100" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="C100" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5298,10 +4374,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ38"/>
+  <dimension ref="A1:AMJ49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A49" activeCellId="0" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5309,7 +4385,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="18" width="73.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="20.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="20" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="20" width="48.35"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="20" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="20" width="18.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="20" width="18.2"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="20" width="11.52"/>
@@ -5325,6 +4402,9 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="4" t="s">
+        <v>221</v>
+      </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
@@ -5341,66 +4421,76 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="13" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="15" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>230</v>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="10" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -5459,29 +4549,29 @@
     </row>
     <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="12" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -5540,70 +4630,70 @@
     </row>
     <row r="2" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="30" t="s">
-        <v>246</v>
+      <c r="A5" s="31" t="s">
+        <v>255</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="121.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -5630,10 +4720,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="24" width="30.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="25" width="30.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="63.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="20.7"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="24" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="25" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5661,25 +4751,25 @@
       <c r="AMJ1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="27" t="s">
-        <v>256</v>
+      <c r="A2" s="28" t="s">
+        <v>265</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="36" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Tree" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,12 +15,12 @@
     <sheet name="Array" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="LinkedList" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Design" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Math" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="DP" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="BinarySearch" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Greedy" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Hashtable" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="BackTracking" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="DP" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="BinarySearch" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Greedy" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Hashtable" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="BackTracking" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Math" sheetId="13" state="visible" r:id="rId14"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="287">
   <si>
     <t xml:space="preserve">QUESTION</t>
   </si>
@@ -1037,6 +1037,93 @@
 when insert() called, return longest ls starting from curpt
 1.constructor:self.arr with n size; self.curpt
 2.insert():insert first. create res arr. for loop starting from curpt, if see self.arr[curpt]=="" break,otherwise search next one, update curpt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">276. Paint Fence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STEP:same[k]=diff[k-1](at k same as k-1, mean k-1 must diff k-2) diff[k]=same[k-1]*(k-1)+diff[k-1]*(k-1)(think 3*2cases)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[DUAL WAY bottom-topDP]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1025. Divisor Game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:game A,B choose x from (0,n) and n % x == 0, if yes, n=n-x, next person's turn; otherwise, no valid move, return false
+STEP:many options, pick one of them make A successfully, so BOTTOM-TOP DP
+1.for dp, if False, A lose; if True, A win. dp size n+1, because need to two loops, outer loop need count n
+2.two loops,outer loop i starting 2, len(dp) for tracking n, innter loop j starting 1, i for tracking pick
+3.if i%j!=0 continue; else:if dp[i-j]=false, dp[i]=true break</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[bottom-top dp]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">875. Koko Eating Bananas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:Binary Search
+STEP:
+1.each hour only can eat one piles, so len(piles) &lt;= h, maximum k is max(pile), will finish within len(piles),k=[1...max(pile)]
+2.brute force, iterate piles with k=[1...max(pile)] max(pile)times, TIME O(max(pile)times * len(pile))
+3.optimize binary search for k range TIME O(log(max(pile))time * len(pile))
+4.low, high, in while, traverse p get totol hour, if hour &gt; h, go to left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">621. Task Scheduler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOGIC:Greedy+hashmap most freq need do task earlier
+STEP:
+    A:3 B:3 C:1 n=2
+    A--A--A
+    ABCAB-AB
+    leftslot=(3-1)*2=4[-1miss last]
+    if A continue, ifB 4-(3-1)=2[miss last]
+1.create hashmap, find mostChar,mostfreq
+2.create leftslot=(mostfreq-1)*2
+3.iterate map, if see k=mostchar,doing task; if seev=mostfreq,leftslot -= (v-1) else leftslot -=v
+if leftslot &lt;= 0 nothingleft return len(task)
+Else: still leftslot return len(task)+leftslot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">767. Reorganize String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:similiar to TASK SCHEDULER.but this now display res
+STEP:1.create hashmap{char:freq}, also create maxheap, sort base on mostfreq. if counter more than half, trim 
+2.while len(q) &gt;= 2: each time pop most freq 2 pair; if v -1 &gt; 0: push again
+3.res.append(last one)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[MAXHEAP](!!!negative handle) [HASHMAP]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2103. Rings and Rods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:the number of rods that have three colors or rings(may same color appear many times)
+STEP:1.create 2D array(3*10),0-9 for columns, 0-2 for rows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2D array]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131. Palindrome Partitioning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:Show palindrome substring result, use Backtracking, if need single val use DP
+STEP:backtracking template:
+1.In main method, create helper method dfs(index, temp, res)
+2.In dfs method, 
+terminate case(index=len(s)).
+recursion case(prune first check isPalindrome False continue, for i ..., get substr[index...i], add, dfs(i+1), pop)
+3.helper method isPalindrome(substr,start,end)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ordered combination</t>
   </si>
   <si>
     <t xml:space="preserve">231. Power of Two</t>
@@ -1364,91 +1451,15 @@
     <t xml:space="preserve">while n != 1: since when odd, has (n-1)//2 in match</t>
   </si>
   <si>
-    <t xml:space="preserve">276. Paint Fence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STEP:same[k]=diff[k-1](at k same as k-1, mean k-1 must diff k-2) diff[k]=same[k-1]*(k-1)+diff[k-1]*(k-1)(think 3*2cases)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[DUAL WAY bottom-topDP]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1025. Divisor Game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOPIC:game A,B choose x from (0,n) and n % x == 0, if yes, n=n-x, next person's turn; otherwise, no valid move, return false
-STEP:many options, pick one of them make A successfully, so BOTTOM-TOP DP
-1.for dp, if False, A lose; if True, A win. dp size n+1, because need to two loops, outer loop need count n
-2.two loops,outer loop i starting 2, len(dp) for tracking n, innter loop j starting 1, i for tracking pick
-3.if i%j!=0 continue; else:if dp[i-j]=false, dp[i]=true break</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[bottom-top dp]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">875. Koko Eating Bananas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOPIC:Binary Search
-STEP:
-1.each hour only can eat one piles, so len(piles) &lt;= h, maximum k is max(pile), will finish within len(piles),k=[1...max(pile)]
-2.brute force, iterate piles with k=[1...max(pile)] max(pile)times, TIME O(max(pile)times * len(pile))
-3.optimize binary search for k range TIME O(log(max(pile))time * len(pile))
-4.low, high, in while, traverse p get totol hour, if hour &gt; h, go to left</t>
-  </si>
-  <si>
-    <t xml:space="preserve">621. Task Scheduler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOGIC:Greedy+hashmap most freq need do task earlier
-STEP:
-    A:3 B:3 C:1 n=2
-    A--A--A
-    ABCAB-AB
-    leftslot=(3-1)*2=4[-1miss last]
-    if A continue, ifB 4-(3-1)=2[miss last]
-1.create hashmap, find mostChar,mostfreq
-2.create leftslot=(mostfreq-1)*2
-3.iterate map, if see k=mostchar,doing task; if seev=mostfreq,leftslot -= (v-1) else leftslot -=v
-if leftslot &lt;= 0 nothingleft return len(task)
-Else: still leftslot return len(task)+leftslot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">767. Reorganize String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOPIC:similiar to TASK SCHEDULER.but this now display res
-STEP:1.create hashmap{char:freq}, also create maxheap, sort base on mostfreq. if counter more than half, trim 
-2.while len(q) &gt;= 2: each time pop most freq 2 pair; if v -1 &gt; 0: push again
-3.res.append(last one)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[MAXHEAP](!!!negative handle) [HASHMAP]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2103. Rings and Rods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOPIC:the number of rods that have three colors or rings(may same color appear many times)
-STEP:1.create 2D array(3*10),0-9 for columns, 0-2 for rows</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[2D array]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">131. Palindrome Partitioning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOPIC:Show palindrome substring result, use Backtracking, if need single val use DP
-STEP:backtracking template:
-1.In main method, create helper method dfs(index, temp, res)
-2.In dfs method, 
-terminate case(index=len(s)).
-recursion case(prune first check isPalindrome False continue, for i ..., get substr[index...i], add, dfs(i+1), pop)
-3.helper method isPalindrome(substr,start,end)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ordered combination</t>
+    <t xml:space="preserve">67. Add Binary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:sum up binary, convert int-&gt; string
+STEP:1.create empty res string, carry, pointer of a,b
+2.while loop until both of them reach index 0, sum%2 sum//2=carry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[%/]</t>
   </si>
 </sst>
 </file>
@@ -1689,10 +1700,6 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1703,6 +1710,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1880,8 +1891,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1954,7 +1965,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1965,7 +1976,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1978,7 +1989,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1989,7 +2000,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1997,7 +2008,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="15" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -2008,7 +2019,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="16" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -2084,68 +2095,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AMJ2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="83.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="36.95"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="1" width="11.52"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="AMJ1" s="9"/>
-    </row>
-    <row r="2" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2193,25 +2142,25 @@
       <c r="AMJ1" s="29"/>
     </row>
     <row r="2" customFormat="false" ht="153.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
-        <v>273</v>
+      <c r="A2" s="14" t="s">
+        <v>255</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15" t="s">
-        <v>275</v>
+      <c r="A3" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -2225,7 +2174,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2274,13 +2223,13 @@
     </row>
     <row r="2" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="27" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -2294,7 +2243,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2338,14 +2287,147 @@
       <c r="AMJ1" s="9"/>
     </row>
     <row r="2" s="1" customFormat="true" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AMJ9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="71.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.66"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="1" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AMJ1" s="9"/>
+    </row>
+    <row r="2" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="31" t="s">
+        <v>274</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="121.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>283</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="31" t="s">
+        <v>284</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -3684,7 +3766,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -3695,7 +3777,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>76</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -3776,7 +3858,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="16" t="s">
         <v>96</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -3803,7 +3885,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="14" t="s">
         <v>101</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -3822,7 +3904,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="16" t="s">
         <v>105</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -3908,7 +3990,7 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="77.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="13" t="s">
+      <c r="A92" s="16" t="s">
         <v>126</v>
       </c>
       <c r="B92" s="2" t="s">
@@ -3919,7 +4001,7 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="16" t="s">
+      <c r="A93" s="15" t="s">
         <v>128</v>
       </c>
       <c r="B93" s="2" t="s">
@@ -3927,7 +4009,7 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="14" t="s">
+      <c r="A94" s="13" t="s">
         <v>130</v>
       </c>
       <c r="B94" s="2" t="s">
@@ -4028,7 +4110,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="16" t="s">
         <v>140</v>
       </c>
       <c r="B6" s="18" t="s">
@@ -4050,7 +4132,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="16" t="s">
         <v>146</v>
       </c>
       <c r="B8" s="18" t="s">
@@ -4093,7 +4175,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="76.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>157</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -4125,7 +4207,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="13" t="s">
         <v>165</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -4176,7 +4258,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="13" t="s">
         <v>176</v>
       </c>
       <c r="B46" s="18" t="s">
@@ -4187,7 +4269,7 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="16" t="s">
         <v>179</v>
       </c>
       <c r="B47" s="18" t="s">
@@ -4267,7 +4349,7 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="13" t="s">
+      <c r="A77" s="16" t="s">
         <v>198</v>
       </c>
       <c r="B77" s="18" t="s">
@@ -4376,7 +4458,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A49" activeCellId="0" sqref="A49"/>
     </sheetView>
   </sheetViews>
@@ -4446,7 +4528,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="16" t="s">
         <v>228</v>
       </c>
       <c r="B24" s="18" t="s">
@@ -4457,7 +4539,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="16" t="s">
         <v>231</v>
       </c>
       <c r="B25" s="18" t="s">
@@ -4473,7 +4555,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="14" t="s">
         <v>235</v>
       </c>
       <c r="B38" s="18" t="s">
@@ -4567,7 +4649,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="16" t="s">
         <v>245</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -4586,128 +4668,6 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AMJ8"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="71.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="1" width="11.52"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="AMJ1" s="9"/>
-    </row>
-    <row r="2" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="31" t="s">
-        <v>255</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="121.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4752,24 +4712,86 @@
     </row>
     <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="28" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="36" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>270</v>
+        <v>252</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AMJ2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="83.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="36.95"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="1" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="AMJ1" s="9"/>
+    </row>
+    <row r="2" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="293">
   <si>
     <t xml:space="preserve">QUESTION</t>
   </si>
@@ -55,7 +55,7 @@
     <t xml:space="preserve">HARD</t>
   </si>
   <si>
-    <t xml:space="preserve">Binary Tree</t>
+    <t xml:space="preserve">Binary/N Tree</t>
   </si>
   <si>
     <t xml:space="preserve">Traversal</t>
@@ -80,12 +80,17 @@
 3.hasnext method, if nothing to pop from stack, so no right anymore, then done all tree</t>
   </si>
   <si>
+    <t xml:space="preserve">inorder</t>
+  </si>
+  <si>
     <t xml:space="preserve">94. Binary Tree Inorder Traversal</t>
   </si>
   <si>
-    <t xml:space="preserve">TOPIC:iterate method use STACK to do inorder
-STEP:
-1.create stack=[],cur=root, while stack or cur: 2.while loop find left
+    <t xml:space="preserve">TOPIC: recursion to traversal or iterative
+RECURSION TIME:0(n) T(n) = 2 \cdot T(n/2)+1T(n)=2⋅T(n/2)+1. SPACE: O(n) average is O(logn)
+Space complexity: O(n)O(n)
+ITERATIVE TIME:O(N) SPACE:O(N)
+STEP:iterative 1.create stack=[],cur=root, while stack or cur: 2.while loop find left,stack add before move pointer
 3.reassign cur = stack.pop() 4.cur = cur.right</t>
   </si>
   <si>
@@ -102,6 +107,59 @@
 2.let children link to children cousin: top.right.next = top.next.left</t>
   </si>
   <si>
+    <t xml:space="preserve">[BFS][QUEUE]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">144. Binary Tree Preorder Traversal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:iterative stack STEP:1.create stack default store[root],store right then left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">145. Binary Tree Postorder Traversal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:opposite action of preorder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">429. N-ary Tree Level Order Traversal</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Abyssinica SIL"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">TOPIC:N-aray Tree BFS
+STEP:iterative(BFS) template BFS
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Abyssinica SIL"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">STEP:recursion
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Abyssinica SIL"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1.create helper method(root,level) for traversal
+2.recursion-base:leve=len(res) add new inner[root] else res[level]apppend root. if child, do helper(child, level+1)</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Search</t>
   </si>
   <si>
@@ -109,9 +167,6 @@
   </si>
   <si>
     <t xml:space="preserve">TOPIC:inorder in BST return sorted node array, return array[k-1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inorder</t>
   </si>
   <si>
     <t xml:space="preserve">236. Lowest Common Ancestor of a Binary Tree</t>
@@ -172,9 +227,6 @@
   </si>
   <si>
     <t xml:space="preserve">Trie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N-ary Tree</t>
   </si>
   <si>
     <t xml:space="preserve">CODE</t>
@@ -1518,6 +1570,14 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Abyssinica SIL"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF111111"/>
       <name val="Abyssinica SIL"/>
@@ -1536,14 +1596,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Abyssinica SIL"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Abyssinica SIL"/>
@@ -1647,7 +1699,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1704,6 +1756,10 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1736,7 +1792,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1768,7 +1824,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1889,10 +1945,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ53"/>
+  <dimension ref="A1:AMJ59"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1963,125 +2019,161 @@
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="2" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="16" t="s">
+    <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C20" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" s="18" customFormat="true" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="17" t="s">
+      <c r="B21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="18" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="B22" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10" t="s">
+      <c r="C22" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0"/>
+    <row r="23" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" s="19" customFormat="true" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="10" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="10"/>
-    </row>
-    <row r="46" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-    </row>
-    <row r="53" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
+      <c r="A34" s="0"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="10"/>
+    </row>
+    <row r="52" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+    </row>
+    <row r="59" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2125,7 +2217,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -2139,28 +2231,28 @@
       <c r="I1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AMJ1" s="29"/>
+      <c r="AMJ1" s="30"/>
     </row>
     <row r="2" customFormat="false" ht="153.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
-        <v>255</v>
+      <c r="A2" s="15" t="s">
+        <v>261</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="s">
-        <v>257</v>
+      <c r="A3" s="15" t="s">
+        <v>263</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -2187,11 +2279,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="25" width="22.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="25" width="62.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="25" width="25.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="25" width="45.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="25" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="26" width="22.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="26" width="62.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="26" width="25.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="26" width="45.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="26" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2205,7 +2297,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -2219,17 +2311,17 @@
       <c r="I1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AMJ1" s="29"/>
+      <c r="AMJ1" s="30"/>
     </row>
     <row r="2" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="27" t="s">
-        <v>260</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>262</v>
+      <c r="A2" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -2287,14 +2379,14 @@
       <c r="AMJ1" s="9"/>
     </row>
     <row r="2" s="1" customFormat="true" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
-        <v>263</v>
+      <c r="A2" s="15" t="s">
+        <v>269</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -2353,81 +2445,81 @@
     </row>
     <row r="2" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="31" t="s">
-        <v>274</v>
+      <c r="A5" s="32" t="s">
+        <v>280</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="121.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="s">
-        <v>279</v>
+      <c r="A7" s="15" t="s">
+        <v>285</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="31" t="s">
-        <v>284</v>
+      <c r="A9" s="32" t="s">
+        <v>290</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -2454,11 +2546,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="20" width="33.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="20" width="73.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="22.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="20" width="46.68"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="20" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="21" width="33.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="21" width="73.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="20" width="22.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="21" width="46.68"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="21" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2472,7 +2564,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -2489,54 +2581,54 @@
       <c r="AMJ1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="21" t="s">
-        <v>42</v>
+      <c r="A2" s="22" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>44</v>
+        <v>49</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>48</v>
+        <v>52</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>50</v>
+      <c r="A5" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>53</v>
+      <c r="A6" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="21" t="s">
-        <v>54</v>
+      <c r="A18" s="22" t="s">
+        <v>60</v>
       </c>
       <c r="B18" s="0"/>
     </row>
@@ -3590,14 +3682,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="25" width="31.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="25" width="64.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="25" width="26.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="25" width="54.04"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="25" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="25" width="20.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="25" width="13.47"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="25" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="26" width="31.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="26" width="64.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="26" width="26.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="26" width="54.04"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="26" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="26" width="20.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="26" width="13.47"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="26" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3611,7 +3703,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -3629,7 +3721,7 @@
     </row>
     <row r="2" s="4" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B2" s="3"/>
       <c r="F2" s="3"/>
@@ -3639,50 +3731,50 @@
       <c r="AMJ2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>58</v>
+      <c r="A3" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>61</v>
+      <c r="A4" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>64</v>
+      <c r="A5" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>68</v>
+      <c r="A6" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -3727,7 +3819,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -3745,278 +3837,278 @@
     </row>
     <row r="2" s="9" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
+        <v>75</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="13" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" s="20" customFormat="true" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>72</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" s="21" customFormat="true" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="30" t="s">
-        <v>88</v>
+      <c r="A30" s="31" t="s">
+        <v>94</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="31" t="s">
-        <v>91</v>
+      <c r="A31" s="32" t="s">
+        <v>97</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="24" t="s">
-        <v>94</v>
+      <c r="A32" s="25" t="s">
+        <v>100</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="16" t="s">
-        <v>96</v>
+      <c r="A33" s="17" t="s">
+        <v>102</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="31" t="s">
-        <v>99</v>
+      <c r="A43" s="32" t="s">
+        <v>105</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="14" t="s">
-        <v>101</v>
+      <c r="A44" s="15" t="s">
+        <v>107</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="12" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="16" t="s">
-        <v>105</v>
+      <c r="A46" s="17" t="s">
+        <v>111</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="32" t="s">
-        <v>107</v>
+      <c r="A47" s="33" t="s">
+        <v>113</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="11" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="11" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="11" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="12" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="33" t="s">
-        <v>121</v>
+      <c r="A90" s="34" t="s">
+        <v>127</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="11" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="77.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="16" t="s">
-        <v>126</v>
+      <c r="A92" s="17" t="s">
+        <v>132</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="15" t="s">
-        <v>128</v>
+      <c r="A93" s="16" t="s">
+        <v>134</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="13" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -4044,10 +4136,10 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="34.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="18" width="94.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="31.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="19" width="94.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="20" width="31.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="45.3"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="20" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="21" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4061,7 +4153,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -4079,362 +4171,362 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>72</v>
+        <v>141</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>139</v>
+        <v>143</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>142</v>
+      <c r="A6" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>145</v>
+        <v>149</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>147</v>
+      <c r="A8" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>150</v>
+      <c r="A9" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>152</v>
+        <v>157</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>154</v>
+        <v>159</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>156</v>
+        <v>161</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="76.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14" t="s">
-        <v>157</v>
+      <c r="A13" s="15" t="s">
+        <v>163</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>159</v>
+        <v>164</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>161</v>
+        <v>166</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>164</v>
+        <v>169</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="13" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>169</v>
+        <v>173</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>172</v>
+        <v>176</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="10" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="10" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="B45" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>145</v>
+        <v>180</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="B46" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>178</v>
+        <v>182</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="B47" s="18" t="s">
-        <v>180</v>
+      <c r="A47" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="10" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="B59" s="18" t="s">
-        <v>183</v>
+        <v>188</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="10" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="B68" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="C68" s="19" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="B68" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="B69" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="C69" s="19" t="s">
-        <v>191</v>
+        <v>195</v>
+      </c>
+      <c r="B69" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="B70" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="C70" s="19" t="s">
-        <v>194</v>
+      <c r="A70" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="B70" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="10" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="B76" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="C76" s="19" t="s">
-        <v>197</v>
+        <v>201</v>
+      </c>
+      <c r="B76" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="B77" s="18" t="s">
-        <v>199</v>
+      <c r="A77" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="B78" s="18" t="s">
-        <v>201</v>
+      <c r="A78" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="B78" s="19" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="10" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="B85" s="18" t="s">
-        <v>204</v>
+        <v>209</v>
+      </c>
+      <c r="B85" s="19" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="35" t="s">
-        <v>205</v>
-      </c>
-      <c r="B86" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="C86" s="19" t="s">
-        <v>207</v>
+      <c r="A86" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="B86" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="C86" s="20" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="4" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="B97" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="C97" s="19" t="s">
-        <v>211</v>
+        <v>215</v>
+      </c>
+      <c r="B97" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="C97" s="20" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="B98" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="C98" s="19" t="s">
-        <v>214</v>
+      <c r="A98" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="B98" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="C98" s="20" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="B99" s="18" t="s">
-        <v>216</v>
+        <v>221</v>
+      </c>
+      <c r="B99" s="19" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="B100" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="C100" s="19" t="s">
-        <v>219</v>
+        <v>223</v>
+      </c>
+      <c r="B100" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C100" s="20" t="s">
+        <v>225</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4465,13 +4557,13 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="18" width="73.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="20.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="20" width="48.35"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="20" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="20" width="18.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="20" width="18.2"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="20" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="19" width="73.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="20" width="20.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="21" width="48.35"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="21" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="21" width="18.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="21" width="18.2"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="21" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4485,7 +4577,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -4503,76 +4595,76 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>225</v>
+        <v>229</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>230</v>
+      <c r="A24" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>233</v>
+      <c r="A25" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>237</v>
+      <c r="A38" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="10" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -4631,29 +4723,29 @@
     </row>
     <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="12" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="s">
-        <v>245</v>
+      <c r="A4" s="17" t="s">
+        <v>251</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -4680,10 +4772,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="25" width="30.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="26" width="30.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="63.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="20.7"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="25" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="20" width="20.7"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="26" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4711,25 +4803,25 @@
       <c r="AMJ1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="28" t="s">
-        <v>247</v>
+      <c r="A2" s="29" t="s">
+        <v>253</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>249</v>
+        <v>254</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="36" t="s">
-        <v>250</v>
+      <c r="A3" s="37" t="s">
+        <v>256</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>252</v>
+        <v>257</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -4772,26 +4864,26 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="41" t="s">
         <v>6</v>
       </c>
       <c r="AMJ1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="s">
-        <v>253</v>
+      <c r="A2" s="17" t="s">
+        <v>259</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="300">
   <si>
     <t xml:space="preserve">QUESTION</t>
   </si>
@@ -156,8 +156,27 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1.create helper method(root,level) for traversal
-2.recursion-base:leve=len(res) add new inner[root] else res[level]apppend root. if child, do helper(child, level+1)</t>
+2.recursion-base:leve=len(res) add new inner[root] else res[level]append root. if child, do helper(child, level+1)</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">589. N-ary Tree Preorder Traversal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:N-ary tree preorder recursion&amp;iterative
+STEP recursion:self.helper(child,res)
+STEP iterative:stack push children from len to 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">590. N-ary Tree Postorder Traversal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:opposite of preorder
+STEP:recursion:helper then add res
+STEP:iterative:stack push root,left,right, (will pop root first, then right, then left), so res[::-1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">987. Vertical Order Traversal of a Binary Tree</t>
   </si>
   <si>
     <t xml:space="preserve">Search</t>
@@ -189,15 +208,6 @@
     <t xml:space="preserve">BST</t>
   </si>
   <si>
-    <t xml:space="preserve">938. Range Sum of BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOPIC:calculate sum when node in range                                                                        STEP:create self.sum var. preorder traversal helper(return void) for if in range, run preorder twice          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BST,sum</t>
-  </si>
-  <si>
     <t xml:space="preserve">1026. Maximum Difference Between Node and Ancestor</t>
   </si>
   <si>
@@ -208,6 +218,21 @@
   </si>
   <si>
     <t xml:space="preserve">preorder,abs,diff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1022. Sum of Root To Leaf Binary Numbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">938. Range Sum of BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:calculate sum when node in range                                                                        STEP:create self.sum var. preorder traversal helper(return void) for if in range, run preorder twice          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BST,sum</t>
   </si>
   <si>
     <t xml:space="preserve">Reassign</t>
@@ -1699,7 +1724,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1756,6 +1781,10 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1768,10 +1797,6 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1782,6 +1807,14 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1829,10 +1862,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1945,10 +1974,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ59"/>
+  <dimension ref="A1:AMJ72"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B40" activeCellId="0" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2068,112 +2097,149 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="15" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="s">
+    <row r="11" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13" t="s">
+      <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="B12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="17" t="s">
+    <row r="26" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="2" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="17" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="24" s="19" customFormat="true" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="18" t="s">
+      <c r="B27" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="C27" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="20" t="s">
+    </row>
+    <row r="28" s="19" customFormat="true" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="18" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10" t="s">
+      <c r="B28" s="19" t="s">
         <v>41</v>
       </c>
+      <c r="C28" s="20" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="11" t="s">
+      <c r="A34" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="2" t="s">
+    </row>
+    <row r="35" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="21" t="s">
         <v>44</v>
       </c>
     </row>
+    <row r="36" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="10"/>
-    </row>
-    <row r="52" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-    </row>
-    <row r="59" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
+      <c r="A47" s="0"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="10"/>
+    </row>
+    <row r="65" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+    </row>
+    <row r="72" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2194,7 +2260,7 @@
   <dimension ref="A1:AMJ3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2217,7 +2283,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -2231,28 +2297,28 @@
       <c r="I1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AMJ1" s="30"/>
+      <c r="AMJ1" s="32"/>
     </row>
     <row r="2" customFormat="false" ht="153.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
-        <v>261</v>
+      <c r="A2" s="16" t="s">
+        <v>268</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15" t="s">
-        <v>263</v>
+      <c r="A3" s="16" t="s">
+        <v>270</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -2279,11 +2345,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="26" width="22.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="26" width="62.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="26" width="25.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="26" width="45.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="26" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="28" width="22.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="28" width="62.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="28" width="25.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="28" width="45.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="28" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2297,7 +2363,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -2311,17 +2377,17 @@
       <c r="I1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AMJ1" s="30"/>
+      <c r="AMJ1" s="32"/>
     </row>
     <row r="2" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="28" t="s">
-        <v>266</v>
+      <c r="A2" s="30" t="s">
+        <v>273</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>268</v>
+        <v>274</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -2379,14 +2445,14 @@
       <c r="AMJ1" s="9"/>
     </row>
     <row r="2" s="1" customFormat="true" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
-        <v>269</v>
+      <c r="A2" s="16" t="s">
+        <v>276</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -2445,81 +2511,81 @@
     </row>
     <row r="2" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="32" t="s">
-        <v>280</v>
+      <c r="A5" s="34" t="s">
+        <v>287</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="121.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15" t="s">
-        <v>285</v>
+      <c r="A7" s="16" t="s">
+        <v>292</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="32" t="s">
-        <v>290</v>
+      <c r="A9" s="34" t="s">
+        <v>297</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -2546,11 +2612,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="21" width="33.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="21" width="73.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="33.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="23" width="73.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="20" width="22.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="21" width="46.68"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="21" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="46.68"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="23" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2564,7 +2630,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -2581,54 +2647,54 @@
       <c r="AMJ1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="22" t="s">
-        <v>48</v>
+      <c r="A2" s="24" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>50</v>
+        <v>56</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>56</v>
+      <c r="A5" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="25" t="s">
-        <v>57</v>
+      <c r="A6" s="27" t="s">
+        <v>64</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="22" t="s">
-        <v>60</v>
+      <c r="A18" s="24" t="s">
+        <v>67</v>
       </c>
       <c r="B18" s="0"/>
     </row>
@@ -3682,14 +3748,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="26" width="31.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="26" width="64.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="26" width="26.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="26" width="54.04"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="26" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="26" width="20.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="26" width="13.47"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="26" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="28" width="31.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="28" width="64.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="28" width="26.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="28" width="54.04"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="28" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="28" width="20.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="28" width="13.47"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="28" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3703,7 +3769,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -3721,7 +3787,7 @@
     </row>
     <row r="2" s="4" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B2" s="3"/>
       <c r="F2" s="3"/>
@@ -3731,50 +3797,50 @@
       <c r="AMJ2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="27" t="s">
-        <v>62</v>
+      <c r="A3" s="29" t="s">
+        <v>69</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>64</v>
+        <v>70</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="27" t="s">
-        <v>65</v>
+      <c r="A4" s="29" t="s">
+        <v>72</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>67</v>
+        <v>73</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="28" t="s">
-        <v>68</v>
+      <c r="A5" s="30" t="s">
+        <v>75</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="29" t="s">
-        <v>71</v>
+      <c r="A6" s="31" t="s">
+        <v>78</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>73</v>
+        <v>79</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>80</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3819,7 +3885,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -3837,124 +3903,124 @@
     </row>
     <row r="2" s="9" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
+        <v>82</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
     </row>
     <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="13" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" s="21" customFormat="true" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="27" t="s">
-        <v>90</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" s="23" customFormat="true" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="29" t="s">
+        <v>97</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>78</v>
+        <v>98</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="31" t="s">
-        <v>94</v>
+      <c r="A30" s="33" t="s">
+        <v>101</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="32" t="s">
-        <v>97</v>
+      <c r="A31" s="34" t="s">
+        <v>104</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="25" t="s">
-        <v>100</v>
+      <c r="A32" s="27" t="s">
+        <v>107</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="17" t="s">
-        <v>102</v>
+      <c r="A33" s="22" t="s">
+        <v>109</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>17</v>
@@ -3962,26 +4028,26 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="32" t="s">
-        <v>105</v>
+      <c r="A43" s="34" t="s">
+        <v>112</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="15" t="s">
-        <v>107</v>
+      <c r="A44" s="16" t="s">
+        <v>114</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>17</v>
@@ -3989,126 +4055,126 @@
     </row>
     <row r="45" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="12" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="17" t="s">
-        <v>111</v>
+      <c r="A46" s="22" t="s">
+        <v>118</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="33" t="s">
-        <v>113</v>
+      <c r="A47" s="14" t="s">
+        <v>120</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="11" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="11" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="11" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="12" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="34" t="s">
-        <v>127</v>
+      <c r="A90" s="35" t="s">
+        <v>134</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="11" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="77.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="17" t="s">
-        <v>132</v>
+      <c r="A92" s="22" t="s">
+        <v>139</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="16" t="s">
-        <v>134</v>
+      <c r="A93" s="17" t="s">
+        <v>141</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="13" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -4139,7 +4205,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="19" width="94.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="20" width="31.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="45.3"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="21" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="23" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4153,7 +4219,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -4171,362 +4237,362 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17" t="s">
-        <v>146</v>
+      <c r="A6" s="22" t="s">
+        <v>153</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17" t="s">
-        <v>152</v>
+      <c r="A8" s="22" t="s">
+        <v>159</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="32" t="s">
-        <v>154</v>
+      <c r="A9" s="34" t="s">
+        <v>161</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="12" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="76.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15" t="s">
-        <v>163</v>
+      <c r="A13" s="16" t="s">
+        <v>170</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="13" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="12" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="12" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="10" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="10" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="13" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="17" t="s">
-        <v>185</v>
+      <c r="A47" s="22" t="s">
+        <v>192</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="10" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="12" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="10" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="12" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="32" t="s">
-        <v>198</v>
+      <c r="A70" s="34" t="s">
+        <v>205</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="10" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="11" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C76" s="20" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="17" t="s">
-        <v>204</v>
+      <c r="A77" s="22" t="s">
+        <v>211</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="35" t="s">
-        <v>206</v>
+      <c r="A78" s="36" t="s">
+        <v>213</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="10" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="12" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="36" t="s">
-        <v>211</v>
+      <c r="A86" s="37" t="s">
+        <v>218</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="4" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="11" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C97" s="20" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="33" t="s">
-        <v>218</v>
+      <c r="A98" s="14" t="s">
+        <v>225</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="C98" s="20" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="12" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="11" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4559,11 +4625,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="19" width="73.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="20" width="20.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="21" width="48.35"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="21" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="21" width="18.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="21" width="18.2"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="21" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="48.35"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="23" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="23" width="18.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="23" width="18.2"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="23" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4577,7 +4643,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -4595,76 +4661,76 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="17" t="s">
-        <v>234</v>
+      <c r="A24" s="22" t="s">
+        <v>241</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="17" t="s">
-        <v>237</v>
+      <c r="A25" s="22" t="s">
+        <v>244</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="15" t="s">
-        <v>241</v>
+      <c r="A38" s="16" t="s">
+        <v>248</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="10" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -4723,29 +4789,29 @@
     </row>
     <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="12" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="17" t="s">
-        <v>251</v>
+      <c r="A4" s="22" t="s">
+        <v>258</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -4772,10 +4838,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="26" width="30.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="28" width="30.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="63.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="20" width="20.7"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="26" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="28" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4803,25 +4869,25 @@
       <c r="AMJ1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="29" t="s">
-        <v>253</v>
+      <c r="A2" s="31" t="s">
+        <v>260</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="37" t="s">
-        <v>256</v>
+      <c r="A3" s="38" t="s">
+        <v>263</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -4864,26 +4930,26 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="42" t="s">
         <v>6</v>
       </c>
       <c r="AMJ1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="s">
-        <v>259</v>
+      <c r="A2" s="22" t="s">
+        <v>266</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="302">
   <si>
     <t xml:space="preserve">QUESTION</t>
   </si>
@@ -220,7 +220,18 @@
     <t xml:space="preserve">preorder,abs,diff</t>
   </si>
   <si>
-    <t xml:space="preserve">sum</t>
+    <t xml:space="preserve">Operation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">701. Insert into a Binary Search Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:BST insert, think BST val determine should traverse to which branch from two branches
+STEP:1.dfs traverse, until see None mean insert position, mean basic case null:insert new node
+2.in the end return root because return whole tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum</t>
   </si>
   <si>
     <t xml:space="preserve">1022. Sum of Root To Leaf Binary Numbers</t>
@@ -306,6 +317,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">二分图</t>
     </r>
@@ -323,6 +335,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">如果可以用两种颜色对图中的节点进行着色，并且保证相邻的节点颜色不同，那么这个图就是二分图。</t>
     </r>
@@ -557,9 +570,6 @@
   </si>
   <si>
     <t xml:space="preserve">[SLIDING WINDOW]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operation</t>
   </si>
   <si>
     <t xml:space="preserve">415. Add Strings</t>
@@ -1546,7 +1556,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1613,6 +1623,7 @@
       <sz val="10"/>
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="13"/>
@@ -1625,12 +1636,6 @@
       <color rgb="FFFF0000"/>
       <name val="Abyssinica SIL"/>
       <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Noto Sans CJK SC"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -1724,7 +1729,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1783,10 +1788,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1974,10 +1975,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ72"/>
+  <dimension ref="A1:AMJ77"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B40" activeCellId="0" sqref="B40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2100,7 +2101,7 @@
       <c r="A10" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -2151,7 +2152,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="15" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -2159,7 +2160,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="16" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -2169,77 +2170,93 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" s="19" customFormat="true" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="18" t="s">
+    <row r="28" s="18" customFormat="true" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="19" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10" t="s">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="21" t="s">
+    <row r="32" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="11" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="22" t="s">
+      <c r="B32" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C32" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="2" t="s">
+    </row>
+    <row r="40" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="10" t="s">
+    <row r="41" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="21" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="10" t="s">
+      <c r="B41" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="11" t="s">
+      <c r="C41" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B54" s="2" t="s">
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="10" t="s">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="10"/>
-    </row>
-    <row r="65" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="4" t="s">
+    <row r="59" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-    </row>
-    <row r="72" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
+      <c r="B59" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="10"/>
+    </row>
+    <row r="70" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+    </row>
+    <row r="77" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2283,7 +2300,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -2297,28 +2314,28 @@
       <c r="I1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AMJ1" s="32"/>
+      <c r="AMJ1" s="31"/>
     </row>
     <row r="2" customFormat="false" ht="153.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="s">
-        <v>268</v>
+      <c r="A2" s="15" t="s">
+        <v>270</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="s">
-        <v>270</v>
+      <c r="A3" s="15" t="s">
+        <v>272</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -2345,11 +2362,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="28" width="22.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="28" width="62.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="28" width="25.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="28" width="45.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="28" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="27" width="22.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="27" width="62.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="27" width="25.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="27" width="45.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="27" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2363,7 +2380,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -2377,17 +2394,17 @@
       <c r="I1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AMJ1" s="32"/>
+      <c r="AMJ1" s="31"/>
     </row>
     <row r="2" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="30" t="s">
-        <v>273</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="C2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>275</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -2412,7 +2429,7 @@
       <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="74.19"/>
@@ -2445,14 +2462,14 @@
       <c r="AMJ1" s="9"/>
     </row>
     <row r="2" s="1" customFormat="true" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="s">
-        <v>276</v>
+      <c r="A2" s="15" t="s">
+        <v>278</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -2511,81 +2528,81 @@
     </row>
     <row r="2" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="34" t="s">
-        <v>287</v>
+      <c r="A5" s="33" t="s">
+        <v>289</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="121.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16" t="s">
-        <v>292</v>
+      <c r="A7" s="15" t="s">
+        <v>294</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="34" t="s">
-        <v>297</v>
+      <c r="A9" s="33" t="s">
+        <v>299</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -2612,11 +2629,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="33.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="23" width="73.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="20" width="22.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="46.68"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="23" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="22" width="33.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="22" width="73.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="22.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="22" width="46.68"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="22" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2630,7 +2647,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -2647,54 +2664,54 @@
       <c r="AMJ1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="24" t="s">
-        <v>55</v>
+      <c r="A2" s="23" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>63</v>
+      <c r="A5" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>66</v>
+      <c r="A6" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="24" t="s">
-        <v>67</v>
+      <c r="A18" s="23" t="s">
+        <v>70</v>
       </c>
       <c r="B18" s="0"/>
     </row>
@@ -3748,14 +3765,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="28" width="31.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="28" width="64.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="28" width="26.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="28" width="54.04"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="28" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="28" width="20.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="28" width="13.47"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="28" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="27" width="31.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="27" width="64.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="27" width="26.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="27" width="54.04"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="27" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="27" width="20.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="27" width="13.47"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="27" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3769,7 +3786,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -3787,7 +3804,7 @@
     </row>
     <row r="2" s="4" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B2" s="3"/>
       <c r="F2" s="3"/>
@@ -3797,50 +3814,50 @@
       <c r="AMJ2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>71</v>
+      <c r="A3" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>74</v>
+      <c r="A4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>77</v>
+      <c r="A5" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="20" t="s">
+      <c r="A6" s="30" t="s">
         <v>81</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -3885,7 +3902,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -3903,124 +3920,124 @@
     </row>
     <row r="2" s="9" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
+        <v>85</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
     </row>
     <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="13" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" s="23" customFormat="true" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>85</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" s="22" customFormat="true" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="33" t="s">
-        <v>101</v>
+      <c r="A30" s="32" t="s">
+        <v>104</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="34" t="s">
-        <v>104</v>
+      <c r="A31" s="33" t="s">
+        <v>107</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="27" t="s">
-        <v>107</v>
+      <c r="A32" s="26" t="s">
+        <v>110</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="22" t="s">
-        <v>109</v>
+      <c r="A33" s="21" t="s">
+        <v>112</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>17</v>
@@ -4028,26 +4045,26 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="34" t="s">
-        <v>112</v>
+      <c r="A43" s="33" t="s">
+        <v>115</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="16" t="s">
-        <v>114</v>
+      <c r="A44" s="15" t="s">
+        <v>117</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>17</v>
@@ -4055,126 +4072,126 @@
     </row>
     <row r="45" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="12" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="22" t="s">
-        <v>118</v>
+      <c r="A46" s="21" t="s">
+        <v>121</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="14" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="11" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="11" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="11" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="12" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="s">
-        <v>133</v>
+        <v>43</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="35" t="s">
-        <v>134</v>
+      <c r="A90" s="34" t="s">
+        <v>136</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="11" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="77.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="22" t="s">
-        <v>139</v>
+      <c r="A92" s="21" t="s">
+        <v>141</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="17" t="s">
-        <v>141</v>
+      <c r="A93" s="16" t="s">
+        <v>143</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="13" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -4202,10 +4219,10 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="34.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="19" width="94.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="20" width="31.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="18" width="94.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="31.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="45.3"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="23" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="22" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4219,7 +4236,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -4237,362 +4254,362 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>85</v>
+        <v>150</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="C5" s="20" t="s">
         <v>152</v>
       </c>
+      <c r="B5" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="C6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>155</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="C7" s="20" t="s">
         <v>158</v>
       </c>
+      <c r="B7" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>160</v>
+      <c r="A8" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="C9" s="20" t="s">
+      <c r="A9" s="33" t="s">
         <v>163</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>167</v>
+        <v>168</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>169</v>
+        <v>170</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="76.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="16" t="s">
-        <v>170</v>
+      <c r="A13" s="15" t="s">
+        <v>172</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>174</v>
+        <v>175</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="13" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="C30" s="20" t="s">
         <v>182</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="C31" s="20" t="s">
         <v>185</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="10" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="B45" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="C45" s="20" t="s">
-        <v>158</v>
+        <v>189</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="C46" s="20" t="s">
         <v>191</v>
       </c>
+      <c r="B46" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="B47" s="19" t="s">
-        <v>193</v>
+      <c r="A47" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="10" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="B59" s="19" t="s">
-        <v>196</v>
+        <v>197</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="B68" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="C68" s="20" t="s">
         <v>201</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="B69" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="C69" s="20" t="s">
         <v>204</v>
       </c>
+      <c r="B69" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="B70" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="C70" s="20" t="s">
+      <c r="A70" s="33" t="s">
         <v>207</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="C70" s="19" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="B76" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="C76" s="20" t="s">
         <v>210</v>
       </c>
+      <c r="B76" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="C76" s="19" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="B77" s="19" t="s">
-        <v>212</v>
+      <c r="A77" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="B77" s="18" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="B78" s="19" t="s">
-        <v>214</v>
+      <c r="A78" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="B78" s="18" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="10" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="B85" s="19" t="s">
-        <v>217</v>
+        <v>218</v>
+      </c>
+      <c r="B85" s="18" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="37" t="s">
-        <v>218</v>
-      </c>
-      <c r="B86" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="C86" s="20" t="s">
+      <c r="A86" s="36" t="s">
         <v>220</v>
+      </c>
+      <c r="B86" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="C86" s="19" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="4" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="B97" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="C97" s="20" t="s">
         <v>224</v>
+      </c>
+      <c r="B97" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="C97" s="19" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="B98" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="C98" s="20" t="s">
         <v>227</v>
+      </c>
+      <c r="B98" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="C98" s="19" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="B99" s="19" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="B99" s="18" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="B100" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="C100" s="20" t="s">
         <v>232</v>
       </c>
+      <c r="B100" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="C100" s="19" t="s">
+        <v>234</v>
+      </c>
       <c r="D100" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4623,13 +4640,13 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="19" width="73.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="20" width="20.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="48.35"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="23" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="23" width="18.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="23" width="18.2"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="23" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="18" width="73.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="20.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="22" width="48.35"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="22" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="22" width="18.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="22" width="18.2"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="22" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4643,7 +4660,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -4661,76 +4678,76 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="C3" s="20" t="s">
         <v>238</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="C24" s="20" t="s">
+      <c r="A24" s="21" t="s">
         <v>243</v>
       </c>
+      <c r="B24" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="C25" s="20" t="s">
+      <c r="A25" s="21" t="s">
         <v>246</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="B38" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="C38" s="20" t="s">
+      <c r="A38" s="15" t="s">
         <v>250</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -4789,29 +4806,29 @@
     </row>
     <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="12" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="22" t="s">
-        <v>258</v>
+      <c r="A4" s="21" t="s">
+        <v>260</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -4838,10 +4855,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="28" width="30.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="27" width="30.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="63.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="20" width="20.7"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="28" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="20.7"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="27" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4869,25 +4886,25 @@
       <c r="AMJ1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="31" t="s">
-        <v>260</v>
+      <c r="A2" s="30" t="s">
+        <v>262</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>262</v>
+        <v>263</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="38" t="s">
-        <v>263</v>
+      <c r="A3" s="37" t="s">
+        <v>265</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>265</v>
+        <v>266</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -4930,26 +4947,26 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="41" t="s">
         <v>6</v>
       </c>
       <c r="AMJ1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="22" t="s">
-        <v>266</v>
+      <c r="A2" s="21" t="s">
+        <v>268</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Tree" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="309">
   <si>
     <t xml:space="preserve">QUESTION</t>
   </si>
@@ -880,6 +880,16 @@
 STEP:two pointer1.i=0, j=1, two pointer tracking even/odd index, if at even/odd index not even/odd swap; otherwise i+=2 or j+=2</t>
   </si>
   <si>
+    <t xml:space="preserve">1827. Minimum Operations to Make the Array Increasing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:reassign array, each time +n for one ele, make whole array strictly increasing
+ATT:pos cannot move. from left to right, compare [i-1], update[i]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATE+TIME</t>
+  </si>
+  <si>
     <t xml:space="preserve">Guess Pattern</t>
   </si>
   <si>
@@ -1030,6 +1040,37 @@
   </si>
   <si>
     <t xml:space="preserve">2Darray.sort(key=lambda x:x[1])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/12/2022 30min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">452. Minimum Number of Arrows to Burst Balloons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:Overlap Interval Question Always THINK endclose.
+STEP:subarray[0,1] mean size of ballon.see how to let arrows can shoot as many as ballons
+1.sort [1]then [0]
+2.flag will update min endclose because some ballon only at certain narrow space</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Abyssinica SIL"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[Greedy]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">局部完美就是全局完美</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">CODE </t>
@@ -1556,7 +1597,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1637,6 +1678,11 @@
       <name val="Abyssinica SIL"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Noto Sans CJK SC"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1729,7 +1775,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1870,12 +1916,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1977,7 +2031,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ77"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
     </sheetView>
   </sheetViews>
@@ -2318,10 +2372,10 @@
     </row>
     <row r="2" customFormat="false" ht="153.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>88</v>
@@ -2329,13 +2383,13 @@
     </row>
     <row r="3" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="15" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -2398,13 +2452,13 @@
     </row>
     <row r="2" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="29" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -2429,7 +2483,7 @@
       <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="74.19"/>
@@ -2463,13 +2517,13 @@
     </row>
     <row r="2" s="1" customFormat="true" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -2528,81 +2582,81 @@
     </row>
     <row r="2" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="33" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="121.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="33" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -4210,410 +4264,441 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ105"/>
+  <dimension ref="A1:J105"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B104" activeCellId="0" sqref="B104"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C113" activeCellId="0" sqref="C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="34.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="18" width="94.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="31.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="45.3"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="22" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="34.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="18" width="94.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="19" width="31.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="45.3"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="22" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="9"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AMJ1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="B3" s="10" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
+      <c r="B4" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="C4" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="D4" s="19" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
+      <c r="B5" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="C5" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="D5" s="19" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="21" t="s">
+      <c r="B6" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="C6" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="D6" s="19" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
+      <c r="B7" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="C7" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="D7" s="19" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="21" t="s">
+      <c r="B8" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="C8" s="18" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="33" t="s">
+      <c r="B9" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="C9" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="D9" s="19" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
+      <c r="B10" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="C10" s="18" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
+      <c r="B11" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="C11" s="18" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
+      <c r="B12" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="C12" s="18" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="76.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15" t="s">
+      <c r="B13" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="D13" s="19" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
+      <c r="B14" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="C14" s="18" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10" t="s">
+      <c r="B27" s="10" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11" t="s">
+      <c r="B28" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="C28" s="18" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="13" t="s">
+      <c r="B29" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12" t="s">
+      <c r="B30" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="C30" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="D30" s="19" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12" t="s">
+      <c r="B31" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="C31" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="D31" s="19" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="10" t="s">
+      <c r="B40" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="10" t="s">
+      <c r="B44" s="10" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="11" t="s">
+      <c r="B45" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="C45" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="D45" s="19" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="13" t="s">
+      <c r="B46" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="C46" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="D46" s="19" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="21" t="s">
+      <c r="B47" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="C47" s="18" t="s">
         <v>195</v>
       </c>
     </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>197</v>
+      </c>
+    </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="10" t="s">
-        <v>196</v>
+      <c r="A58" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="B59" s="18" t="s">
-        <v>198</v>
+      <c r="B59" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="4" t="s">
-        <v>199</v>
+      <c r="B66" s="4" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="10" t="s">
-        <v>200</v>
+      <c r="B67" s="10" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="B68" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="C68" s="19" t="s">
-        <v>203</v>
+      <c r="B68" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="C68" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="B69" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="C69" s="19" t="s">
-        <v>206</v>
+      <c r="B69" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C69" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="D69" s="19" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="B70" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="C70" s="19" t="s">
-        <v>209</v>
+      <c r="B70" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="D70" s="19" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="10" t="s">
+      <c r="B75" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="B76" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="C76" s="19" t="s">
-        <v>212</v>
+      <c r="B76" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="C76" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="D76" s="19" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="B77" s="18" t="s">
-        <v>214</v>
+      <c r="B77" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C77" s="18" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="35" t="s">
-        <v>215</v>
-      </c>
-      <c r="B78" s="18" t="s">
-        <v>216</v>
+      <c r="B78" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="C78" s="18" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="10" t="s">
-        <v>217</v>
+      <c r="B84" s="10" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="B85" s="18" t="s">
-        <v>219</v>
+      <c r="B85" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="C85" s="18" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="B86" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="C86" s="19" t="s">
-        <v>222</v>
+      <c r="B86" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="C86" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="D86" s="19" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="4" t="s">
-        <v>223</v>
+      <c r="B96" s="4" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="B97" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="C97" s="19" t="s">
-        <v>226</v>
+      <c r="B97" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="C97" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="D97" s="19" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="B98" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="C98" s="19" t="s">
-        <v>229</v>
+      <c r="B98" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="C98" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="D98" s="19" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="B99" s="18" t="s">
-        <v>231</v>
+      <c r="B99" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="C99" s="18" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="B100" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="C100" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="D100" s="2" t="s">
+      <c r="B100" s="11" t="s">
         <v>235</v>
       </c>
+      <c r="C100" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="D100" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B101" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="C101" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="D101" s="19" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0"/>
+      <c r="B105" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4660,7 +4745,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -4678,76 +4763,76 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="21" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="21" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="15" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="10" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -4806,29 +4891,29 @@
     </row>
     <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="12" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="21" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -4887,24 +4972,24 @@
     </row>
     <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="30" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="37" t="s">
-        <v>265</v>
+      <c r="A3" s="39" t="s">
+        <v>272</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -4947,26 +5032,26 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AMJ1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="21" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="317">
   <si>
     <t xml:space="preserve">QUESTION</t>
   </si>
@@ -887,9 +887,6 @@
 ATT:pos cannot move. from left to right, compare [i-1], update[i]</t>
   </si>
   <si>
-    <t xml:space="preserve">DATE+TIME</t>
-  </si>
-  <si>
     <t xml:space="preserve">Guess Pattern</t>
   </si>
   <si>
@@ -1040,9 +1037,6 @@
   </si>
   <si>
     <t xml:space="preserve">2Darray.sort(key=lambda x:x[1])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/12/2022 30min</t>
   </si>
   <si>
     <t xml:space="preserve">452. Minimum Number of Arrows to Burst Balloons</t>
@@ -1068,6 +1062,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">局部完美就是全局完美</t>
     </r>
@@ -1198,6 +1193,55 @@
 2.brute force, iterate piles with k=[1...max(pile)] max(pile)times, TIME O(max(pile)times * len(pile))
 3.optimize binary search for k range TIME O(log(max(pile))time * len(pile))
 4.low, high, in while, traverse p get totol hour, if hour &gt; h, go to left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">算法解释：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">贪心算法：每次操作局部最优，得到全局也是最优</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKILL</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Abyssinica SIL"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Assign/</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">分配</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">455. Assign Cookies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:GREEDY assign biggest size cookies to who has highest content/opposite
+STEP:1.SORT+TRAVERSE g array and s array. if s[j] &gt;= g[i] ++ else:pass to another</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[SORT][TWO POINTER]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135. Candy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:minimum candies to assign. higher rating have more candies than neighbors.
+STEP:
+1.CREATE array size islen(ratings) default 1 since each child have at least one candy
+2.two TRAVERSALS from front and back because check both sides' neighbors.from front, if right &gt; left,candy[right]++(mean res++). from back if left &gt; right and candy[left]&lt;= candy[right] candy[left]++(mean res ++)</t>
   </si>
   <si>
     <t xml:space="preserve">621. Task Scheduler</t>
@@ -1589,6 +1633,9 @@
   <si>
     <t xml:space="preserve">[%/]</t>
   </si>
+  <si>
+    <t xml:space="preserve">8. String to Integer (atoi)</t>
+  </si>
 </sst>
 </file>
 
@@ -1597,7 +1644,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1633,12 +1680,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Abyssinica SIL"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Abyssinica SIL"/>
@@ -1649,6 +1690,12 @@
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="Abyssinica SIL"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Abyssinica SIL"/>
       <family val="0"/>
       <charset val="1"/>
@@ -1680,6 +1727,29 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FFFF8000"/>
+      <name val="Noto Sans CJK SC"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FFFF8000"/>
+      <name val="Abyssinica SIL"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF8000"/>
+      <name val="Abyssinica SIL"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="10"/>
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
@@ -1775,7 +1845,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="54">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1816,10 +1886,6 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1868,6 +1934,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1900,56 +1970,96 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2007,7 +2117,7 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF8000"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
@@ -2031,8 +2141,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ77"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2044,7 +2154,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="21.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="5.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="9" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="9" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2069,7 +2179,8 @@
       <c r="I1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AMJ1" s="9"/>
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
@@ -2077,16 +2188,20 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
+      <c r="AMI2" s="0"/>
+      <c r="AMJ2" s="0"/>
     </row>
     <row r="3" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
+      <c r="AMI3" s="0"/>
+      <c r="AMJ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2097,7 +2212,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2108,7 +2223,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2119,7 +2234,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2130,7 +2245,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2141,7 +2256,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2152,7 +2267,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -2163,7 +2278,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2174,7 +2289,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -2190,12 +2305,12 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="12" t="s">
         <v>33</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2206,7 +2321,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="14" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -2214,7 +2329,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -2224,24 +2339,26 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" s="18" customFormat="true" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="17" t="s">
+    <row r="28" s="17" customFormat="true" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="18" t="s">
         <v>42</v>
       </c>
+      <c r="AMI28" s="0"/>
+      <c r="AMJ28" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -2252,17 +2369,17 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="19" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="20" t="s">
         <v>48</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -2273,7 +2390,7 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="9" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2281,12 +2398,12 @@
       <c r="A52" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="10" t="s">
         <v>53</v>
       </c>
       <c r="B59" s="2" t="s">
@@ -2294,12 +2411,12 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="10"/>
+      <c r="A68" s="9"/>
     </row>
     <row r="70" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
@@ -2307,10 +2424,14 @@
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
+      <c r="AMI70" s="0"/>
+      <c r="AMJ70" s="0"/>
     </row>
     <row r="77" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
+      <c r="AMI77" s="0"/>
+      <c r="AMJ77" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2328,10 +2449,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ3"/>
+  <dimension ref="A1:AMJ14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2343,53 +2464,144 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="2" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="46" customFormat="true" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="44" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>276</v>
+      </c>
+      <c r="F1" s="47"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="50"/>
+      <c r="AMJ1" s="51"/>
+    </row>
+    <row r="2" s="3" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C2" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AMJ1" s="31"/>
-    </row>
-    <row r="2" customFormat="false" ht="153.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="AMJ2" s="31"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="52" t="s">
         <v>278</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+    </row>
+    <row r="4" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+    </row>
+    <row r="5" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+    </row>
+    <row r="6" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+    </row>
+    <row r="7" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+    </row>
+    <row r="8" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+    </row>
+    <row r="9" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+    </row>
+    <row r="10" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+    </row>
+    <row r="11" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+    </row>
+    <row r="12" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+    </row>
+    <row r="13" customFormat="false" ht="153.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>281</v>
+    <row r="14" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -2452,13 +2664,13 @@
     </row>
     <row r="2" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="29" t="s">
-        <v>282</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>283</v>
+        <v>289</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>290</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -2483,7 +2695,7 @@
       <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="74.19"/>
@@ -2513,17 +2725,17 @@
       <c r="I1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AMJ1" s="9"/>
+      <c r="AMJ1" s="22"/>
     </row>
     <row r="2" s="1" customFormat="true" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
-        <v>285</v>
+      <c r="A2" s="14" t="s">
+        <v>292</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -2542,10 +2754,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ9"/>
+  <dimension ref="A1:AMJ10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2578,85 +2790,90 @@
       <c r="I1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AMJ1" s="9"/>
+      <c r="AMJ1" s="22"/>
     </row>
     <row r="2" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
-        <v>288</v>
+      <c r="A2" s="10" t="s">
+        <v>295</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>291</v>
+      <c r="A3" s="10" t="s">
+        <v>298</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
-        <v>294</v>
+      <c r="A4" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="33" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
-        <v>298</v>
+      <c r="A6" s="10" t="s">
+        <v>305</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="121.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15" t="s">
-        <v>301</v>
+      <c r="A7" s="14" t="s">
+        <v>308</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
-        <v>304</v>
+      <c r="A8" s="10" t="s">
+        <v>311</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="33" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>308</v>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -2683,11 +2900,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="22" width="33.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="22" width="73.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="22.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="22" width="46.68"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="22" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="21" width="33.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="21" width="73.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="18" width="22.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="21" width="46.68"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="21" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2715,7 +2932,7 @@
       <c r="I1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AMJ1" s="9"/>
+      <c r="AMJ1" s="22"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="23" t="s">
@@ -2723,7 +2940,7 @@
       </c>
     </row>
     <row r="3" s="1" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>59</v>
       </c>
       <c r="B3" s="24" t="s">
@@ -2734,13 +2951,13 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2748,7 +2965,7 @@
       <c r="A5" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2756,10 +2973,10 @@
       <c r="A6" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3854,7 +4071,7 @@
       <c r="I1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AMJ1" s="9"/>
+      <c r="AMJ1" s="22"/>
     </row>
     <row r="2" s="4" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
@@ -3865,13 +4082,13 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
-      <c r="AMJ2" s="9"/>
+      <c r="AMJ2" s="22"/>
     </row>
     <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>73</v>
       </c>
       <c r="C3" s="27" t="s">
@@ -3882,7 +4099,7 @@
       <c r="A4" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>76</v>
       </c>
       <c r="C4" s="27" t="s">
@@ -3893,7 +4110,7 @@
       <c r="A5" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>79</v>
       </c>
       <c r="C5" s="27" t="s">
@@ -3904,13 +4121,13 @@
       <c r="A6" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>82</v>
       </c>
       <c r="C6" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>84</v>
       </c>
     </row>
@@ -3970,9 +4187,9 @@
       <c r="I1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AMJ1" s="9"/>
-    </row>
-    <row r="2" s="9" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AMJ1" s="22"/>
+    </row>
+    <row r="2" s="22" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>85</v>
       </c>
@@ -3984,7 +4201,7 @@
       <c r="I2" s="31"/>
     </row>
     <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -3995,7 +4212,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>89</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -4006,7 +4223,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>92</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -4017,7 +4234,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>95</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -4025,7 +4242,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>97</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -4035,11 +4252,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" s="22" customFormat="true" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="21" customFormat="true" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>101</v>
       </c>
       <c r="C8" s="27" t="s">
@@ -4087,7 +4304,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="20" t="s">
         <v>112</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -4114,7 +4331,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="14" t="s">
         <v>117</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -4125,7 +4342,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="11" t="s">
         <v>119</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -4133,7 +4350,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="20" t="s">
         <v>121</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -4144,7 +4361,7 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="13" t="s">
         <v>123</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -4155,7 +4372,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="10" t="s">
         <v>126</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -4163,7 +4380,7 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="10" t="s">
         <v>128</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -4171,7 +4388,7 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -4184,7 +4401,7 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="12" t="s">
+      <c r="A65" s="11" t="s">
         <v>133</v>
       </c>
       <c r="B65" s="2" t="s">
@@ -4211,7 +4428,7 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="11" t="s">
+      <c r="A91" s="10" t="s">
         <v>139</v>
       </c>
       <c r="B91" s="2" t="s">
@@ -4219,7 +4436,7 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="77.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="21" t="s">
+      <c r="A92" s="20" t="s">
         <v>141</v>
       </c>
       <c r="B92" s="2" t="s">
@@ -4230,7 +4447,7 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="16" t="s">
+      <c r="A93" s="15" t="s">
         <v>143</v>
       </c>
       <c r="B93" s="2" t="s">
@@ -4238,7 +4455,7 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="13" t="s">
+      <c r="A94" s="12" t="s">
         <v>145</v>
       </c>
       <c r="B94" s="2" t="s">
@@ -4264,441 +4481,434 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J105"/>
+  <dimension ref="A1:AMJ105"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C113" activeCellId="0" sqref="C113"/>
+      <selection pane="topLeft" activeCell="A101" activeCellId="0" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="34.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="18" width="94.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="19" width="31.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="45.3"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="22" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="34.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="17" width="94.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="18" width="31.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="45.3"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="5" style="21" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9"/>
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>6</v>
       </c>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="4" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>150</v>
       </c>
+      <c r="B4" s="17" t="s">
+        <v>151</v>
+      </c>
       <c r="C4" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="D4" s="19" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>152</v>
       </c>
+      <c r="B5" s="17" t="s">
+        <v>153</v>
+      </c>
       <c r="C5" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="D5" s="19" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>155</v>
       </c>
+      <c r="B6" s="17" t="s">
+        <v>156</v>
+      </c>
       <c r="C6" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="D6" s="19" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>158</v>
       </c>
+      <c r="B7" s="17" t="s">
+        <v>159</v>
+      </c>
       <c r="C7" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="D7" s="19" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="33" t="s">
+      <c r="A9" s="33" t="s">
         <v>163</v>
       </c>
+      <c r="B9" s="17" t="s">
+        <v>164</v>
+      </c>
       <c r="C9" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="D9" s="19" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="76.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="C13" s="18" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="10" t="s">
+      <c r="A27" s="9" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="11" t="s">
+      <c r="A28" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="B28" s="17" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="13" t="s">
+      <c r="A29" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="12" t="s">
+      <c r="A30" s="11" t="s">
         <v>182</v>
       </c>
+      <c r="B30" s="17" t="s">
+        <v>183</v>
+      </c>
       <c r="C30" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="D30" s="19" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="12" t="s">
+      <c r="A31" s="11" t="s">
         <v>185</v>
       </c>
+      <c r="B31" s="17" t="s">
+        <v>186</v>
+      </c>
       <c r="C31" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="D31" s="19" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="10" t="s">
+      <c r="A40" s="9" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="10" t="s">
+      <c r="A44" s="9" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="11" t="s">
+      <c r="A45" s="10" t="s">
         <v>189</v>
       </c>
+      <c r="B45" s="17" t="s">
+        <v>190</v>
+      </c>
       <c r="C45" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="D45" s="19" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="13" t="s">
+      <c r="A46" s="12" t="s">
         <v>191</v>
       </c>
+      <c r="B46" s="17" t="s">
+        <v>192</v>
+      </c>
       <c r="C46" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="D46" s="19" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="21" t="s">
+      <c r="A47" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="B47" s="17" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="10" t="s">
+      <c r="A53" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="35" t="s">
+      <c r="A54" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="B54" s="17" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="B58" s="10" t="s">
+    </row>
+    <row r="59" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="11" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="C59" s="18" t="s">
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="4" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="4" t="s">
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="9" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="10" t="s">
+    <row r="68" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="11" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="68" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="12" t="s">
+      <c r="B68" s="17" t="s">
         <v>204</v>
       </c>
       <c r="C68" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="D68" s="19" t="s">
+    </row>
+    <row r="69" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="11" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="69" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="12" t="s">
+      <c r="B69" s="17" t="s">
         <v>207</v>
       </c>
       <c r="C69" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="D69" s="19" t="s">
+    </row>
+    <row r="70" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="33" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="33" t="s">
+      <c r="B70" s="17" t="s">
         <v>210</v>
       </c>
       <c r="C70" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="D70" s="19" t="s">
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="10" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="11" t="s">
+      <c r="B76" s="17" t="s">
         <v>213</v>
       </c>
       <c r="C76" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="D76" s="19" t="s">
+    </row>
+    <row r="77" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="20" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="77" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="21" t="s">
+      <c r="B77" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="C77" s="18" t="s">
+    </row>
+    <row r="78" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="36" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="78" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="36" t="s">
+      <c r="B78" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="C78" s="18" t="s">
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="9" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="10" t="s">
+    <row r="85" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="11" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="85" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="12" t="s">
+      <c r="B85" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="C85" s="18" t="s">
+    </row>
+    <row r="86" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="37" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="86" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="37" t="s">
+      <c r="B86" s="17" t="s">
         <v>223</v>
       </c>
       <c r="C86" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="D86" s="19" t="s">
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="4" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="4" t="s">
+    <row r="97" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="10" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="97" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="11" t="s">
+      <c r="B97" s="17" t="s">
         <v>227</v>
       </c>
       <c r="C97" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="D97" s="19" t="s">
+    </row>
+    <row r="98" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="13" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="98" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="14" t="s">
+      <c r="B98" s="17" t="s">
         <v>230</v>
       </c>
       <c r="C98" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="D98" s="19" t="s">
+    </row>
+    <row r="99" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="11" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="99" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="12" t="s">
+      <c r="B99" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="C99" s="18" t="s">
+    </row>
+    <row r="100" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="10" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="100" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="11" t="s">
+      <c r="B100" s="17" t="s">
         <v>235</v>
       </c>
       <c r="C100" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="D100" s="19" t="s">
+      <c r="D100" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="E100" s="2" t="s">
+    </row>
+    <row r="101" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="38" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="101" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="s">
+      <c r="B101" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="B101" s="38" t="s">
+      <c r="C101" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="C101" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="D101" s="19" t="s">
-        <v>242</v>
-      </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="0"/>
+      <c r="A105" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4725,13 +4935,13 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="18" width="73.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="20.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="22" width="48.35"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="22" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="22" width="18.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="22" width="18.2"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="22" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="17" width="73.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="18" width="20.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="21" width="48.35"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="21" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="21" width="18.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="21" width="18.2"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="21" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4745,7 +4955,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -4759,80 +4969,80 @@
       <c r="I1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AMJ1" s="9"/>
+      <c r="AMJ1" s="22"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+      <c r="C3" s="18" t="s">
         <v>245</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="B24" s="17" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="21" t="s">
+      <c r="C24" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="B24" s="18" t="s">
+    </row>
+    <row r="25" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="B25" s="17" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="21" t="s">
+      <c r="C25" s="18" t="s">
         <v>253</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="B38" s="17" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="15" t="s">
+      <c r="C38" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="B38" s="18" t="s">
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="9" t="s">
         <v>258</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="10" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -4887,33 +5097,33 @@
       <c r="I1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AMJ1" s="9"/>
+      <c r="AMJ1" s="22"/>
     </row>
     <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
+      <c r="C3" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>266</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -4942,7 +5152,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="27" width="30.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="63.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="20.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="18" width="20.7"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="27" width="11.52"/>
   </cols>
   <sheetData>
@@ -4968,28 +5178,28 @@
       <c r="I1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AMJ1" s="9"/>
+      <c r="AMJ1" s="22"/>
     </row>
     <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>269</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="39" t="s">
+        <v>270</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>272</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -5044,14 +5254,14 @@
       <c r="I1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="AMJ1" s="9"/>
+      <c r="AMJ1" s="22"/>
     </row>
     <row r="2" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="21" t="s">
-        <v>275</v>
+      <c r="A2" s="20" t="s">
+        <v>273</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Tree" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="319">
   <si>
     <t xml:space="preserve">QUESTION</t>
   </si>
@@ -994,80 +994,6 @@
     <t xml:space="preserve">[Geometry]</t>
   </si>
   <si>
-    <t xml:space="preserve">Intervals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56. Merge Intervals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOPIC:Intervals
-STEP:SORT[0]. How to merge many intervals: first add prev=nest[0] in res, so can update later</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[SORT]interval,set flag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">435. Non-overlapping Intervals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOPIC:remove overlap interval at minimum step(GREEDY) same as 56
-STEP:sort [0], if cur[0] &lt; flag[1], count++, flag=min(flag[1], cur[1]), greedy get more possible nonoverlap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[SORT][GREEDY] interval, set flag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">495. Teemo Attacking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOGIC:interval problem 
-STEP:1.Iterate over timeSeries list. At each step add to the total time the minimum between interval length and the poisoning time duration duration.
-2.return total+duration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1094. Car Pooling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOPIC:Interval sort. But now curpass will keep change, so store curpass+from/curpass-to in res array
-STEP:1.create res, traverse trips, store [from,n] and [to,-n]
-2.sort res, sort res[1] first handle pick/drop amount, let small amount finish as early as possible. then sort res[0] see time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[2D SORT]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2Darray.sort(key=lambda x:x[1])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">452. Minimum Number of Arrows to Burst Balloons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOPIC:Overlap Interval Question Always THINK endclose.
-STEP:subarray[0,1] mean size of ballon.see how to let arrows can shoot as many as ballons
-1.sort [1]then [0]
-2.flag will update min endclose because some ballon only at certain narrow space</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Abyssinica SIL"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[Greedy]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">局部完美就是全局完美</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">CODE </t>
   </si>
   <si>
@@ -1271,6 +1197,80 @@
   </si>
   <si>
     <t xml:space="preserve">[MAXHEAP](!!!negative handle) [HASHMAP]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intervals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56. Merge Intervals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:Intervals
+STEP:SORT[0]. How to merge many intervals: first add prev=nest[0] in res, so can update later</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[SORT]interval,set flag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">435. Non-overlapping Intervals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:remove overlap interval at minimum step(GREEDY) same as 56
+STEP:sort [0], if cur[0] &lt; flag[1], count++, flag=min(flag[1], cur[1]), greedy get more possible nonoverlap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[SORT][GREEDY] interval, set flag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">495. Teemo Attacking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOGIC:interval problem 
+STEP:1.Iterate over timeSeries list. At each step add to the total time the minimum between interval length and the poisoning time duration duration.
+2.return total+duration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1094. Car Pooling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:Interval sort. But now curpass will keep change, so store curpass+from/curpass-to in res array
+STEP:1.create res, traverse trips, store [from,n] and [to,-n]
+2.sort res, sort res[1] first handle pick/drop amount, let small amount finish as early as possible. then sort res[0] see time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2D SORT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2Darray.sort(key=lambda x:x[1])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">452. Minimum Number of Arrows to Burst Balloons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:Overlap Interval Question Always THINK endclose.
+STEP:subarray[0,1] mean size of ballon.see how to let arrows can shoot as many as ballons
+1.sort [1]then [0]
+2.flag will update min endclose because some ballon only at certain narrow space</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Abyssinica SIL"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[Greedy]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">局部完美就是全局完美</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">2103. Rings and Rods</t>
@@ -1636,6 +1636,13 @@
   <si>
     <t xml:space="preserve">8. String to Integer (atoi)</t>
   </si>
+  <si>
+    <t xml:space="preserve">TOPIC:Extract Integer
+STEP:1.handle leading 0 and trailing 0 USE lstrip,rstrip2.+ - need appear first 3.int need appear before others 4.handle max/min 32bit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max=2**31-1 min=-1*(2**31).lstrip,rstrip()</t>
+  </si>
 </sst>
 </file>
 
@@ -1998,10 +2005,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2059,6 +2062,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2449,10 +2456,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ14"/>
+  <dimension ref="A1:AMJ24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2464,18 +2471,18 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="2" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="46" customFormat="true" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="44" t="s">
-        <v>275</v>
-      </c>
-      <c r="B1" s="45" t="s">
-        <v>276</v>
-      </c>
-      <c r="F1" s="47"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="50"/>
-      <c r="AMJ1" s="51"/>
+    <row r="1" s="45" customFormat="true" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="43" t="s">
+        <v>259</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>260</v>
+      </c>
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="49"/>
+      <c r="AMJ1" s="50"/>
     </row>
     <row r="2" s="3" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
@@ -2485,7 +2492,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>57</v>
@@ -2505,89 +2512,89 @@
       <c r="AMJ2" s="31"/>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="52" t="s">
-        <v>278</v>
-      </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
+      <c r="A3" s="51" t="s">
+        <v>262</v>
+      </c>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
     </row>
     <row r="4" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
+        <v>265</v>
+      </c>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
     </row>
     <row r="5" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
+        <v>267</v>
+      </c>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
     </row>
     <row r="6" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
     </row>
     <row r="7" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
     </row>
     <row r="8" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
     </row>
     <row r="9" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
     </row>
     <row r="10" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
     </row>
     <row r="11" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
     </row>
     <row r="12" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
     </row>
     <row r="13" customFormat="false" ht="153.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="14" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>88</v>
@@ -2595,14 +2602,88 @@
     </row>
     <row r="14" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="19" s="21" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="2"/>
+      <c r="AMJ19" s="0"/>
+    </row>
+    <row r="20" s="21" customFormat="true" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="AMJ20" s="0"/>
+    </row>
+    <row r="21" s="21" customFormat="true" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="AMJ21" s="0"/>
+    </row>
+    <row r="22" s="21" customFormat="true" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="2"/>
+      <c r="AMJ22" s="0"/>
+    </row>
+    <row r="23" s="21" customFormat="true" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="AMJ23" s="0"/>
+    </row>
+    <row r="24" s="21" customFormat="true" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="53" t="s">
         <v>286</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B24" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C24" s="18" t="s">
         <v>288</v>
       </c>
+      <c r="D24" s="2"/>
+      <c r="AMJ24" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2757,7 +2838,7 @@
   <dimension ref="A1:AMJ10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2871,9 +2952,15 @@
         <v>315</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+    <row r="10" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13" t="s">
         <v>316</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -4483,7 +4570,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ105"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A101" activeCellId="0" sqref="A101"/>
     </sheetView>
   </sheetViews>
@@ -4845,66 +4932,6 @@
       </c>
       <c r="C86" s="18" t="s">
         <v>224</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="B97" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="C97" s="18" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="B98" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="C98" s="18" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="B99" s="17" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="B100" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="C100" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="38" t="s">
-        <v>238</v>
-      </c>
-      <c r="B101" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="C101" s="18" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4955,7 +4982,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -4973,76 +5000,76 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="20" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="20" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="14" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -5101,29 +5128,29 @@
     </row>
     <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="20" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -5182,24 +5209,24 @@
     </row>
     <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="30" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="39" t="s">
-        <v>270</v>
+      <c r="A3" s="38" t="s">
+        <v>254</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -5242,26 +5269,26 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="42" t="s">
         <v>6</v>
       </c>
       <c r="AMJ1" s="22"/>
     </row>
     <row r="2" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="20" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -5,19 +5,19 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
-    <sheet name="Tree" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Graph" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sort" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="String" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Array" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="LinkedList" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Design" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="DP" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="BinarySearch" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Greedy" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Greedy" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Tree" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Graph" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sort" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="String" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Array" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="LinkedList" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Design" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="DP" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="BinarySearch" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="Hashtable" sheetId="11" state="visible" r:id="rId12"/>
     <sheet name="BackTracking" sheetId="12" state="visible" r:id="rId13"/>
     <sheet name="Math" sheetId="13" state="visible" r:id="rId14"/>
@@ -32,7 +32,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="331">
+  <si>
+    <t xml:space="preserve">算法解释：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">贪心算法：每次操作局部最优，得到全局也是最优</t>
+  </si>
   <si>
     <t xml:space="preserve">QUESTION</t>
   </si>
@@ -40,19 +46,177 @@
     <t xml:space="preserve">STEP</t>
   </si>
   <si>
+    <t xml:space="preserve">SKILL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CODE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DONE ON TIME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DONE TLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HARD</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Abyssinica SIL"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Assign/</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">分配</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">455. Assign Cookies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:GREEDY assign biggest size cookies to who has highest content/opposite
+STEP:1.SORT+TRAVERSE g array and s array. if s[j] &gt;= g[i] ++ else:pass to another</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[SORT][TWO POINTER]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135. Candy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:minimum candies to assign. higher rating have more candies than neighbors.
+STEP:
+1.create array size islen(ratings) default 1 since each child have at least one candy
+2.two TRAVERSALS from front and back because check both sides' neighbors.from front, if right &gt; left,candy[right]++(mean res++). from back if left &gt; right and candy[left]&lt;= candy[right] candy[left]++(mean res ++)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">621. Task Scheduler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOGIC:Greedy+hashmap most freq need do task earlier
+STEP:
+    A:3 B:3 C:1 n=2
+    A--A--A
+    ABCAB-AB
+    leftslot=(3-1)*2=4[-1miss last]
+    if A continue, ifB 4-(3-1)=2[miss last]
+1.create hashmap, find mostChar,mostfreq
+2.create leftslot=(mostfreq-1)*2
+3.iterate map, if see k=mostchar,doing task; if seev=mostfreq,leftslot -= (v-1) else leftslot -=v
+if leftslot &lt;= 0 nothingleft return len(task)
+Else: still leftslot return len(task)+leftslot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[HASHMAP]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">767. Reorganize String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:similiar to TASK SCHEDULER.but this now display res
+STEP:1.create hashmap{char:freq}, also create maxheap, sort base on mostfreq. if counter more than half, trim 
+2.while len(q) &gt;= 2: each time pop most freq 2 pair; if v -1 &gt; 0: push again
+3.res.append(last one)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[MAXHEAP](!!!negative handle) [HASHMAP]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intervals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">选择保留区间，区间结尾重要</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56. Merge Intervals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:Intervals
+STEP:SORT[0]. How to merge many intervals: first add prev=nest[0] in res, so can update later</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[SORT]interval,set flag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">435. Non-overlapping Intervals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:Minimum step to remove and let intervals not overlap[1,2][2,3]belong to not=overlap
+STEP: Interval problem always consider [1]
+1.sort[1][0], if cur compare flag, overlap res++, update flag[1], use min result since can remove longer overlap, and find more non-overlap
+2.if not overlap, update cur as new flag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[SORT][GREEDY] interval, set flag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">495. Teemo Attacking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOGIC:interval problem 
+STEP:1.Iterate over timeSeries list. At each step add to the total time the minimum between interval length and the poisoning time duration duration.
+2.return total+duration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1094. Car Pooling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:Interval sort. But now curpass will keep change, so store curpass+from/curpass-to in res array
+STEP:1.create res, traverse trips, store [from,n] and [to,-n]
+2.sort res, sort res[1] first handle pick/drop amount, let small amount finish as early as possible. then sort res[0] see time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2D SORT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2Darray.sort(key=lambda x:x[1])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">452. Minimum Number of Arrows to Burst Balloons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:Overlap Interval Question Always THINK endclose.
+STEP:subarray[0,1] mean size of ballon.see how to let arrows can shoot as many as ballons
+1.sort [1]then [0]
+2.flag will update min endclose because some ballon only at certain narrow space</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Abyssinica SIL"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[Greedy]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">局部完美就是全局完美</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">TAG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DONE ON TIME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DONE TLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HARD</t>
   </si>
   <si>
     <t xml:space="preserve">Binary/N Tree</t>
@@ -265,7 +429,7 @@
     <t xml:space="preserve">Trie</t>
   </si>
   <si>
-    <t xml:space="preserve">CODE</t>
+    <t xml:space="preserve">DATE</t>
   </si>
   <si>
     <t xml:space="preserve">BFS</t>
@@ -347,6 +511,40 @@
     <t xml:space="preserve">DFS</t>
   </si>
   <si>
+    <t xml:space="preserve">1192. Critical Connections in a Network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=kYcUIEQqL2Y</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">连通</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-Tarjan/Bridge Algorithm]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Heap Sort</t>
   </si>
   <si>
@@ -405,9 +603,6 @@
     <t xml:space="preserve">TOPIC:repeated substring count</t>
   </si>
   <si>
-    <t xml:space="preserve">[HASHMAP]</t>
-  </si>
-  <si>
     <t xml:space="preserve">5. Longest Palindromic Substring
 </t>
   </si>
@@ -491,6 +686,17 @@
   </si>
   <si>
     <t xml:space="preserve">ATT!handle 3/-123(math.ceil), 3/123(math.floor), isdigit() not work in negative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">937. Reorder Data in Log Files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:Implement check String.seperate two groups. sort
+STEP:1.Create two groups array, digit and letter
+2.for letter part, sort identifier first, then sort[1:] 3.merge letter + digit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">letter.sort(key=lambda x:x.split(" ")[1:])</t>
   </si>
   <si>
     <t xml:space="preserve">Match</t>
@@ -813,6 +1019,16 @@
     <t xml:space="preserve">1WAY:extra array 2WAY use max=0</t>
   </si>
   <si>
+    <t xml:space="preserve">Traverse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55. Jump Game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:Iterate array, update farthest if can reach last index. If 0 at farthestIndex and not last, return false
+ATT:corner case nums=[0] return True</t>
+  </si>
+  <si>
     <t xml:space="preserve">Count</t>
   </si>
   <si>
@@ -970,9 +1186,6 @@
     <t xml:space="preserve">traverse indices[i,j], increment all cells in that row i,and all cells in that column j;then traverse all matrix,find odd</t>
   </si>
   <si>
-    <t xml:space="preserve">Traverse</t>
-  </si>
-  <si>
     <t xml:space="preserve">766. Toeplitz Matrix</t>
   </si>
   <si>
@@ -1110,6 +1323,13 @@
     <t xml:space="preserve">[bottom-top dp]</t>
   </si>
   <si>
+    <t xml:space="preserve">2140. Solving Questions With Brainpower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:DP question
+two choices:first choice:pick now:current earn + dp[i + questions[i][1] + 1]; or pass next:dp[i+1] dp[i] mean max points. since need to know latter of dp, so can traverse backword dp set 1d default 0 size +1</t>
+  </si>
+  <si>
     <t xml:space="preserve">875. Koko Eating Bananas</t>
   </si>
   <si>
@@ -1119,158 +1339,6 @@
 2.brute force, iterate piles with k=[1...max(pile)] max(pile)times, TIME O(max(pile)times * len(pile))
 3.optimize binary search for k range TIME O(log(max(pile))time * len(pile))
 4.low, high, in while, traverse p get totol hour, if hour &gt; h, go to left</t>
-  </si>
-  <si>
-    <t xml:space="preserve">算法解释：</t>
-  </si>
-  <si>
-    <t xml:space="preserve">贪心算法：每次操作局部最优，得到全局也是最优</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKILL</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Abyssinica SIL"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Assign/</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">分配</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">455. Assign Cookies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOPIC:GREEDY assign biggest size cookies to who has highest content/opposite
-STEP:1.SORT+TRAVERSE g array and s array. if s[j] &gt;= g[i] ++ else:pass to another</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[SORT][TWO POINTER]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135. Candy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOPIC:minimum candies to assign. higher rating have more candies than neighbors.
-STEP:
-1.CREATE array size islen(ratings) default 1 since each child have at least one candy
-2.two TRAVERSALS from front and back because check both sides' neighbors.from front, if right &gt; left,candy[right]++(mean res++). from back if left &gt; right and candy[left]&lt;= candy[right] candy[left]++(mean res ++)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">621. Task Scheduler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOGIC:Greedy+hashmap most freq need do task earlier
-STEP:
-    A:3 B:3 C:1 n=2
-    A--A--A
-    ABCAB-AB
-    leftslot=(3-1)*2=4[-1miss last]
-    if A continue, ifB 4-(3-1)=2[miss last]
-1.create hashmap, find mostChar,mostfreq
-2.create leftslot=(mostfreq-1)*2
-3.iterate map, if see k=mostchar,doing task; if seev=mostfreq,leftslot -= (v-1) else leftslot -=v
-if leftslot &lt;= 0 nothingleft return len(task)
-Else: still leftslot return len(task)+leftslot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">767. Reorganize String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOPIC:similiar to TASK SCHEDULER.but this now display res
-STEP:1.create hashmap{char:freq}, also create maxheap, sort base on mostfreq. if counter more than half, trim 
-2.while len(q) &gt;= 2: each time pop most freq 2 pair; if v -1 &gt; 0: push again
-3.res.append(last one)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[MAXHEAP](!!!negative handle) [HASHMAP]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intervals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56. Merge Intervals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOPIC:Intervals
-STEP:SORT[0]. How to merge many intervals: first add prev=nest[0] in res, so can update later</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[SORT]interval,set flag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">435. Non-overlapping Intervals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOPIC:remove overlap interval at minimum step(GREEDY) same as 56
-STEP:sort [0], if cur[0] &lt; flag[1], count++, flag=min(flag[1], cur[1]), greedy get more possible nonoverlap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[SORT][GREEDY] interval, set flag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">495. Teemo Attacking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOGIC:interval problem 
-STEP:1.Iterate over timeSeries list. At each step add to the total time the minimum between interval length and the poisoning time duration duration.
-2.return total+duration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1094. Car Pooling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOPIC:Interval sort. But now curpass will keep change, so store curpass+from/curpass-to in res array
-STEP:1.create res, traverse trips, store [from,n] and [to,-n]
-2.sort res, sort res[1] first handle pick/drop amount, let small amount finish as early as possible. then sort res[0] see time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[2D SORT]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2Darray.sort(key=lambda x:x[1])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">452. Minimum Number of Arrows to Burst Balloons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOPIC:Overlap Interval Question Always THINK endclose.
-STEP:subarray[0,1] mean size of ballon.see how to let arrows can shoot as many as ballons
-1.sort [1]then [0]
-2.flag will update min endclose because some ballon only at certain narrow space</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Abyssinica SIL"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[Greedy]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">局部完美就是全局完美</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">2103. Rings and Rods</t>
@@ -1648,10 +1716,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1682,63 +1751,10 @@
     <font>
       <b val="true"/>
       <sz val="12"/>
-      <name val="Abyssinica SIL"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Abyssinica SIL"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Abyssinica SIL"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Abyssinica SIL"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF111111"/>
-      <name val="Abyssinica SIL"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <color rgb="FFFF8000"/>
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <name val="Abyssinica SIL"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Abyssinica SIL"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FFFF8000"/>
-      <name val="Noto Sans CJK SC"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -1757,9 +1773,84 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="12"/>
+      <name val="Abyssinica SIL"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Abyssinica SIL"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Abyssinica SIL"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="10"/>
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFF8000"/>
+      <name val="Noto Sans CJK SC"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Noto Sans CJK SC"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Abyssinica SIL"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF111111"/>
+      <name val="Abyssinica SIL"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Noto Sans CJK SC"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Abyssinica SIL"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Abyssinica SIL"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1852,67 +1943,127 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="58">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1921,14 +2072,6 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1937,34 +2080,42 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1977,11 +2128,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2009,64 +2156,24 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2146,304 +2253,194 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ77"/>
+  <dimension ref="A1:AMJ24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="39.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="94.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="19.17"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="21.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="5.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="9" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="78.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="47.65"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="4" customFormat="true" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="8"/>
+      <c r="AMJ1" s="9"/>
+    </row>
+    <row r="2" s="10" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="C2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="D2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="F2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="AMI1" s="0"/>
-      <c r="AMJ1" s="0"/>
-    </row>
-    <row r="2" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="G2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="AMI2" s="0"/>
-      <c r="AMJ2" s="0"/>
-    </row>
-    <row r="3" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+      <c r="H2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="AMI3" s="0"/>
-      <c r="AMJ3" s="0"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
+      <c r="I2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="AMJ2" s="15"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="17" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="153.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
+      <c r="C13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="2" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
+      <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="2" t="s">
+    </row>
+    <row r="19" s="22" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
+      <c r="B19" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C19" s="21"/>
+      <c r="D19" s="1"/>
+      <c r="AMJ19" s="0"/>
+    </row>
+    <row r="20" s="22" customFormat="true" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="s">
+      <c r="B20" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C20" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
+      <c r="D20" s="1"/>
+      <c r="AMJ20" s="0"/>
+    </row>
+    <row r="21" s="22" customFormat="true" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
+      <c r="C21" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="D21" s="1"/>
+      <c r="AMJ21" s="0"/>
+    </row>
+    <row r="22" s="22" customFormat="true" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+      <c r="B22" s="24" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="s">
+      <c r="C22" s="21"/>
+      <c r="D22" s="1"/>
+      <c r="AMJ22" s="0"/>
+    </row>
+    <row r="23" s="22" customFormat="true" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="23" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12" t="s">
+      <c r="B23" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C23" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="14" t="s">
+      <c r="D23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="AMJ23" s="0"/>
+    </row>
+    <row r="24" s="22" customFormat="true" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="26" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="15" t="s">
+      <c r="B24" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C24" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" s="17" customFormat="true" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="AMI28" s="0"/>
-      <c r="AMJ28" s="0"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="9"/>
-    </row>
-    <row r="70" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="AMI70" s="0"/>
-      <c r="AMJ70" s="0"/>
-    </row>
-    <row r="77" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="AMI77" s="0"/>
-      <c r="AMJ77" s="0"/>
+      <c r="D24" s="1"/>
+      <c r="AMJ24" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2456,234 +2453,51 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ24"/>
+  <dimension ref="A1:AMJ2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="23.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="78.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="22.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="47.65"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="27" width="29.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="83.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="27" width="36.95"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="27" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="45" customFormat="true" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="43" t="s">
-        <v>259</v>
-      </c>
-      <c r="B1" s="44" t="s">
-        <v>260</v>
-      </c>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="49"/>
-      <c r="AMJ1" s="50"/>
-    </row>
-    <row r="2" s="3" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="5" t="s">
+    <row r="1" s="19" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="8" t="s">
+      <c r="C1" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="AMJ2" s="31"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="51" t="s">
-        <v>262</v>
-      </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-    </row>
-    <row r="4" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-    </row>
-    <row r="5" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-    </row>
-    <row r="6" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-    </row>
-    <row r="7" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-    </row>
-    <row r="8" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-    </row>
-    <row r="9" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-    </row>
-    <row r="10" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-    </row>
-    <row r="11" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-    </row>
-    <row r="12" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-    </row>
-    <row r="13" customFormat="false" ht="153.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="19" s="21" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="2"/>
-      <c r="AMJ19" s="0"/>
-    </row>
-    <row r="20" s="21" customFormat="true" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="AMJ20" s="0"/>
-    </row>
-    <row r="21" s="21" customFormat="true" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>279</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="AMJ21" s="0"/>
-    </row>
-    <row r="22" s="21" customFormat="true" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="2"/>
-      <c r="AMJ22" s="0"/>
-    </row>
-    <row r="23" s="21" customFormat="true" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="AMJ23" s="0"/>
-    </row>
-    <row r="24" s="21" customFormat="true" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="53" t="s">
-        <v>286</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="AMJ24" s="0"/>
+      <c r="G1" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="AMJ1" s="42"/>
+    </row>
+    <row r="2" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>300</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2709,49 +2523,49 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="27" width="22.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="27" width="62.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="27" width="25.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="27" width="45.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="27" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="41" width="22.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="41" width="62.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="41" width="25.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="41" width="45.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="41" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+    <row r="1" s="10" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="B1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="7" t="s">
+      <c r="C1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="F1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="AMJ1" s="31"/>
+      <c r="G1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="AMJ1" s="15"/>
     </row>
     <row r="2" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="29" t="s">
-        <v>289</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>290</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>291</v>
+      <c r="A2" s="44" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -2776,7 +2590,7 @@
       <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="74.19"/>
@@ -2784,39 +2598,39 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+    <row r="1" s="19" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="B1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="8" t="s">
+      <c r="C1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="AMJ1" s="22"/>
-    </row>
-    <row r="2" s="1" customFormat="true" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>294</v>
+      <c r="G1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="AMJ1" s="42"/>
+    </row>
+    <row r="2" s="27" customFormat="true" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -2843,124 +2657,124 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="71.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="27" width="27.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="71.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="27" width="26.66"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="27" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+    <row r="1" s="19" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="B1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="8" t="s">
+      <c r="C1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="AMJ1" s="22"/>
+      <c r="G1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="AMJ1" s="42"/>
     </row>
     <row r="2" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>297</v>
+      <c r="A2" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>300</v>
+      <c r="A3" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>302</v>
+      <c r="A4" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="33" t="s">
-        <v>303</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>304</v>
+      <c r="A5" s="47" t="s">
+        <v>315</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>307</v>
+      <c r="A6" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="121.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>310</v>
+      <c r="A7" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>312</v>
+      <c r="A8" s="23" t="s">
+        <v>323</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="33" t="s">
-        <v>313</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>315</v>
+      <c r="A9" s="47" t="s">
+        <v>325</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>318</v>
+      <c r="A10" s="29" t="s">
+        <v>328</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -2979,105 +2793,426 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ19"/>
+  <dimension ref="A1:AMJ77"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="21" width="33.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="21" width="73.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="18" width="22.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="21" width="46.68"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="21" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="27" width="39.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="94.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.17"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="27" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="27" width="23.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="27" width="21.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="27" width="5.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="9" style="27" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+    <row r="1" s="19" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="AMI2" s="0"/>
+      <c r="AMJ2" s="0"/>
+    </row>
+    <row r="3" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="AMI3" s="0"/>
+      <c r="AMJ3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="C9" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" s="24" customFormat="true" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AMI28" s="0"/>
+      <c r="AMJ28" s="0"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="28"/>
+    </row>
+    <row r="70" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="AMI70" s="0"/>
+      <c r="AMJ70" s="0"/>
+    </row>
+    <row r="77" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="AMI77" s="0"/>
+      <c r="AMJ77" s="0"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AMJ19"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="27" width="12.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="22" width="33.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="22" width="73.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="21" width="22.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="22" width="46.68"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="22" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="19" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="7" t="s">
+      <c r="D1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="AMJ1" s="22"/>
+      <c r="H1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>61</v>
+      <c r="B2" s="34" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" s="27" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>64</v>
+      <c r="B4" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>66</v>
+      <c r="B5" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>69</v>
+      <c r="B6" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="0"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0"/>
-      <c r="B19" s="0"/>
-      <c r="C19" s="0"/>
-      <c r="D19" s="0"/>
+      <c r="B18" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="38" t="n">
+        <v>44576</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>106</v>
+      </c>
       <c r="E19" s="0"/>
       <c r="F19" s="0"/>
       <c r="G19" s="0"/>
@@ -4100,125 +4235,9 @@
       <c r="AMJ19" s="0"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AMJ6"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="27" width="31.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="27" width="64.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="27" width="26.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="27" width="54.04"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="27" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="27" width="20.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="27" width="13.47"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="27" width="11.52"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="AMJ1" s="22"/>
-    </row>
-    <row r="2" s="4" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="AMJ2" s="22"/>
-    </row>
-    <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C19" r:id="rId1" display="https://www.youtube.com/watch?v=kYcUIEQqL2Y"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -4234,322 +4253,107 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ94"/>
+  <dimension ref="A1:AMJ6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="82.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="19.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="51.27"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="41" width="31.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="41" width="64.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="41" width="26.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="41" width="54.04"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="41" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="41" width="20.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="41" width="13.47"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="41" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+    <row r="1" s="19" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="B1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="7" t="s">
+      <c r="C1" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="F1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="AMJ1" s="22"/>
-    </row>
-    <row r="2" s="22" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>91</v>
+      <c r="G1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="AMJ1" s="42"/>
+    </row>
+    <row r="2" s="19" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="AMJ2" s="42"/>
+    </row>
+    <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" s="21" customFormat="true" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="s">
+      <c r="A5" s="44" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="33" t="s">
+      <c r="B5" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="C5" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="14" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B6" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="11" t="s">
+      <c r="C6" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="D6" s="21" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="77.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -4568,374 +4372,335 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ105"/>
+  <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A101" activeCellId="0" sqref="A101"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="34.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="17" width="94.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="18" width="31.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="45.3"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="5" style="21" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="27" width="20.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="27" width="30.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="82.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="27" width="51.27"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="27" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+    <row r="1" s="19" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="42"/>
+      <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="C1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="7" t="s">
+      <c r="D1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="AMJ1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="H1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" s="42" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" s="22" customFormat="true" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+      <c r="D33" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="33" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+      <c r="C34" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="E34" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="B5" s="17" t="s">
+    </row>
+    <row r="43" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C43" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="20" t="s">
+      <c r="D43" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="C44" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="D44" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="25" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
+      <c r="C45" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B7" s="17" t="s">
+    </row>
+    <row r="46" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C46" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20" t="s">
+      <c r="D46" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="C47" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="33" t="s">
+      <c r="D47" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B9" s="17" t="s">
+    </row>
+    <row r="48" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B48" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C48" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
+    <row r="49" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="C49" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
+    <row r="50" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="C50" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="B12" s="17" t="s">
+    </row>
+    <row r="65" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="25" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="76.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14" t="s">
+      <c r="C65" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="D65" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C13" s="18" t="s">
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="48" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="s">
+      <c r="C90" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="D90" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9" t="s">
+    <row r="91" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="23" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10" t="s">
+      <c r="C91" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B28" s="17" t="s">
+    </row>
+    <row r="92" customFormat="false" ht="77.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B92" s="33" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12" t="s">
+      <c r="C92" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="D92" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="30" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="11" t="s">
+      <c r="C93" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B30" s="17" t="s">
+    </row>
+    <row r="94" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C94" s="1" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="11" t="s">
+      <c r="D94" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B31" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="9" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="C45" s="18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="C46" s="18" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="B54" s="17" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="9" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="B59" s="17" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="9" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="B68" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="C68" s="18" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="B69" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="C69" s="18" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="33" t="s">
-        <v>209</v>
-      </c>
-      <c r="B70" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="C70" s="18" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="B76" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="C76" s="18" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="B77" s="17" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="36" t="s">
-        <v>217</v>
-      </c>
-      <c r="B78" s="17" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="9" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="B85" s="17" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="37" t="s">
-        <v>222</v>
-      </c>
-      <c r="B86" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="C86" s="18" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4953,124 +4718,387 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ49"/>
+  <dimension ref="A1:AMJ117"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A49" activeCellId="0" sqref="A49"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="17" width="73.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="18" width="20.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="21" width="48.35"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="21" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="21" width="18.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="21" width="18.2"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="21" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="27" width="34.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="24" width="94.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="21" width="31.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="45.3"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="5" style="22" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+    <row r="1" s="19" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="28" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="76.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="28" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="28" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="C42" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="AMJ1" s="22"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+    </row>
+    <row r="43" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="25" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="B43" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="C43" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="C3" s="18" t="s">
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="28" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
+    <row r="57" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="23" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
+      <c r="B57" s="24" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="20" t="s">
+      <c r="C57" s="21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B58" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C58" s="21" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="20" t="s">
+    <row r="59" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B59" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="C25" s="18" t="s">
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="49" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="s">
+      <c r="B66" s="24" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="14" t="s">
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="28" t="s">
         <v>239</v>
       </c>
-      <c r="B38" s="17" t="s">
+    </row>
+    <row r="71" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="B71" s="24" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="9" t="s">
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="19" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="28" t="s">
         <v>243</v>
       </c>
+    </row>
+    <row r="80" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="B80" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="B81" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="C81" s="21" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="47" t="s">
+        <v>250</v>
+      </c>
+      <c r="B82" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="C82" s="21" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="B88" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="C88" s="21" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="B89" s="24" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="50" t="s">
+        <v>258</v>
+      </c>
+      <c r="B90" s="24" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="28" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="B97" s="24" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="51" t="s">
+        <v>262</v>
+      </c>
+      <c r="B98" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C98" s="21" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5088,69 +5116,123 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ4"/>
+  <dimension ref="A1:AMJ49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A49" activeCellId="0" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="86.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="26.13"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="27" width="30.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="24" width="73.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="21" width="20.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="22" width="48.35"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="22" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="22" width="18.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="22" width="18.2"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="22" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+    <row r="1" s="19" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="B1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="8" t="s">
+      <c r="C1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="AMJ1" s="22"/>
-    </row>
-    <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>250</v>
+      <c r="G1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="AMJ1" s="42"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="19" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="19" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="19" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="28" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="27" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -5169,64 +5251,69 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ3"/>
+  <dimension ref="A1:AMJ4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="27" width="30.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="63.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="18" width="20.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="27" width="32.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="86.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.13"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="27" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+    <row r="1" s="19" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="B1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="8" t="s">
+      <c r="C1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="AMJ1" s="22"/>
+      <c r="G1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="AMJ1" s="42"/>
     </row>
     <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="30" t="s">
-        <v>251</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="38" t="s">
-        <v>254</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>256</v>
+      <c r="A2" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -5245,50 +5332,75 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ2"/>
+  <dimension ref="A1:AMJ4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="83.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="36.95"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="41" width="30.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="63.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="21" width="20.7"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="41" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+    <row r="1" s="19" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="B1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="42" t="s">
+      <c r="C1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="AMJ1" s="22"/>
-    </row>
-    <row r="2" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>258</v>
+      <c r="G1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="AMJ1" s="42"/>
+    </row>
+    <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="45" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="53" t="s">
+        <v>297</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Greedy" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="333">
   <si>
     <t xml:space="preserve">算法解释：</t>
   </si>
@@ -103,6 +103,13 @@
 STEP:
 1.create array size islen(ratings) default 1 since each child have at least one candy
 2.two TRAVERSALS from front and back because check both sides' neighbors.from front, if right &gt; left,candy[right]++(mean res++). from back if left &gt; right and candy[left]&lt;= candy[right] candy[left]++(mean res ++)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">605. Can Place Flowers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:Greedy, plant flower in empty plots as much as it can.
+    STEP:compare two neighbors,10001, 100, 001, Not need bidirectional. Need assign array(0→1)</t>
   </si>
   <si>
     <t xml:space="preserve">621. Task Scheduler</t>
@@ -731,8 +738,9 @@
     <t xml:space="preserve">290. Word Pattern</t>
   </si>
   <si>
-    <t xml:space="preserve">TOPIC: match pattern 2 hashmap {ch:lastIndex} pattern, keep update lastIndex
-STEP:ATT!"aaa"=&gt;"aa aa aa" TRUE, so cant {ch:word}+Corner case two lengths</t>
+    <t xml:space="preserve">TOPIC:string pattern match use hashmap bi-direction since pattern match s, s also match pattern
+STEP1:two hashmaps. {ch:ch2} TWO PASSES (SLOW)
+STEP2:two hashmaps. {ch:lastestIndex} if both's v not the same, return False</t>
   </si>
   <si>
     <t xml:space="preserve">482. License Key Formatting</t>
@@ -1943,7 +1951,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2016,6 +2024,10 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2048,10 +2060,6 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2133,6 +2141,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2255,8 +2267,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2332,7 +2344,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="7" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="8" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2340,99 +2359,99 @@
     <row r="11" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="13" customFormat="false" ht="153.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="18" t="s">
-        <v>16</v>
+      <c r="A13" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="18" t="s">
-        <v>19</v>
+      <c r="A14" s="19" t="s">
+        <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" s="22" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="21"/>
+    </row>
+    <row r="19" s="23" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="22"/>
       <c r="D19" s="1"/>
       <c r="AMJ19" s="0"/>
     </row>
-    <row r="20" s="22" customFormat="true" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="21" t="s">
+    <row r="20" s="23" customFormat="true" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="24" t="s">
         <v>26</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="D20" s="1"/>
       <c r="AMJ20" s="0"/>
     </row>
-    <row r="21" s="22" customFormat="true" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" s="23" customFormat="true" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="21" t="s">
         <v>29</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="D21" s="1"/>
       <c r="AMJ21" s="0"/>
     </row>
-    <row r="22" s="22" customFormat="true" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="21"/>
+    <row r="22" s="23" customFormat="true" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="22"/>
       <c r="D22" s="1"/>
       <c r="AMJ22" s="0"/>
     </row>
-    <row r="23" s="22" customFormat="true" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="21" t="s">
+    <row r="23" s="23" customFormat="true" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="24" t="s">
         <v>34</v>
       </c>
+      <c r="B23" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>36</v>
+      </c>
       <c r="D23" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AMJ23" s="0"/>
     </row>
-    <row r="24" s="22" customFormat="true" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="21" t="s">
+    <row r="24" s="23" customFormat="true" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="18" t="s">
         <v>38</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>40</v>
       </c>
       <c r="D24" s="1"/>
       <c r="AMJ24" s="0"/>
@@ -2467,36 +2486,36 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="27" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="19" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="19" t="s">
+    <row r="1" s="20" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="54" t="s">
+      <c r="C1" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="56" t="s">
+      <c r="H1" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="58" t="s">
         <v>9</v>
       </c>
       <c r="AMJ1" s="42"/>
     </row>
     <row r="2" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="33" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -2538,7 +2557,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>5</v>
@@ -2559,13 +2578,13 @@
     </row>
     <row r="2" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="44" t="s">
-        <v>301</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>302</v>
+        <v>303</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>304</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -2598,7 +2617,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="19" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="20" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
@@ -2606,7 +2625,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>6</v>
@@ -2623,14 +2642,14 @@
       <c r="AMJ1" s="42"/>
     </row>
     <row r="2" s="27" customFormat="true" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="18" t="s">
-        <v>304</v>
+      <c r="A2" s="19" t="s">
+        <v>306</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -2663,7 +2682,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="27" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="19" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="20" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
@@ -2671,7 +2690,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>6</v>
@@ -2688,93 +2707,93 @@
       <c r="AMJ1" s="42"/>
     </row>
     <row r="2" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="23" t="s">
-        <v>307</v>
+      <c r="A2" s="24" t="s">
+        <v>309</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="23" t="s">
-        <v>310</v>
+      <c r="A3" s="24" t="s">
+        <v>312</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="23" t="s">
-        <v>313</v>
+      <c r="A4" s="24" t="s">
+        <v>315</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="47" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="23" t="s">
-        <v>317</v>
+      <c r="A6" s="24" t="s">
+        <v>319</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="121.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="18" t="s">
-        <v>320</v>
+      <c r="A7" s="19" t="s">
+        <v>322</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="23" t="s">
-        <v>323</v>
+      <c r="A8" s="24" t="s">
+        <v>325</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="47" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="29" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -2811,7 +2830,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="9" style="27" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="19" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="20" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
@@ -2819,7 +2838,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>6</v>
@@ -2836,18 +2855,18 @@
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="19" t="s">
-        <v>40</v>
+    <row r="2" s="20" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="20" t="s">
+        <v>42</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="20" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="28" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -2855,197 +2874,197 @@
       <c r="AMJ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="23" t="s">
-        <v>42</v>
+      <c r="A4" s="24" t="s">
+        <v>44</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="25" t="s">
-        <v>45</v>
+      <c r="A5" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="25" t="s">
-        <v>48</v>
+      <c r="A6" s="26" t="s">
+        <v>50</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="23" t="s">
-        <v>56</v>
+      <c r="A9" s="24" t="s">
+        <v>58</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="29" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="23" t="s">
-        <v>60</v>
+      <c r="A11" s="24" t="s">
+        <v>62</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="23" t="s">
-        <v>62</v>
+      <c r="A12" s="24" t="s">
+        <v>64</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="18" t="s">
-        <v>68</v>
+      <c r="A26" s="19" t="s">
+        <v>70</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="30" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" s="24" customFormat="true" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" s="25" customFormat="true" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="21" t="s">
         <v>75</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>77</v>
       </c>
       <c r="AMI28" s="0"/>
       <c r="AMJ28" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="28" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="23" t="s">
-        <v>77</v>
+      <c r="A32" s="24" t="s">
+        <v>79</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="28" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="32" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="33" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="28" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3053,35 +3072,35 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="28" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="23" t="s">
-        <v>86</v>
+      <c r="A59" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="28" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="28"/>
     </row>
-    <row r="70" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="19" t="s">
-        <v>89</v>
+    <row r="70" s="20" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="20" t="s">
+        <v>91</v>
       </c>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
       <c r="AMI70" s="0"/>
       <c r="AMJ70" s="0"/>
     </row>
-    <row r="77" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" s="20" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
       <c r="AMI77" s="0"/>
@@ -3112,16 +3131,16 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="27" width="12.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="22" width="33.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="22" width="73.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="21" width="22.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="22" width="46.68"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="22" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="23" width="33.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="73.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="22" width="22.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="23" width="46.68"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="23" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="19" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="19" t="s">
-        <v>90</v>
+    <row r="1" s="20" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="20" t="s">
+        <v>92</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>2</v>
@@ -3130,9 +3149,9 @@
         <v>3</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="11" t="s">
@@ -3150,53 +3169,53 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="34" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" s="27" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="25" t="s">
-        <v>92</v>
+      <c r="B3" s="26" t="s">
+        <v>94</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" s="21" t="s">
+      <c r="B4" s="26" t="s">
         <v>97</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="D6" s="21" t="s">
         <v>102</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="34" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C18" s="0"/>
     </row>
@@ -3205,13 +3224,13 @@
         <v>44576</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E19" s="0"/>
       <c r="F19" s="0"/>
@@ -4271,17 +4290,17 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="41" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="19" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="20" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="19" t="s">
+      <c r="C1" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="11" t="s">
@@ -4298,9 +4317,9 @@
       </c>
       <c r="AMJ1" s="42"/>
     </row>
-    <row r="2" s="19" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" s="20" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B2" s="10"/>
       <c r="F2" s="10"/>
@@ -4311,49 +4330,49 @@
     </row>
     <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>111</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>114</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>117</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>120</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -4374,8 +4393,8 @@
   </sheetPr>
   <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C56" activeCellId="0" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4388,7 +4407,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="27" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="19" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="20" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="42"/>
       <c r="B1" s="10" t="s">
         <v>2</v>
@@ -4397,9 +4416,9 @@
         <v>3</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="11" t="s">
@@ -4417,7 +4436,7 @@
     </row>
     <row r="2" s="42" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
@@ -4427,279 +4446,282 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="23" t="s">
-        <v>122</v>
+      <c r="B3" s="24" t="s">
+        <v>124</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="17" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="17" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="23" t="s">
-        <v>130</v>
+      <c r="B6" s="24" t="s">
+        <v>132</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="25" t="s">
-        <v>132</v>
+      <c r="B7" s="26" t="s">
+        <v>134</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" s="22" customFormat="true" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" s="23" customFormat="true" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>138</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="19" t="s">
-        <v>137</v>
+      <c r="B20" s="20" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="19" t="s">
-        <v>138</v>
+      <c r="B29" s="20" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="46" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="47" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="37" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="33" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="33" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="19" t="s">
-        <v>152</v>
+      <c r="B42" s="20" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="47" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="18" t="s">
-        <v>155</v>
+      <c r="B44" s="19" t="s">
+        <v>157</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="25" t="s">
-        <v>157</v>
+      <c r="B45" s="26" t="s">
+        <v>159</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="33" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="48" t="n">
+        <v>44577</v>
+      </c>
+      <c r="B46" s="29" t="s">
+        <v>161</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="29" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="23" t="s">
-        <v>164</v>
+      <c r="B48" s="24" t="s">
+        <v>166</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="23" t="s">
-        <v>166</v>
+      <c r="B49" s="24" t="s">
+        <v>168</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="23" t="s">
-        <v>168</v>
+      <c r="B50" s="24" t="s">
+        <v>170</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="19" t="s">
-        <v>170</v>
+      <c r="B64" s="20" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="25" t="s">
-        <v>171</v>
+      <c r="B65" s="26" t="s">
+        <v>173</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="19" t="s">
-        <v>76</v>
+      <c r="B89" s="20" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="48" t="s">
-        <v>174</v>
+      <c r="B90" s="49" t="s">
+        <v>176</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="23" t="s">
-        <v>177</v>
+      <c r="B91" s="24" t="s">
+        <v>179</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="77.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B92" s="33" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="30" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="17" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -4720,20 +4742,20 @@
   </sheetPr>
   <dimension ref="A1:AMJ117"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A59" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A70" activeCellId="0" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="27" width="34.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="24" width="94.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="21" width="31.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="25" width="94.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="22" width="31.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="45.3"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="5" style="22" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="5" style="23" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="19" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="20" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
@@ -4741,7 +4763,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>5</v>
@@ -4761,340 +4783,340 @@
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="19" t="s">
-        <v>186</v>
+      <c r="A2" s="20" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="28" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>18</v>
+      <c r="A4" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="C5" s="21" t="s">
+      <c r="A5" s="24" t="s">
         <v>192</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="33" t="s">
-        <v>193</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="C6" s="21" t="s">
         <v>195</v>
       </c>
+      <c r="B6" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="C7" s="21" t="s">
+      <c r="A7" s="24" t="s">
         <v>198</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>200</v>
+        <v>201</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="47" t="s">
-        <v>201</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="C9" s="21" t="s">
         <v>203</v>
       </c>
+      <c r="B9" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>205</v>
+      <c r="A10" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>207</v>
+      <c r="A11" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>209</v>
+      <c r="A12" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="76.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="18" t="s">
-        <v>210</v>
+      <c r="A13" s="19" t="s">
+        <v>212</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>212</v>
+        <v>213</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>214</v>
+      <c r="A14" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="28" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>217</v>
+      <c r="A21" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="28" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="B40" s="24" t="s">
-        <v>220</v>
+      <c r="A40" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="17" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="B42" s="24" t="s">
-        <v>224</v>
-      </c>
-      <c r="C42" s="21" t="s">
+      <c r="A42" s="26" t="s">
         <v>225</v>
       </c>
+      <c r="B42" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="B43" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="C43" s="21" t="s">
+      <c r="A43" s="26" t="s">
         <v>228</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="28" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="28" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="23" t="s">
-        <v>230</v>
-      </c>
-      <c r="B57" s="24" t="s">
-        <v>231</v>
-      </c>
-      <c r="C57" s="21" t="s">
-        <v>198</v>
+      <c r="A57" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="B57" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="B58" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="C58" s="21" t="s">
         <v>234</v>
+      </c>
+      <c r="B58" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="33" t="s">
-        <v>235</v>
-      </c>
-      <c r="B59" s="24" t="s">
-        <v>236</v>
+        <v>237</v>
+      </c>
+      <c r="B59" s="25" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="28" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="49" t="s">
-        <v>237</v>
-      </c>
-      <c r="B66" s="24" t="s">
-        <v>238</v>
+      <c r="A66" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="B66" s="25" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="28" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="B71" s="24" t="s">
-        <v>241</v>
+      <c r="A71" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="B71" s="25" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="19" t="s">
-        <v>242</v>
+      <c r="A78" s="20" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="28" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="25" t="s">
-        <v>244</v>
-      </c>
-      <c r="B80" s="24" t="s">
-        <v>245</v>
-      </c>
-      <c r="C80" s="21" t="s">
+      <c r="A80" s="26" t="s">
         <v>246</v>
       </c>
+      <c r="B80" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="C80" s="22" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="B81" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="C81" s="21" t="s">
+      <c r="A81" s="26" t="s">
         <v>249</v>
+      </c>
+      <c r="B81" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="C81" s="22" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="47" t="s">
-        <v>250</v>
-      </c>
-      <c r="B82" s="24" t="s">
-        <v>251</v>
-      </c>
-      <c r="C82" s="21" t="s">
         <v>252</v>
+      </c>
+      <c r="B82" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="C82" s="22" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="28" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="B88" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="C88" s="21" t="s">
+      <c r="A88" s="24" t="s">
         <v>255</v>
+      </c>
+      <c r="B88" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="C88" s="22" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="33" t="s">
-        <v>256</v>
-      </c>
-      <c r="B89" s="24" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="B89" s="25" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="50" t="s">
-        <v>258</v>
-      </c>
-      <c r="B90" s="24" t="s">
-        <v>259</v>
+      <c r="A90" s="51" t="s">
+        <v>260</v>
+      </c>
+      <c r="B90" s="25" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="28" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="25" t="s">
-        <v>260</v>
-      </c>
-      <c r="B97" s="24" t="s">
-        <v>261</v>
+      <c r="A97" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="B97" s="25" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="51" t="s">
-        <v>262</v>
-      </c>
-      <c r="B98" s="24" t="s">
-        <v>263</v>
-      </c>
-      <c r="C98" s="21" t="s">
+      <c r="A98" s="52" t="s">
         <v>264</v>
+      </c>
+      <c r="B98" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="C98" s="22" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5125,16 +5147,16 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="27" width="30.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="24" width="73.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="21" width="20.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="22" width="48.35"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="22" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="22" width="18.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="22" width="18.2"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="22" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="25" width="73.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="22" width="20.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="48.35"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="23" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="23" width="18.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="23" width="18.2"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="23" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="19" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="20" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
@@ -5142,10 +5164,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>265</v>
+        <v>41</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>267</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>6</v>
@@ -5162,77 +5184,77 @@
       <c r="AMJ1" s="42"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="19" t="s">
-        <v>266</v>
+      <c r="A2" s="20" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>268</v>
-      </c>
-      <c r="C3" s="21" t="s">
+      <c r="A3" s="24" t="s">
         <v>269</v>
       </c>
+      <c r="B3" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="19" t="s">
-        <v>270</v>
+      <c r="A14" s="20" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="19" t="s">
-        <v>271</v>
+      <c r="A23" s="20" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="33" t="s">
-        <v>272</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="C24" s="21" t="s">
         <v>274</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="33" t="s">
-        <v>275</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>276</v>
-      </c>
-      <c r="C25" s="21" t="s">
         <v>277</v>
       </c>
+      <c r="B25" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="19" t="s">
-        <v>278</v>
+      <c r="A37" s="20" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="18" t="s">
-        <v>279</v>
-      </c>
-      <c r="B38" s="24" t="s">
-        <v>280</v>
-      </c>
-      <c r="C38" s="21" t="s">
+      <c r="A38" s="19" t="s">
         <v>281</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>282</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="28" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="27" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -5265,7 +5287,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="27" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="19" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="20" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
@@ -5273,7 +5295,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>6</v>
@@ -5290,30 +5312,30 @@
       <c r="AMJ1" s="42"/>
     </row>
     <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="25" t="s">
-        <v>284</v>
+      <c r="A2" s="26" t="s">
+        <v>286</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="25" t="s">
-        <v>286</v>
+      <c r="A3" s="26" t="s">
+        <v>288</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="33" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -5334,7 +5356,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -5342,11 +5364,11 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="41" width="30.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="63.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="21" width="20.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="22" width="20.7"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="41" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="19" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="20" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
@@ -5354,7 +5376,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>6</v>
@@ -5372,35 +5394,35 @@
     </row>
     <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="45" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>293</v>
+        <v>294</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="52" t="s">
-        <v>294</v>
+      <c r="A3" s="53" t="s">
+        <v>296</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>296</v>
+        <v>297</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="53" t="s">
-        <v>297</v>
+      <c r="A4" s="54" t="s">
+        <v>299</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C4" s="22" t="s">
         <v>298</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>296</v>
       </c>
     </row>
   </sheetData>

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="334">
   <si>
     <t xml:space="preserve">算法解释：</t>
   </si>
@@ -109,39 +109,7 @@
   </si>
   <si>
     <t xml:space="preserve">TOPIC:Greedy, plant flower in empty plots as much as it can.
-    STEP:compare two neighbors,10001, 100, 001, Not need bidirectional. Need assign array(0→1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">621. Task Scheduler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOGIC:Greedy+hashmap most freq need do task earlier
-STEP:
-    A:3 B:3 C:1 n=2
-    A--A--A
-    ABCAB-AB
-    leftslot=(3-1)*2=4[-1miss last]
-    if A continue, ifB 4-(3-1)=2[miss last]
-1.create hashmap, find mostChar,mostfreq
-2.create leftslot=(mostfreq-1)*2
-3.iterate map, if see k=mostchar,doing task; if seev=mostfreq,leftslot -= (v-1) else leftslot -=v
-if leftslot &lt;= 0 nothingleft return len(task)
-Else: still leftslot return len(task)+leftslot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[HASHMAP]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">767. Reorganize String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOPIC:similiar to TASK SCHEDULER.but this now display res
-STEP:1.create hashmap{char:freq}, also create maxheap, sort base on mostfreq. if counter more than half, trim 
-2.while len(q) &gt;= 2: each time pop most freq 2 pair; if v -1 &gt; 0: push again
-3.res.append(last one)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[MAXHEAP](!!!negative handle) [HASHMAP]</t>
+STEP:compare two neighbors,10001, 100, 001, Not need bidirectional. Need assign array(0→1)</t>
   </si>
   <si>
     <t xml:space="preserve">Intervals</t>
@@ -169,7 +137,7 @@
 2.if not overlap, update cur as new flag</t>
   </si>
   <si>
-    <t xml:space="preserve">[SORT][GREEDY] interval, set flag</t>
+    <t xml:space="preserve">[SORT] interval, set flag</t>
   </si>
   <si>
     <t xml:space="preserve">495. Teemo Attacking</t>
@@ -210,7 +178,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">[Greedy]</t>
+      <t xml:space="preserve">[SORT]</t>
     </r>
     <r>
       <rPr>
@@ -221,6 +189,38 @@
       </rPr>
       <t xml:space="preserve">局部完美就是全局完美</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">763. Partition Labels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:Interval(make groups), same letter must in same group, result push len of group
+STEP:create hashmap{ch:latestindex}(one pass).second pass compare i and farthest, mapping[s[i]].need start var</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[HASHMAP]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122. Best Time to Buy and Sell Stock II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:Greedy,many intervals. earn max.
+    STEP:have many transactions.buy and sell can on the same day
+    find many peak.compare neighbors if increasing, add diff,accumulate sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">406. Queue Reconstruction by Height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:Sort by height and other infor" k people in front higher/equal"
+STEP:1.if same height, sort[1] increase, if not same height, sort[0] decrease
+2.create res array insert subarray base on [1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[SORT][INSERT]</t>
   </si>
   <si>
     <t xml:space="preserve">TAG</t>
@@ -538,6 +538,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">连通</t>
     </r>
@@ -793,9 +794,6 @@
   </si>
   <si>
     <t xml:space="preserve">Str[::-1] string reverse directly(NOTneed array)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">763. Partition Labels</t>
   </si>
   <si>
     <t xml:space="preserve">TOPIC:same letter in one partition
@@ -1075,9 +1073,6 @@
   </si>
   <si>
     <t xml:space="preserve">[RELATION ABOUT INDEX&amp;ELE][BINARY SEARCH]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sort</t>
   </si>
   <si>
     <t xml:space="preserve">75. Sort Colors</t>
@@ -1728,7 +1723,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1757,6 +1752,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FFFF8000"/>
+      <name val="Abyssinica SIL"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="12"/>
       <color rgb="FFFF8000"/>
@@ -1774,19 +1776,12 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF8000"/>
       <name val="Abyssinica SIL"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
-      <sz val="12"/>
-      <name val="Abyssinica SIL"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Abyssinica SIL"/>
       <family val="0"/>
@@ -1841,11 +1836,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Noto Sans CJK SC"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="13"/>
@@ -1951,7 +1941,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1960,66 +1950,70 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2028,102 +2022,106 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2136,7 +2134,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2172,19 +2170,19 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2265,90 +2263,99 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ24"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="78.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="47.65"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="23.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="78.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="47.65"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="5" customFormat="true" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="5"/>
       <c r="G1" s="6"/>
       <c r="H1" s="7"/>
       <c r="I1" s="8"/>
-      <c r="AMJ1" s="9"/>
-    </row>
-    <row r="2" s="10" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" s="11" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="I2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="J2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AMJ2" s="15"/>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="s">
+      <c r="B3" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="17" t="n">
+        <v>44576</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="17" t="n">
+        <v>44576</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="18" t="s">
+    <row r="6" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="17" t="n">
+        <v>44577</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2358,103 +2365,143 @@
     <row r="10" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="153.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="19" t="s">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0"/>
+      <c r="C13" s="0"/>
+      <c r="D13" s="0"/>
+      <c r="E13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0"/>
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+    </row>
+    <row r="19" s="24" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="20"/>
+      <c r="B19" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C19" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D19" s="23"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" s="24" customFormat="true" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="20"/>
+      <c r="B20" s="25" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="19" t="s">
+      <c r="C20" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="D20" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" s="24" customFormat="true" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="27" t="n">
+        <v>44576</v>
+      </c>
+      <c r="B21" s="18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" s="23" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="20" t="s">
+      <c r="C21" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="D21" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="1"/>
-      <c r="AMJ19" s="0"/>
-    </row>
-    <row r="20" s="23" customFormat="true" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="24" t="s">
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" s="24" customFormat="true" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="20"/>
+      <c r="B22" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="C22" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="D22" s="23"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" s="24" customFormat="true" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="20"/>
+      <c r="B23" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="AMJ20" s="0"/>
-    </row>
-    <row r="21" s="23" customFormat="true" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="17" t="s">
+      <c r="C23" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="D23" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="E23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="AMJ21" s="0"/>
-    </row>
-    <row r="22" s="23" customFormat="true" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="26" t="s">
+    </row>
+    <row r="24" s="24" customFormat="true" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="27" t="n">
+        <v>44577</v>
+      </c>
+      <c r="B24" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="C24" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="1"/>
-      <c r="AMJ22" s="0"/>
-    </row>
-    <row r="23" s="23" customFormat="true" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="24" t="s">
+      <c r="D24" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="17" t="n">
+        <v>44577</v>
+      </c>
+      <c r="B25" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C25" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AMJ23" s="0"/>
-    </row>
-    <row r="24" s="23" customFormat="true" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="18" t="s">
+    </row>
+    <row r="26" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="17" t="n">
+        <v>44577</v>
+      </c>
+      <c r="B26" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="C26" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="22" t="s">
+    </row>
+    <row r="34" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="AMJ24" s="0"/>
+    </row>
+    <row r="37" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="17" t="n">
+        <v>44578</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2480,42 +2527,42 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="27" width="29.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="30" width="29.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="83.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="27" width="36.95"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="27" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="30" width="36.95"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="30" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="20" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="20" t="s">
+    <row r="1" s="21" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="55" t="s">
+      <c r="C1" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="AMJ1" s="42"/>
+      <c r="AMJ1" s="44"/>
     </row>
     <row r="2" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="33" t="s">
-        <v>301</v>
+      <c r="A2" s="36" t="s">
+        <v>302</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -2542,49 +2589,49 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="41" width="22.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="41" width="62.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="41" width="25.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="41" width="45.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="41" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="43" width="22.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="43" width="62.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="43" width="25.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="43" width="45.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="43" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
+    <row r="1" s="11" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="C1" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AMJ1" s="15"/>
+      <c r="AMJ1" s="10"/>
     </row>
     <row r="2" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="44" t="s">
-        <v>303</v>
-      </c>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="46" t="s">
         <v>304</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="B2" s="23" t="s">
         <v>305</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -2609,7 +2656,7 @@
       <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="74.19"/>
@@ -2617,39 +2664,39 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="20" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
+    <row r="1" s="21" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="11" t="s">
+      <c r="C1" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AMJ1" s="42"/>
-    </row>
-    <row r="2" s="27" customFormat="true" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="19" t="s">
-        <v>306</v>
+      <c r="AMJ1" s="44"/>
+    </row>
+    <row r="2" s="30" customFormat="true" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="33" t="s">
+        <v>307</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -2676,124 +2723,124 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="27" width="27.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="30" width="27.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="71.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="27" width="26.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="27" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="30" width="26.66"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="30" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="20" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
+    <row r="1" s="21" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="11" t="s">
+      <c r="C1" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AMJ1" s="42"/>
+      <c r="AMJ1" s="44"/>
     </row>
     <row r="2" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="24" t="s">
-        <v>309</v>
+      <c r="A2" s="25" t="s">
+        <v>310</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C2" s="27" t="s">
         <v>311</v>
       </c>
+      <c r="C2" s="30" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="24" t="s">
-        <v>312</v>
+      <c r="A3" s="25" t="s">
+        <v>313</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C3" s="27" t="s">
         <v>314</v>
       </c>
+      <c r="C3" s="30" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="24" t="s">
-        <v>315</v>
+      <c r="A4" s="25" t="s">
+        <v>316</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="47" t="s">
-        <v>317</v>
+      <c r="A5" s="49" t="s">
+        <v>318</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="24" t="s">
-        <v>319</v>
+      <c r="A6" s="25" t="s">
+        <v>320</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C6" s="27" t="s">
         <v>321</v>
       </c>
+      <c r="C6" s="30" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="121.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="19" t="s">
-        <v>322</v>
+      <c r="A7" s="33" t="s">
+        <v>323</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C7" s="27" t="s">
         <v>324</v>
       </c>
+      <c r="C7" s="30" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="24" t="s">
-        <v>325</v>
+      <c r="A8" s="25" t="s">
+        <v>326</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="47" t="s">
-        <v>327</v>
+      <c r="A9" s="49" t="s">
+        <v>328</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C9" s="27" t="s">
         <v>329</v>
       </c>
+      <c r="C9" s="30" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="29" t="s">
-        <v>330</v>
+      <c r="A10" s="32" t="s">
+        <v>331</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -2820,289 +2867,289 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="27" width="39.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="30" width="39.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="94.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.17"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="27" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="27" width="23.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="27" width="21.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="27" width="5.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="9" style="27" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="30" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="30" width="23.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="30" width="21.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="30" width="5.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="9" style="30" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="20" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
+    <row r="1" s="21" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="11" t="s">
+      <c r="C1" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="15" t="s">
         <v>9</v>
       </c>
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" s="20" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+    <row r="2" s="21" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" s="20" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
+    <row r="3" s="21" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
       <c r="AMI3" s="0"/>
       <c r="AMJ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="24" t="s">
-        <v>44</v>
+      <c r="A4" s="25" t="s">
+        <v>47</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="26" t="s">
-        <v>47</v>
+      <c r="A5" s="28" t="s">
+        <v>50</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="26" t="s">
-        <v>50</v>
+      <c r="A6" s="28" t="s">
+        <v>53</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="28" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
     <row r="26" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="19" t="s">
-        <v>70</v>
+      <c r="A26" s="33" t="s">
+        <v>73</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="30" t="s">
-        <v>72</v>
+      <c r="A27" s="29" t="s">
+        <v>75</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" s="25" customFormat="true" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="22" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="28" s="26" customFormat="true" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>80</v>
       </c>
       <c r="AMI28" s="0"/>
       <c r="AMJ28" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="28" t="s">
-        <v>78</v>
+      <c r="A31" s="31" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="24" t="s">
-        <v>79</v>
+      <c r="A32" s="25" t="s">
+        <v>82</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="28" t="s">
-        <v>81</v>
+      <c r="A39" s="31" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="32" t="s">
-        <v>82</v>
+      <c r="A40" s="35" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="33" t="s">
-        <v>83</v>
+      <c r="A41" s="36" t="s">
+        <v>86</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="28" t="s">
-        <v>86</v>
+      <c r="A51" s="31" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="28" t="s">
-        <v>87</v>
+      <c r="A58" s="31" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="24" t="s">
-        <v>88</v>
+      <c r="A59" s="25" t="s">
+        <v>91</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="28" t="s">
-        <v>90</v>
+      <c r="A65" s="31" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="28"/>
-    </row>
-    <row r="70" s="20" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
+      <c r="A68" s="31"/>
+    </row>
+    <row r="70" s="21" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
       <c r="AMI70" s="0"/>
       <c r="AMJ70" s="0"/>
     </row>
-    <row r="77" s="20" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
+    <row r="77" s="21" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
       <c r="AMI77" s="0"/>
       <c r="AMJ77" s="0"/>
     </row>
@@ -3130,107 +3177,107 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="27" width="12.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="23" width="33.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="73.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="22" width="22.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="23" width="46.68"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="23" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="30" width="12.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="24" width="33.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="24" width="73.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="22.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="24" width="46.68"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="24" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="20" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="10" t="s">
+    <row r="1" s="21" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="20" t="s">
+      <c r="D1" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="34" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" s="27" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>95</v>
+      <c r="B2" s="37" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" s="30" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>98</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>99</v>
+      <c r="B4" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>101</v>
+      <c r="B5" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>104</v>
+      <c r="B6" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="34" t="s">
-        <v>105</v>
+      <c r="B18" s="37" t="s">
+        <v>108</v>
       </c>
       <c r="C18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="38" t="n">
+      <c r="A19" s="27" t="n">
         <v>44576</v>
       </c>
-      <c r="B19" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="C19" s="40" t="s">
-        <v>107</v>
+      <c r="B19" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>110</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E19" s="0"/>
       <c r="F19" s="0"/>
@@ -4280,99 +4327,99 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="41" width="31.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="41" width="64.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="41" width="26.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="41" width="54.04"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="41" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="41" width="20.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="41" width="13.47"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="41" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="43" width="31.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="43" width="64.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="43" width="26.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="43" width="54.04"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="43" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="43" width="20.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="43" width="13.47"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="43" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="20" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
+    <row r="1" s="21" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="20" t="s">
+      <c r="C1" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AMJ1" s="42"/>
-    </row>
-    <row r="2" s="20" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="AMJ2" s="42"/>
+      <c r="AMJ1" s="44"/>
+    </row>
+    <row r="2" s="21" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="AMJ2" s="44"/>
     </row>
     <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>112</v>
+      <c r="A3" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>115</v>
+      <c r="A4" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>118</v>
+      <c r="A5" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" s="22" t="s">
+      <c r="A6" s="47" t="s">
         <v>122</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4393,335 +4440,335 @@
   </sheetPr>
   <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C56" activeCellId="0" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="27" width="20.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="27" width="30.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="30" width="20.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="30" width="30.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="82.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="27" width="51.27"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="27" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="30" width="51.27"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="30" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="20" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="42"/>
-      <c r="B1" s="10" t="s">
+    <row r="1" s="21" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="44"/>
+      <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="20" t="s">
+      <c r="D1" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" s="42" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
+    <row r="2" s="44" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="24" t="s">
-        <v>124</v>
+      <c r="B3" s="25" t="s">
+        <v>127</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="17" t="s">
-        <v>126</v>
+      <c r="B4" s="18" t="s">
+        <v>129</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="17" t="s">
-        <v>129</v>
+      <c r="B5" s="18" t="s">
+        <v>132</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="24" t="s">
-        <v>132</v>
+      <c r="B6" s="25" t="s">
+        <v>135</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="26" t="s">
-        <v>134</v>
+      <c r="B7" s="28" t="s">
+        <v>137</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" s="23" customFormat="true" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>20</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" s="24" customFormat="true" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="20" t="s">
-        <v>139</v>
+      <c r="B20" s="21" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="20" t="s">
-        <v>140</v>
+      <c r="B29" s="21" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="46" t="s">
-        <v>141</v>
+      <c r="B30" s="48" t="s">
+        <v>144</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="47" t="s">
-        <v>144</v>
+      <c r="B31" s="49" t="s">
+        <v>147</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="37" t="s">
-        <v>147</v>
+      <c r="B32" s="40" t="s">
+        <v>150</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="33" t="s">
-        <v>149</v>
+      <c r="B33" s="36" t="s">
+        <v>152</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="33" t="s">
-        <v>151</v>
+      <c r="B34" s="36" t="s">
+        <v>154</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>153</v>
+        <v>155</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="20" t="s">
-        <v>154</v>
+      <c r="B42" s="21" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="47" t="s">
-        <v>155</v>
+      <c r="B43" s="49" t="s">
+        <v>158</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="19" t="s">
-        <v>157</v>
+      <c r="B44" s="33" t="s">
+        <v>160</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="26" t="s">
-        <v>159</v>
+      <c r="B45" s="28" t="s">
+        <v>162</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="48" t="n">
+      <c r="A46" s="50" t="n">
         <v>44577</v>
       </c>
-      <c r="B46" s="29" t="s">
-        <v>161</v>
+      <c r="B46" s="32" t="s">
+        <v>164</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="29" t="s">
-        <v>163</v>
+      <c r="B47" s="32" t="s">
+        <v>166</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="24" t="s">
-        <v>166</v>
+      <c r="B48" s="25" t="s">
+        <v>169</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="24" t="s">
-        <v>168</v>
+      <c r="B49" s="25" t="s">
+        <v>171</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="24" t="s">
-        <v>170</v>
+      <c r="B50" s="25" t="s">
+        <v>173</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="20" t="s">
-        <v>172</v>
+      <c r="B64" s="21" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="26" t="s">
-        <v>173</v>
+      <c r="B65" s="28" t="s">
+        <v>176</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="20" t="s">
-        <v>78</v>
+      <c r="B89" s="21" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="49" t="s">
-        <v>176</v>
+      <c r="B90" s="51" t="s">
+        <v>179</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="24" t="s">
-        <v>179</v>
+      <c r="B91" s="25" t="s">
+        <v>35</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="77.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B92" s="33" t="s">
-        <v>181</v>
+      <c r="B92" s="36" t="s">
+        <v>183</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="30" t="s">
-        <v>183</v>
+      <c r="B93" s="29" t="s">
+        <v>185</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="17" t="s">
-        <v>185</v>
+      <c r="B94" s="18" t="s">
+        <v>187</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -4748,375 +4795,375 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="27" width="34.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="25" width="94.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="22" width="31.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="30" width="34.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="26" width="94.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="31.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="45.3"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="5" style="23" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="5" style="24" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="20" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
+    <row r="1" s="21" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="C1" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="15" t="s">
         <v>9</v>
       </c>
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="20" t="s">
-        <v>188</v>
+      <c r="A2" s="21" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="28" t="s">
-        <v>189</v>
+      <c r="A3" s="31" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>20</v>
+      <c r="A4" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="C5" s="22" t="s">
+      <c r="A5" s="25" t="s">
         <v>194</v>
       </c>
+      <c r="B5" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="C6" s="22" t="s">
+      <c r="A6" s="36" t="s">
         <v>197</v>
       </c>
+      <c r="B6" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="C7" s="22" t="s">
+      <c r="A7" s="25" t="s">
         <v>200</v>
       </c>
+      <c r="B7" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="33" t="s">
-        <v>201</v>
-      </c>
-      <c r="B8" s="25" t="s">
+      <c r="A8" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="76.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="31" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="31" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="B57" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="C57" s="23" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="47" t="s">
-        <v>203</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="76.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="28" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="B21" s="25" t="s">
+    <row r="58" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="B58" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="B59" s="26" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="31" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="B66" s="26" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="31" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="B71" s="26" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="21" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="31" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="B80" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="C80" s="23" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="B81" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="C81" s="23" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="49" t="s">
+        <v>253</v>
+      </c>
+      <c r="B82" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="C82" s="23" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="31" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="B88" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="C88" s="23" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="B89" s="26" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="53" t="s">
+        <v>261</v>
+      </c>
+      <c r="B90" s="26" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="31" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="28" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="B40" s="25" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="B42" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="B43" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="C43" s="22" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="28" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="28" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="24" t="s">
-        <v>232</v>
-      </c>
-      <c r="B57" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="C57" s="22" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="B58" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="C58" s="22" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="B59" s="25" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="50" t="s">
-        <v>239</v>
-      </c>
-      <c r="B66" s="25" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="28" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="B71" s="25" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="20" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="28" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="B80" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="C80" s="22" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="B81" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="C81" s="22" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="47" t="s">
-        <v>252</v>
-      </c>
-      <c r="B82" s="25" t="s">
-        <v>253</v>
-      </c>
-      <c r="C82" s="22" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="24" t="s">
-        <v>255</v>
-      </c>
-      <c r="B88" s="25" t="s">
-        <v>256</v>
-      </c>
-      <c r="C88" s="22" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="33" t="s">
-        <v>258</v>
-      </c>
-      <c r="B89" s="25" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="51" t="s">
-        <v>260</v>
-      </c>
-      <c r="B90" s="25" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="28" t="s">
-        <v>217</v>
-      </c>
-    </row>
     <row r="97" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="26" t="s">
-        <v>262</v>
-      </c>
-      <c r="B97" s="25" t="s">
+      <c r="A97" s="28" t="s">
         <v>263</v>
       </c>
+      <c r="B97" s="26" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="52" t="s">
-        <v>264</v>
-      </c>
-      <c r="B98" s="25" t="s">
+      <c r="A98" s="54" t="s">
         <v>265</v>
       </c>
-      <c r="C98" s="22" t="s">
+      <c r="B98" s="26" t="s">
         <v>266</v>
+      </c>
+      <c r="C98" s="23" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5146,115 +5193,115 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="27" width="30.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="25" width="73.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="22" width="20.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="48.35"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="23" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="23" width="18.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="23" width="18.2"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="23" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="30" width="30.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="26" width="73.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="20.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="24" width="48.35"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="24" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="24" width="18.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="24" width="18.2"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="24" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="20" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
+    <row r="1" s="21" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="F1" s="11" t="s">
+      <c r="C1" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AMJ1" s="42"/>
+      <c r="AMJ1" s="44"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="20" t="s">
-        <v>268</v>
+      <c r="A2" s="21" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="B3" s="25" t="s">
+      <c r="A3" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="26" t="s">
         <v>271</v>
       </c>
+      <c r="C3" s="23" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="20" t="s">
-        <v>272</v>
+      <c r="A14" s="21" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="20" t="s">
-        <v>273</v>
+      <c r="A23" s="21" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="B24" s="25" t="s">
+      <c r="A24" s="36" t="s">
         <v>275</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="B24" s="26" t="s">
         <v>276</v>
       </c>
+      <c r="C24" s="23" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="33" t="s">
-        <v>277</v>
-      </c>
-      <c r="B25" s="25" t="s">
+      <c r="A25" s="36" t="s">
         <v>278</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="B25" s="26" t="s">
         <v>279</v>
       </c>
+      <c r="C25" s="23" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="20" t="s">
-        <v>280</v>
+      <c r="A37" s="21" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="B38" s="25" t="s">
+      <c r="A38" s="33" t="s">
         <v>282</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="B38" s="26" t="s">
         <v>283</v>
       </c>
+      <c r="C38" s="23" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="28" t="s">
-        <v>284</v>
+      <c r="A48" s="31" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="27" t="s">
-        <v>285</v>
+      <c r="A49" s="30" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -5281,61 +5328,61 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="27" width="32.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="30" width="32.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="86.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.13"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="27" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="30" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="20" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
+    <row r="1" s="21" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="11" t="s">
+      <c r="C1" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AMJ1" s="42"/>
+      <c r="AMJ1" s="44"/>
     </row>
     <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="26" t="s">
-        <v>286</v>
+      <c r="A2" s="28" t="s">
+        <v>287</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="26" t="s">
-        <v>288</v>
+      <c r="A3" s="28" t="s">
+        <v>289</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="33" t="s">
-        <v>291</v>
+      <c r="A4" s="36" t="s">
+        <v>292</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -5362,67 +5409,67 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="41" width="30.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="43" width="30.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="63.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="22" width="20.7"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="41" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="20.7"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="43" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="20" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
+    <row r="1" s="21" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="11" t="s">
+      <c r="C1" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AMJ1" s="42"/>
+      <c r="AMJ1" s="44"/>
     </row>
     <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="45" t="s">
-        <v>293</v>
+      <c r="A2" s="47" t="s">
+        <v>294</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C2" s="22" t="s">
         <v>295</v>
       </c>
+      <c r="C2" s="23" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="53" t="s">
-        <v>296</v>
+      <c r="A3" s="55" t="s">
+        <v>297</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C3" s="22" t="s">
         <v>298</v>
       </c>
+      <c r="C3" s="23" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="56" t="s">
+        <v>300</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>299</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>298</v>
       </c>
     </row>
   </sheetData>

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -9,9 +9,9 @@
   </bookViews>
   <sheets>
     <sheet name="Greedy" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Tree" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Graph" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Sort" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Sort" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Tree" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Graph" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="String" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="Array" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="LinkedList" sheetId="7" state="visible" r:id="rId8"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="336">
   <si>
     <t xml:space="preserve">算法解释：</t>
   </si>
@@ -46,7 +46,7 @@
     <t xml:space="preserve">STEP</t>
   </si>
   <si>
-    <t xml:space="preserve">SKILL</t>
+    <t xml:space="preserve">TAG</t>
   </si>
   <si>
     <t xml:space="preserve">CODE</t>
@@ -209,6 +209,9 @@
     find many peak.compare neighbors if increasing, add diff,accumulate sum</t>
   </si>
   <si>
+    <t xml:space="preserve">[COMPARE NEIGHBOR]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sort</t>
   </si>
   <si>
@@ -223,7 +226,64 @@
     <t xml:space="preserve">[SORT][INSERT]</t>
   </si>
   <si>
-    <t xml:space="preserve">TAG</t>
+    <t xml:space="preserve">665. Non-decreasing Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:SORT,only change at most one to make non-decreasing array
+STEP:1.create two array one(1st option) two(2nd option), use one time reassign
+2.if compare neighbor, order not correct, let one[i] store smaller, let two[i+1] store bigger, break3.finally compare two array if same as sorted. one or two</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[SORT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heap Sort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">215. Kth Largest Element in an Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:kth largest/smallest use minHEAP/maxHEAP                  heappush(minheap,val) heappop(minheap) return minheap[0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[MINHEAP]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">347. Top K Frequent Elements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:MINHEAP store TOP K element based on frequencey
+STEP:heappush(minheap, (dic[key], key))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[MINHEAP][HASHMAP-counter]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1046. Last Stone Weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:find biggest two numbers -&gt; heap
+STEP:1.create maxheap store stones array 2.handle negative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[MAXHEAP]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">973. K Closest Points to Origin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:k smallest distance, return the pairs
+STEP:
+1.sort distance, but return pair, so reassign points(distance, point) array
+2.heapify reassigned points array(minheap,increasing order) return first k pairs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[HEPIFY]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">points = [(point[1]*point[1] + point[0] *point[0], point) for point in points]
+heapq.heapify(points)
+Return [heapq.heappop(points)[1] for _ in range(k)]</t>
   </si>
   <si>
     <t xml:space="preserve">Binary/N Tree</t>
@@ -553,55 +613,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Heap Sort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">215. Kth Largest Element in an Array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOPIC:kth largest/smallest use minHEAP/maxHEAP                  heappush(minheap,val) heappop(minheap) return minheap[0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[MINHEAP]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">347. Top K Frequent Elements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOPIC:MINHEAP store TOP K element based on frequencey
-STEP:heappush(minheap, (dic[key], key))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[MINHEAP][HASHMAP-counter]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1046. Last Stone Weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOPIC:find biggest two numbers -&gt; heap
-STEP:1.create maxheap store stones array 2.handle negative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[MAXHEAP]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">973. K Closest Points to Origin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOPIC:k smallest distance, return the pairs
-STEP:
-1.sort distance, but return pair, so reassign points(distance, point) array
-2.heapify reassigned points array(minheap,increasing order) return first k pairs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[HEPIFY]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">points = [(point[1]*point[1] + point[0] *point[0], point) for point in points]
-heapq.heapify(points)
-Return [heapq.heappop(points)[1] for _ in range(k)]</t>
-  </si>
-  <si>
     <t xml:space="preserve">Substring</t>
   </si>
   <si>
@@ -949,9 +960,6 @@
   </si>
   <si>
     <t xml:space="preserve">TOPIC:has positive&amp;negative. sort()=&gt;max(nums[0]*nums[1]*nums[-1], nums[-1]*nums[-2]*nums[-3])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[SORT]</t>
   </si>
   <si>
     <t xml:space="preserve">888. Fair Candy Swap</t>
@@ -2063,6 +2071,26 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2112,26 +2140,6 @@
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -2263,10 +2271,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C42" activeCellId="0" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2481,12 +2489,15 @@
       <c r="C26" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="D26" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="35" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="36" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2494,13 +2505,27 @@
         <v>44578</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="17" t="n">
+        <v>44578</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2527,10 +2552,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="30" width="29.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="35" width="29.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="83.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="30" width="36.95"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="30" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="35" width="36.95"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="35" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="21" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2541,7 +2566,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="F1" s="57" t="s">
         <v>6</v>
@@ -2555,14 +2580,14 @@
       <c r="I1" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="AMJ1" s="44"/>
+      <c r="AMJ1" s="31"/>
     </row>
     <row r="2" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="36" t="s">
-        <v>302</v>
+      <c r="A2" s="41" t="s">
+        <v>304</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -2589,11 +2614,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="43" width="22.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="43" width="62.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="43" width="25.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="43" width="45.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="43" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="30" width="22.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="30" width="62.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="30" width="25.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="30" width="45.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="30" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="11" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2604,7 +2629,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>5</v>
@@ -2624,14 +2649,14 @@
       <c r="AMJ1" s="10"/>
     </row>
     <row r="2" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="46" t="s">
-        <v>304</v>
+      <c r="A2" s="33" t="s">
+        <v>306</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>305</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>306</v>
+        <v>307</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -2672,7 +2697,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>6</v>
@@ -2686,17 +2711,17 @@
       <c r="I1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AMJ1" s="44"/>
-    </row>
-    <row r="2" s="30" customFormat="true" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="33" t="s">
-        <v>307</v>
+      <c r="AMJ1" s="31"/>
+    </row>
+    <row r="2" s="35" customFormat="true" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="38" t="s">
+        <v>309</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -2723,10 +2748,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="30" width="27.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="35" width="27.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="71.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="30" width="26.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="30" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="35" width="26.66"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="35" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="21" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2737,7 +2762,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>6</v>
@@ -2751,96 +2776,96 @@
       <c r="I1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AMJ1" s="44"/>
+      <c r="AMJ1" s="31"/>
     </row>
     <row r="2" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>312</v>
+        <v>313</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="25" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>315</v>
+        <v>316</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="25" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="49" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="25" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>322</v>
+        <v>323</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="121.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="33" t="s">
-        <v>323</v>
+      <c r="A7" s="38" t="s">
+        <v>325</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>325</v>
+        <v>326</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="25" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="49" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>330</v>
+        <v>331</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="32" t="s">
-        <v>331</v>
+      <c r="A10" s="37" t="s">
+        <v>333</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -2859,22 +2884,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ77"/>
+  <dimension ref="A1:AMJ6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="30" width="39.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="94.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.17"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="30" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="30" width="23.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="30" width="21.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="30" width="5.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="9" style="30" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="30" width="31.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="30" width="64.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="30" width="26.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="30" width="54.04"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="30" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="30" width="20.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="30" width="13.47"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="30" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="21" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2884,8 +2909,11 @@
       <c r="B1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>44</v>
+      <c r="C1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>5</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>6</v>
@@ -2899,264 +2927,70 @@
       <c r="I1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AMI1" s="0"/>
-      <c r="AMJ1" s="0"/>
-    </row>
-    <row r="2" s="21" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="21" t="s">
-        <v>45</v>
+      <c r="AMJ1" s="31"/>
+    </row>
+    <row r="2" s="21" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="AMI2" s="0"/>
-      <c r="AMJ2" s="0"/>
-    </row>
-    <row r="3" s="21" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="AMI3" s="0"/>
-      <c r="AMJ3" s="0"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="AMJ2" s="31"/>
+    </row>
+    <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="32" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="28" t="s">
+      <c r="B3" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C3" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="1" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="32" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="28" t="s">
+      <c r="B4" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C4" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="1" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="33" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="18" t="s">
+      <c r="B5" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C5" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="1" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="34" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="25" t="s">
+      <c r="B6" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C6" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="25" t="s">
+      <c r="D6" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="31" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" s="26" customFormat="true" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="AMI28" s="0"/>
-      <c r="AMJ28" s="0"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="31" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="31" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="35" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="31" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="31" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="31" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="31"/>
-    </row>
-    <row r="70" s="21" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
-      <c r="AMI70" s="0"/>
-      <c r="AMJ70" s="0"/>
-    </row>
-    <row r="77" s="21" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
-      <c r="AMI77" s="0"/>
-      <c r="AMJ77" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3169,6 +3003,316 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:AMJ77"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="35" width="39.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="94.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.17"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="35" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="35" width="23.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="35" width="21.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="35" width="5.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="9" style="35" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="21" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" s="21" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="AMI2" s="0"/>
+      <c r="AMJ2" s="0"/>
+    </row>
+    <row r="3" s="21" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="AMI3" s="0"/>
+      <c r="AMJ3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" s="26" customFormat="true" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="AMI28" s="0"/>
+      <c r="AMJ28" s="0"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="36" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="36" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="40" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="36" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="36" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="36"/>
+    </row>
+    <row r="70" s="21" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="AMI70" s="0"/>
+      <c r="AMJ70" s="0"/>
+    </row>
+    <row r="77" s="21" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="AMI77" s="0"/>
+      <c r="AMJ77" s="0"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:AMJ19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -3177,7 +3321,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="30" width="12.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="35" width="12.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="24" width="33.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="24" width="73.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="22.51"/>
@@ -3187,7 +3331,7 @@
   <sheetData>
     <row r="1" s="21" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>2</v>
@@ -3196,7 +3340,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>5</v>
@@ -3215,54 +3359,54 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="37" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" s="30" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="42" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" s="35" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>98</v>
+        <v>114</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>115</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="28" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="39" t="s">
-        <v>103</v>
+      <c r="B5" s="44" t="s">
+        <v>120</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="40" t="s">
-        <v>105</v>
+      <c r="B6" s="45" t="s">
+        <v>122</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="37" t="s">
-        <v>108</v>
+      <c r="B18" s="42" t="s">
+        <v>125</v>
       </c>
       <c r="C18" s="0"/>
     </row>
@@ -3270,14 +3414,14 @@
       <c r="A19" s="27" t="n">
         <v>44576</v>
       </c>
-      <c r="B19" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19" s="42" t="s">
-        <v>110</v>
+      <c r="B19" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="47" t="s">
+        <v>127</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="E19" s="0"/>
       <c r="F19" s="0"/>
@@ -4314,125 +4458,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AMJ6"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="43" width="31.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="43" width="64.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="43" width="26.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="43" width="54.04"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="43" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="43" width="20.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="43" width="13.47"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="43" width="11.52"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="21" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="AMJ1" s="44"/>
-    </row>
-    <row r="2" s="21" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="AMJ2" s="44"/>
-    </row>
-    <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="46" t="s">
-        <v>119</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>125</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -4446,16 +4471,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="30" width="20.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="30" width="30.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="35" width="20.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="35" width="30.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="82.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="30" width="51.27"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="30" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="35" width="51.27"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="35" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="21" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="44"/>
+      <c r="A1" s="31"/>
       <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
@@ -4463,7 +4488,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>5</v>
@@ -4481,9 +4506,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" s="44" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" s="31" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="11" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -4494,10 +4519,10 @@
     </row>
     <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="25" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>37</v>
@@ -4505,232 +4530,232 @@
     </row>
     <row r="4" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="18" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="18" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="25" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="28" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" s="24" customFormat="true" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="45" t="s">
-        <v>140</v>
+      <c r="B8" s="32" t="s">
+        <v>143</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="D8" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="30" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="21" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="21" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="48" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="49" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="40" t="s">
-        <v>150</v>
+      <c r="B32" s="45" t="s">
+        <v>153</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="36" t="s">
-        <v>152</v>
+      <c r="B33" s="41" t="s">
+        <v>155</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="36" t="s">
-        <v>154</v>
+      <c r="B34" s="41" t="s">
+        <v>157</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E34" s="30" t="s">
-        <v>156</v>
+        <v>158</v>
+      </c>
+      <c r="E34" s="35" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="21" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="49" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="33" t="s">
-        <v>160</v>
+      <c r="B44" s="38" t="s">
+        <v>163</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="28" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="50" t="n">
         <v>44577</v>
       </c>
-      <c r="B46" s="32" t="s">
-        <v>164</v>
+      <c r="B46" s="37" t="s">
+        <v>167</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="32" t="s">
-        <v>166</v>
+      <c r="B47" s="37" t="s">
+        <v>169</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="25" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="25" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="25" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="21" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="28" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="21" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="51" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4738,37 +4763,37 @@
         <v>35</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="77.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B92" s="36" t="s">
-        <v>183</v>
+      <c r="B92" s="41" t="s">
+        <v>186</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="29" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="18" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -4795,7 +4820,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="30" width="34.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="35" width="34.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="26" width="94.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="31.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="45.3"/>
@@ -4810,7 +4835,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>5</v>
@@ -4831,20 +4856,20 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="21" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
-        <v>191</v>
+      <c r="A3" s="36" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="28" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>37</v>
@@ -4852,318 +4877,318 @@
     </row>
     <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="25" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="36" t="s">
-        <v>197</v>
+      <c r="A6" s="41" t="s">
+        <v>200</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="25" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="36" t="s">
-        <v>203</v>
+      <c r="A8" s="41" t="s">
+        <v>206</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="49" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>207</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="28" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="28" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="25" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="76.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="33" t="s">
-        <v>214</v>
+      <c r="A13" s="38" t="s">
+        <v>216</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="25" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="31" t="s">
-        <v>219</v>
+      <c r="A20" s="36" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="25" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="31" t="s">
-        <v>222</v>
+      <c r="A39" s="36" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="25" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="18" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="28" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="28" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="31" t="s">
-        <v>142</v>
+      <c r="A52" s="36" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="31" t="s">
-        <v>40</v>
+      <c r="A56" s="36" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="25" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="18" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="36" t="s">
-        <v>238</v>
+      <c r="A59" s="41" t="s">
+        <v>240</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="31" t="s">
-        <v>89</v>
+      <c r="A65" s="36" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="52" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B66" s="26" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="31" t="s">
-        <v>242</v>
+      <c r="A70" s="36" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="28" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B71" s="26" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="21" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="31" t="s">
-        <v>246</v>
+      <c r="A79" s="36" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="28" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B80" s="26" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C80" s="23" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="28" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B81" s="26" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C81" s="23" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="49" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B82" s="26" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C82" s="23" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="31" t="s">
-        <v>89</v>
+      <c r="A87" s="36" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="25" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B88" s="26" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C88" s="23" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="36" t="s">
-        <v>259</v>
+      <c r="A89" s="41" t="s">
+        <v>261</v>
       </c>
       <c r="B89" s="26" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="53" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B90" s="26" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="31" t="s">
-        <v>219</v>
+      <c r="A96" s="36" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="28" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B97" s="26" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="54" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B98" s="26" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C98" s="23" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5193,7 +5218,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="30" width="30.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="35" width="30.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="26" width="73.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="20.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="24" width="48.35"/>
@@ -5211,10 +5236,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>6</v>
@@ -5228,80 +5253,80 @@
       <c r="I1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AMJ1" s="44"/>
+      <c r="AMJ1" s="31"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="21" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="25" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="21" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="21" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="36" t="s">
-        <v>275</v>
+      <c r="A24" s="41" t="s">
+        <v>277</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="36" t="s">
-        <v>278</v>
+      <c r="A25" s="41" t="s">
+        <v>280</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="21" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="33" t="s">
-        <v>282</v>
+      <c r="A38" s="38" t="s">
+        <v>284</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="31" t="s">
-        <v>285</v>
+      <c r="A48" s="36" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="30" t="s">
-        <v>286</v>
+      <c r="A49" s="35" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -5328,10 +5353,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="30" width="32.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="35" width="32.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="86.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.13"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="30" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="35" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="21" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5342,7 +5367,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>6</v>
@@ -5356,33 +5381,33 @@
       <c r="I1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AMJ1" s="44"/>
+      <c r="AMJ1" s="31"/>
     </row>
     <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="28" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="28" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="36" t="s">
-        <v>292</v>
+      <c r="A4" s="41" t="s">
+        <v>294</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -5409,10 +5434,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="43" width="30.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="30" width="30.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="63.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="20.7"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="43" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="30" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="21" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5423,7 +5448,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>6</v>
@@ -5437,39 +5462,39 @@
       <c r="I1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AMJ1" s="44"/>
+      <c r="AMJ1" s="31"/>
     </row>
     <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="47" t="s">
-        <v>294</v>
+      <c r="A2" s="34" t="s">
+        <v>296</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="55" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="56" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>301</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>299</v>
       </c>
     </row>
   </sheetData>

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -5,22 +5,23 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Greedy" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sort" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Tree" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Graph" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="String" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Array" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="LinkedList" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Design" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="DP" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="BinarySearch" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Hashtable" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="BackTracking" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Math" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Two Pointer" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="LinkedList" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sort" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Tree" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Graph" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="String" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Array" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Design" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="DP" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="BinarySearch" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Hashtable" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="BackTracking" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Math" sheetId="14" state="visible" r:id="rId15"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="354">
   <si>
     <t xml:space="preserve">算法解释：</t>
   </si>
@@ -105,7 +106,7 @@
 2.two TRAVERSALS from front and back because check both sides' neighbors.from front, if right &gt; left,candy[right]++(mean res++). from back if left &gt; right and candy[left]&lt;= candy[right] candy[left]++(mean res ++)</t>
   </si>
   <si>
-    <t xml:space="preserve">605. Can Place Flowers</t>
+    <t xml:space="preserve">605. Can Place Flowers (Optimize)</t>
   </si>
   <si>
     <t xml:space="preserve">TOPIC:Greedy, plant flower in empty plots as much as it can.
@@ -234,7 +235,203 @@
 2.if compare neighbor, order not correct, let one[i] store smaller, let two[i+1] store bigger, break3.finally compare two array if same as sorted. one or two</t>
   </si>
   <si>
-    <t xml:space="preserve">[SORT]</t>
+    <t xml:space="preserve">[SORT][COMPARE NEIGHBOR]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two Sides to Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11. Container With Most Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:find two lines make containers can store maximum water.
+STEP: left right pointer, updating min(height) * (right - left), who shorter, moveon until left meet right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42. Trapping Rain Water</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">接多少水是由比较低的柱子决定的。对左边，记录遇到的最高的柱子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Abyssinica SIL"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">leftHeight, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">遇到 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Abyssinica SIL"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">height[left] &lt;= leftHeight </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">说明可以接到水，否则让</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Abyssinica SIL"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">leftHeight = height[left], </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">右边的柱子同理</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">167. Two Sum II - Input Array Is Sorted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sliding Window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Longest Substring Without Repeating Characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:sliding window, window size is fixed. window only have distinct chars USE TEMPLATE
+STEP:DONT store s's char first. store when iterate. while check left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76. Minimum Window Substring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:find mini substring of s contains all chars in t(t order matter!)
+STEP:Sliding window,window size is fixed:widow is t
+    1.store t as chararray 256{ch code:freq}
+    2.iterate s, update chararray. handle valid, left, handle res(find min)
+    3.corner case:"b" "a"=&gt;"" "A" "A"=&gt;"A"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">209. Minimum Size Subarray Sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:all positive integer prefix sum meet &gt;= target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[PREFIX SUM]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LinkedList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">See Next Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CODE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">build</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Add Two Numbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:build merged two linkedlist's val                                     STEP:build:dummy=ListNode(-1) return dummy.next</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[MATH]% /</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142. Linked List Cycle II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:SLOW FAST TWO POINTER:find start point of cycle
+STEP:fast will earlier enter loop than slow, so when fast meet slow at first, fast run twice in loop. After meet first, slow and fast will try same speed see if meet again. if meet again, that is start point of cycle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[TWO POINTER]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">operation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82. Remove Duplicates from Sorted List II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:delete all duplicates
+STEP:
+1.head maybe duplicates, so need BUILD new linkedlist;dummy
+2.prev hold whole linkedlist, each time create new cur for track duplicate fpr while duplicate loop
+3.if prev.next!=cur(duplicates exist), prev.next=cur.next; if prev.next==cur:no duplicate, update prev, prev=cur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143. Reorder List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:L0 → Ln → L1 → Ln - 1 → L2 → Ln - 2 → …
+STEP:MIDDLE, REVERSE, MERGE
+1.keep head, step only half
+2.find mid, seperate first part(include mid), second part;second part has longer length.
+3.reverse second part, then let second merge into first</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle;Reverse;Merge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">147. Insertion Sort List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:Insertsort(sorted part + unsorted part)
+STEP:
+1.create variable:dummy,prev(head),cur(head),if find smaller, then go back while to find spot to swap !HOW LINK:link back first</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If head may change, create dummy;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">382. Linked List Random Node</t>
   </si>
   <si>
     <t xml:space="preserve">Heap Sort</t>
@@ -494,9 +691,6 @@
   </si>
   <si>
     <t xml:space="preserve">Trie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DATE</t>
   </si>
   <si>
     <t xml:space="preserve">BFS</t>
@@ -783,9 +977,6 @@
     <t xml:space="preserve">check if goalstr in s+s</t>
   </si>
   <si>
-    <t xml:space="preserve">Sliding Window</t>
-  </si>
-  <si>
     <t xml:space="preserve">438. Find All Anagrams in a String</t>
   </si>
   <si>
@@ -849,42 +1040,11 @@
     <t xml:space="preserve">560. Subarray Sum Equals K</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Abyssinica SIL"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">TOPIC: number of subarray sum =k</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Abyssinica SIL"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(have positive&amp;negative)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Abyssinica SIL"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1WAYbrute force STEP: TLE
-1.create sum array, one loop sum[i] = cur + sum[i-1]
-2.second loop which is nested loop, find inner array may has res
-!CANNOT USE SLIDING WINDOW because have positive and negative [....-6],k=100, if &gt; 100, but nextone is negative will cut down to 100
-2WAYhashmap STEP
-1.count total when iterate nums total+=n
-2.map default{0:1} if total-k already in map: res += map[total-k]
-3.all situation:map[total] += 1</t>
-    </r>
+    <t xml:space="preserve">TOPIC:positive/negative nums in array, find total number of subarray =k
+STEP:DONT USE SLIDING WINDOW SINCE positive/negative
+1.create hashmap {0:1} since total-k=0, here count 1
+2.iterate array, total += n, if total-k in map, res ++ 
+3.in iterate, map[total]+=1 (make subarray sum)</t>
   </si>
   <si>
     <t xml:space="preserve">15. 3Sum</t>
@@ -915,9 +1075,6 @@
     <t xml:space="preserve">TOPIC:prefix sum
 1WAY extra space STEP: 1create two list prefix,suffix,except itself
 2WAY S:O(1) two pointer 1.update res array value leftV=1 rightV=1 res[i], res[-1-i]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[TWO POINTER]</t>
   </si>
   <si>
     <t xml:space="preserve">152. Maximum Product Subarray</t>
@@ -962,6 +1119,9 @@
     <t xml:space="preserve">TOPIC:has positive&amp;negative. sort()=&gt;max(nums[0]*nums[1]*nums[-1], nums[-1]*nums[-2]*nums[-3])</t>
   </si>
   <si>
+    <t xml:space="preserve">[SORT]</t>
+  </si>
+  <si>
     <t xml:space="preserve">888. Fair Candy Swap</t>
   </si>
   <si>
@@ -1216,73 +1376,6 @@
   </si>
   <si>
     <t xml:space="preserve">[Geometry]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CODE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">build</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Add Two Numbers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOPIC:build merged two linkedlist's val                                     STEP:build:dummy=ListNode(-1) return dummy.next</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[MATH]% /</t>
-  </si>
-  <si>
-    <t xml:space="preserve">check</t>
-  </si>
-  <si>
-    <t xml:space="preserve">operation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82. Remove Duplicates from Sorted List II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOPIC:delete all duplicates
-STEP:
-1.head maybe duplicates, so need BUILD new linkedlist;dummy
-2.prev hold whole linkedlist, each time create new cur for track duplicate fpr while duplicate loop
-3.if prev.next!=cur(duplicates exist), prev.next=cur.next; if prev.next==cur:no duplicate, update prev, prev=cur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">143. Reorder List</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOPIC:L0 → Ln → L1 → Ln - 1 → L2 → Ln - 2 → …
-STEP:MIDDLE, REVERSE, MERGE
-1.keep head, step only half
-2.find mid, seperate first part(include mid), second part;second part has longer length.
-3.reverse second part, then let second merge into first</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle;Reverse;Merge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">147. Insertion Sort List</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOPIC:Insertsort(sorted part + unsorted part)
-STEP:
-1.create variable:dummy,prev(head),cur(head),if find smaller, then go back while to find spot to swap !HOW LINK:link back first</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If head may change, create dummy;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design</t>
-  </si>
-  <si>
-    <t xml:space="preserve">382. Linked List Random Node</t>
   </si>
   <si>
     <t xml:space="preserve">706. Design HashMap</t>
@@ -1892,6 +1985,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF158466"/>
+        <bgColor rgb="FF008080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFBF0041"/>
         <bgColor rgb="FFC9211E"/>
       </patternFill>
@@ -1900,12 +1999,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF127622"/>
         <bgColor rgb="FF158466"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF158466"/>
-        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
     <fill>
@@ -1949,7 +2042,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="68">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2026,52 +2119,104 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -2082,31 +2227,15 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2114,10 +2243,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2130,11 +2255,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2146,11 +2271,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2158,11 +2279,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2273,8 +2394,8 @@
   </sheetPr>
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C42" activeCellId="0" sqref="C42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2358,9 +2479,9 @@
     </row>
     <row r="6" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="17" t="n">
-        <v>44577</v>
-      </c>
-      <c r="B6" s="19" t="s">
+        <v>44579</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -2385,31 +2506,31 @@
       <c r="D14" s="0"/>
       <c r="E14" s="0"/>
     </row>
-    <row r="19" s="24" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21" t="s">
+    <row r="19" s="23" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="19"/>
+      <c r="B19" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="23"/>
+      <c r="D19" s="22"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" s="24" customFormat="true" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="20"/>
+    <row r="20" s="23" customFormat="true" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="24"/>
       <c r="B20" s="25" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="22" t="s">
         <v>22</v>
       </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" s="24" customFormat="true" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" s="23" customFormat="true" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="27" t="n">
         <v>44576</v>
       </c>
@@ -2419,38 +2540,38 @@
       <c r="C21" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" s="24" customFormat="true" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="20"/>
+    <row r="22" s="23" customFormat="true" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="24"/>
       <c r="B22" s="28" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="23"/>
+      <c r="D22" s="22"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" s="24" customFormat="true" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="20"/>
+    <row r="23" s="23" customFormat="true" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="24"/>
       <c r="B23" s="25" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="22" t="s">
         <v>30</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" s="24" customFormat="true" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" s="23" customFormat="true" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="27" t="n">
         <v>44577</v>
       </c>
@@ -2460,7 +2581,7 @@
       <c r="C24" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="22" t="s">
         <v>34</v>
       </c>
       <c r="E24" s="1"/>
@@ -2469,7 +2590,7 @@
       <c r="A25" s="17" t="n">
         <v>44577</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="29" t="s">
         <v>35</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -2495,8 +2616,8 @@
     </row>
     <row r="34" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="35" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="11" t="s">
+    <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="16" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2504,7 +2625,7 @@
       <c r="A37" s="17" t="n">
         <v>44578</v>
       </c>
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="30" t="s">
         <v>42</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -2518,7 +2639,7 @@
       <c r="A38" s="17" t="n">
         <v>44578</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="30" t="s">
         <v>45</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -2544,50 +2665,75 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ2"/>
+  <dimension ref="A1:AMJ4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="35" width="29.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="83.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="35" width="36.95"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="35" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="32" width="30.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="63.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="22" width="20.7"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="32" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="21" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="21" t="s">
+    <row r="1" s="33" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="59" t="s">
+      <c r="H1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="60" t="s">
+      <c r="I1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AMJ1" s="31"/>
-    </row>
-    <row r="2" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="41" t="s">
-        <v>304</v>
+      <c r="AMJ1" s="44"/>
+    </row>
+    <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="46" t="s">
+        <v>314</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>305</v>
+        <v>315</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="62" t="s">
+        <v>317</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="63" t="s">
+        <v>320</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -2609,54 +2755,47 @@
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="30" width="22.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="30" width="62.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="30" width="25.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="30" width="45.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="30" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="31" width="29.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="83.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="31" width="36.95"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="31" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+    <row r="1" s="33" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="33" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="AMJ1" s="10"/>
-    </row>
-    <row r="2" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="33" t="s">
-        <v>306</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>307</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>308</v>
+      <c r="AMJ1" s="44"/>
+    </row>
+    <row r="2" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="42" t="s">
+        <v>322</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -2678,18 +2817,19 @@
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="74.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="32" width="22.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="32" width="62.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="32" width="25.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="32" width="45.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="32" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="21" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="11" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
@@ -2699,6 +2839,9 @@
       <c r="C1" s="11" t="s">
         <v>4</v>
       </c>
+      <c r="D1" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="F1" s="12" t="s">
         <v>6</v>
       </c>
@@ -2711,17 +2854,17 @@
       <c r="I1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AMJ1" s="31"/>
-    </row>
-    <row r="2" s="35" customFormat="true" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="38" t="s">
-        <v>309</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>311</v>
+      <c r="AMJ1" s="10"/>
+    </row>
+    <row r="2" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -2740,6 +2883,71 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:AMJ2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="74.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="33" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AMJ1" s="44"/>
+    </row>
+    <row r="2" s="31" customFormat="true" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="43" t="s">
+        <v>327</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:AMJ10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -2748,13 +2956,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="35" width="27.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="31" width="27.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="71.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="35" width="26.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="35" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="31" width="26.66"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="31" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="21" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="33" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
@@ -2776,96 +2984,96 @@
       <c r="I1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AMJ1" s="31"/>
+      <c r="AMJ1" s="44"/>
     </row>
     <row r="2" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>314</v>
+        <v>331</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="25" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>317</v>
+        <v>334</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="25" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>319</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="49" t="s">
-        <v>320</v>
+      <c r="A5" s="57" t="s">
+        <v>338</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="25" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>324</v>
+        <v>341</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="121.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="38" t="s">
-        <v>325</v>
+      <c r="A7" s="43" t="s">
+        <v>343</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>327</v>
+        <v>344</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="25" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>329</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="49" t="s">
-        <v>330</v>
+      <c r="A9" s="57" t="s">
+        <v>348</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>332</v>
+        <v>349</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="37" t="s">
-        <v>333</v>
+      <c r="A10" s="47" t="s">
+        <v>351</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>334</v>
+        <v>352</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -2884,107 +3092,139 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ6"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="30" width="31.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="30" width="64.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="30" width="26.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="30" width="54.04"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="30" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="30" width="20.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="30" width="13.47"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="30" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="31" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="32" width="25.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="26" width="63.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="27.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="23" width="37.79"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="23" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="21" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+    <row r="1" s="33" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AMJ1" s="31"/>
-    </row>
-    <row r="2" s="21" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="AMJ2" s="31"/>
-    </row>
-    <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="32" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="34" t="n">
+        <v>44882</v>
+      </c>
+      <c r="B2" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="C2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="34" t="n">
+        <v>44882</v>
+      </c>
+      <c r="B3" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="32" t="s">
+    <row r="4" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="34" t="n">
+        <v>44882</v>
+      </c>
+      <c r="B4" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="C4" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="30" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="34" t="n">
+        <v>44882</v>
+      </c>
+      <c r="B5" s="39" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="33" t="s">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="23" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="34" t="n">
+        <v>44578</v>
+      </c>
+      <c r="B14" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C14" s="26" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="34" t="s">
+    <row r="15" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="34" t="n">
+        <v>44578</v>
+      </c>
+      <c r="B15" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="C15" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="30" t="s">
+    </row>
+    <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="34" t="n">
+        <v>44579</v>
+      </c>
+      <c r="B16" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="C16" s="26" t="s">
         <v>61</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="32" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -3003,7 +3243,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ77"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -3011,296 +3251,138 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="35" width="39.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="94.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.17"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="35" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="35" width="23.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="35" width="21.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="35" width="5.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="9" style="35" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="31" width="14.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="31" width="30.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="26" width="73.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="22" width="20.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="23" width="48.35"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="23" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="23" width="18.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="23" width="18.2"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="9" style="23" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="21" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+    <row r="1" s="33" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="E1" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AMI1" s="0"/>
-      <c r="AMJ1" s="0"/>
-    </row>
-    <row r="2" s="21" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="AMI2" s="0"/>
-      <c r="AMJ2" s="0"/>
-    </row>
-    <row r="3" s="21" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="AMI3" s="0"/>
-      <c r="AMJ3" s="0"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="1" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="33" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="28" t="s">
+    <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C3" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D3" s="22" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="28" t="s">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="34" t="n">
+        <v>44579</v>
+      </c>
+      <c r="B15" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C15" s="26" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="18" t="s">
+      <c r="D15" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="1" t="s">
+    </row>
+    <row r="24" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="42" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="25" t="s">
+      <c r="C24" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="D24" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="25" t="s">
+    </row>
+    <row r="25" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C25" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="37" t="s">
+      <c r="D25" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="B10" s="1" t="s">
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="25" t="s">
+    </row>
+    <row r="38" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C38" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="25" t="s">
+      <c r="D38" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="B12" s="1" t="s">
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="35" t="s">
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="31" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="36" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" s="26" customFormat="true" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="AMI28" s="0"/>
-      <c r="AMJ28" s="0"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="36" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="36" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="40" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="36" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="36" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="36" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="36"/>
-    </row>
-    <row r="70" s="21" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
-      <c r="AMI70" s="0"/>
-      <c r="AMJ70" s="0"/>
-    </row>
-    <row r="77" s="21" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
-      <c r="AMI77" s="0"/>
-      <c r="AMJ77" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3313,6 +3395,435 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:AMJ6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="32" width="31.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="32" width="64.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="32" width="26.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="32" width="54.04"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="32" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="32" width="20.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="32" width="13.47"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="32" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="33" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AMJ1" s="44"/>
+    </row>
+    <row r="2" s="33" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="AMJ2" s="44"/>
+    </row>
+    <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AMJ77"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="31" width="39.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="94.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.17"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="31" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="31" width="23.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="31" width="21.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="31" width="5.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="9" style="31" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="33" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="AMI2" s="0"/>
+      <c r="AMJ2" s="0"/>
+    </row>
+    <row r="3" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="AMI3" s="0"/>
+      <c r="AMJ3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="31" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" s="26" customFormat="true" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="AMI28" s="0"/>
+      <c r="AMJ28" s="0"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="49" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="20"/>
+    </row>
+    <row r="70" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="AMI70" s="0"/>
+      <c r="AMJ70" s="0"/>
+    </row>
+    <row r="77" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="AMI77" s="0"/>
+      <c r="AMJ77" s="0"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:AMJ19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -3321,17 +3832,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="35" width="12.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="24" width="33.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="24" width="73.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="22.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="24" width="46.68"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="24" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="31" width="12.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="23" width="33.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="73.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="22" width="22.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="23" width="46.68"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="23" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="21" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="21" t="s">
-        <v>112</v>
+    <row r="1" s="33" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="33" t="s">
+        <v>48</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>2</v>
@@ -3342,7 +3853,7 @@
       <c r="D1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="33" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="12" t="s">
@@ -3359,54 +3870,54 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="42" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" s="35" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="50" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" s="31" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>115</v>
+        <v>152</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>153</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>116</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="28" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>119</v>
+        <v>156</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>121</v>
+      <c r="B5" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>124</v>
+      <c r="B6" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="42" t="s">
-        <v>125</v>
+      <c r="B18" s="50" t="s">
+        <v>163</v>
       </c>
       <c r="C18" s="0"/>
     </row>
@@ -3414,14 +3925,14 @@
       <c r="A19" s="27" t="n">
         <v>44576</v>
       </c>
-      <c r="B19" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="C19" s="47" t="s">
-        <v>127</v>
+      <c r="B19" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="C19" s="55" t="s">
+        <v>165</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="E19" s="0"/>
       <c r="F19" s="0"/>
@@ -4458,7 +4969,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4471,16 +4982,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="35" width="20.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="35" width="30.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="31" width="20.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="31" width="30.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="82.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="35" width="51.27"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="35" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="31" width="51.27"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="31" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="21" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="31"/>
+    <row r="1" s="33" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="44"/>
       <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
@@ -4490,7 +5001,7 @@
       <c r="D1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="33" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="12" t="s">
@@ -4506,9 +5017,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" s="31" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" s="44" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="11" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -4519,10 +5030,10 @@
     </row>
     <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="25" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>37</v>
@@ -4530,232 +5041,232 @@
     </row>
     <row r="4" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="18" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>134</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="18" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="25" t="s">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="28" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" s="24" customFormat="true" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="32" t="s">
-        <v>143</v>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" s="23" customFormat="true" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="45" t="s">
+        <v>181</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="D8" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="D8" s="32" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="21" t="s">
-        <v>145</v>
+      <c r="B20" s="33" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="21" t="s">
-        <v>146</v>
+      <c r="B29" s="33" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="48" t="s">
-        <v>147</v>
+      <c r="B30" s="56" t="s">
+        <v>185</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>149</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="49" t="s">
-        <v>150</v>
+      <c r="B31" s="57" t="s">
+        <v>188</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>152</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="45" t="s">
-        <v>153</v>
+      <c r="B32" s="53" t="s">
+        <v>191</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>154</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="41" t="s">
-        <v>155</v>
+      <c r="B33" s="42" t="s">
+        <v>193</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>156</v>
+        <v>194</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="41" t="s">
-        <v>157</v>
+      <c r="B34" s="42" t="s">
+        <v>195</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E34" s="35" t="s">
-        <v>159</v>
+        <v>196</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="21" t="s">
-        <v>160</v>
+      <c r="B42" s="33" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="49" t="s">
-        <v>161</v>
+      <c r="B43" s="57" t="s">
+        <v>199</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="38" t="s">
-        <v>163</v>
+      <c r="B44" s="43" t="s">
+        <v>201</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="28" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="50" t="n">
+      <c r="A46" s="34" t="n">
         <v>44577</v>
       </c>
-      <c r="B46" s="37" t="s">
-        <v>167</v>
+      <c r="B46" s="47" t="s">
+        <v>205</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="37" t="s">
-        <v>169</v>
+      <c r="B47" s="47" t="s">
+        <v>207</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>171</v>
+        <v>209</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="25" t="s">
-        <v>172</v>
+        <v>210</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>173</v>
+        <v>211</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="25" t="s">
-        <v>174</v>
+        <v>212</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="25" t="s">
-        <v>176</v>
+        <v>214</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="21" t="s">
-        <v>178</v>
+      <c r="B64" s="33" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="28" t="s">
-        <v>179</v>
+        <v>216</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>180</v>
+        <v>217</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>181</v>
+        <v>218</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="21" t="s">
-        <v>98</v>
+      <c r="B89" s="33" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="51" t="s">
-        <v>182</v>
+      <c r="B90" s="58" t="s">
+        <v>219</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>184</v>
+        <v>221</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4763,570 +5274,37 @@
         <v>35</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>185</v>
+        <v>222</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="77.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B92" s="41" t="s">
-        <v>186</v>
+      <c r="B92" s="42" t="s">
+        <v>223</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>187</v>
+        <v>224</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="29" t="s">
-        <v>188</v>
+      <c r="B93" s="30" t="s">
+        <v>225</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>189</v>
+        <v>226</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="18" t="s">
-        <v>190</v>
+        <v>227</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>191</v>
+        <v>228</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AMJ117"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A59" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A70" activeCellId="0" sqref="A70"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="35" width="34.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="26" width="94.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="31.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="45.3"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="5" style="24" width="11.52"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="21" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="AMJ1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="21" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="36" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="41" t="s">
-        <v>206</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="49" t="s">
-        <v>208</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="76.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="36" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="36" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="28" t="s">
         <v>229</v>
-      </c>
-      <c r="B42" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="C42" s="23" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="B43" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="C43" s="23" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="36" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="36" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="B57" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C57" s="23" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="B58" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="C58" s="23" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="41" t="s">
-        <v>240</v>
-      </c>
-      <c r="B59" s="26" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="36" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="52" t="s">
-        <v>242</v>
-      </c>
-      <c r="B66" s="26" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="36" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="B71" s="26" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="21" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="36" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="B80" s="26" t="s">
-        <v>250</v>
-      </c>
-      <c r="C80" s="23" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="28" t="s">
-        <v>252</v>
-      </c>
-      <c r="B81" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="C81" s="23" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="49" t="s">
-        <v>255</v>
-      </c>
-      <c r="B82" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="C82" s="23" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="36" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="25" t="s">
-        <v>258</v>
-      </c>
-      <c r="B88" s="26" t="s">
-        <v>259</v>
-      </c>
-      <c r="C88" s="23" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="41" t="s">
-        <v>261</v>
-      </c>
-      <c r="B89" s="26" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="53" t="s">
-        <v>263</v>
-      </c>
-      <c r="B90" s="26" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="36" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="28" t="s">
-        <v>265</v>
-      </c>
-      <c r="B97" s="26" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="54" t="s">
-        <v>267</v>
-      </c>
-      <c r="B98" s="26" t="s">
-        <v>268</v>
-      </c>
-      <c r="C98" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AMJ49"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A49" activeCellId="0" sqref="A49"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="35" width="30.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="26" width="73.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="20.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="24" width="48.35"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="24" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="24" width="18.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="24" width="18.2"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="24" width="11.52"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="21" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="AMJ1" s="31"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="21" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="25" t="s">
-        <v>272</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>273</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="21" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="21" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="41" t="s">
-        <v>277</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>278</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="41" t="s">
-        <v>280</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>281</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="21" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="B38" s="26" t="s">
-        <v>285</v>
-      </c>
-      <c r="C38" s="23" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="36" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="35" t="s">
-        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -5345,70 +5323,393 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ4"/>
+  <dimension ref="A1:J117"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="35" width="32.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="86.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.13"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="35" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="31" width="15.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="31" width="34.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="26" width="94.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="22" width="31.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="45.3"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="23" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="21" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+    <row r="1" s="33" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="E1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AMJ1" s="31"/>
-    </row>
-    <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="28" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="33" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="20" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="34" t="n">
+        <v>44579</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="42" t="s">
+        <v>237</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="57" t="s">
+        <v>244</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="76.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="20" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="20" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="20" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="C58" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="D58" s="22" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="42" t="s">
+        <v>277</v>
+      </c>
+      <c r="C59" s="26" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="59" t="s">
+        <v>279</v>
+      </c>
+      <c r="C66" s="26" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="20" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="C71" s="26" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="33" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="20" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="28" t="s">
+        <v>286</v>
+      </c>
+      <c r="C80" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="D80" s="22" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="28" t="s">
         <v>289</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C81" s="26" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="28" t="s">
+      <c r="D81" s="22" t="s">
         <v>291</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="82" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="57" t="s">
         <v>292</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C82" s="26" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="41" t="s">
+      <c r="D82" s="22" t="s">
         <v>294</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="25" t="s">
         <v>295</v>
       </c>
+      <c r="C88" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="D88" s="22" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="42" t="s">
+        <v>298</v>
+      </c>
+      <c r="C89" s="26" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="60" t="s">
+        <v>300</v>
+      </c>
+      <c r="C90" s="26" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="20" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="C97" s="26" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="61" t="s">
+        <v>304</v>
+      </c>
+      <c r="C98" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="D98" s="22" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B117" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5429,18 +5730,18 @@
   <dimension ref="A1:AMJ4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="30" width="30.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="63.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="20.7"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="30" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="31" width="32.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="86.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="31" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="21" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="33" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
@@ -5462,39 +5763,33 @@
       <c r="I1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AMJ1" s="31"/>
+      <c r="AMJ1" s="44"/>
     </row>
     <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="34" t="s">
-        <v>296</v>
+      <c r="A2" s="28" t="s">
+        <v>307</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="55" t="s">
-        <v>299</v>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="28" t="s">
+        <v>309</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="56" t="s">
-        <v>302</v>
+        <v>310</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="42" t="s">
+        <v>312</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Greedy" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,6 +22,7 @@
     <sheet name="Hashtable" sheetId="12" state="visible" r:id="rId13"/>
     <sheet name="BackTracking" sheetId="13" state="visible" r:id="rId14"/>
     <sheet name="Math" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="BIG" sheetId="15" state="visible" r:id="rId16"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2781" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2788" uniqueCount="368">
   <si>
     <t xml:space="preserve">算法解释：</t>
   </si>
@@ -380,6 +381,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">或</t>
     </r>
@@ -475,6 +477,13 @@
     <t xml:space="preserve">If head may change, create dummy;</t>
   </si>
   <si>
+    <t xml:space="preserve">86. Partition List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:NOT lomuto partition for array, this is not stable, not works in linkedlist
+STEP:1.create new linkedlist store all nodes smaller than x. then merge original </t>
+  </si>
+  <si>
     <t xml:space="preserve">Design</t>
   </si>
   <si>
@@ -570,6 +579,13 @@
 2.brute force, iterate piles with k=[1...max(pile)] max(pile)times, TIME O(max(pile)times * len(pile))
 3.optimize binary search for k range TIME O(log(max(pile))time * len(pile))
 4.low, high, in while, traverse p get totol hour, if hour &gt; h, go to left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">744. Find Smallest Letter Greater Than Target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:binary search, dont need to convert to ord to compare. letter can compare directly
+EX:"c, d, j" "j" =&gt; "c"</t>
   </si>
   <si>
     <t xml:space="preserve">Binary/N Tree</t>
@@ -1869,6 +1885,15 @@
   <si>
     <t xml:space="preserve">Max=2**31-1 min=-1*(2**31).lstrip,rstrip()</t>
   </si>
+  <si>
+    <t xml:space="preserve">1291. Sequential Digits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMAZON(FREQ MOST TO LEAST)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">937. Reorder Data in Log Files</t>
+  </si>
 </sst>
 </file>
 
@@ -1878,7 +1903,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1969,12 +1994,6 @@
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Noto Sans CJK SC"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -2102,7 +2121,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2279,6 +2298,10 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2303,10 +2326,6 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2319,7 +2338,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2335,7 +2354,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2343,7 +2362,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2373,6 +2392,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2454,7 +2477,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C45" activeCellId="0" sqref="C45"/>
     </sheetView>
   </sheetViews>
@@ -5074,29 +5097,29 @@
     </row>
     <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="28" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="28" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="42" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -5154,36 +5177,36 @@
       <c r="AMJ1" s="59"/>
     </row>
     <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="44" t="s">
-        <v>323</v>
+      <c r="A2" s="45" t="s">
+        <v>327</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="66" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="67" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -5246,13 +5269,13 @@
     </row>
     <row r="2" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="41" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -5277,7 +5300,7 @@
       <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="74.19"/>
@@ -5311,13 +5334,13 @@
     </row>
     <row r="2" s="32" customFormat="true" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="43" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -5336,10 +5359,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ10"/>
+  <dimension ref="A1:AMJ11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5376,92 +5399,135 @@
     </row>
     <row r="2" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="25" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="25" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="61" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="25" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="121.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="43" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="25" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="61" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="50" t="s">
-        <v>358</v>
+      <c r="A10" s="44" t="s">
+        <v>362</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>360</v>
+        <v>364</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="42" t="s">
+        <v>365</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="39.88"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="2" style="23" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="68" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="53" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="26" t="s">
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -5482,7 +5548,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
     </sheetView>
   </sheetViews>
@@ -5643,8 +5709,8 @@
   </sheetPr>
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C48" activeCellId="0" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5767,14 +5833,25 @@
         <v>89</v>
       </c>
     </row>
+    <row r="39" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="31" t="n">
+        <v>44580</v>
+      </c>
+      <c r="B39" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>91</v>
+      </c>
+    </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="32" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -5844,7 +5921,7 @@
     <row r="2" s="20" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="32"/>
       <c r="B2" s="16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C2" s="16"/>
       <c r="G2" s="16"/>
@@ -5856,1333 +5933,1333 @@
       <c r="A3" s="31" t="n">
         <v>44579</v>
       </c>
-      <c r="B3" s="44" t="s">
-        <v>93</v>
+      <c r="B3" s="45" t="s">
+        <v>95</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="45" t="s">
-        <v>97</v>
+      <c r="B4" s="46" t="s">
+        <v>99</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="41" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="44" t="s">
-        <v>103</v>
+      <c r="B6" s="45" t="s">
+        <v>105</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="20" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C12" s="26"/>
       <c r="D12" s="22"/>
       <c r="F12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G12" s="26"/>
       <c r="H12" s="22"/>
       <c r="J12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K12" s="26"/>
       <c r="L12" s="22"/>
       <c r="N12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O12" s="26"/>
       <c r="P12" s="22"/>
       <c r="R12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="S12" s="26"/>
       <c r="T12" s="22"/>
       <c r="V12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="W12" s="26"/>
       <c r="X12" s="22"/>
       <c r="Z12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AA12" s="26"/>
       <c r="AB12" s="22"/>
       <c r="AD12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AE12" s="26"/>
       <c r="AF12" s="22"/>
       <c r="AH12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AI12" s="26"/>
       <c r="AJ12" s="22"/>
       <c r="AL12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AM12" s="26"/>
       <c r="AN12" s="22"/>
       <c r="AP12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AQ12" s="26"/>
       <c r="AR12" s="22"/>
       <c r="AT12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AU12" s="26"/>
       <c r="AV12" s="22"/>
       <c r="AX12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AY12" s="26"/>
       <c r="AZ12" s="22"/>
       <c r="BB12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="BC12" s="26"/>
       <c r="BD12" s="22"/>
       <c r="BF12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="BG12" s="26"/>
       <c r="BH12" s="22"/>
       <c r="BJ12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="BK12" s="26"/>
       <c r="BL12" s="22"/>
       <c r="BN12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="BO12" s="26"/>
       <c r="BP12" s="22"/>
       <c r="BR12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="BS12" s="26"/>
       <c r="BT12" s="22"/>
       <c r="BV12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="BW12" s="26"/>
       <c r="BX12" s="22"/>
       <c r="BZ12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="CA12" s="26"/>
       <c r="CB12" s="22"/>
       <c r="CD12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="CE12" s="26"/>
       <c r="CF12" s="22"/>
       <c r="CH12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="CI12" s="26"/>
       <c r="CJ12" s="22"/>
       <c r="CL12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="CM12" s="26"/>
       <c r="CN12" s="22"/>
       <c r="CP12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="CQ12" s="26"/>
       <c r="CR12" s="22"/>
       <c r="CT12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="CU12" s="26"/>
       <c r="CV12" s="22"/>
       <c r="CX12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="CY12" s="26"/>
       <c r="CZ12" s="22"/>
       <c r="DB12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="DC12" s="26"/>
       <c r="DD12" s="22"/>
       <c r="DF12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="DG12" s="26"/>
       <c r="DH12" s="22"/>
       <c r="DJ12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="DK12" s="26"/>
       <c r="DL12" s="22"/>
       <c r="DN12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="DO12" s="26"/>
       <c r="DP12" s="22"/>
       <c r="DR12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="DS12" s="26"/>
       <c r="DT12" s="22"/>
       <c r="DV12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="DW12" s="26"/>
       <c r="DX12" s="22"/>
       <c r="DZ12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="EA12" s="26"/>
       <c r="EB12" s="22"/>
       <c r="ED12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="EE12" s="26"/>
       <c r="EF12" s="22"/>
       <c r="EH12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="EI12" s="26"/>
       <c r="EJ12" s="22"/>
       <c r="EL12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="EM12" s="26"/>
       <c r="EN12" s="22"/>
       <c r="EP12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="EQ12" s="26"/>
       <c r="ER12" s="22"/>
       <c r="ET12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="EU12" s="26"/>
       <c r="EV12" s="22"/>
       <c r="EX12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="EY12" s="26"/>
       <c r="EZ12" s="22"/>
       <c r="FB12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="FC12" s="26"/>
       <c r="FD12" s="22"/>
       <c r="FF12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="FG12" s="26"/>
       <c r="FH12" s="22"/>
       <c r="FJ12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="FK12" s="26"/>
       <c r="FL12" s="22"/>
       <c r="FN12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="FO12" s="26"/>
       <c r="FP12" s="22"/>
       <c r="FR12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="FS12" s="26"/>
       <c r="FT12" s="22"/>
       <c r="FV12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="FW12" s="26"/>
       <c r="FX12" s="22"/>
       <c r="FZ12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="GA12" s="26"/>
       <c r="GB12" s="22"/>
       <c r="GD12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="GE12" s="26"/>
       <c r="GF12" s="22"/>
       <c r="GH12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="GI12" s="26"/>
       <c r="GJ12" s="22"/>
       <c r="GL12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="GM12" s="26"/>
       <c r="GN12" s="22"/>
       <c r="GP12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="GQ12" s="26"/>
       <c r="GR12" s="22"/>
       <c r="GT12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="GU12" s="26"/>
       <c r="GV12" s="22"/>
       <c r="GX12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="GY12" s="26"/>
       <c r="GZ12" s="22"/>
       <c r="HB12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="HC12" s="26"/>
       <c r="HD12" s="22"/>
       <c r="HF12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="HG12" s="26"/>
       <c r="HH12" s="22"/>
       <c r="HJ12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="HK12" s="26"/>
       <c r="HL12" s="22"/>
       <c r="HN12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="HO12" s="26"/>
       <c r="HP12" s="22"/>
       <c r="HR12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="HS12" s="26"/>
       <c r="HT12" s="22"/>
       <c r="HV12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="HW12" s="26"/>
       <c r="HX12" s="22"/>
       <c r="HZ12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="IA12" s="26"/>
       <c r="IB12" s="22"/>
       <c r="ID12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="IE12" s="26"/>
       <c r="IF12" s="22"/>
       <c r="IH12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="II12" s="26"/>
       <c r="IJ12" s="22"/>
       <c r="IL12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="IM12" s="26"/>
       <c r="IN12" s="22"/>
       <c r="IP12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="IQ12" s="26"/>
       <c r="IR12" s="22"/>
       <c r="IT12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="IU12" s="26"/>
       <c r="IV12" s="22"/>
       <c r="IX12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="IY12" s="26"/>
       <c r="IZ12" s="22"/>
       <c r="JB12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="JC12" s="26"/>
       <c r="JD12" s="22"/>
       <c r="JF12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="JG12" s="26"/>
       <c r="JH12" s="22"/>
       <c r="JJ12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="JK12" s="26"/>
       <c r="JL12" s="22"/>
       <c r="JN12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="JO12" s="26"/>
       <c r="JP12" s="22"/>
       <c r="JR12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="JS12" s="26"/>
       <c r="JT12" s="22"/>
       <c r="JV12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="JW12" s="26"/>
       <c r="JX12" s="22"/>
       <c r="JZ12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="KA12" s="26"/>
       <c r="KB12" s="22"/>
       <c r="KD12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="KE12" s="26"/>
       <c r="KF12" s="22"/>
       <c r="KH12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="KI12" s="26"/>
       <c r="KJ12" s="22"/>
       <c r="KL12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="KM12" s="26"/>
       <c r="KN12" s="22"/>
       <c r="KP12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="KQ12" s="26"/>
       <c r="KR12" s="22"/>
       <c r="KT12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="KU12" s="26"/>
       <c r="KV12" s="22"/>
       <c r="KX12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="KY12" s="26"/>
       <c r="KZ12" s="22"/>
       <c r="LB12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="LC12" s="26"/>
       <c r="LD12" s="22"/>
       <c r="LF12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="LG12" s="26"/>
       <c r="LH12" s="22"/>
       <c r="LJ12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="LK12" s="26"/>
       <c r="LL12" s="22"/>
       <c r="LN12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="LO12" s="26"/>
       <c r="LP12" s="22"/>
       <c r="LR12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="LS12" s="26"/>
       <c r="LT12" s="22"/>
       <c r="LV12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="LW12" s="26"/>
       <c r="LX12" s="22"/>
       <c r="LZ12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="MA12" s="26"/>
       <c r="MB12" s="22"/>
       <c r="MD12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="ME12" s="26"/>
       <c r="MF12" s="22"/>
       <c r="MH12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="MI12" s="26"/>
       <c r="MJ12" s="22"/>
       <c r="ML12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="MM12" s="26"/>
       <c r="MN12" s="22"/>
       <c r="MP12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="MQ12" s="26"/>
       <c r="MR12" s="22"/>
       <c r="MT12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="MU12" s="26"/>
       <c r="MV12" s="22"/>
       <c r="MX12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="MY12" s="26"/>
       <c r="MZ12" s="22"/>
       <c r="NB12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="NC12" s="26"/>
       <c r="ND12" s="22"/>
       <c r="NF12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="NG12" s="26"/>
       <c r="NH12" s="22"/>
       <c r="NJ12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="NK12" s="26"/>
       <c r="NL12" s="22"/>
       <c r="NN12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="NO12" s="26"/>
       <c r="NP12" s="22"/>
       <c r="NR12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="NS12" s="26"/>
       <c r="NT12" s="22"/>
       <c r="NV12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="NW12" s="26"/>
       <c r="NX12" s="22"/>
       <c r="NZ12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="OA12" s="26"/>
       <c r="OB12" s="22"/>
       <c r="OD12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="OE12" s="26"/>
       <c r="OF12" s="22"/>
       <c r="OH12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="OI12" s="26"/>
       <c r="OJ12" s="22"/>
       <c r="OL12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="OM12" s="26"/>
       <c r="ON12" s="22"/>
       <c r="OP12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="OQ12" s="26"/>
       <c r="OR12" s="22"/>
       <c r="OT12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="OU12" s="26"/>
       <c r="OV12" s="22"/>
       <c r="OX12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="OY12" s="26"/>
       <c r="OZ12" s="22"/>
       <c r="PB12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="PC12" s="26"/>
       <c r="PD12" s="22"/>
       <c r="PF12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="PG12" s="26"/>
       <c r="PH12" s="22"/>
       <c r="PJ12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="PK12" s="26"/>
       <c r="PL12" s="22"/>
       <c r="PN12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="PO12" s="26"/>
       <c r="PP12" s="22"/>
       <c r="PR12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="PS12" s="26"/>
       <c r="PT12" s="22"/>
       <c r="PV12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="PW12" s="26"/>
       <c r="PX12" s="22"/>
       <c r="PZ12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="QA12" s="26"/>
       <c r="QB12" s="22"/>
       <c r="QD12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="QE12" s="26"/>
       <c r="QF12" s="22"/>
       <c r="QH12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="QI12" s="26"/>
       <c r="QJ12" s="22"/>
       <c r="QL12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="QM12" s="26"/>
       <c r="QN12" s="22"/>
       <c r="QP12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="QQ12" s="26"/>
       <c r="QR12" s="22"/>
       <c r="QT12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="QU12" s="26"/>
       <c r="QV12" s="22"/>
       <c r="QX12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="QY12" s="26"/>
       <c r="QZ12" s="22"/>
       <c r="RB12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="RC12" s="26"/>
       <c r="RD12" s="22"/>
       <c r="RF12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="RG12" s="26"/>
       <c r="RH12" s="22"/>
       <c r="RJ12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="RK12" s="26"/>
       <c r="RL12" s="22"/>
       <c r="RN12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="RO12" s="26"/>
       <c r="RP12" s="22"/>
       <c r="RR12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="RS12" s="26"/>
       <c r="RT12" s="22"/>
       <c r="RV12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="RW12" s="26"/>
       <c r="RX12" s="22"/>
       <c r="RZ12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="SA12" s="26"/>
       <c r="SB12" s="22"/>
       <c r="SD12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="SE12" s="26"/>
       <c r="SF12" s="22"/>
       <c r="SH12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="SI12" s="26"/>
       <c r="SJ12" s="22"/>
       <c r="SL12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="SM12" s="26"/>
       <c r="SN12" s="22"/>
       <c r="SP12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="SQ12" s="26"/>
       <c r="SR12" s="22"/>
       <c r="ST12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="SU12" s="26"/>
       <c r="SV12" s="22"/>
       <c r="SX12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="SY12" s="26"/>
       <c r="SZ12" s="22"/>
       <c r="TB12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="TC12" s="26"/>
       <c r="TD12" s="22"/>
       <c r="TF12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="TG12" s="26"/>
       <c r="TH12" s="22"/>
       <c r="TJ12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="TK12" s="26"/>
       <c r="TL12" s="22"/>
       <c r="TN12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="TO12" s="26"/>
       <c r="TP12" s="22"/>
       <c r="TR12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="TS12" s="26"/>
       <c r="TT12" s="22"/>
       <c r="TV12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="TW12" s="26"/>
       <c r="TX12" s="22"/>
       <c r="TZ12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="UA12" s="26"/>
       <c r="UB12" s="22"/>
       <c r="UD12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="UE12" s="26"/>
       <c r="UF12" s="22"/>
       <c r="UH12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="UI12" s="26"/>
       <c r="UJ12" s="22"/>
       <c r="UL12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="UM12" s="26"/>
       <c r="UN12" s="22"/>
       <c r="UP12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="UQ12" s="26"/>
       <c r="UR12" s="22"/>
       <c r="UT12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="UU12" s="26"/>
       <c r="UV12" s="22"/>
       <c r="UX12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="UY12" s="26"/>
       <c r="UZ12" s="22"/>
       <c r="VB12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="VC12" s="26"/>
       <c r="VD12" s="22"/>
       <c r="VF12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="VG12" s="26"/>
       <c r="VH12" s="22"/>
       <c r="VJ12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="VK12" s="26"/>
       <c r="VL12" s="22"/>
       <c r="VN12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="VO12" s="26"/>
       <c r="VP12" s="22"/>
       <c r="VR12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="VS12" s="26"/>
       <c r="VT12" s="22"/>
       <c r="VV12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="VW12" s="26"/>
       <c r="VX12" s="22"/>
       <c r="VZ12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="WA12" s="26"/>
       <c r="WB12" s="22"/>
       <c r="WD12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="WE12" s="26"/>
       <c r="WF12" s="22"/>
       <c r="WH12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="WI12" s="26"/>
       <c r="WJ12" s="22"/>
       <c r="WL12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="WM12" s="26"/>
       <c r="WN12" s="22"/>
       <c r="WP12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="WQ12" s="26"/>
       <c r="WR12" s="22"/>
       <c r="WT12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="WU12" s="26"/>
       <c r="WV12" s="22"/>
       <c r="WX12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="WY12" s="26"/>
       <c r="WZ12" s="22"/>
       <c r="XB12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="XC12" s="26"/>
       <c r="XD12" s="22"/>
       <c r="XF12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="XG12" s="26"/>
       <c r="XH12" s="22"/>
       <c r="XJ12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="XK12" s="26"/>
       <c r="XL12" s="22"/>
       <c r="XN12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="XO12" s="26"/>
       <c r="XP12" s="22"/>
       <c r="XR12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="XS12" s="26"/>
       <c r="XT12" s="22"/>
       <c r="XV12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="XW12" s="26"/>
       <c r="XX12" s="22"/>
       <c r="XZ12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="YA12" s="26"/>
       <c r="YB12" s="22"/>
       <c r="YD12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="YE12" s="26"/>
       <c r="YF12" s="22"/>
       <c r="YH12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="YI12" s="26"/>
       <c r="YJ12" s="22"/>
       <c r="YL12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="YM12" s="26"/>
       <c r="YN12" s="22"/>
       <c r="YP12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="YQ12" s="26"/>
       <c r="YR12" s="22"/>
       <c r="YT12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="YU12" s="26"/>
       <c r="YV12" s="22"/>
       <c r="YX12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="YY12" s="26"/>
       <c r="YZ12" s="22"/>
       <c r="ZB12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="ZC12" s="26"/>
       <c r="ZD12" s="22"/>
       <c r="ZF12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="ZG12" s="26"/>
       <c r="ZH12" s="22"/>
       <c r="ZJ12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="ZK12" s="26"/>
       <c r="ZL12" s="22"/>
       <c r="ZN12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="ZO12" s="26"/>
       <c r="ZP12" s="22"/>
       <c r="ZR12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="ZS12" s="26"/>
       <c r="ZT12" s="22"/>
       <c r="ZV12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="ZW12" s="26"/>
       <c r="ZX12" s="22"/>
       <c r="ZZ12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AAA12" s="26"/>
       <c r="AAB12" s="22"/>
       <c r="AAD12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AAE12" s="26"/>
       <c r="AAF12" s="22"/>
       <c r="AAH12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AAI12" s="26"/>
       <c r="AAJ12" s="22"/>
       <c r="AAL12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AAM12" s="26"/>
       <c r="AAN12" s="22"/>
       <c r="AAP12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AAQ12" s="26"/>
       <c r="AAR12" s="22"/>
       <c r="AAT12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AAU12" s="26"/>
       <c r="AAV12" s="22"/>
       <c r="AAX12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AAY12" s="26"/>
       <c r="AAZ12" s="22"/>
       <c r="ABB12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="ABC12" s="26"/>
       <c r="ABD12" s="22"/>
       <c r="ABF12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="ABG12" s="26"/>
       <c r="ABH12" s="22"/>
       <c r="ABJ12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="ABK12" s="26"/>
       <c r="ABL12" s="22"/>
       <c r="ABN12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="ABO12" s="26"/>
       <c r="ABP12" s="22"/>
       <c r="ABR12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="ABS12" s="26"/>
       <c r="ABT12" s="22"/>
       <c r="ABV12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="ABW12" s="26"/>
       <c r="ABX12" s="22"/>
       <c r="ABZ12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="ACA12" s="26"/>
       <c r="ACB12" s="22"/>
       <c r="ACD12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="ACE12" s="26"/>
       <c r="ACF12" s="22"/>
       <c r="ACH12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="ACI12" s="26"/>
       <c r="ACJ12" s="22"/>
       <c r="ACL12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="ACM12" s="26"/>
       <c r="ACN12" s="22"/>
       <c r="ACP12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="ACQ12" s="26"/>
       <c r="ACR12" s="22"/>
       <c r="ACT12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="ACU12" s="26"/>
       <c r="ACV12" s="22"/>
       <c r="ACX12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="ACY12" s="26"/>
       <c r="ACZ12" s="22"/>
       <c r="ADB12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="ADC12" s="26"/>
       <c r="ADD12" s="22"/>
       <c r="ADF12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="ADG12" s="26"/>
       <c r="ADH12" s="22"/>
       <c r="ADJ12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="ADK12" s="26"/>
       <c r="ADL12" s="22"/>
       <c r="ADN12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="ADO12" s="26"/>
       <c r="ADP12" s="22"/>
       <c r="ADR12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="ADS12" s="26"/>
       <c r="ADT12" s="22"/>
       <c r="ADV12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="ADW12" s="26"/>
       <c r="ADX12" s="22"/>
       <c r="ADZ12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AEA12" s="26"/>
       <c r="AEB12" s="22"/>
       <c r="AED12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AEE12" s="26"/>
       <c r="AEF12" s="22"/>
       <c r="AEH12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AEI12" s="26"/>
       <c r="AEJ12" s="22"/>
       <c r="AEL12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AEM12" s="26"/>
       <c r="AEN12" s="22"/>
       <c r="AEP12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AEQ12" s="26"/>
       <c r="AER12" s="22"/>
       <c r="AET12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AEU12" s="26"/>
       <c r="AEV12" s="22"/>
       <c r="AEX12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AEY12" s="26"/>
       <c r="AEZ12" s="22"/>
       <c r="AFB12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AFC12" s="26"/>
       <c r="AFD12" s="22"/>
       <c r="AFF12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AFG12" s="26"/>
       <c r="AFH12" s="22"/>
       <c r="AFJ12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AFK12" s="26"/>
       <c r="AFL12" s="22"/>
       <c r="AFN12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AFO12" s="26"/>
       <c r="AFP12" s="22"/>
       <c r="AFR12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AFS12" s="26"/>
       <c r="AFT12" s="22"/>
       <c r="AFV12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AFW12" s="26"/>
       <c r="AFX12" s="22"/>
       <c r="AFZ12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AGA12" s="26"/>
       <c r="AGB12" s="22"/>
       <c r="AGD12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AGE12" s="26"/>
       <c r="AGF12" s="22"/>
       <c r="AGH12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AGI12" s="26"/>
       <c r="AGJ12" s="22"/>
       <c r="AGL12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AGM12" s="26"/>
       <c r="AGN12" s="22"/>
       <c r="AGP12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AGQ12" s="26"/>
       <c r="AGR12" s="22"/>
       <c r="AGT12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AGU12" s="26"/>
       <c r="AGV12" s="22"/>
       <c r="AGX12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AGY12" s="26"/>
       <c r="AGZ12" s="22"/>
       <c r="AHB12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AHC12" s="26"/>
       <c r="AHD12" s="22"/>
       <c r="AHF12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AHG12" s="26"/>
       <c r="AHH12" s="22"/>
       <c r="AHJ12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AHK12" s="26"/>
       <c r="AHL12" s="22"/>
       <c r="AHN12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AHO12" s="26"/>
       <c r="AHP12" s="22"/>
       <c r="AHR12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AHS12" s="26"/>
       <c r="AHT12" s="22"/>
       <c r="AHV12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AHW12" s="26"/>
       <c r="AHX12" s="22"/>
       <c r="AHZ12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AIA12" s="26"/>
       <c r="AIB12" s="22"/>
       <c r="AID12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AIE12" s="26"/>
       <c r="AIF12" s="22"/>
       <c r="AIH12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AII12" s="26"/>
       <c r="AIJ12" s="22"/>
       <c r="AIL12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AIM12" s="26"/>
       <c r="AIN12" s="22"/>
       <c r="AIP12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AIQ12" s="26"/>
       <c r="AIR12" s="22"/>
       <c r="AIT12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AIU12" s="26"/>
       <c r="AIV12" s="22"/>
       <c r="AIX12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AIY12" s="26"/>
       <c r="AIZ12" s="22"/>
       <c r="AJB12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AJC12" s="26"/>
       <c r="AJD12" s="22"/>
       <c r="AJF12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AJG12" s="26"/>
       <c r="AJH12" s="22"/>
       <c r="AJJ12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AJK12" s="26"/>
       <c r="AJL12" s="22"/>
       <c r="AJN12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AJO12" s="26"/>
       <c r="AJP12" s="22"/>
       <c r="AJR12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AJS12" s="26"/>
       <c r="AJT12" s="22"/>
       <c r="AJV12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AJW12" s="26"/>
       <c r="AJX12" s="22"/>
       <c r="AJZ12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AKA12" s="26"/>
       <c r="AKB12" s="22"/>
       <c r="AKD12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AKE12" s="26"/>
       <c r="AKF12" s="22"/>
       <c r="AKH12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AKI12" s="26"/>
       <c r="AKJ12" s="22"/>
       <c r="AKL12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AKM12" s="26"/>
       <c r="AKN12" s="22"/>
       <c r="AKP12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AKQ12" s="26"/>
       <c r="AKR12" s="22"/>
       <c r="AKT12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AKU12" s="26"/>
       <c r="AKV12" s="22"/>
       <c r="AKX12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AKY12" s="26"/>
       <c r="AKZ12" s="22"/>
       <c r="ALB12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="ALC12" s="26"/>
       <c r="ALD12" s="22"/>
       <c r="ALF12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="ALG12" s="26"/>
       <c r="ALH12" s="22"/>
       <c r="ALJ12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="ALK12" s="26"/>
       <c r="ALL12" s="22"/>
       <c r="ALN12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="ALO12" s="26"/>
       <c r="ALP12" s="22"/>
       <c r="ALR12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="ALS12" s="26"/>
       <c r="ALT12" s="22"/>
       <c r="ALV12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="ALW12" s="26"/>
       <c r="ALX12" s="22"/>
       <c r="ALZ12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AMA12" s="26"/>
       <c r="AMB12" s="22"/>
       <c r="AMD12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AME12" s="26"/>
       <c r="AMF12" s="22"/>
       <c r="AMH12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AMI12" s="26"/>
       <c r="AMJ12" s="22"/>
@@ -7192,2305 +7269,2305 @@
         <v>44580</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="J13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="N13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="R13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="S13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="T13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="V13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="W13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="X13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="Z13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AA13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AB13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="AD13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AE13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AF13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="AH13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AI13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AJ13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="AL13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AM13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AN13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="AP13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AQ13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AR13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="AT13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AU13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AV13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="AX13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AY13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AZ13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="BB13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="BC13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="BD13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="BF13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="BG13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="BH13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="BJ13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="BK13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="BL13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="BN13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="BO13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="BP13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="BR13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="BS13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="BT13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="BV13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="BW13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="BX13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="BZ13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="CA13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="CB13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="CD13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="CE13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="CF13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="CH13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="CI13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="CJ13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="CL13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="CM13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="CN13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="CP13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="CQ13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="CR13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="CT13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="CU13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="CV13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="CX13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="CY13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="CZ13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="DB13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="DC13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="DD13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="DF13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="DG13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="DH13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="DJ13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="DK13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="DL13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="DN13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="DO13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="DP13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="DR13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="DS13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="DT13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="DV13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="DW13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="DX13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="DZ13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="EA13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="EB13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="ED13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="EE13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="EF13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="EH13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="EI13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="EJ13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="EL13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="EM13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="EN13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="EP13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="EQ13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="ER13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="ET13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="EU13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="EV13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="EX13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="EY13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="EZ13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="FB13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="FC13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="FD13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="FF13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="FG13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="FH13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="FJ13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="FK13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="FL13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="FN13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="FO13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="FP13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="FR13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="FS13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="FT13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="FV13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="FW13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="FX13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="FZ13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="GA13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="GB13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="GD13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="GE13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="GF13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="GH13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="GI13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="GJ13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="GL13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="GM13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="GN13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="GP13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="GQ13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="GR13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="GT13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="GU13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="GV13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="GX13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="GY13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="GZ13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="HB13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="HC13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="HD13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="HF13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="HG13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="HH13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="HJ13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="HK13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="HL13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="HN13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="HO13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="HP13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="HR13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="HS13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="HT13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="HV13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="HW13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="HX13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="HZ13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="IA13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="IB13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="ID13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="IE13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="IF13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="IH13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="II13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="IJ13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="IL13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="IM13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="IN13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="IP13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="IQ13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="IR13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="IT13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="IU13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="IV13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="IX13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="IY13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="IZ13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="JB13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="JC13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="JD13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="JF13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="JG13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="JH13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="JJ13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="JK13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="JL13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="JN13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="JO13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="JP13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="JR13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="JS13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="JT13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="JV13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="JW13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="JX13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="JZ13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="KA13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="KB13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="KD13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="KE13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="KF13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="KH13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="KI13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="KJ13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="KL13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="KM13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="KN13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="KP13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="KQ13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="KR13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="KT13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="KU13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="KV13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="KX13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="KY13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="KZ13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="LB13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="LC13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="LD13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="LF13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="LG13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="LH13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="LJ13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="LK13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="LL13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="LN13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="LO13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="LP13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="LR13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="LS13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="LT13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="LV13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="LW13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="LX13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="LZ13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="MA13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="MB13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="MD13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="ME13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="MF13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="MH13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="MI13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="MJ13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="ML13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="MM13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="MN13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="MP13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="MQ13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="MR13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="MT13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="MU13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="MV13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="MX13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="MY13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="MZ13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="NB13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="NC13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="ND13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="NF13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="NG13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="NH13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="NJ13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="NK13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="NL13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="NN13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="NO13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="NP13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="NR13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="NS13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="NT13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="NV13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="NW13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="NX13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="NZ13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="OA13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="OB13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="OD13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="OE13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="OF13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="OH13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="OI13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="OJ13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="OL13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="OM13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="ON13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="OP13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="OQ13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="OR13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="OT13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="OU13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="OV13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="OX13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="OY13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="OZ13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="PB13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="PC13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="PD13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="PF13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="PG13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="PH13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="PJ13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="PK13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="PL13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="PN13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="PO13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="PP13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="PR13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="PS13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="PT13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="PV13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="PW13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="PX13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="PZ13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="QA13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="QB13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="QD13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="QE13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="QF13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="QH13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="QI13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="QJ13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="QL13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="QM13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="QN13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="QP13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="QQ13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="QR13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="QT13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="QU13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="QV13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="QX13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="QY13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="QZ13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="RB13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="RC13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="RD13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="RF13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="RG13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="RH13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="RJ13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="RK13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="RL13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="RN13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="RO13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="RP13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="RR13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="RS13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="RT13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="RV13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="RW13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="RX13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="RZ13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="SA13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="SB13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="SD13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="SE13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="SF13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="SH13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="SI13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="SJ13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="SL13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="SM13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="SN13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="SP13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="SQ13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="SR13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="ST13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="SU13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="SV13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="SX13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="SY13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="SZ13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="TB13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="TC13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="TD13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="TF13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="TG13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="TH13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="TJ13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="TK13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="TL13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="TN13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="TO13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="TP13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="TR13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="TS13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="TT13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="TV13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="TW13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="TX13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="TZ13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="UA13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="UB13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="UD13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="UE13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="UF13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="UH13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="UI13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="UJ13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="UL13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="UM13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="UN13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="UP13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="UQ13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="UR13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="UT13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="UU13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="UV13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="UX13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="UY13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="UZ13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="VB13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="VC13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="VD13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="VF13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="VG13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="VH13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="VJ13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="VK13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="VL13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="VN13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="VO13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="VP13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="VR13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="VS13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="VT13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="VV13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="VW13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="VX13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="VZ13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="WA13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="WB13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="WD13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="WE13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="WF13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="WH13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="WI13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="WJ13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="WL13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="WM13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="WN13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="WP13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="WQ13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="WR13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="WT13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="WU13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="WV13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="WX13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="WY13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="WZ13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="XB13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="XC13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="XD13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="XF13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="XG13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="XH13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="XJ13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="XK13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="XL13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="XN13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="XO13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="XP13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="XR13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="XS13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="XT13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="XV13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="XW13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="XX13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="XZ13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="YA13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="YB13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="YD13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="YE13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="YF13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="YH13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="YI13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="YJ13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="YL13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="YM13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="YN13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="YP13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="YQ13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="YR13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="YT13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="YU13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="YV13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="YX13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="YY13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="YZ13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="ZB13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="ZC13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="ZD13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="ZF13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="ZG13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="ZH13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="ZJ13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="ZK13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="ZL13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="ZN13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="ZO13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="ZP13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="ZR13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="ZS13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="ZT13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="ZV13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="ZW13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="ZX13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="ZZ13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AAA13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AAB13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="AAD13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AAE13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AAF13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="AAH13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AAI13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AAJ13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="AAL13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AAM13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AAN13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="AAP13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AAQ13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AAR13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="AAT13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AAU13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AAV13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="AAX13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AAY13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AAZ13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="ABB13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="ABC13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="ABD13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="ABF13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="ABG13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="ABH13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="ABJ13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="ABK13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="ABL13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="ABN13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="ABO13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="ABP13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="ABR13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="ABS13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="ABT13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="ABV13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="ABW13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="ABX13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="ABZ13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="ACA13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="ACB13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="ACD13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="ACE13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="ACF13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="ACH13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="ACI13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="ACJ13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="ACL13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="ACM13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="ACN13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="ACP13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="ACQ13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="ACR13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="ACT13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="ACU13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="ACV13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="ACX13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="ACY13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="ACZ13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="ADB13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="ADC13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="ADD13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="ADF13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="ADG13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="ADH13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="ADJ13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="ADK13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="ADL13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="ADN13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="ADO13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="ADP13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="ADR13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="ADS13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="ADT13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="ADV13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="ADW13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="ADX13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="ADZ13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AEA13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AEB13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="AED13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AEE13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AEF13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="AEH13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AEI13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AEJ13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="AEL13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AEM13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AEN13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="AEP13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AEQ13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AER13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="AET13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AEU13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AEV13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="AEX13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AEY13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AEZ13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="AFB13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AFC13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AFD13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="AFF13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AFG13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AFH13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="AFJ13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AFK13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AFL13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="AFN13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AFO13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AFP13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="AFR13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AFS13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AFT13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="AFV13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AFW13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AFX13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="AFZ13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AGA13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AGB13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="AGD13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AGE13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AGF13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="AGH13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AGI13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AGJ13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="AGL13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AGM13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AGN13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="AGP13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AGQ13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AGR13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="AGT13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AGU13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AGV13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="AGX13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AGY13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AGZ13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="AHB13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AHC13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AHD13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="AHF13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AHG13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AHH13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="AHJ13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AHK13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AHL13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="AHN13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AHO13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AHP13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="AHR13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AHS13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AHT13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="AHV13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AHW13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AHX13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="AHZ13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AIA13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AIB13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="AID13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AIE13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AIF13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="AIH13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AII13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AIJ13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="AIL13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AIM13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AIN13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="AIP13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AIQ13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AIR13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="AIT13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AIU13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AIV13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="AIX13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AIY13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AIZ13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="AJB13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AJC13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AJD13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="AJF13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AJG13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AJH13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="AJJ13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AJK13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AJL13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="AJN13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AJO13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AJP13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="AJR13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AJS13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AJT13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="AJV13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AJW13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AJX13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="AJZ13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AKA13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AKB13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="AKD13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AKE13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AKF13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="AKH13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AKI13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AKJ13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="AKL13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AKM13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AKN13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="AKP13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AKQ13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AKR13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="AKT13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AKU13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AKV13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="AKX13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AKY13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AKZ13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="ALB13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="ALC13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="ALD13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="ALF13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="ALG13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="ALH13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="ALJ13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="ALK13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="ALL13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="ALN13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="ALO13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="ALP13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="ALR13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="ALS13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="ALT13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="ALV13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="ALW13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="ALX13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="ALZ13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AMA13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AMB13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="AMD13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AME13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AMF13" s="22" t="s">
         <v>78</v>
       </c>
       <c r="AMH13" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AMI13" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AMJ13" s="22" t="s">
         <v>78</v>
@@ -9498,1798 +9575,1798 @@
     </row>
     <row r="14" s="1" customFormat="true" ht="54.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="32" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I14" s="32"/>
       <c r="J14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M14" s="32"/>
       <c r="N14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q14" s="32"/>
       <c r="R14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="U14" s="32"/>
       <c r="V14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Y14" s="32"/>
       <c r="Z14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AC14" s="32"/>
       <c r="AD14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AG14" s="32"/>
       <c r="AH14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AI14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AK14" s="32"/>
       <c r="AL14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AM14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AO14" s="32"/>
       <c r="AP14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AQ14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AS14" s="32"/>
       <c r="AT14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AU14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AW14" s="32"/>
       <c r="AX14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AY14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="BA14" s="32"/>
       <c r="BB14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="BC14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="BE14" s="32"/>
       <c r="BF14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="BG14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="BI14" s="32"/>
       <c r="BJ14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="BK14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="BM14" s="32"/>
       <c r="BN14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="BO14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="BQ14" s="32"/>
       <c r="BR14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="BS14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="BU14" s="32"/>
       <c r="BV14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="BW14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="BY14" s="32"/>
       <c r="BZ14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="CA14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="CC14" s="32"/>
       <c r="CD14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="CE14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="CG14" s="32"/>
       <c r="CH14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="CI14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="CK14" s="32"/>
       <c r="CL14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="CM14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="CO14" s="32"/>
       <c r="CP14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="CQ14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="CS14" s="32"/>
       <c r="CT14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="CU14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="CW14" s="32"/>
       <c r="CX14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="CY14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="DA14" s="32"/>
       <c r="DB14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="DC14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="DE14" s="32"/>
       <c r="DF14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="DG14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="DI14" s="32"/>
       <c r="DJ14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="DK14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="DM14" s="32"/>
       <c r="DN14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="DO14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="DQ14" s="32"/>
       <c r="DR14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="DS14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="DU14" s="32"/>
       <c r="DV14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="DW14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="DY14" s="32"/>
       <c r="DZ14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="EA14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="EC14" s="32"/>
       <c r="ED14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="EE14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="EG14" s="32"/>
       <c r="EH14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="EI14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="EK14" s="32"/>
       <c r="EL14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="EM14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="EO14" s="32"/>
       <c r="EP14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="EQ14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="ES14" s="32"/>
       <c r="ET14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="EU14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="EW14" s="32"/>
       <c r="EX14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="EY14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="FA14" s="32"/>
       <c r="FB14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="FC14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="FE14" s="32"/>
       <c r="FF14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="FG14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="FI14" s="32"/>
       <c r="FJ14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="FK14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="FM14" s="32"/>
       <c r="FN14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="FO14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="FQ14" s="32"/>
       <c r="FR14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="FS14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="FU14" s="32"/>
       <c r="FV14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="FW14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="FY14" s="32"/>
       <c r="FZ14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="GA14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="GC14" s="32"/>
       <c r="GD14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="GE14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="GG14" s="32"/>
       <c r="GH14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="GI14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="GK14" s="32"/>
       <c r="GL14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="GM14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="GO14" s="32"/>
       <c r="GP14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="GQ14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="GS14" s="32"/>
       <c r="GT14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="GU14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="GW14" s="32"/>
       <c r="GX14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="GY14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="HA14" s="32"/>
       <c r="HB14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="HC14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="HE14" s="32"/>
       <c r="HF14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="HG14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="HI14" s="32"/>
       <c r="HJ14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="HK14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="HM14" s="32"/>
       <c r="HN14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="HO14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="HQ14" s="32"/>
       <c r="HR14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="HS14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="HU14" s="32"/>
       <c r="HV14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="HW14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="HY14" s="32"/>
       <c r="HZ14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="IA14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="IC14" s="32"/>
       <c r="ID14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="IE14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="IG14" s="32"/>
       <c r="IH14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="II14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="IK14" s="32"/>
       <c r="IL14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="IM14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="IO14" s="32"/>
       <c r="IP14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="IQ14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="IS14" s="32"/>
       <c r="IT14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="IU14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="IW14" s="32"/>
       <c r="IX14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="IY14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="JA14" s="32"/>
       <c r="JB14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="JC14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="JE14" s="32"/>
       <c r="JF14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="JG14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="JI14" s="32"/>
       <c r="JJ14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="JK14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="JM14" s="32"/>
       <c r="JN14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="JO14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="JQ14" s="32"/>
       <c r="JR14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="JS14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="JU14" s="32"/>
       <c r="JV14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="JW14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="JY14" s="32"/>
       <c r="JZ14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="KA14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="KC14" s="32"/>
       <c r="KD14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="KE14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="KG14" s="32"/>
       <c r="KH14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="KI14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="KK14" s="32"/>
       <c r="KL14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="KM14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="KO14" s="32"/>
       <c r="KP14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="KQ14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="KS14" s="32"/>
       <c r="KT14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="KU14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="KW14" s="32"/>
       <c r="KX14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="KY14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="LA14" s="32"/>
       <c r="LB14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="LC14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="LE14" s="32"/>
       <c r="LF14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="LG14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="LI14" s="32"/>
       <c r="LJ14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="LK14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="LM14" s="32"/>
       <c r="LN14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="LO14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="LQ14" s="32"/>
       <c r="LR14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="LS14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="LU14" s="32"/>
       <c r="LV14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="LW14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="LY14" s="32"/>
       <c r="LZ14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="MA14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="MC14" s="32"/>
       <c r="MD14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="ME14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="MG14" s="32"/>
       <c r="MH14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="MI14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="MK14" s="32"/>
       <c r="ML14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="MM14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="MO14" s="32"/>
       <c r="MP14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="MQ14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="MS14" s="32"/>
       <c r="MT14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="MU14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="MW14" s="32"/>
       <c r="MX14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="MY14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="NA14" s="32"/>
       <c r="NB14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="NC14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="NE14" s="32"/>
       <c r="NF14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="NG14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="NI14" s="32"/>
       <c r="NJ14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="NK14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="NM14" s="32"/>
       <c r="NN14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="NO14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="NQ14" s="32"/>
       <c r="NR14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="NS14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="NU14" s="32"/>
       <c r="NV14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="NW14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="NY14" s="32"/>
       <c r="NZ14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="OA14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="OC14" s="32"/>
       <c r="OD14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="OE14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="OG14" s="32"/>
       <c r="OH14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="OI14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="OK14" s="32"/>
       <c r="OL14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="OM14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="OO14" s="32"/>
       <c r="OP14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="OQ14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="OS14" s="32"/>
       <c r="OT14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="OU14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="OW14" s="32"/>
       <c r="OX14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="OY14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="PA14" s="32"/>
       <c r="PB14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="PC14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="PE14" s="32"/>
       <c r="PF14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="PG14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="PI14" s="32"/>
       <c r="PJ14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="PK14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="PM14" s="32"/>
       <c r="PN14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="PO14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="PQ14" s="32"/>
       <c r="PR14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="PS14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="PU14" s="32"/>
       <c r="PV14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="PW14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="PY14" s="32"/>
       <c r="PZ14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="QA14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="QC14" s="32"/>
       <c r="QD14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="QE14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="QG14" s="32"/>
       <c r="QH14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="QI14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="QK14" s="32"/>
       <c r="QL14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="QM14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="QO14" s="32"/>
       <c r="QP14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="QQ14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="QS14" s="32"/>
       <c r="QT14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="QU14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="QW14" s="32"/>
       <c r="QX14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="QY14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="RA14" s="32"/>
       <c r="RB14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="RC14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="RE14" s="32"/>
       <c r="RF14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="RG14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="RI14" s="32"/>
       <c r="RJ14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="RK14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="RM14" s="32"/>
       <c r="RN14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="RO14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="RQ14" s="32"/>
       <c r="RR14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="RS14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="RU14" s="32"/>
       <c r="RV14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="RW14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="RY14" s="32"/>
       <c r="RZ14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="SA14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="SC14" s="32"/>
       <c r="SD14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="SE14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="SG14" s="32"/>
       <c r="SH14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="SI14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="SK14" s="32"/>
       <c r="SL14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="SM14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="SO14" s="32"/>
       <c r="SP14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="SQ14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="SS14" s="32"/>
       <c r="ST14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="SU14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="SW14" s="32"/>
       <c r="SX14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="SY14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="TA14" s="32"/>
       <c r="TB14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="TC14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="TE14" s="32"/>
       <c r="TF14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="TG14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="TI14" s="32"/>
       <c r="TJ14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="TK14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="TM14" s="32"/>
       <c r="TN14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="TO14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="TQ14" s="32"/>
       <c r="TR14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="TS14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="TU14" s="32"/>
       <c r="TV14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="TW14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="TY14" s="32"/>
       <c r="TZ14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="UA14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="UC14" s="32"/>
       <c r="UD14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="UE14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="UG14" s="32"/>
       <c r="UH14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="UI14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="UK14" s="32"/>
       <c r="UL14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="UM14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="UO14" s="32"/>
       <c r="UP14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="UQ14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="US14" s="32"/>
       <c r="UT14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="UU14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="UW14" s="32"/>
       <c r="UX14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="UY14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="VA14" s="32"/>
       <c r="VB14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="VC14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="VE14" s="32"/>
       <c r="VF14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="VG14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="VI14" s="32"/>
       <c r="VJ14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="VK14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="VM14" s="32"/>
       <c r="VN14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="VO14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="VQ14" s="32"/>
       <c r="VR14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="VS14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="VU14" s="32"/>
       <c r="VV14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="VW14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="VY14" s="32"/>
       <c r="VZ14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="WA14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="WC14" s="32"/>
       <c r="WD14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="WE14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="WG14" s="32"/>
       <c r="WH14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="WI14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="WK14" s="32"/>
       <c r="WL14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="WM14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="WO14" s="32"/>
       <c r="WP14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="WQ14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="WS14" s="32"/>
       <c r="WT14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="WU14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="WW14" s="32"/>
       <c r="WX14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="WY14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="XA14" s="32"/>
       <c r="XB14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="XC14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="XE14" s="32"/>
       <c r="XF14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="XG14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="XI14" s="32"/>
       <c r="XJ14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="XK14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="XM14" s="32"/>
       <c r="XN14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="XO14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="XQ14" s="32"/>
       <c r="XR14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="XS14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="XU14" s="32"/>
       <c r="XV14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="XW14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="XY14" s="32"/>
       <c r="XZ14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="YA14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="YC14" s="32"/>
       <c r="YD14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="YE14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="YG14" s="32"/>
       <c r="YH14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="YI14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="YK14" s="32"/>
       <c r="YL14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="YM14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="YO14" s="32"/>
       <c r="YP14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="YQ14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="YS14" s="32"/>
       <c r="YT14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="YU14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="YW14" s="32"/>
       <c r="YX14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="YY14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="ZA14" s="32"/>
       <c r="ZB14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="ZC14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="ZE14" s="32"/>
       <c r="ZF14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="ZG14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="ZI14" s="32"/>
       <c r="ZJ14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="ZK14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="ZM14" s="32"/>
       <c r="ZN14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="ZO14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="ZQ14" s="32"/>
       <c r="ZR14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="ZS14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="ZU14" s="32"/>
       <c r="ZV14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="ZW14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="ZY14" s="32"/>
       <c r="ZZ14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AAA14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AAC14" s="32"/>
       <c r="AAD14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AAE14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AAG14" s="32"/>
       <c r="AAH14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AAI14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AAK14" s="32"/>
       <c r="AAL14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AAM14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AAO14" s="32"/>
       <c r="AAP14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AAQ14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AAS14" s="32"/>
       <c r="AAT14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AAU14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AAW14" s="32"/>
       <c r="AAX14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AAY14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="ABA14" s="32"/>
       <c r="ABB14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="ABC14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="ABE14" s="32"/>
       <c r="ABF14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="ABG14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="ABI14" s="32"/>
       <c r="ABJ14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="ABK14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="ABM14" s="32"/>
       <c r="ABN14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="ABO14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="ABQ14" s="32"/>
       <c r="ABR14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="ABS14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="ABU14" s="32"/>
       <c r="ABV14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="ABW14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="ABY14" s="32"/>
       <c r="ABZ14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="ACA14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="ACC14" s="32"/>
       <c r="ACD14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="ACE14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="ACG14" s="32"/>
       <c r="ACH14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="ACI14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="ACK14" s="32"/>
       <c r="ACL14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="ACM14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="ACO14" s="32"/>
       <c r="ACP14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="ACQ14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="ACS14" s="32"/>
       <c r="ACT14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="ACU14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="ACW14" s="32"/>
       <c r="ACX14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="ACY14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="ADA14" s="32"/>
       <c r="ADB14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="ADC14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="ADE14" s="32"/>
       <c r="ADF14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="ADG14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="ADI14" s="32"/>
       <c r="ADJ14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="ADK14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="ADM14" s="32"/>
       <c r="ADN14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="ADO14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="ADQ14" s="32"/>
       <c r="ADR14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="ADS14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="ADU14" s="32"/>
       <c r="ADV14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="ADW14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="ADY14" s="32"/>
       <c r="ADZ14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AEA14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AEC14" s="32"/>
       <c r="AED14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AEE14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AEG14" s="32"/>
       <c r="AEH14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AEI14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AEK14" s="32"/>
       <c r="AEL14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AEM14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AEO14" s="32"/>
       <c r="AEP14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AEQ14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AES14" s="32"/>
       <c r="AET14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AEU14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AEW14" s="32"/>
       <c r="AEX14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AEY14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AFA14" s="32"/>
       <c r="AFB14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AFC14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AFE14" s="32"/>
       <c r="AFF14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AFG14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AFI14" s="32"/>
       <c r="AFJ14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AFK14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AFM14" s="32"/>
       <c r="AFN14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AFO14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AFQ14" s="32"/>
       <c r="AFR14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AFS14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AFU14" s="32"/>
       <c r="AFV14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AFW14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AFY14" s="32"/>
       <c r="AFZ14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AGA14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AGC14" s="32"/>
       <c r="AGD14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AGE14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AGG14" s="32"/>
       <c r="AGH14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AGI14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AGK14" s="32"/>
       <c r="AGL14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AGM14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AGO14" s="32"/>
       <c r="AGP14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AGQ14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AGS14" s="32"/>
       <c r="AGT14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AGU14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AGW14" s="32"/>
       <c r="AGX14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AGY14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AHA14" s="32"/>
       <c r="AHB14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AHC14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AHE14" s="32"/>
       <c r="AHF14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AHG14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AHI14" s="32"/>
       <c r="AHJ14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AHK14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AHM14" s="32"/>
       <c r="AHN14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AHO14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AHQ14" s="32"/>
       <c r="AHR14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AHS14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AHU14" s="32"/>
       <c r="AHV14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AHW14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AHY14" s="32"/>
       <c r="AHZ14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AIA14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AIC14" s="32"/>
       <c r="AID14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AIE14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AIG14" s="32"/>
       <c r="AIH14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AII14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AIK14" s="32"/>
       <c r="AIL14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AIM14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AIO14" s="32"/>
       <c r="AIP14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AIQ14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AIS14" s="32"/>
       <c r="AIT14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AIU14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AIW14" s="32"/>
       <c r="AIX14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AIY14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AJA14" s="32"/>
       <c r="AJB14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AJC14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AJE14" s="32"/>
       <c r="AJF14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AJG14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AJI14" s="32"/>
       <c r="AJJ14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AJK14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AJM14" s="32"/>
       <c r="AJN14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AJO14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AJQ14" s="32"/>
       <c r="AJR14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AJS14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AJU14" s="32"/>
       <c r="AJV14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AJW14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AJY14" s="32"/>
       <c r="AJZ14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AKA14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AKC14" s="32"/>
       <c r="AKD14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AKE14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AKG14" s="32"/>
       <c r="AKH14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AKI14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AKK14" s="32"/>
       <c r="AKL14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AKM14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AKO14" s="32"/>
       <c r="AKP14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AKQ14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AKS14" s="32"/>
       <c r="AKT14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AKU14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AKW14" s="32"/>
       <c r="AKX14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AKY14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="ALA14" s="32"/>
       <c r="ALB14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="ALC14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="ALE14" s="32"/>
       <c r="ALF14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="ALG14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="ALI14" s="32"/>
       <c r="ALJ14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="ALK14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="ALM14" s="32"/>
       <c r="ALN14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="ALO14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="ALQ14" s="32"/>
       <c r="ALR14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="ALS14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="ALU14" s="32"/>
       <c r="ALV14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="ALW14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="ALY14" s="32"/>
       <c r="ALZ14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AMA14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AMC14" s="32"/>
       <c r="AMD14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AME14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AMG14" s="32"/>
       <c r="AMH14" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AMI14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11311,10 +11388,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11339,16 +11416,16 @@
       <c r="D1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="50" t="s">
         <v>9</v>
       </c>
     </row>
@@ -11357,10 +11434,21 @@
         <v>44580</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="31" t="n">
+        <v>44580</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -11424,7 +11512,7 @@
     </row>
     <row r="2" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="34" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -11433,7 +11521,7 @@
     </row>
     <row r="3" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -11442,196 +11530,196 @@
     </row>
     <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="25" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="28" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="28" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="18" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="25" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="25" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="25" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="32" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="20" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="18" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="43" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="30" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" s="26" customFormat="true" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="51" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AMI28" s="0"/>
       <c r="AMJ28" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="20" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="25" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="20" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="52" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="42" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="20" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11639,20 +11727,20 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="20" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="25" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="20" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11660,7 +11748,7 @@
     </row>
     <row r="70" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="34" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -11736,53 +11824,53 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="53" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" s="32" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="28" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C3" s="54" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="28" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="55" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="56" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="53" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C18" s="0"/>
     </row>
@@ -11791,13 +11879,13 @@
         <v>44576</v>
       </c>
       <c r="B19" s="57" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C19" s="58" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E19" s="0"/>
       <c r="F19" s="0"/>
@@ -12841,8 +12929,8 @@
   </sheetPr>
   <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C56" activeCellId="0" sqref="C56"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12884,7 +12972,7 @@
     </row>
     <row r="2" s="59" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="11" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -12895,10 +12983,10 @@
     </row>
     <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="25" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>37</v>
@@ -12906,51 +12994,51 @@
     </row>
     <row r="4" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="18" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="18" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="25" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="28" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" s="23" customFormat="true" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="45" t="s">
-        <v>197</v>
+      <c r="B8" s="46" t="s">
+        <v>201</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D8" s="33" t="s">
         <v>37</v>
@@ -12958,148 +13046,151 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="34" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="34" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="60" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="61" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="56" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="42" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="31" t="n">
+        <v>44583</v>
+      </c>
       <c r="B34" s="42" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="E34" s="32" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="34" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="61" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="43" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="28" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="31" t="n">
         <v>44577</v>
       </c>
-      <c r="B46" s="50" t="s">
-        <v>221</v>
+      <c r="B46" s="44" t="s">
+        <v>225</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="50" t="s">
-        <v>223</v>
+      <c r="B47" s="44" t="s">
+        <v>227</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="25" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="25" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="25" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13109,29 +13200,29 @@
     </row>
     <row r="65" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="28" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="34" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="62" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13139,37 +13230,37 @@
         <v>35</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="77.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B92" s="42" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="30" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="18" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -13235,12 +13326,12 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="34" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="20" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13248,10 +13339,10 @@
         <v>44579</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D4" s="22" t="s">
         <v>37</v>
@@ -13259,32 +13350,32 @@
     </row>
     <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="25" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="42" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="25" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D7" s="22" t="s">
         <v>78</v>
@@ -13292,125 +13383,125 @@
     </row>
     <row r="8" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="42" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="61" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="28" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="28" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="25" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="76.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="43" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="25" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="20" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="25" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="20" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="25" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="18" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="28" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="28" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="20" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13439,127 +13530,127 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="20" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="63" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="20" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="28" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C71" s="26" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="34" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="20" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="28" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C80" s="26" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D80" s="22" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="28" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C81" s="26" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D81" s="22" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="61" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C82" s="26" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D82" s="22" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="20" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="25" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C88" s="26" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D88" s="22" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="42" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C89" s="26" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="64" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C90" s="26" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="20" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="28" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C97" s="26" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="65" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C98" s="26" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D98" s="22" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Greedy" sheetId="1" state="visible" r:id="rId2"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2788" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2791" uniqueCount="370">
   <si>
     <t xml:space="preserve">算法解释：</t>
   </si>
@@ -1538,6 +1538,9 @@
   </si>
   <si>
     <t xml:space="preserve">ordered combination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78. Subsets</t>
   </si>
   <si>
     <t xml:space="preserve">231. Power of Two</t>
@@ -1889,6 +1892,28 @@
     <t xml:space="preserve">1291. Sequential Digits</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Abyssinica SIL"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">TOPIC:math digit number STEP:
+1.WAY Brute force: check constraint, 10^9 is max, so can do start digit [1,10). and also need temp total num and nexter. 2.two nested loops, outer for starting digit, inner for checking total num if in [low,high]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9211E"/>
+        <rFont val="Abyssinica SIL"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> DFS?</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">AMAZON(FREQ MOST TO LEAST)</t>
   </si>
   <si>
@@ -1903,7 +1928,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2026,6 +2051,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="Abyssinica SIL"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC9211E"/>
       <name val="Abyssinica SIL"/>
       <family val="0"/>
       <charset val="1"/>
@@ -5294,10 +5326,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ2"/>
+  <dimension ref="A1:AMJ3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5341,6 +5373,11 @@
       </c>
       <c r="C2" s="1" t="s">
         <v>340</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="23" t="s">
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -5359,137 +5396,146 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="32" width="27.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="71.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="32" width="26.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="32" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="32" width="15.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="32" width="27.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="71.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="32" width="26.66"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="32" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="34" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AMJ1" s="59"/>
-    </row>
-    <row r="2" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="25" t="s">
-        <v>341</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="25" t="s">
         <v>342</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="1" t="s">
         <v>343</v>
       </c>
+      <c r="D2" s="32" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="25" t="s">
-        <v>344</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="25" t="s">
         <v>345</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="1" t="s">
         <v>346</v>
       </c>
+      <c r="D3" s="32" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="25" t="s">
-        <v>347</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="25" t="s">
         <v>348</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="61" t="s">
-        <v>349</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="61" t="s">
         <v>350</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="25" t="s">
-        <v>351</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="25" t="s">
         <v>352</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="1" t="s">
         <v>353</v>
       </c>
+      <c r="D6" s="32" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="121.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="43" t="s">
-        <v>354</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="43" t="s">
         <v>355</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="1" t="s">
         <v>356</v>
       </c>
+      <c r="D7" s="32" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="25" t="s">
-        <v>357</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="25" t="s">
         <v>358</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="61" t="s">
-        <v>359</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="61" t="s">
         <v>360</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="1" t="s">
         <v>361</v>
       </c>
+      <c r="D9" s="32" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="44" t="s">
-        <v>362</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="44" t="s">
         <v>363</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="42" t="s">
+      <c r="D10" s="1" t="s">
         <v>365</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="31" t="n">
+        <v>44583</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -5522,12 +5568,12 @@
   <sheetData>
     <row r="1" s="68" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="53" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="26" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -13282,7 +13328,7 @@
   <dimension ref="A1:J117"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C61" activeCellId="0" sqref="C61"/>
+      <selection pane="topLeft" activeCell="D39" activeCellId="0" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Greedy" sheetId="1" state="visible" r:id="rId2"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2821" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2826" uniqueCount="401">
   <si>
     <t xml:space="preserve">算法解释：</t>
   </si>
@@ -1399,6 +1399,15 @@
     <t xml:space="preserve">[RELATION ABOUT INDEX&amp;ELE][BINARY SEARCH]</t>
   </si>
   <si>
+    <t xml:space="preserve">Rotate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">189. Rotate Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPIC:rotate array, three times reverse ATT:k = k%len first avoid index out of range</t>
+  </si>
+  <si>
     <t xml:space="preserve">1827. Minimum Operations to Make the Array Increasing</t>
   </si>
   <si>
@@ -1427,9 +1436,6 @@
     <t xml:space="preserve">2D</t>
   </si>
   <si>
-    <t xml:space="preserve">Rotate</t>
-  </si>
-  <si>
     <t xml:space="preserve">48. Rotate Image</t>
   </si>
   <si>
@@ -1547,6 +1553,12 @@
   </si>
   <si>
     <t xml:space="preserve">[2D array]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2156. Find Substring With Given Hash Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Rolling hash function]</t>
   </si>
   <si>
     <t xml:space="preserve">131. Palindrome Partitioning</t>
@@ -2017,7 +2029,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2116,11 +2128,6 @@
       <name val="Abyssinica SIL"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Abyssinica SIL"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2460,15 +2467,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2484,7 +2487,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protectio